--- a/市場_2025改修/基本設計_2025/概要20250606修正.xlsx
+++ b/市場_2025改修/基本設計_2025/概要20250606修正.xlsx
@@ -1,38 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01_Work\Git\Git001\市場_2025改修\基本設計_2025\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01_Work\Git\si001\市場_2025改修\基本設計_2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91989DBB-9F62-44E8-98B5-7BFAFD022673}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57FB3D59-298B-4848-996D-64A741707BF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{78BC9F0C-B871-4580-9558-94BE9D1399D8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{78BC9F0C-B871-4580-9558-94BE9D1399D8}"/>
   </bookViews>
   <sheets>
     <sheet name="アプリ構成" sheetId="9" r:id="rId1"/>
     <sheet name="フロー" sheetId="11" r:id="rId2"/>
-    <sheet name="データ" sheetId="10" r:id="rId3"/>
-    <sheet name="メニュー" sheetId="2" r:id="rId4"/>
-    <sheet name="口座マスタ" sheetId="3" r:id="rId5"/>
-    <sheet name="納付書" sheetId="4" r:id="rId6"/>
-    <sheet name="調整入力" sheetId="5" r:id="rId7"/>
-    <sheet name="口座データ" sheetId="6" r:id="rId8"/>
-    <sheet name="入金消込" sheetId="7" r:id="rId9"/>
-    <sheet name="徴収簿" sheetId="13" r:id="rId10"/>
+    <sheet name="月間スケジュール" sheetId="14" r:id="rId3"/>
+    <sheet name="全銀" sheetId="15" r:id="rId4"/>
+    <sheet name="全銀データ" sheetId="17" r:id="rId5"/>
+    <sheet name="データ" sheetId="10" r:id="rId6"/>
+    <sheet name="メニュー" sheetId="2" r:id="rId7"/>
+    <sheet name="口座マスタ" sheetId="3" r:id="rId8"/>
+    <sheet name="納付書" sheetId="4" r:id="rId9"/>
+    <sheet name="調整入力" sheetId="5" r:id="rId10"/>
+    <sheet name="口座データ" sheetId="6" r:id="rId11"/>
+    <sheet name="入金消込" sheetId="7" r:id="rId12"/>
+    <sheet name="徴収簿" sheetId="13" r:id="rId13"/>
   </sheets>
   <definedNames>
     <definedName name="a">#REF!</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">アプリ構成!$A$1:$BL$64</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">メニュー!$A$1:$T$51</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="7">口座データ!$A$1:$P$43</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">口座マスタ!$A$1:$T$51</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="6">調整入力!$A$1:$T$104</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="8">入金消込!$A$1:$P$43</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="5">納付書!$A$1:$T$51</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="6">メニュー!$A$1:$T$51</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="10">口座データ!$A$1:$P$43</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="7">口座マスタ!$A$1:$T$51</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="9">調整入力!$A$1:$T$104</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="11">入金消込!$A$1:$P$43</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="8">納付書!$A$1:$T$51</definedName>
     <definedName name="範囲１" localSheetId="0">#REF!</definedName>
     <definedName name="範囲１">#REF!</definedName>
   </definedNames>
@@ -57,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="246">
   <si>
     <t>銀行名</t>
     <rPh sb="0" eb="2">
@@ -1184,6 +1187,805 @@
     <t>施設使用料・償還金等料金計算及び納付書作成システム
 口座振替データ作成機能構築業務</t>
     <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アメリスデータ取得、取り込み</t>
+    <rPh sb="7" eb="9">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>▲</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>データ更新</t>
+    <rPh sb="3" eb="5">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>納付書作成</t>
+    <rPh sb="0" eb="3">
+      <t>ノウフショ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>徴収簿作成</t>
+    <rPh sb="0" eb="3">
+      <t>チョウシュウボ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>口座データ作成</t>
+    <rPh sb="0" eb="2">
+      <t>コウザ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>調整入力</t>
+    <rPh sb="0" eb="2">
+      <t>チョウセイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>口座データ出力</t>
+    <rPh sb="0" eb="2">
+      <t>コウザ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シュツリョク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>振替案内出力</t>
+    <rPh sb="0" eb="2">
+      <t>フリカエ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>アンナイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シュツリョク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>口座振替データ取り込み</t>
+    <rPh sb="0" eb="2">
+      <t>コウザ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>フリカエ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>振替済み出力</t>
+    <rPh sb="0" eb="2">
+      <t>フリカエ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ズ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シュツリョク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>振替不能出力</t>
+    <rPh sb="0" eb="2">
+      <t>フリカエ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>フノウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シュツリョク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>入金消込</t>
+    <rPh sb="0" eb="4">
+      <t>ニュウキンケシコミ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>全銀データ</t>
+    <rPh sb="0" eb="1">
+      <t>ゼン</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ギン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>トレーラーレコード</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>エンドレコード</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>データレコード</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ヘッダーレコード</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>MMDD-XXXX.TXT</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>(0925-1110.TXT)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>(0925-1120.TXT)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>MMDD.ZIP</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>(0925-1220.TXT)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>※ファイル名確認</t>
+    <rPh sb="5" eb="6">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>データイメージ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ヘッダーレコード</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>属性</t>
+    <rPh sb="0" eb="2">
+      <t>ゾクセイ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>桁</t>
+    <rPh sb="0" eb="1">
+      <t>ケタ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>レコード区分</t>
+    <rPh sb="4" eb="6">
+      <t>クブン</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <r>
+      <t>「</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MS UI Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>」</t>
+    </r>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>種別コード</t>
+    <rPh sb="0" eb="2">
+      <t>シュベツ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <r>
+      <t>「</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>91</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MS UI Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>」</t>
+    </r>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>コード区分</t>
+    <rPh sb="3" eb="5">
+      <t>クブン</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>コード番号「0」</t>
+    <rPh sb="3" eb="5">
+      <t>バンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>委託者コード</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>全て「0」</t>
+    <rPh sb="0" eb="1">
+      <t>スベ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>委託者名</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>左詰残スペース</t>
+    <rPh sb="0" eb="1">
+      <t>ヒダリ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ツ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ザン</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>引落日</t>
+    <rPh sb="0" eb="1">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ヒ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>MMDD</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>⑩</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>引落銀行番号</t>
+    <rPh sb="0" eb="1">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ギンコウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>バンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>②</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>引落銀行名</t>
+    <rPh sb="0" eb="1">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ギンコウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>➂</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>引落支店番号</t>
+    <rPh sb="0" eb="1">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シテン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>バンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>④</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>引落支店名</t>
+    <rPh sb="0" eb="1">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シテン</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>⑤</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>預金種目</t>
+    <rPh sb="0" eb="2">
+      <t>ヨキン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シュモク</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>⑥</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>口座番号</t>
+    <rPh sb="0" eb="2">
+      <t>コウザ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>バンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>⑦</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>ダミー</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>空白</t>
+    <rPh sb="0" eb="2">
+      <t>クウハク</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>データレコード</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <r>
+      <t>「</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MS UI Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>」</t>
+    </r>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>銀行番号</t>
+    <rPh sb="0" eb="2">
+      <t>ギンコウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>バンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>銀行名</t>
+    <rPh sb="0" eb="2">
+      <t>ギンコウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>支店番号</t>
+    <rPh sb="0" eb="2">
+      <t>シテン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>バンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>支店名</t>
+    <rPh sb="0" eb="2">
+      <t>シテン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>「1」「2」「3」「9」</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>右詰残「0」</t>
+    <rPh sb="0" eb="1">
+      <t>ミギ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ツ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ザン</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>預金者名</t>
+    <rPh sb="0" eb="3">
+      <t>ヨキンシャ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>⑧</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>引き落とし金額</t>
+    <rPh sb="0" eb="1">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>キンガク</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>新規コード</t>
+    <rPh sb="0" eb="2">
+      <t>シンキ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <r>
+      <t>「0」</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>「1」</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>「2」</t>
+    </r>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>顧客コード</t>
+    <rPh sb="0" eb="2">
+      <t>コキャク</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>①テナントコード</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>結果コード</t>
+    <rPh sb="0" eb="2">
+      <t>ケッカ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>「0」</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>トレーラーレコード</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <r>
+      <t>「</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MS UI Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>」</t>
+    </r>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>合計件数</t>
+    <rPh sb="0" eb="2">
+      <t>ゴウケイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ケンスウ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>前0</t>
+    <rPh sb="0" eb="1">
+      <t>マエ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>合計金額</t>
+    <rPh sb="0" eb="2">
+      <t>ゴウケイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>キンガク</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>振替済件数</t>
+    <rPh sb="0" eb="2">
+      <t>フリカエ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ズ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ケンスウ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>振替済金額</t>
+    <rPh sb="0" eb="2">
+      <t>フリカエ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ズ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>キンガク</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>振替不能件数</t>
+    <rPh sb="0" eb="2">
+      <t>フリカエ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>フノウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ケンスウ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>振替不能金額</t>
+    <rPh sb="0" eb="2">
+      <t>フリカエ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>フノウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>キンガク</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>エンドレコード</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>「9」</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>左詰残スペース　半角カナ</t>
+    <rPh sb="0" eb="1">
+      <t>ヒダリ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ツ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ザン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ハンカク</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>左詰残スペース  半角カナ</t>
+    <rPh sb="0" eb="1">
+      <t>ヒダリ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ツ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ザン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ハンカク</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>左詰残スペース　テナントコード＋カナ</t>
+    <rPh sb="0" eb="1">
+      <t>ヒダリ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ツ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ザン</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>⑨　テナント合計</t>
+    <rPh sb="6" eb="8">
+      <t>ゴウケイ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
   </si>
 </sst>
 </file>
@@ -1195,7 +1997,7 @@
     <numFmt numFmtId="177" formatCode="@&quot;頁&quot;"/>
     <numFmt numFmtId="178" formatCode="@&quot;件&quot;"/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1361,6 +2163,26 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -1388,7 +2210,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="30">
+  <borders count="37">
     <border>
       <left/>
       <right/>
@@ -1711,6 +2533,105 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="dotted">
+        <color auto="1"/>
+      </left>
+      <right style="dotted">
+        <color auto="1"/>
+      </right>
+      <top style="dotted">
+        <color auto="1"/>
+      </top>
+      <bottom style="dotted">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="dotted">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="dotted">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="dotted">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="dotted">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1725,7 +2646,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="110">
+  <cellXfs count="124">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1918,6 +2839,38 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="3" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2011,13 +2964,22 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2029,6 +2991,15 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="14" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2036,24 +3007,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="14" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4966,6 +5919,104 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
+      <xdr:colOff>123826</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>561976</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>26128</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2497A57D-4B4C-4254-8F8F-8360CAAED76E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="123826" y="171450"/>
+          <a:ext cx="9353550" cy="5979253"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>306262</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>201009</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C66224A1-B421-4B17-85E5-158FEEBF293C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="114300" y="57150"/>
+          <a:ext cx="10478962" cy="7049484"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>57149</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
@@ -10670,6 +11721,868 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="右中かっこ 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DDF81397-5407-FF1A-02CF-410B3E3F5FAB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4667250" y="552450"/>
+          <a:ext cx="571500" cy="3448050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightBrace">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="テキスト ボックス 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{841E69C7-0693-4879-807F-CE8A37100360}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7600950" y="4991100"/>
+          <a:ext cx="3419475" cy="2038349"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>・振替処理を行った結果を表わす。（受信時）</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>0</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>：振替済</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>：資金不足</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>：取引なし</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>3</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>：預金者の都合による振替停止</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>4</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>：預金口座振替依頼書なし</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>8</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>：委託者の都合による振替停止</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>9</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>：その他	</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>57151</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="テキスト ボックス 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8BE3862D-7443-4A0F-BCA1-897C48718FD0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7600950" y="4038601"/>
+          <a:ext cx="2533650" cy="819150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>・新規振替、変更等を表わす。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>：第</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>回引落分</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>：変更分</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>引落銀行・支店、口座番号</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>0</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>：その他	</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="テキスト ボックス 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89570A6A-8689-43AB-8170-E4C75C3361CC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7572375" y="2657475"/>
+          <a:ext cx="2447925" cy="1304926"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>・預金者の預金種目を表わす。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>：普通預金</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>：当座預金</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>3</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>：納税準備預金</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>9</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>：その他	</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="テキスト ボックス 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27C4FABD-A4E2-4D1A-9A51-ACE137745D24}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7477125" y="266700"/>
+          <a:ext cx="3181350" cy="885825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>・使用コードを表わす。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>0</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>JIS</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>EBCDIC</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>その他のコードについては全銀協基準による。	</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -11054,7 +12967,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -11499,7 +13412,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -11751,7 +13664,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -12003,7 +13916,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -12085,104 +13998,6 @@
         <a:xfrm>
           <a:off x="180975" y="8820150"/>
           <a:ext cx="13203493" cy="8440328"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>123826</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>561976</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>26128</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="図 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2497A57D-4B4C-4254-8F8F-8360CAAED76E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="123826" y="171450"/>
-          <a:ext cx="9353550" cy="5979253"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>306262</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>201009</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="図 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C66224A1-B421-4B17-85E5-158FEEBF293C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="114300" y="57150"/>
-          <a:ext cx="10478962" cy="7049484"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12530,160 +14345,160 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:64" ht="30" customHeight="1">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="87" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="73"/>
-      <c r="H1" s="73"/>
-      <c r="I1" s="73"/>
-      <c r="J1" s="73"/>
-      <c r="K1" s="73"/>
-      <c r="L1" s="67" t="s">
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="67"/>
-      <c r="N1" s="67"/>
-      <c r="O1" s="67"/>
-      <c r="P1" s="67"/>
-      <c r="Q1" s="67"/>
-      <c r="R1" s="67"/>
-      <c r="S1" s="67"/>
-      <c r="T1" s="67"/>
-      <c r="U1" s="74" t="s">
+      <c r="M1" s="81"/>
+      <c r="N1" s="81"/>
+      <c r="O1" s="81"/>
+      <c r="P1" s="81"/>
+      <c r="Q1" s="81"/>
+      <c r="R1" s="81"/>
+      <c r="S1" s="81"/>
+      <c r="T1" s="81"/>
+      <c r="U1" s="88" t="s">
         <v>157</v>
       </c>
-      <c r="V1" s="75"/>
-      <c r="W1" s="75"/>
-      <c r="X1" s="75"/>
-      <c r="Y1" s="75"/>
-      <c r="Z1" s="75"/>
-      <c r="AA1" s="75"/>
-      <c r="AB1" s="75"/>
-      <c r="AC1" s="75"/>
-      <c r="AD1" s="75"/>
-      <c r="AE1" s="75"/>
-      <c r="AF1" s="75"/>
-      <c r="AG1" s="75"/>
-      <c r="AH1" s="75"/>
-      <c r="AI1" s="76"/>
-      <c r="AJ1" s="71" t="s">
+      <c r="V1" s="89"/>
+      <c r="W1" s="89"/>
+      <c r="X1" s="89"/>
+      <c r="Y1" s="89"/>
+      <c r="Z1" s="89"/>
+      <c r="AA1" s="89"/>
+      <c r="AB1" s="89"/>
+      <c r="AC1" s="89"/>
+      <c r="AD1" s="89"/>
+      <c r="AE1" s="89"/>
+      <c r="AF1" s="89"/>
+      <c r="AG1" s="89"/>
+      <c r="AH1" s="89"/>
+      <c r="AI1" s="90"/>
+      <c r="AJ1" s="85" t="s">
         <v>7</v>
       </c>
-      <c r="AK1" s="71"/>
-      <c r="AL1" s="71"/>
-      <c r="AM1" s="71"/>
-      <c r="AN1" s="71"/>
-      <c r="AO1" s="66" t="s">
+      <c r="AK1" s="85"/>
+      <c r="AL1" s="85"/>
+      <c r="AM1" s="85"/>
+      <c r="AN1" s="85"/>
+      <c r="AO1" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="AP1" s="66"/>
-      <c r="AQ1" s="66"/>
-      <c r="AR1" s="66"/>
-      <c r="AS1" s="66"/>
-      <c r="AT1" s="66"/>
-      <c r="AU1" s="66"/>
-      <c r="AV1" s="71" t="s">
+      <c r="AP1" s="80"/>
+      <c r="AQ1" s="80"/>
+      <c r="AR1" s="80"/>
+      <c r="AS1" s="80"/>
+      <c r="AT1" s="80"/>
+      <c r="AU1" s="80"/>
+      <c r="AV1" s="85" t="s">
         <v>9</v>
       </c>
-      <c r="AW1" s="71"/>
-      <c r="AX1" s="71"/>
-      <c r="AY1" s="71"/>
-      <c r="AZ1" s="71"/>
-      <c r="BA1" s="66"/>
-      <c r="BB1" s="66"/>
-      <c r="BC1" s="66"/>
-      <c r="BD1" s="66"/>
-      <c r="BE1" s="66"/>
-      <c r="BF1" s="66"/>
-      <c r="BG1" s="66"/>
-      <c r="BH1" s="66"/>
-      <c r="BI1" s="66"/>
-      <c r="BJ1" s="66"/>
-      <c r="BK1" s="66"/>
-      <c r="BL1" s="66"/>
+      <c r="AW1" s="85"/>
+      <c r="AX1" s="85"/>
+      <c r="AY1" s="85"/>
+      <c r="AZ1" s="85"/>
+      <c r="BA1" s="80"/>
+      <c r="BB1" s="80"/>
+      <c r="BC1" s="80"/>
+      <c r="BD1" s="80"/>
+      <c r="BE1" s="80"/>
+      <c r="BF1" s="80"/>
+      <c r="BG1" s="80"/>
+      <c r="BH1" s="80"/>
+      <c r="BI1" s="80"/>
+      <c r="BJ1" s="80"/>
+      <c r="BK1" s="80"/>
+      <c r="BL1" s="80"/>
     </row>
     <row r="2" spans="1:64" ht="18.75" customHeight="1">
-      <c r="A2" s="73"/>
-      <c r="B2" s="73"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="73"/>
-      <c r="G2" s="73"/>
-      <c r="H2" s="73"/>
-      <c r="I2" s="73"/>
-      <c r="J2" s="73"/>
-      <c r="K2" s="73"/>
-      <c r="L2" s="67" t="s">
+      <c r="A2" s="87"/>
+      <c r="B2" s="87"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
+      <c r="G2" s="87"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="87"/>
+      <c r="J2" s="87"/>
+      <c r="K2" s="87"/>
+      <c r="L2" s="81" t="s">
         <v>10</v>
       </c>
-      <c r="M2" s="67"/>
-      <c r="N2" s="67"/>
-      <c r="O2" s="67"/>
-      <c r="P2" s="67"/>
-      <c r="Q2" s="67"/>
-      <c r="R2" s="67"/>
-      <c r="S2" s="67"/>
-      <c r="T2" s="67"/>
-      <c r="U2" s="68" t="s">
+      <c r="M2" s="81"/>
+      <c r="N2" s="81"/>
+      <c r="O2" s="81"/>
+      <c r="P2" s="81"/>
+      <c r="Q2" s="81"/>
+      <c r="R2" s="81"/>
+      <c r="S2" s="81"/>
+      <c r="T2" s="81"/>
+      <c r="U2" s="82" t="s">
         <v>11</v>
       </c>
-      <c r="V2" s="69"/>
-      <c r="W2" s="69"/>
-      <c r="X2" s="69"/>
-      <c r="Y2" s="69"/>
-      <c r="Z2" s="69"/>
-      <c r="AA2" s="69"/>
-      <c r="AB2" s="69"/>
-      <c r="AC2" s="69"/>
-      <c r="AD2" s="69"/>
-      <c r="AE2" s="69"/>
-      <c r="AF2" s="69"/>
-      <c r="AG2" s="69"/>
-      <c r="AH2" s="69"/>
-      <c r="AI2" s="70"/>
-      <c r="AJ2" s="71" t="s">
+      <c r="V2" s="83"/>
+      <c r="W2" s="83"/>
+      <c r="X2" s="83"/>
+      <c r="Y2" s="83"/>
+      <c r="Z2" s="83"/>
+      <c r="AA2" s="83"/>
+      <c r="AB2" s="83"/>
+      <c r="AC2" s="83"/>
+      <c r="AD2" s="83"/>
+      <c r="AE2" s="83"/>
+      <c r="AF2" s="83"/>
+      <c r="AG2" s="83"/>
+      <c r="AH2" s="83"/>
+      <c r="AI2" s="84"/>
+      <c r="AJ2" s="85" t="s">
         <v>12</v>
       </c>
-      <c r="AK2" s="71"/>
-      <c r="AL2" s="71"/>
-      <c r="AM2" s="71"/>
-      <c r="AN2" s="71"/>
-      <c r="AO2" s="72">
+      <c r="AK2" s="85"/>
+      <c r="AL2" s="85"/>
+      <c r="AM2" s="85"/>
+      <c r="AN2" s="85"/>
+      <c r="AO2" s="86">
         <v>44752</v>
       </c>
-      <c r="AP2" s="66"/>
-      <c r="AQ2" s="66"/>
-      <c r="AR2" s="66"/>
-      <c r="AS2" s="66"/>
-      <c r="AT2" s="66"/>
-      <c r="AU2" s="66"/>
-      <c r="AV2" s="71" t="s">
+      <c r="AP2" s="80"/>
+      <c r="AQ2" s="80"/>
+      <c r="AR2" s="80"/>
+      <c r="AS2" s="80"/>
+      <c r="AT2" s="80"/>
+      <c r="AU2" s="80"/>
+      <c r="AV2" s="85" t="s">
         <v>13</v>
       </c>
-      <c r="AW2" s="71"/>
-      <c r="AX2" s="71"/>
-      <c r="AY2" s="71"/>
-      <c r="AZ2" s="71"/>
-      <c r="BA2" s="72" t="s">
+      <c r="AW2" s="85"/>
+      <c r="AX2" s="85"/>
+      <c r="AY2" s="85"/>
+      <c r="AZ2" s="85"/>
+      <c r="BA2" s="86" t="s">
         <v>151</v>
       </c>
-      <c r="BB2" s="66"/>
-      <c r="BC2" s="66"/>
-      <c r="BD2" s="66"/>
-      <c r="BE2" s="66"/>
-      <c r="BF2" s="66"/>
-      <c r="BG2" s="66"/>
-      <c r="BH2" s="66"/>
-      <c r="BI2" s="66"/>
-      <c r="BJ2" s="66"/>
-      <c r="BK2" s="66"/>
-      <c r="BL2" s="66"/>
+      <c r="BB2" s="80"/>
+      <c r="BC2" s="80"/>
+      <c r="BD2" s="80"/>
+      <c r="BE2" s="80"/>
+      <c r="BF2" s="80"/>
+      <c r="BG2" s="80"/>
+      <c r="BH2" s="80"/>
+      <c r="BI2" s="80"/>
+      <c r="BJ2" s="80"/>
+      <c r="BK2" s="80"/>
+      <c r="BL2" s="80"/>
     </row>
     <row r="3" spans="1:64" ht="15" customHeight="1">
       <c r="A3" s="4"/>
@@ -13220,11 +15035,11 @@
       <c r="D45" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="I45" s="64">
+      <c r="I45" s="78">
         <v>600</v>
       </c>
-      <c r="J45" s="64"/>
-      <c r="K45" s="64"/>
+      <c r="J45" s="78"/>
+      <c r="K45" s="78"/>
       <c r="L45" s="21" t="s">
         <v>60</v>
       </c>
@@ -13247,11 +15062,11 @@
       <c r="D46" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="I46" s="65">
+      <c r="I46" s="79">
         <v>1024</v>
       </c>
-      <c r="J46" s="65"/>
-      <c r="K46" s="65"/>
+      <c r="J46" s="79"/>
+      <c r="K46" s="79"/>
       <c r="L46" s="21" t="s">
         <v>64</v>
       </c>
@@ -13497,6 +15312,82 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B24B5982-8541-44DB-B3BD-1B096671C8F5}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="V61" sqref="V61"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData/>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="74" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <rowBreaks count="1" manualBreakCount="1">
+    <brk id="51" max="16383" man="1"/>
+  </rowBreaks>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA48FBA2-72B7-4C12-94E8-D245E2213145}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="R14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="T23" sqref="T23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="14" spans="18:18">
+      <c r="R14" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="92" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA7ED03A-26E0-4B65-8761-FC4FD6E2F58A}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L53" sqref="L53"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData/>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="92" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F5A455C-590E-47DF-B429-E54627F0B707}">
   <dimension ref="A39:I125"/>
   <sheetViews>
@@ -14879,7 +16770,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FD6CF4B-365B-4D50-AAAC-3AA79B2CDBBA}">
   <dimension ref="A1:BC96"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A53" workbookViewId="0">
       <selection activeCell="AJ46" sqref="AJ46:AQ46"/>
     </sheetView>
   </sheetViews>
@@ -14889,262 +16780,262 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:55" s="27" customFormat="1" ht="16.5">
-      <c r="A1" s="107" t="s">
+      <c r="A1" s="109" t="s">
         <v>104</v>
       </c>
-      <c r="B1" s="108"/>
-      <c r="C1" s="108"/>
-      <c r="D1" s="108"/>
-      <c r="E1" s="108"/>
-      <c r="F1" s="109"/>
-      <c r="G1" s="98" t="s">
+      <c r="B1" s="110"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="110"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="111"/>
+      <c r="G1" s="115" t="s">
         <v>105</v>
       </c>
-      <c r="H1" s="99"/>
-      <c r="I1" s="99"/>
-      <c r="J1" s="99"/>
-      <c r="K1" s="99"/>
-      <c r="L1" s="99"/>
-      <c r="M1" s="99"/>
-      <c r="N1" s="100"/>
-      <c r="O1" s="98" t="s">
+      <c r="H1" s="116"/>
+      <c r="I1" s="116"/>
+      <c r="J1" s="116"/>
+      <c r="K1" s="116"/>
+      <c r="L1" s="116"/>
+      <c r="M1" s="116"/>
+      <c r="N1" s="117"/>
+      <c r="O1" s="115" t="s">
         <v>106</v>
       </c>
-      <c r="P1" s="99"/>
-      <c r="Q1" s="99"/>
-      <c r="R1" s="99"/>
-      <c r="S1" s="99"/>
-      <c r="T1" s="99"/>
-      <c r="U1" s="99"/>
-      <c r="V1" s="99"/>
-      <c r="W1" s="99"/>
-      <c r="X1" s="99"/>
-      <c r="Y1" s="99"/>
-      <c r="Z1" s="99"/>
-      <c r="AA1" s="99"/>
-      <c r="AB1" s="99"/>
-      <c r="AC1" s="99"/>
-      <c r="AD1" s="99"/>
-      <c r="AE1" s="100"/>
-      <c r="AF1" s="98" t="s">
+      <c r="P1" s="116"/>
+      <c r="Q1" s="116"/>
+      <c r="R1" s="116"/>
+      <c r="S1" s="116"/>
+      <c r="T1" s="116"/>
+      <c r="U1" s="116"/>
+      <c r="V1" s="116"/>
+      <c r="W1" s="116"/>
+      <c r="X1" s="116"/>
+      <c r="Y1" s="116"/>
+      <c r="Z1" s="116"/>
+      <c r="AA1" s="116"/>
+      <c r="AB1" s="116"/>
+      <c r="AC1" s="116"/>
+      <c r="AD1" s="116"/>
+      <c r="AE1" s="117"/>
+      <c r="AF1" s="115" t="s">
         <v>107</v>
       </c>
-      <c r="AG1" s="99"/>
-      <c r="AH1" s="99"/>
-      <c r="AI1" s="100"/>
-      <c r="AJ1" s="95"/>
-      <c r="AK1" s="96"/>
-      <c r="AL1" s="96"/>
-      <c r="AM1" s="96"/>
-      <c r="AN1" s="96"/>
-      <c r="AO1" s="96"/>
-      <c r="AP1" s="96"/>
-      <c r="AQ1" s="97"/>
-      <c r="AR1" s="98" t="s">
+      <c r="AG1" s="116"/>
+      <c r="AH1" s="116"/>
+      <c r="AI1" s="117"/>
+      <c r="AJ1" s="118"/>
+      <c r="AK1" s="119"/>
+      <c r="AL1" s="119"/>
+      <c r="AM1" s="119"/>
+      <c r="AN1" s="119"/>
+      <c r="AO1" s="119"/>
+      <c r="AP1" s="119"/>
+      <c r="AQ1" s="120"/>
+      <c r="AR1" s="115" t="s">
         <v>108</v>
       </c>
-      <c r="AS1" s="99"/>
-      <c r="AT1" s="99"/>
-      <c r="AU1" s="100"/>
-      <c r="AV1" s="101"/>
-      <c r="AW1" s="102"/>
-      <c r="AX1" s="102"/>
-      <c r="AY1" s="102"/>
-      <c r="AZ1" s="102"/>
-      <c r="BA1" s="102"/>
-      <c r="BB1" s="102"/>
-      <c r="BC1" s="103"/>
+      <c r="AS1" s="116"/>
+      <c r="AT1" s="116"/>
+      <c r="AU1" s="117"/>
+      <c r="AV1" s="121"/>
+      <c r="AW1" s="122"/>
+      <c r="AX1" s="122"/>
+      <c r="AY1" s="122"/>
+      <c r="AZ1" s="122"/>
+      <c r="BA1" s="122"/>
+      <c r="BB1" s="122"/>
+      <c r="BC1" s="123"/>
     </row>
     <row r="2" spans="1:55" s="27" customFormat="1" ht="16.5">
-      <c r="A2" s="104"/>
-      <c r="B2" s="105"/>
-      <c r="C2" s="105"/>
-      <c r="D2" s="105"/>
-      <c r="E2" s="105"/>
-      <c r="F2" s="106"/>
-      <c r="G2" s="95" t="s">
+      <c r="A2" s="112"/>
+      <c r="B2" s="113"/>
+      <c r="C2" s="113"/>
+      <c r="D2" s="113"/>
+      <c r="E2" s="113"/>
+      <c r="F2" s="114"/>
+      <c r="G2" s="118" t="s">
         <v>124</v>
       </c>
-      <c r="H2" s="96"/>
-      <c r="I2" s="96"/>
-      <c r="J2" s="96"/>
-      <c r="K2" s="96"/>
-      <c r="L2" s="96"/>
-      <c r="M2" s="96"/>
-      <c r="N2" s="97"/>
-      <c r="O2" s="95"/>
-      <c r="P2" s="96"/>
-      <c r="Q2" s="96"/>
-      <c r="R2" s="96"/>
-      <c r="S2" s="96"/>
-      <c r="T2" s="96"/>
-      <c r="U2" s="96"/>
-      <c r="V2" s="96"/>
-      <c r="W2" s="96"/>
-      <c r="X2" s="96"/>
-      <c r="Y2" s="96"/>
-      <c r="Z2" s="96"/>
-      <c r="AA2" s="96"/>
-      <c r="AB2" s="96"/>
-      <c r="AC2" s="96"/>
-      <c r="AD2" s="96"/>
-      <c r="AE2" s="97"/>
-      <c r="AF2" s="104" t="s">
+      <c r="H2" s="119"/>
+      <c r="I2" s="119"/>
+      <c r="J2" s="119"/>
+      <c r="K2" s="119"/>
+      <c r="L2" s="119"/>
+      <c r="M2" s="119"/>
+      <c r="N2" s="120"/>
+      <c r="O2" s="118"/>
+      <c r="P2" s="119"/>
+      <c r="Q2" s="119"/>
+      <c r="R2" s="119"/>
+      <c r="S2" s="119"/>
+      <c r="T2" s="119"/>
+      <c r="U2" s="119"/>
+      <c r="V2" s="119"/>
+      <c r="W2" s="119"/>
+      <c r="X2" s="119"/>
+      <c r="Y2" s="119"/>
+      <c r="Z2" s="119"/>
+      <c r="AA2" s="119"/>
+      <c r="AB2" s="119"/>
+      <c r="AC2" s="119"/>
+      <c r="AD2" s="119"/>
+      <c r="AE2" s="120"/>
+      <c r="AF2" s="112" t="s">
         <v>109</v>
       </c>
-      <c r="AG2" s="105"/>
-      <c r="AH2" s="105"/>
-      <c r="AI2" s="106"/>
-      <c r="AJ2" s="95"/>
-      <c r="AK2" s="96"/>
-      <c r="AL2" s="96"/>
-      <c r="AM2" s="96"/>
-      <c r="AN2" s="96"/>
-      <c r="AO2" s="96"/>
-      <c r="AP2" s="96"/>
-      <c r="AQ2" s="97"/>
-      <c r="AR2" s="104" t="s">
+      <c r="AG2" s="113"/>
+      <c r="AH2" s="113"/>
+      <c r="AI2" s="114"/>
+      <c r="AJ2" s="118"/>
+      <c r="AK2" s="119"/>
+      <c r="AL2" s="119"/>
+      <c r="AM2" s="119"/>
+      <c r="AN2" s="119"/>
+      <c r="AO2" s="119"/>
+      <c r="AP2" s="119"/>
+      <c r="AQ2" s="120"/>
+      <c r="AR2" s="112" t="s">
         <v>110</v>
       </c>
-      <c r="AS2" s="105"/>
-      <c r="AT2" s="105"/>
-      <c r="AU2" s="106"/>
-      <c r="AV2" s="101"/>
-      <c r="AW2" s="102"/>
-      <c r="AX2" s="102"/>
-      <c r="AY2" s="102"/>
-      <c r="AZ2" s="102"/>
-      <c r="BA2" s="102"/>
-      <c r="BB2" s="102"/>
-      <c r="BC2" s="103"/>
+      <c r="AS2" s="113"/>
+      <c r="AT2" s="113"/>
+      <c r="AU2" s="114"/>
+      <c r="AV2" s="121"/>
+      <c r="AW2" s="122"/>
+      <c r="AX2" s="122"/>
+      <c r="AY2" s="122"/>
+      <c r="AZ2" s="122"/>
+      <c r="BA2" s="122"/>
+      <c r="BB2" s="122"/>
+      <c r="BC2" s="123"/>
     </row>
     <row r="3" spans="1:55" s="27" customFormat="1" ht="16.5">
       <c r="BC3" s="28"/>
     </row>
     <row r="4" spans="1:55" ht="13.5">
-      <c r="A4" s="86" t="s">
+      <c r="A4" s="100" t="s">
         <v>111</v>
       </c>
-      <c r="B4" s="87"/>
-      <c r="C4" s="90"/>
-      <c r="D4" s="86" t="s">
+      <c r="B4" s="101"/>
+      <c r="C4" s="104"/>
+      <c r="D4" s="100" t="s">
         <v>113</v>
       </c>
-      <c r="E4" s="87"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="87"/>
-      <c r="H4" s="87"/>
-      <c r="I4" s="87"/>
-      <c r="J4" s="87"/>
-      <c r="K4" s="87"/>
-      <c r="L4" s="87"/>
-      <c r="M4" s="87"/>
-      <c r="N4" s="87"/>
-      <c r="O4" s="87"/>
-      <c r="P4" s="87"/>
-      <c r="Q4" s="86" t="s">
+      <c r="E4" s="101"/>
+      <c r="F4" s="101"/>
+      <c r="G4" s="101"/>
+      <c r="H4" s="101"/>
+      <c r="I4" s="101"/>
+      <c r="J4" s="101"/>
+      <c r="K4" s="101"/>
+      <c r="L4" s="101"/>
+      <c r="M4" s="101"/>
+      <c r="N4" s="101"/>
+      <c r="O4" s="101"/>
+      <c r="P4" s="101"/>
+      <c r="Q4" s="100" t="s">
         <v>112</v>
       </c>
-      <c r="R4" s="87"/>
-      <c r="S4" s="87"/>
-      <c r="T4" s="87"/>
-      <c r="U4" s="87"/>
-      <c r="V4" s="87"/>
-      <c r="W4" s="87"/>
-      <c r="X4" s="87"/>
-      <c r="Y4" s="87"/>
-      <c r="Z4" s="87"/>
-      <c r="AA4" s="87"/>
-      <c r="AB4" s="87"/>
-      <c r="AC4" s="87"/>
-      <c r="AD4" s="86"/>
-      <c r="AE4" s="87"/>
-      <c r="AF4" s="87"/>
-      <c r="AG4" s="87"/>
-      <c r="AH4" s="87"/>
-      <c r="AI4" s="87"/>
-      <c r="AJ4" s="87"/>
-      <c r="AK4" s="87"/>
-      <c r="AL4" s="87"/>
-      <c r="AM4" s="87"/>
-      <c r="AN4" s="87"/>
-      <c r="AO4" s="87"/>
-      <c r="AP4" s="90"/>
-      <c r="AQ4" s="87"/>
-      <c r="AR4" s="87"/>
-      <c r="AS4" s="87"/>
-      <c r="AT4" s="87"/>
-      <c r="AU4" s="87"/>
-      <c r="AV4" s="87"/>
-      <c r="AW4" s="87"/>
-      <c r="AX4" s="87"/>
-      <c r="AY4" s="87"/>
-      <c r="AZ4" s="87"/>
-      <c r="BA4" s="87"/>
-      <c r="BB4" s="87"/>
-      <c r="BC4" s="90"/>
+      <c r="R4" s="101"/>
+      <c r="S4" s="101"/>
+      <c r="T4" s="101"/>
+      <c r="U4" s="101"/>
+      <c r="V4" s="101"/>
+      <c r="W4" s="101"/>
+      <c r="X4" s="101"/>
+      <c r="Y4" s="101"/>
+      <c r="Z4" s="101"/>
+      <c r="AA4" s="101"/>
+      <c r="AB4" s="101"/>
+      <c r="AC4" s="101"/>
+      <c r="AD4" s="100"/>
+      <c r="AE4" s="101"/>
+      <c r="AF4" s="101"/>
+      <c r="AG4" s="101"/>
+      <c r="AH4" s="101"/>
+      <c r="AI4" s="101"/>
+      <c r="AJ4" s="101"/>
+      <c r="AK4" s="101"/>
+      <c r="AL4" s="101"/>
+      <c r="AM4" s="101"/>
+      <c r="AN4" s="101"/>
+      <c r="AO4" s="101"/>
+      <c r="AP4" s="104"/>
+      <c r="AQ4" s="101"/>
+      <c r="AR4" s="101"/>
+      <c r="AS4" s="101"/>
+      <c r="AT4" s="101"/>
+      <c r="AU4" s="101"/>
+      <c r="AV4" s="101"/>
+      <c r="AW4" s="101"/>
+      <c r="AX4" s="101"/>
+      <c r="AY4" s="101"/>
+      <c r="AZ4" s="101"/>
+      <c r="BA4" s="101"/>
+      <c r="BB4" s="101"/>
+      <c r="BC4" s="104"/>
     </row>
     <row r="5" spans="1:55" ht="13.5">
-      <c r="A5" s="88"/>
-      <c r="B5" s="89"/>
-      <c r="C5" s="91"/>
-      <c r="D5" s="88"/>
-      <c r="E5" s="89"/>
-      <c r="F5" s="89"/>
-      <c r="G5" s="89"/>
-      <c r="H5" s="89"/>
-      <c r="I5" s="89"/>
-      <c r="J5" s="89"/>
-      <c r="K5" s="89"/>
-      <c r="L5" s="89"/>
-      <c r="M5" s="89"/>
-      <c r="N5" s="89"/>
-      <c r="O5" s="89"/>
-      <c r="P5" s="89"/>
-      <c r="Q5" s="88"/>
-      <c r="R5" s="89"/>
-      <c r="S5" s="89"/>
-      <c r="T5" s="89"/>
-      <c r="U5" s="89"/>
-      <c r="V5" s="89"/>
-      <c r="W5" s="89"/>
-      <c r="X5" s="89"/>
-      <c r="Y5" s="89"/>
-      <c r="Z5" s="89"/>
-      <c r="AA5" s="89"/>
-      <c r="AB5" s="89"/>
-      <c r="AC5" s="89"/>
-      <c r="AD5" s="88"/>
-      <c r="AE5" s="89"/>
-      <c r="AF5" s="89"/>
-      <c r="AG5" s="89"/>
-      <c r="AH5" s="89"/>
-      <c r="AI5" s="89"/>
-      <c r="AJ5" s="89"/>
-      <c r="AK5" s="89"/>
-      <c r="AL5" s="89"/>
-      <c r="AM5" s="89"/>
-      <c r="AN5" s="89"/>
-      <c r="AO5" s="89"/>
-      <c r="AP5" s="91"/>
-      <c r="AQ5" s="89"/>
-      <c r="AR5" s="89"/>
-      <c r="AS5" s="89"/>
-      <c r="AT5" s="89"/>
-      <c r="AU5" s="89"/>
-      <c r="AV5" s="89"/>
-      <c r="AW5" s="89"/>
-      <c r="AX5" s="89"/>
-      <c r="AY5" s="89"/>
-      <c r="AZ5" s="89"/>
-      <c r="BA5" s="89"/>
-      <c r="BB5" s="89"/>
-      <c r="BC5" s="91"/>
+      <c r="A5" s="102"/>
+      <c r="B5" s="103"/>
+      <c r="C5" s="105"/>
+      <c r="D5" s="102"/>
+      <c r="E5" s="103"/>
+      <c r="F5" s="103"/>
+      <c r="G5" s="103"/>
+      <c r="H5" s="103"/>
+      <c r="I5" s="103"/>
+      <c r="J5" s="103"/>
+      <c r="K5" s="103"/>
+      <c r="L5" s="103"/>
+      <c r="M5" s="103"/>
+      <c r="N5" s="103"/>
+      <c r="O5" s="103"/>
+      <c r="P5" s="103"/>
+      <c r="Q5" s="102"/>
+      <c r="R5" s="103"/>
+      <c r="S5" s="103"/>
+      <c r="T5" s="103"/>
+      <c r="U5" s="103"/>
+      <c r="V5" s="103"/>
+      <c r="W5" s="103"/>
+      <c r="X5" s="103"/>
+      <c r="Y5" s="103"/>
+      <c r="Z5" s="103"/>
+      <c r="AA5" s="103"/>
+      <c r="AB5" s="103"/>
+      <c r="AC5" s="103"/>
+      <c r="AD5" s="102"/>
+      <c r="AE5" s="103"/>
+      <c r="AF5" s="103"/>
+      <c r="AG5" s="103"/>
+      <c r="AH5" s="103"/>
+      <c r="AI5" s="103"/>
+      <c r="AJ5" s="103"/>
+      <c r="AK5" s="103"/>
+      <c r="AL5" s="103"/>
+      <c r="AM5" s="103"/>
+      <c r="AN5" s="103"/>
+      <c r="AO5" s="103"/>
+      <c r="AP5" s="105"/>
+      <c r="AQ5" s="103"/>
+      <c r="AR5" s="103"/>
+      <c r="AS5" s="103"/>
+      <c r="AT5" s="103"/>
+      <c r="AU5" s="103"/>
+      <c r="AV5" s="103"/>
+      <c r="AW5" s="103"/>
+      <c r="AX5" s="103"/>
+      <c r="AY5" s="103"/>
+      <c r="AZ5" s="103"/>
+      <c r="BA5" s="103"/>
+      <c r="BB5" s="103"/>
+      <c r="BC5" s="105"/>
     </row>
     <row r="6" spans="1:55" ht="13.5">
-      <c r="A6" s="92"/>
-      <c r="B6" s="93"/>
-      <c r="C6" s="94"/>
+      <c r="A6" s="106"/>
+      <c r="B6" s="107"/>
+      <c r="C6" s="108"/>
       <c r="D6" s="29"/>
       <c r="E6" s="30"/>
       <c r="F6" s="30"/>
@@ -15199,9 +17090,9 @@
       <c r="BC6" s="31"/>
     </row>
     <row r="7" spans="1:55" ht="13.5">
-      <c r="A7" s="77"/>
-      <c r="B7" s="78"/>
-      <c r="C7" s="79"/>
+      <c r="A7" s="91"/>
+      <c r="B7" s="92"/>
+      <c r="C7" s="93"/>
       <c r="D7" s="32"/>
       <c r="Q7" s="32"/>
       <c r="AD7" s="32"/>
@@ -15209,9 +17100,9 @@
       <c r="BC7" s="33"/>
     </row>
     <row r="8" spans="1:55" ht="13.5">
-      <c r="A8" s="77"/>
-      <c r="B8" s="78"/>
-      <c r="C8" s="79"/>
+      <c r="A8" s="91"/>
+      <c r="B8" s="92"/>
+      <c r="C8" s="93"/>
       <c r="D8" s="32"/>
       <c r="Q8" s="32"/>
       <c r="AD8" s="32"/>
@@ -15219,9 +17110,9 @@
       <c r="BC8" s="33"/>
     </row>
     <row r="9" spans="1:55" ht="13.5">
-      <c r="A9" s="77"/>
-      <c r="B9" s="78"/>
-      <c r="C9" s="79"/>
+      <c r="A9" s="91"/>
+      <c r="B9" s="92"/>
+      <c r="C9" s="93"/>
       <c r="D9" s="32"/>
       <c r="Q9" s="32"/>
       <c r="AD9" s="32"/>
@@ -15229,9 +17120,9 @@
       <c r="BC9" s="33"/>
     </row>
     <row r="10" spans="1:55" ht="13.5">
-      <c r="A10" s="77"/>
-      <c r="B10" s="78"/>
-      <c r="C10" s="79"/>
+      <c r="A10" s="91"/>
+      <c r="B10" s="92"/>
+      <c r="C10" s="93"/>
       <c r="D10" s="32"/>
       <c r="Q10" s="32"/>
       <c r="AD10" s="32"/>
@@ -15239,9 +17130,9 @@
       <c r="BC10" s="33"/>
     </row>
     <row r="11" spans="1:55" ht="13.5">
-      <c r="A11" s="77"/>
-      <c r="B11" s="78"/>
-      <c r="C11" s="79"/>
+      <c r="A11" s="91"/>
+      <c r="B11" s="92"/>
+      <c r="C11" s="93"/>
       <c r="D11" s="32"/>
       <c r="Q11" s="32"/>
       <c r="AD11" s="32"/>
@@ -15249,9 +17140,9 @@
       <c r="BC11" s="33"/>
     </row>
     <row r="12" spans="1:55" ht="13.5">
-      <c r="A12" s="77"/>
-      <c r="B12" s="78"/>
-      <c r="C12" s="79"/>
+      <c r="A12" s="91"/>
+      <c r="B12" s="92"/>
+      <c r="C12" s="93"/>
       <c r="D12" s="32"/>
       <c r="Q12" s="32"/>
       <c r="AD12" s="32"/>
@@ -15259,9 +17150,9 @@
       <c r="BC12" s="33"/>
     </row>
     <row r="13" spans="1:55" ht="13.5">
-      <c r="A13" s="77"/>
-      <c r="B13" s="78"/>
-      <c r="C13" s="79"/>
+      <c r="A13" s="91"/>
+      <c r="B13" s="92"/>
+      <c r="C13" s="93"/>
       <c r="D13" s="32"/>
       <c r="Q13" s="32"/>
       <c r="AD13" s="32"/>
@@ -15269,9 +17160,9 @@
       <c r="BC13" s="33"/>
     </row>
     <row r="14" spans="1:55" ht="13.5">
-      <c r="A14" s="77"/>
-      <c r="B14" s="78"/>
-      <c r="C14" s="79"/>
+      <c r="A14" s="91"/>
+      <c r="B14" s="92"/>
+      <c r="C14" s="93"/>
       <c r="D14" s="32"/>
       <c r="Q14" s="32"/>
       <c r="AD14" s="32"/>
@@ -15279,9 +17170,9 @@
       <c r="BC14" s="33"/>
     </row>
     <row r="15" spans="1:55" ht="13.5">
-      <c r="A15" s="77"/>
-      <c r="B15" s="78"/>
-      <c r="C15" s="79"/>
+      <c r="A15" s="91"/>
+      <c r="B15" s="92"/>
+      <c r="C15" s="93"/>
       <c r="D15" s="32"/>
       <c r="Q15" s="32"/>
       <c r="AD15" s="32"/>
@@ -15289,9 +17180,9 @@
       <c r="BC15" s="33"/>
     </row>
     <row r="16" spans="1:55" ht="13.5">
-      <c r="A16" s="77"/>
-      <c r="B16" s="78"/>
-      <c r="C16" s="79"/>
+      <c r="A16" s="91"/>
+      <c r="B16" s="92"/>
+      <c r="C16" s="93"/>
       <c r="D16" s="32"/>
       <c r="Q16" s="32"/>
       <c r="AD16" s="32"/>
@@ -15299,9 +17190,9 @@
       <c r="BC16" s="33"/>
     </row>
     <row r="17" spans="1:55" ht="13.5">
-      <c r="A17" s="77"/>
-      <c r="B17" s="78"/>
-      <c r="C17" s="79"/>
+      <c r="A17" s="91"/>
+      <c r="B17" s="92"/>
+      <c r="C17" s="93"/>
       <c r="D17" s="32"/>
       <c r="Q17" s="32"/>
       <c r="AD17" s="32"/>
@@ -15309,9 +17200,9 @@
       <c r="BC17" s="33"/>
     </row>
     <row r="18" spans="1:55" ht="13.5">
-      <c r="A18" s="77"/>
-      <c r="B18" s="78"/>
-      <c r="C18" s="79"/>
+      <c r="A18" s="91"/>
+      <c r="B18" s="92"/>
+      <c r="C18" s="93"/>
       <c r="D18" s="32"/>
       <c r="Q18" s="32"/>
       <c r="AD18" s="32"/>
@@ -15319,9 +17210,9 @@
       <c r="BC18" s="33"/>
     </row>
     <row r="19" spans="1:55" ht="13.5">
-      <c r="A19" s="77"/>
-      <c r="B19" s="78"/>
-      <c r="C19" s="79"/>
+      <c r="A19" s="91"/>
+      <c r="B19" s="92"/>
+      <c r="C19" s="93"/>
       <c r="D19" s="32"/>
       <c r="Q19" s="32"/>
       <c r="AD19" s="32"/>
@@ -15329,9 +17220,9 @@
       <c r="BC19" s="33"/>
     </row>
     <row r="20" spans="1:55" ht="13.5">
-      <c r="A20" s="77"/>
-      <c r="B20" s="78"/>
-      <c r="C20" s="79"/>
+      <c r="A20" s="91"/>
+      <c r="B20" s="92"/>
+      <c r="C20" s="93"/>
       <c r="D20" s="32"/>
       <c r="Q20" s="32"/>
       <c r="AD20" s="32"/>
@@ -15339,9 +17230,9 @@
       <c r="BC20" s="33"/>
     </row>
     <row r="21" spans="1:55" ht="13.5">
-      <c r="A21" s="77"/>
-      <c r="B21" s="78"/>
-      <c r="C21" s="79"/>
+      <c r="A21" s="91"/>
+      <c r="B21" s="92"/>
+      <c r="C21" s="93"/>
       <c r="D21" s="32"/>
       <c r="Q21" s="32"/>
       <c r="AD21" s="32"/>
@@ -15349,9 +17240,9 @@
       <c r="BC21" s="33"/>
     </row>
     <row r="22" spans="1:55" ht="13.5">
-      <c r="A22" s="77"/>
-      <c r="B22" s="78"/>
-      <c r="C22" s="79"/>
+      <c r="A22" s="91"/>
+      <c r="B22" s="92"/>
+      <c r="C22" s="93"/>
       <c r="D22" s="32"/>
       <c r="Q22" s="32"/>
       <c r="AD22" s="32"/>
@@ -15359,9 +17250,9 @@
       <c r="BC22" s="33"/>
     </row>
     <row r="23" spans="1:55" ht="13.5">
-      <c r="A23" s="77"/>
-      <c r="B23" s="78"/>
-      <c r="C23" s="79"/>
+      <c r="A23" s="91"/>
+      <c r="B23" s="92"/>
+      <c r="C23" s="93"/>
       <c r="D23" s="32"/>
       <c r="Q23" s="32"/>
       <c r="AD23" s="32"/>
@@ -15369,9 +17260,9 @@
       <c r="BC23" s="33"/>
     </row>
     <row r="24" spans="1:55" ht="13.5">
-      <c r="A24" s="77"/>
-      <c r="B24" s="78"/>
-      <c r="C24" s="79"/>
+      <c r="A24" s="91"/>
+      <c r="B24" s="92"/>
+      <c r="C24" s="93"/>
       <c r="D24" s="32"/>
       <c r="Q24" s="32"/>
       <c r="AD24" s="32"/>
@@ -15379,9 +17270,9 @@
       <c r="BC24" s="33"/>
     </row>
     <row r="25" spans="1:55" ht="13.5">
-      <c r="A25" s="77"/>
-      <c r="B25" s="78"/>
-      <c r="C25" s="79"/>
+      <c r="A25" s="91"/>
+      <c r="B25" s="92"/>
+      <c r="C25" s="93"/>
       <c r="D25" s="32"/>
       <c r="Q25" s="32"/>
       <c r="AD25" s="32"/>
@@ -15389,9 +17280,9 @@
       <c r="BC25" s="33"/>
     </row>
     <row r="26" spans="1:55" ht="13.5">
-      <c r="A26" s="77"/>
-      <c r="B26" s="78"/>
-      <c r="C26" s="79"/>
+      <c r="A26" s="91"/>
+      <c r="B26" s="92"/>
+      <c r="C26" s="93"/>
       <c r="D26" s="32"/>
       <c r="Q26" s="32"/>
       <c r="AD26" s="32"/>
@@ -15399,9 +17290,9 @@
       <c r="BC26" s="33"/>
     </row>
     <row r="27" spans="1:55" ht="13.5">
-      <c r="A27" s="77"/>
-      <c r="B27" s="78"/>
-      <c r="C27" s="79"/>
+      <c r="A27" s="91"/>
+      <c r="B27" s="92"/>
+      <c r="C27" s="93"/>
       <c r="D27" s="32"/>
       <c r="Q27" s="32"/>
       <c r="AD27" s="32"/>
@@ -15409,9 +17300,9 @@
       <c r="BC27" s="33"/>
     </row>
     <row r="28" spans="1:55" ht="13.5">
-      <c r="A28" s="77"/>
-      <c r="B28" s="78"/>
-      <c r="C28" s="79"/>
+      <c r="A28" s="91"/>
+      <c r="B28" s="92"/>
+      <c r="C28" s="93"/>
       <c r="D28" s="32"/>
       <c r="Q28" s="32"/>
       <c r="AD28" s="32"/>
@@ -15419,9 +17310,9 @@
       <c r="BC28" s="33"/>
     </row>
     <row r="29" spans="1:55" ht="13.5">
-      <c r="A29" s="80"/>
-      <c r="B29" s="81"/>
-      <c r="C29" s="82"/>
+      <c r="A29" s="94"/>
+      <c r="B29" s="95"/>
+      <c r="C29" s="96"/>
       <c r="D29" s="32"/>
       <c r="Q29" s="32"/>
       <c r="AD29" s="32"/>
@@ -15429,9 +17320,9 @@
       <c r="BC29" s="33"/>
     </row>
     <row r="30" spans="1:55" ht="13.5">
-      <c r="A30" s="80"/>
-      <c r="B30" s="81"/>
-      <c r="C30" s="82"/>
+      <c r="A30" s="94"/>
+      <c r="B30" s="95"/>
+      <c r="C30" s="96"/>
       <c r="D30" s="32"/>
       <c r="Q30" s="32"/>
       <c r="AD30" s="32"/>
@@ -15439,9 +17330,9 @@
       <c r="BC30" s="33"/>
     </row>
     <row r="31" spans="1:55" ht="13.5">
-      <c r="A31" s="80"/>
-      <c r="B31" s="81"/>
-      <c r="C31" s="82"/>
+      <c r="A31" s="94"/>
+      <c r="B31" s="95"/>
+      <c r="C31" s="96"/>
       <c r="D31" s="32"/>
       <c r="Q31" s="32"/>
       <c r="AD31" s="32"/>
@@ -15449,9 +17340,9 @@
       <c r="BC31" s="33"/>
     </row>
     <row r="32" spans="1:55" ht="13.5">
-      <c r="A32" s="80"/>
-      <c r="B32" s="81"/>
-      <c r="C32" s="82"/>
+      <c r="A32" s="94"/>
+      <c r="B32" s="95"/>
+      <c r="C32" s="96"/>
       <c r="D32" s="32"/>
       <c r="Q32" s="32"/>
       <c r="AD32" s="32"/>
@@ -15459,9 +17350,9 @@
       <c r="BC32" s="33"/>
     </row>
     <row r="33" spans="1:55" ht="13.5">
-      <c r="A33" s="80"/>
-      <c r="B33" s="81"/>
-      <c r="C33" s="82"/>
+      <c r="A33" s="94"/>
+      <c r="B33" s="95"/>
+      <c r="C33" s="96"/>
       <c r="D33" s="32"/>
       <c r="Q33" s="32"/>
       <c r="AD33" s="32"/>
@@ -15469,9 +17360,9 @@
       <c r="BC33" s="33"/>
     </row>
     <row r="34" spans="1:55" ht="13.5">
-      <c r="A34" s="80"/>
-      <c r="B34" s="81"/>
-      <c r="C34" s="82"/>
+      <c r="A34" s="94"/>
+      <c r="B34" s="95"/>
+      <c r="C34" s="96"/>
       <c r="D34" s="32"/>
       <c r="Q34" s="32"/>
       <c r="AD34" s="32"/>
@@ -15479,9 +17370,9 @@
       <c r="BC34" s="33"/>
     </row>
     <row r="35" spans="1:55" ht="13.5">
-      <c r="A35" s="80"/>
-      <c r="B35" s="81"/>
-      <c r="C35" s="82"/>
+      <c r="A35" s="94"/>
+      <c r="B35" s="95"/>
+      <c r="C35" s="96"/>
       <c r="D35" s="32"/>
       <c r="Q35" s="32"/>
       <c r="AD35" s="32"/>
@@ -15489,9 +17380,9 @@
       <c r="BC35" s="33"/>
     </row>
     <row r="36" spans="1:55" ht="13.5">
-      <c r="A36" s="80"/>
-      <c r="B36" s="81"/>
-      <c r="C36" s="82"/>
+      <c r="A36" s="94"/>
+      <c r="B36" s="95"/>
+      <c r="C36" s="96"/>
       <c r="D36" s="32"/>
       <c r="Q36" s="32"/>
       <c r="AD36" s="32"/>
@@ -15499,9 +17390,9 @@
       <c r="BC36" s="33"/>
     </row>
     <row r="37" spans="1:55" ht="13.5">
-      <c r="A37" s="80"/>
-      <c r="B37" s="81"/>
-      <c r="C37" s="82"/>
+      <c r="A37" s="94"/>
+      <c r="B37" s="95"/>
+      <c r="C37" s="96"/>
       <c r="D37" s="32"/>
       <c r="Q37" s="32"/>
       <c r="AD37" s="32"/>
@@ -15509,9 +17400,9 @@
       <c r="BC37" s="33"/>
     </row>
     <row r="38" spans="1:55" ht="13.5">
-      <c r="A38" s="80"/>
-      <c r="B38" s="81"/>
-      <c r="C38" s="82"/>
+      <c r="A38" s="94"/>
+      <c r="B38" s="95"/>
+      <c r="C38" s="96"/>
       <c r="D38" s="32"/>
       <c r="Q38" s="32"/>
       <c r="AD38" s="32"/>
@@ -15519,9 +17410,9 @@
       <c r="BC38" s="33"/>
     </row>
     <row r="39" spans="1:55" ht="13.5">
-      <c r="A39" s="80"/>
-      <c r="B39" s="81"/>
-      <c r="C39" s="82"/>
+      <c r="A39" s="94"/>
+      <c r="B39" s="95"/>
+      <c r="C39" s="96"/>
       <c r="D39" s="32"/>
       <c r="Q39" s="32"/>
       <c r="AD39" s="32"/>
@@ -15529,9 +17420,9 @@
       <c r="BC39" s="33"/>
     </row>
     <row r="40" spans="1:55" ht="13.5">
-      <c r="A40" s="83"/>
-      <c r="B40" s="84"/>
-      <c r="C40" s="85"/>
+      <c r="A40" s="97"/>
+      <c r="B40" s="98"/>
+      <c r="C40" s="99"/>
       <c r="D40" s="34"/>
       <c r="E40" s="35"/>
       <c r="F40" s="35"/>
@@ -15648,138 +17539,138 @@
       <c r="C42" s="38"/>
     </row>
     <row r="45" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A45" s="107" t="s">
+      <c r="A45" s="109" t="s">
         <v>104</v>
       </c>
-      <c r="B45" s="108"/>
-      <c r="C45" s="108"/>
-      <c r="D45" s="108"/>
-      <c r="E45" s="108"/>
-      <c r="F45" s="109"/>
-      <c r="G45" s="98" t="s">
+      <c r="B45" s="110"/>
+      <c r="C45" s="110"/>
+      <c r="D45" s="110"/>
+      <c r="E45" s="110"/>
+      <c r="F45" s="111"/>
+      <c r="G45" s="115" t="s">
         <v>105</v>
       </c>
-      <c r="H45" s="99"/>
-      <c r="I45" s="99"/>
-      <c r="J45" s="99"/>
-      <c r="K45" s="99"/>
-      <c r="L45" s="99"/>
-      <c r="M45" s="99"/>
-      <c r="N45" s="100"/>
-      <c r="O45" s="98" t="s">
+      <c r="H45" s="116"/>
+      <c r="I45" s="116"/>
+      <c r="J45" s="116"/>
+      <c r="K45" s="116"/>
+      <c r="L45" s="116"/>
+      <c r="M45" s="116"/>
+      <c r="N45" s="117"/>
+      <c r="O45" s="115" t="s">
         <v>106</v>
       </c>
-      <c r="P45" s="99"/>
-      <c r="Q45" s="99"/>
-      <c r="R45" s="99"/>
-      <c r="S45" s="99"/>
-      <c r="T45" s="99"/>
-      <c r="U45" s="99"/>
-      <c r="V45" s="99"/>
-      <c r="W45" s="99"/>
-      <c r="X45" s="99"/>
-      <c r="Y45" s="99"/>
-      <c r="Z45" s="99"/>
-      <c r="AA45" s="99"/>
-      <c r="AB45" s="99"/>
-      <c r="AC45" s="99"/>
-      <c r="AD45" s="99"/>
-      <c r="AE45" s="100"/>
-      <c r="AF45" s="98" t="s">
+      <c r="P45" s="116"/>
+      <c r="Q45" s="116"/>
+      <c r="R45" s="116"/>
+      <c r="S45" s="116"/>
+      <c r="T45" s="116"/>
+      <c r="U45" s="116"/>
+      <c r="V45" s="116"/>
+      <c r="W45" s="116"/>
+      <c r="X45" s="116"/>
+      <c r="Y45" s="116"/>
+      <c r="Z45" s="116"/>
+      <c r="AA45" s="116"/>
+      <c r="AB45" s="116"/>
+      <c r="AC45" s="116"/>
+      <c r="AD45" s="116"/>
+      <c r="AE45" s="117"/>
+      <c r="AF45" s="115" t="s">
         <v>107</v>
       </c>
-      <c r="AG45" s="99"/>
-      <c r="AH45" s="99"/>
-      <c r="AI45" s="100"/>
-      <c r="AJ45" s="95" t="s">
+      <c r="AG45" s="116"/>
+      <c r="AH45" s="116"/>
+      <c r="AI45" s="117"/>
+      <c r="AJ45" s="118" t="s">
         <v>152</v>
       </c>
-      <c r="AK45" s="96"/>
-      <c r="AL45" s="96"/>
-      <c r="AM45" s="96"/>
-      <c r="AN45" s="96"/>
-      <c r="AO45" s="96"/>
-      <c r="AP45" s="96"/>
-      <c r="AQ45" s="97"/>
-      <c r="AR45" s="98" t="s">
+      <c r="AK45" s="119"/>
+      <c r="AL45" s="119"/>
+      <c r="AM45" s="119"/>
+      <c r="AN45" s="119"/>
+      <c r="AO45" s="119"/>
+      <c r="AP45" s="119"/>
+      <c r="AQ45" s="120"/>
+      <c r="AR45" s="115" t="s">
         <v>108</v>
       </c>
-      <c r="AS45" s="99"/>
-      <c r="AT45" s="99"/>
-      <c r="AU45" s="100"/>
-      <c r="AV45" s="101">
+      <c r="AS45" s="116"/>
+      <c r="AT45" s="116"/>
+      <c r="AU45" s="117"/>
+      <c r="AV45" s="121">
         <v>45814</v>
       </c>
-      <c r="AW45" s="102"/>
-      <c r="AX45" s="102"/>
-      <c r="AY45" s="102"/>
-      <c r="AZ45" s="102"/>
-      <c r="BA45" s="102"/>
-      <c r="BB45" s="102"/>
-      <c r="BC45" s="103"/>
+      <c r="AW45" s="122"/>
+      <c r="AX45" s="122"/>
+      <c r="AY45" s="122"/>
+      <c r="AZ45" s="122"/>
+      <c r="BA45" s="122"/>
+      <c r="BB45" s="122"/>
+      <c r="BC45" s="123"/>
     </row>
     <row r="46" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A46" s="104"/>
-      <c r="B46" s="105"/>
-      <c r="C46" s="105"/>
-      <c r="D46" s="105"/>
-      <c r="E46" s="105"/>
-      <c r="F46" s="106"/>
-      <c r="G46" s="95" t="s">
+      <c r="A46" s="112"/>
+      <c r="B46" s="113"/>
+      <c r="C46" s="113"/>
+      <c r="D46" s="113"/>
+      <c r="E46" s="113"/>
+      <c r="F46" s="114"/>
+      <c r="G46" s="118" t="s">
         <v>125</v>
       </c>
-      <c r="H46" s="96"/>
-      <c r="I46" s="96"/>
-      <c r="J46" s="96"/>
-      <c r="K46" s="96"/>
-      <c r="L46" s="96"/>
-      <c r="M46" s="96"/>
-      <c r="N46" s="97"/>
-      <c r="O46" s="95"/>
-      <c r="P46" s="96"/>
-      <c r="Q46" s="96"/>
-      <c r="R46" s="96"/>
-      <c r="S46" s="96"/>
-      <c r="T46" s="96"/>
-      <c r="U46" s="96"/>
-      <c r="V46" s="96"/>
-      <c r="W46" s="96"/>
-      <c r="X46" s="96"/>
-      <c r="Y46" s="96"/>
-      <c r="Z46" s="96"/>
-      <c r="AA46" s="96"/>
-      <c r="AB46" s="96"/>
-      <c r="AC46" s="96"/>
-      <c r="AD46" s="96"/>
-      <c r="AE46" s="97"/>
-      <c r="AF46" s="104" t="s">
+      <c r="H46" s="119"/>
+      <c r="I46" s="119"/>
+      <c r="J46" s="119"/>
+      <c r="K46" s="119"/>
+      <c r="L46" s="119"/>
+      <c r="M46" s="119"/>
+      <c r="N46" s="120"/>
+      <c r="O46" s="118"/>
+      <c r="P46" s="119"/>
+      <c r="Q46" s="119"/>
+      <c r="R46" s="119"/>
+      <c r="S46" s="119"/>
+      <c r="T46" s="119"/>
+      <c r="U46" s="119"/>
+      <c r="V46" s="119"/>
+      <c r="W46" s="119"/>
+      <c r="X46" s="119"/>
+      <c r="Y46" s="119"/>
+      <c r="Z46" s="119"/>
+      <c r="AA46" s="119"/>
+      <c r="AB46" s="119"/>
+      <c r="AC46" s="119"/>
+      <c r="AD46" s="119"/>
+      <c r="AE46" s="120"/>
+      <c r="AF46" s="112" t="s">
         <v>109</v>
       </c>
-      <c r="AG46" s="105"/>
-      <c r="AH46" s="105"/>
-      <c r="AI46" s="106"/>
-      <c r="AJ46" s="95"/>
-      <c r="AK46" s="96"/>
-      <c r="AL46" s="96"/>
-      <c r="AM46" s="96"/>
-      <c r="AN46" s="96"/>
-      <c r="AO46" s="96"/>
-      <c r="AP46" s="96"/>
-      <c r="AQ46" s="97"/>
-      <c r="AR46" s="104" t="s">
+      <c r="AG46" s="113"/>
+      <c r="AH46" s="113"/>
+      <c r="AI46" s="114"/>
+      <c r="AJ46" s="118"/>
+      <c r="AK46" s="119"/>
+      <c r="AL46" s="119"/>
+      <c r="AM46" s="119"/>
+      <c r="AN46" s="119"/>
+      <c r="AO46" s="119"/>
+      <c r="AP46" s="119"/>
+      <c r="AQ46" s="120"/>
+      <c r="AR46" s="112" t="s">
         <v>110</v>
       </c>
-      <c r="AS46" s="105"/>
-      <c r="AT46" s="105"/>
-      <c r="AU46" s="106"/>
-      <c r="AV46" s="101"/>
-      <c r="AW46" s="102"/>
-      <c r="AX46" s="102"/>
-      <c r="AY46" s="102"/>
-      <c r="AZ46" s="102"/>
-      <c r="BA46" s="102"/>
-      <c r="BB46" s="102"/>
-      <c r="BC46" s="103"/>
+      <c r="AS46" s="113"/>
+      <c r="AT46" s="113"/>
+      <c r="AU46" s="114"/>
+      <c r="AV46" s="121"/>
+      <c r="AW46" s="122"/>
+      <c r="AX46" s="122"/>
+      <c r="AY46" s="122"/>
+      <c r="AZ46" s="122"/>
+      <c r="BA46" s="122"/>
+      <c r="BB46" s="122"/>
+      <c r="BC46" s="123"/>
     </row>
     <row r="47" spans="1:55" ht="14.25" customHeight="1">
       <c r="A47" s="27"/>
@@ -15839,129 +17730,129 @@
       <c r="BC47" s="28"/>
     </row>
     <row r="48" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A48" s="86" t="s">
+      <c r="A48" s="100" t="s">
         <v>111</v>
       </c>
-      <c r="B48" s="87"/>
-      <c r="C48" s="90"/>
-      <c r="D48" s="86" t="s">
+      <c r="B48" s="101"/>
+      <c r="C48" s="104"/>
+      <c r="D48" s="100" t="s">
         <v>113</v>
       </c>
-      <c r="E48" s="87"/>
-      <c r="F48" s="87"/>
-      <c r="G48" s="87"/>
-      <c r="H48" s="87"/>
-      <c r="I48" s="87"/>
-      <c r="J48" s="87"/>
-      <c r="K48" s="87"/>
-      <c r="L48" s="87"/>
-      <c r="M48" s="87"/>
-      <c r="N48" s="87"/>
-      <c r="O48" s="87"/>
-      <c r="P48" s="87"/>
-      <c r="Q48" s="86" t="s">
+      <c r="E48" s="101"/>
+      <c r="F48" s="101"/>
+      <c r="G48" s="101"/>
+      <c r="H48" s="101"/>
+      <c r="I48" s="101"/>
+      <c r="J48" s="101"/>
+      <c r="K48" s="101"/>
+      <c r="L48" s="101"/>
+      <c r="M48" s="101"/>
+      <c r="N48" s="101"/>
+      <c r="O48" s="101"/>
+      <c r="P48" s="101"/>
+      <c r="Q48" s="100" t="s">
         <v>112</v>
       </c>
-      <c r="R48" s="87"/>
-      <c r="S48" s="87"/>
-      <c r="T48" s="87"/>
-      <c r="U48" s="87"/>
-      <c r="V48" s="87"/>
-      <c r="W48" s="87"/>
-      <c r="X48" s="87"/>
-      <c r="Y48" s="87"/>
-      <c r="Z48" s="87"/>
-      <c r="AA48" s="87"/>
-      <c r="AB48" s="87"/>
-      <c r="AC48" s="87"/>
-      <c r="AD48" s="86"/>
-      <c r="AE48" s="87"/>
-      <c r="AF48" s="87"/>
-      <c r="AG48" s="87"/>
-      <c r="AH48" s="87"/>
-      <c r="AI48" s="87"/>
-      <c r="AJ48" s="87"/>
-      <c r="AK48" s="87"/>
-      <c r="AL48" s="87"/>
-      <c r="AM48" s="87"/>
-      <c r="AN48" s="87"/>
-      <c r="AO48" s="87"/>
-      <c r="AP48" s="90"/>
-      <c r="AQ48" s="87"/>
-      <c r="AR48" s="87"/>
-      <c r="AS48" s="87"/>
-      <c r="AT48" s="87"/>
-      <c r="AU48" s="87"/>
-      <c r="AV48" s="87"/>
-      <c r="AW48" s="87"/>
-      <c r="AX48" s="87"/>
-      <c r="AY48" s="87"/>
-      <c r="AZ48" s="87"/>
-      <c r="BA48" s="87"/>
-      <c r="BB48" s="87"/>
-      <c r="BC48" s="90"/>
+      <c r="R48" s="101"/>
+      <c r="S48" s="101"/>
+      <c r="T48" s="101"/>
+      <c r="U48" s="101"/>
+      <c r="V48" s="101"/>
+      <c r="W48" s="101"/>
+      <c r="X48" s="101"/>
+      <c r="Y48" s="101"/>
+      <c r="Z48" s="101"/>
+      <c r="AA48" s="101"/>
+      <c r="AB48" s="101"/>
+      <c r="AC48" s="101"/>
+      <c r="AD48" s="100"/>
+      <c r="AE48" s="101"/>
+      <c r="AF48" s="101"/>
+      <c r="AG48" s="101"/>
+      <c r="AH48" s="101"/>
+      <c r="AI48" s="101"/>
+      <c r="AJ48" s="101"/>
+      <c r="AK48" s="101"/>
+      <c r="AL48" s="101"/>
+      <c r="AM48" s="101"/>
+      <c r="AN48" s="101"/>
+      <c r="AO48" s="101"/>
+      <c r="AP48" s="104"/>
+      <c r="AQ48" s="101"/>
+      <c r="AR48" s="101"/>
+      <c r="AS48" s="101"/>
+      <c r="AT48" s="101"/>
+      <c r="AU48" s="101"/>
+      <c r="AV48" s="101"/>
+      <c r="AW48" s="101"/>
+      <c r="AX48" s="101"/>
+      <c r="AY48" s="101"/>
+      <c r="AZ48" s="101"/>
+      <c r="BA48" s="101"/>
+      <c r="BB48" s="101"/>
+      <c r="BC48" s="104"/>
     </row>
     <row r="49" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A49" s="88"/>
-      <c r="B49" s="89"/>
-      <c r="C49" s="91"/>
-      <c r="D49" s="88"/>
-      <c r="E49" s="89"/>
-      <c r="F49" s="89"/>
-      <c r="G49" s="89"/>
-      <c r="H49" s="89"/>
-      <c r="I49" s="89"/>
-      <c r="J49" s="89"/>
-      <c r="K49" s="89"/>
-      <c r="L49" s="89"/>
-      <c r="M49" s="89"/>
-      <c r="N49" s="89"/>
-      <c r="O49" s="89"/>
-      <c r="P49" s="89"/>
-      <c r="Q49" s="88"/>
-      <c r="R49" s="89"/>
-      <c r="S49" s="89"/>
-      <c r="T49" s="89"/>
-      <c r="U49" s="89"/>
-      <c r="V49" s="89"/>
-      <c r="W49" s="89"/>
-      <c r="X49" s="89"/>
-      <c r="Y49" s="89"/>
-      <c r="Z49" s="89"/>
-      <c r="AA49" s="89"/>
-      <c r="AB49" s="89"/>
-      <c r="AC49" s="89"/>
-      <c r="AD49" s="88"/>
-      <c r="AE49" s="89"/>
-      <c r="AF49" s="89"/>
-      <c r="AG49" s="89"/>
-      <c r="AH49" s="89"/>
-      <c r="AI49" s="89"/>
-      <c r="AJ49" s="89"/>
-      <c r="AK49" s="89"/>
-      <c r="AL49" s="89"/>
-      <c r="AM49" s="89"/>
-      <c r="AN49" s="89"/>
-      <c r="AO49" s="89"/>
-      <c r="AP49" s="91"/>
-      <c r="AQ49" s="89"/>
-      <c r="AR49" s="89"/>
-      <c r="AS49" s="89"/>
-      <c r="AT49" s="89"/>
-      <c r="AU49" s="89"/>
-      <c r="AV49" s="89"/>
-      <c r="AW49" s="89"/>
-      <c r="AX49" s="89"/>
-      <c r="AY49" s="89"/>
-      <c r="AZ49" s="89"/>
-      <c r="BA49" s="89"/>
-      <c r="BB49" s="89"/>
-      <c r="BC49" s="91"/>
+      <c r="A49" s="102"/>
+      <c r="B49" s="103"/>
+      <c r="C49" s="105"/>
+      <c r="D49" s="102"/>
+      <c r="E49" s="103"/>
+      <c r="F49" s="103"/>
+      <c r="G49" s="103"/>
+      <c r="H49" s="103"/>
+      <c r="I49" s="103"/>
+      <c r="J49" s="103"/>
+      <c r="K49" s="103"/>
+      <c r="L49" s="103"/>
+      <c r="M49" s="103"/>
+      <c r="N49" s="103"/>
+      <c r="O49" s="103"/>
+      <c r="P49" s="103"/>
+      <c r="Q49" s="102"/>
+      <c r="R49" s="103"/>
+      <c r="S49" s="103"/>
+      <c r="T49" s="103"/>
+      <c r="U49" s="103"/>
+      <c r="V49" s="103"/>
+      <c r="W49" s="103"/>
+      <c r="X49" s="103"/>
+      <c r="Y49" s="103"/>
+      <c r="Z49" s="103"/>
+      <c r="AA49" s="103"/>
+      <c r="AB49" s="103"/>
+      <c r="AC49" s="103"/>
+      <c r="AD49" s="102"/>
+      <c r="AE49" s="103"/>
+      <c r="AF49" s="103"/>
+      <c r="AG49" s="103"/>
+      <c r="AH49" s="103"/>
+      <c r="AI49" s="103"/>
+      <c r="AJ49" s="103"/>
+      <c r="AK49" s="103"/>
+      <c r="AL49" s="103"/>
+      <c r="AM49" s="103"/>
+      <c r="AN49" s="103"/>
+      <c r="AO49" s="103"/>
+      <c r="AP49" s="105"/>
+      <c r="AQ49" s="103"/>
+      <c r="AR49" s="103"/>
+      <c r="AS49" s="103"/>
+      <c r="AT49" s="103"/>
+      <c r="AU49" s="103"/>
+      <c r="AV49" s="103"/>
+      <c r="AW49" s="103"/>
+      <c r="AX49" s="103"/>
+      <c r="AY49" s="103"/>
+      <c r="AZ49" s="103"/>
+      <c r="BA49" s="103"/>
+      <c r="BB49" s="103"/>
+      <c r="BC49" s="105"/>
     </row>
     <row r="50" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A50" s="92"/>
-      <c r="B50" s="93"/>
-      <c r="C50" s="94"/>
+      <c r="A50" s="106"/>
+      <c r="B50" s="107"/>
+      <c r="C50" s="108"/>
       <c r="D50" s="29"/>
       <c r="E50" s="30"/>
       <c r="F50" s="30"/>
@@ -16016,9 +17907,9 @@
       <c r="BC50" s="31"/>
     </row>
     <row r="51" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A51" s="77"/>
-      <c r="B51" s="78"/>
-      <c r="C51" s="79"/>
+      <c r="A51" s="91"/>
+      <c r="B51" s="92"/>
+      <c r="C51" s="93"/>
       <c r="D51" s="32"/>
       <c r="Q51" s="32"/>
       <c r="AD51" s="32"/>
@@ -16026,9 +17917,9 @@
       <c r="BC51" s="33"/>
     </row>
     <row r="52" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A52" s="77"/>
-      <c r="B52" s="78"/>
-      <c r="C52" s="79"/>
+      <c r="A52" s="91"/>
+      <c r="B52" s="92"/>
+      <c r="C52" s="93"/>
       <c r="D52" s="32"/>
       <c r="Q52" s="32"/>
       <c r="AD52" s="32"/>
@@ -16036,9 +17927,9 @@
       <c r="BC52" s="33"/>
     </row>
     <row r="53" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A53" s="77"/>
-      <c r="B53" s="78"/>
-      <c r="C53" s="79"/>
+      <c r="A53" s="91"/>
+      <c r="B53" s="92"/>
+      <c r="C53" s="93"/>
       <c r="D53" s="32"/>
       <c r="Q53" s="32"/>
       <c r="AD53" s="32"/>
@@ -16046,9 +17937,9 @@
       <c r="BC53" s="33"/>
     </row>
     <row r="54" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A54" s="77"/>
-      <c r="B54" s="78"/>
-      <c r="C54" s="79"/>
+      <c r="A54" s="91"/>
+      <c r="B54" s="92"/>
+      <c r="C54" s="93"/>
       <c r="D54" s="32"/>
       <c r="Q54" s="32"/>
       <c r="AD54" s="32"/>
@@ -16056,9 +17947,9 @@
       <c r="BC54" s="33"/>
     </row>
     <row r="55" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A55" s="77"/>
-      <c r="B55" s="78"/>
-      <c r="C55" s="79"/>
+      <c r="A55" s="91"/>
+      <c r="B55" s="92"/>
+      <c r="C55" s="93"/>
       <c r="D55" s="32"/>
       <c r="Q55" s="32"/>
       <c r="AD55" s="32"/>
@@ -16066,9 +17957,9 @@
       <c r="BC55" s="33"/>
     </row>
     <row r="56" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A56" s="77"/>
-      <c r="B56" s="78"/>
-      <c r="C56" s="79"/>
+      <c r="A56" s="91"/>
+      <c r="B56" s="92"/>
+      <c r="C56" s="93"/>
       <c r="D56" s="32"/>
       <c r="Q56" s="32"/>
       <c r="AD56" s="32"/>
@@ -16076,9 +17967,9 @@
       <c r="BC56" s="33"/>
     </row>
     <row r="57" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A57" s="77"/>
-      <c r="B57" s="78"/>
-      <c r="C57" s="79"/>
+      <c r="A57" s="91"/>
+      <c r="B57" s="92"/>
+      <c r="C57" s="93"/>
       <c r="D57" s="32"/>
       <c r="Q57" s="32"/>
       <c r="AD57" s="32"/>
@@ -16086,9 +17977,9 @@
       <c r="BC57" s="33"/>
     </row>
     <row r="58" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A58" s="77"/>
-      <c r="B58" s="78"/>
-      <c r="C58" s="79"/>
+      <c r="A58" s="91"/>
+      <c r="B58" s="92"/>
+      <c r="C58" s="93"/>
       <c r="D58" s="32"/>
       <c r="Q58" s="32"/>
       <c r="AD58" s="32"/>
@@ -16096,9 +17987,9 @@
       <c r="BC58" s="33"/>
     </row>
     <row r="59" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A59" s="77"/>
-      <c r="B59" s="78"/>
-      <c r="C59" s="79"/>
+      <c r="A59" s="91"/>
+      <c r="B59" s="92"/>
+      <c r="C59" s="93"/>
       <c r="D59" s="32"/>
       <c r="Q59" s="32"/>
       <c r="AD59" s="32"/>
@@ -16106,9 +17997,9 @@
       <c r="BC59" s="33"/>
     </row>
     <row r="60" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A60" s="77"/>
-      <c r="B60" s="78"/>
-      <c r="C60" s="79"/>
+      <c r="A60" s="91"/>
+      <c r="B60" s="92"/>
+      <c r="C60" s="93"/>
       <c r="D60" s="32"/>
       <c r="Q60" s="32"/>
       <c r="AD60" s="32"/>
@@ -16116,9 +18007,9 @@
       <c r="BC60" s="33"/>
     </row>
     <row r="61" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A61" s="77"/>
-      <c r="B61" s="78"/>
-      <c r="C61" s="79"/>
+      <c r="A61" s="91"/>
+      <c r="B61" s="92"/>
+      <c r="C61" s="93"/>
       <c r="D61" s="32"/>
       <c r="Q61" s="32"/>
       <c r="AD61" s="32"/>
@@ -16126,9 +18017,9 @@
       <c r="BC61" s="33"/>
     </row>
     <row r="62" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A62" s="77"/>
-      <c r="B62" s="78"/>
-      <c r="C62" s="79"/>
+      <c r="A62" s="91"/>
+      <c r="B62" s="92"/>
+      <c r="C62" s="93"/>
       <c r="D62" s="32"/>
       <c r="Q62" s="32"/>
       <c r="AD62" s="32"/>
@@ -16136,46 +18027,46 @@
       <c r="BC62" s="33"/>
     </row>
     <row r="63" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A63" s="77"/>
-      <c r="B63" s="78"/>
-      <c r="C63" s="79"/>
-      <c r="D63" s="86" t="s">
+      <c r="A63" s="91"/>
+      <c r="B63" s="92"/>
+      <c r="C63" s="93"/>
+      <c r="D63" s="100" t="s">
         <v>114</v>
       </c>
-      <c r="E63" s="87"/>
-      <c r="F63" s="87"/>
-      <c r="G63" s="87"/>
-      <c r="H63" s="87"/>
-      <c r="I63" s="87"/>
-      <c r="J63" s="87"/>
-      <c r="K63" s="87"/>
-      <c r="L63" s="87"/>
-      <c r="M63" s="87"/>
-      <c r="N63" s="87"/>
-      <c r="O63" s="87"/>
-      <c r="P63" s="87"/>
+      <c r="E63" s="101"/>
+      <c r="F63" s="101"/>
+      <c r="G63" s="101"/>
+      <c r="H63" s="101"/>
+      <c r="I63" s="101"/>
+      <c r="J63" s="101"/>
+      <c r="K63" s="101"/>
+      <c r="L63" s="101"/>
+      <c r="M63" s="101"/>
+      <c r="N63" s="101"/>
+      <c r="O63" s="101"/>
+      <c r="P63" s="101"/>
       <c r="Q63" s="32"/>
       <c r="AD63" s="32"/>
       <c r="AP63" s="33"/>
       <c r="BC63" s="33"/>
     </row>
     <row r="64" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A64" s="77"/>
-      <c r="B64" s="78"/>
-      <c r="C64" s="79"/>
-      <c r="D64" s="88"/>
-      <c r="E64" s="89"/>
-      <c r="F64" s="89"/>
-      <c r="G64" s="89"/>
-      <c r="H64" s="89"/>
-      <c r="I64" s="89"/>
-      <c r="J64" s="89"/>
-      <c r="K64" s="89"/>
-      <c r="L64" s="89"/>
-      <c r="M64" s="89"/>
-      <c r="N64" s="89"/>
-      <c r="O64" s="89"/>
-      <c r="P64" s="89"/>
+      <c r="A64" s="91"/>
+      <c r="B64" s="92"/>
+      <c r="C64" s="93"/>
+      <c r="D64" s="102"/>
+      <c r="E64" s="103"/>
+      <c r="F64" s="103"/>
+      <c r="G64" s="103"/>
+      <c r="H64" s="103"/>
+      <c r="I64" s="103"/>
+      <c r="J64" s="103"/>
+      <c r="K64" s="103"/>
+      <c r="L64" s="103"/>
+      <c r="M64" s="103"/>
+      <c r="N64" s="103"/>
+      <c r="O64" s="103"/>
+      <c r="P64" s="103"/>
       <c r="Q64" s="32"/>
       <c r="AD64" s="32"/>
       <c r="AP64" s="33"/>
@@ -16188,9 +18079,9 @@
       <c r="BC64" s="33"/>
     </row>
     <row r="65" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A65" s="77"/>
-      <c r="B65" s="78"/>
-      <c r="C65" s="79"/>
+      <c r="A65" s="91"/>
+      <c r="B65" s="92"/>
+      <c r="C65" s="93"/>
       <c r="D65" s="32"/>
       <c r="Q65" s="32"/>
       <c r="AD65" s="32"/>
@@ -16204,9 +18095,9 @@
       <c r="BC65" s="33"/>
     </row>
     <row r="66" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A66" s="77"/>
-      <c r="B66" s="78"/>
-      <c r="C66" s="79"/>
+      <c r="A66" s="91"/>
+      <c r="B66" s="92"/>
+      <c r="C66" s="93"/>
       <c r="D66" s="32"/>
       <c r="Q66" s="32"/>
       <c r="AD66" s="32"/>
@@ -16214,9 +18105,9 @@
       <c r="BC66" s="33"/>
     </row>
     <row r="67" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A67" s="77"/>
-      <c r="B67" s="78"/>
-      <c r="C67" s="79"/>
+      <c r="A67" s="91"/>
+      <c r="B67" s="92"/>
+      <c r="C67" s="93"/>
       <c r="D67" s="32"/>
       <c r="Q67" s="32"/>
       <c r="AD67" s="32"/>
@@ -16224,9 +18115,9 @@
       <c r="BC67" s="33"/>
     </row>
     <row r="68" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A68" s="77"/>
-      <c r="B68" s="78"/>
-      <c r="C68" s="79"/>
+      <c r="A68" s="91"/>
+      <c r="B68" s="92"/>
+      <c r="C68" s="93"/>
       <c r="D68" s="32"/>
       <c r="Q68" s="32"/>
       <c r="AD68" s="32"/>
@@ -16234,9 +18125,9 @@
       <c r="BC68" s="33"/>
     </row>
     <row r="69" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A69" s="77"/>
-      <c r="B69" s="78"/>
-      <c r="C69" s="79"/>
+      <c r="A69" s="91"/>
+      <c r="B69" s="92"/>
+      <c r="C69" s="93"/>
       <c r="D69" s="32"/>
       <c r="Q69" s="32"/>
       <c r="AD69" s="32"/>
@@ -16244,9 +18135,9 @@
       <c r="BC69" s="33"/>
     </row>
     <row r="70" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A70" s="77"/>
-      <c r="B70" s="78"/>
-      <c r="C70" s="79"/>
+      <c r="A70" s="91"/>
+      <c r="B70" s="92"/>
+      <c r="C70" s="93"/>
       <c r="D70" s="32"/>
       <c r="Q70" s="32"/>
       <c r="AD70" s="32"/>
@@ -16254,9 +18145,9 @@
       <c r="BC70" s="33"/>
     </row>
     <row r="71" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A71" s="77"/>
-      <c r="B71" s="78"/>
-      <c r="C71" s="79"/>
+      <c r="A71" s="91"/>
+      <c r="B71" s="92"/>
+      <c r="C71" s="93"/>
       <c r="D71" s="32"/>
       <c r="Q71" s="32"/>
       <c r="AD71" s="32"/>
@@ -16270,9 +18161,9 @@
       <c r="BC71" s="33"/>
     </row>
     <row r="72" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A72" s="77"/>
-      <c r="B72" s="78"/>
-      <c r="C72" s="79"/>
+      <c r="A72" s="91"/>
+      <c r="B72" s="92"/>
+      <c r="C72" s="93"/>
       <c r="D72" s="32"/>
       <c r="Q72" s="32"/>
       <c r="AD72" s="32"/>
@@ -16280,9 +18171,9 @@
       <c r="BC72" s="33"/>
     </row>
     <row r="73" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A73" s="80"/>
-      <c r="B73" s="81"/>
-      <c r="C73" s="82"/>
+      <c r="A73" s="94"/>
+      <c r="B73" s="95"/>
+      <c r="C73" s="96"/>
       <c r="D73" s="32"/>
       <c r="Q73" s="32"/>
       <c r="AD73" s="32"/>
@@ -16290,9 +18181,9 @@
       <c r="BC73" s="33"/>
     </row>
     <row r="74" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A74" s="80"/>
-      <c r="B74" s="81"/>
-      <c r="C74" s="82"/>
+      <c r="A74" s="94"/>
+      <c r="B74" s="95"/>
+      <c r="C74" s="96"/>
       <c r="D74" s="32"/>
       <c r="Q74" s="32"/>
       <c r="AD74" s="32"/>
@@ -16300,9 +18191,9 @@
       <c r="BC74" s="33"/>
     </row>
     <row r="75" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A75" s="80"/>
-      <c r="B75" s="81"/>
-      <c r="C75" s="82"/>
+      <c r="A75" s="94"/>
+      <c r="B75" s="95"/>
+      <c r="C75" s="96"/>
       <c r="D75" s="32"/>
       <c r="Q75" s="32"/>
       <c r="AD75" s="32"/>
@@ -16310,9 +18201,9 @@
       <c r="BC75" s="33"/>
     </row>
     <row r="76" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A76" s="80"/>
-      <c r="B76" s="81"/>
-      <c r="C76" s="82"/>
+      <c r="A76" s="94"/>
+      <c r="B76" s="95"/>
+      <c r="C76" s="96"/>
       <c r="D76" s="32"/>
       <c r="Q76" s="32"/>
       <c r="AD76" s="32"/>
@@ -16320,9 +18211,9 @@
       <c r="BC76" s="33"/>
     </row>
     <row r="77" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A77" s="80"/>
-      <c r="B77" s="81"/>
-      <c r="C77" s="82"/>
+      <c r="A77" s="94"/>
+      <c r="B77" s="95"/>
+      <c r="C77" s="96"/>
       <c r="D77" s="32"/>
       <c r="Q77" s="32"/>
       <c r="AD77" s="32"/>
@@ -16330,9 +18221,9 @@
       <c r="BC77" s="33"/>
     </row>
     <row r="78" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A78" s="80"/>
-      <c r="B78" s="81"/>
-      <c r="C78" s="82"/>
+      <c r="A78" s="94"/>
+      <c r="B78" s="95"/>
+      <c r="C78" s="96"/>
       <c r="D78" s="32"/>
       <c r="Q78" s="32"/>
       <c r="AD78" s="32"/>
@@ -16340,9 +18231,9 @@
       <c r="BC78" s="33"/>
     </row>
     <row r="79" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A79" s="80"/>
-      <c r="B79" s="81"/>
-      <c r="C79" s="82"/>
+      <c r="A79" s="94"/>
+      <c r="B79" s="95"/>
+      <c r="C79" s="96"/>
       <c r="D79" s="32"/>
       <c r="Q79" s="32"/>
       <c r="AD79" s="32"/>
@@ -16350,9 +18241,9 @@
       <c r="BC79" s="33"/>
     </row>
     <row r="80" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A80" s="80"/>
-      <c r="B80" s="81"/>
-      <c r="C80" s="82"/>
+      <c r="A80" s="94"/>
+      <c r="B80" s="95"/>
+      <c r="C80" s="96"/>
       <c r="D80" s="32"/>
       <c r="Q80" s="32"/>
       <c r="AD80" s="32"/>
@@ -16360,9 +18251,9 @@
       <c r="BC80" s="33"/>
     </row>
     <row r="81" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A81" s="80"/>
-      <c r="B81" s="81"/>
-      <c r="C81" s="82"/>
+      <c r="A81" s="94"/>
+      <c r="B81" s="95"/>
+      <c r="C81" s="96"/>
       <c r="D81" s="32"/>
       <c r="Q81" s="32"/>
       <c r="AD81" s="32"/>
@@ -16376,9 +18267,9 @@
       <c r="BC81" s="33"/>
     </row>
     <row r="82" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A82" s="80"/>
-      <c r="B82" s="81"/>
-      <c r="C82" s="82"/>
+      <c r="A82" s="94"/>
+      <c r="B82" s="95"/>
+      <c r="C82" s="96"/>
       <c r="D82" s="32"/>
       <c r="Q82" s="32"/>
       <c r="AD82" s="32"/>
@@ -16386,9 +18277,9 @@
       <c r="BC82" s="33"/>
     </row>
     <row r="83" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A83" s="80"/>
-      <c r="B83" s="81"/>
-      <c r="C83" s="82"/>
+      <c r="A83" s="94"/>
+      <c r="B83" s="95"/>
+      <c r="C83" s="96"/>
       <c r="D83" s="32"/>
       <c r="Q83" s="32"/>
       <c r="AD83" s="32"/>
@@ -16396,9 +18287,9 @@
       <c r="BC83" s="33"/>
     </row>
     <row r="84" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A84" s="80"/>
-      <c r="B84" s="81"/>
-      <c r="C84" s="82"/>
+      <c r="A84" s="94"/>
+      <c r="B84" s="95"/>
+      <c r="C84" s="96"/>
       <c r="D84" s="32"/>
       <c r="Q84" s="32"/>
       <c r="AD84" s="32"/>
@@ -16406,9 +18297,9 @@
       <c r="BC84" s="33"/>
     </row>
     <row r="85" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A85" s="80"/>
-      <c r="B85" s="81"/>
-      <c r="C85" s="82"/>
+      <c r="A85" s="94"/>
+      <c r="B85" s="95"/>
+      <c r="C85" s="96"/>
       <c r="D85" s="32"/>
       <c r="Q85" s="32"/>
       <c r="AD85" s="32"/>
@@ -16416,9 +18307,9 @@
       <c r="BC85" s="33"/>
     </row>
     <row r="86" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A86" s="80"/>
-      <c r="B86" s="81"/>
-      <c r="C86" s="82"/>
+      <c r="A86" s="94"/>
+      <c r="B86" s="95"/>
+      <c r="C86" s="96"/>
       <c r="D86" s="32"/>
       <c r="Q86" s="32"/>
       <c r="AD86" s="32"/>
@@ -16426,9 +18317,9 @@
       <c r="BC86" s="33"/>
     </row>
     <row r="87" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A87" s="80"/>
-      <c r="B87" s="81"/>
-      <c r="C87" s="82"/>
+      <c r="A87" s="94"/>
+      <c r="B87" s="95"/>
+      <c r="C87" s="96"/>
       <c r="D87" s="32"/>
       <c r="Q87" s="32"/>
       <c r="AD87" s="32"/>
@@ -16436,9 +18327,9 @@
       <c r="BC87" s="33"/>
     </row>
     <row r="88" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A88" s="80"/>
-      <c r="B88" s="81"/>
-      <c r="C88" s="82"/>
+      <c r="A88" s="94"/>
+      <c r="B88" s="95"/>
+      <c r="C88" s="96"/>
       <c r="D88" s="32"/>
       <c r="Q88" s="32"/>
       <c r="AD88" s="32"/>
@@ -16446,9 +18337,9 @@
       <c r="BC88" s="33"/>
     </row>
     <row r="89" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A89" s="80"/>
-      <c r="B89" s="81"/>
-      <c r="C89" s="82"/>
+      <c r="A89" s="94"/>
+      <c r="B89" s="95"/>
+      <c r="C89" s="96"/>
       <c r="D89" s="32"/>
       <c r="Q89" s="32"/>
       <c r="AD89" s="32"/>
@@ -16456,9 +18347,9 @@
       <c r="BC89" s="33"/>
     </row>
     <row r="90" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A90" s="80"/>
-      <c r="B90" s="81"/>
-      <c r="C90" s="82"/>
+      <c r="A90" s="94"/>
+      <c r="B90" s="95"/>
+      <c r="C90" s="96"/>
       <c r="D90" s="32"/>
       <c r="Q90" s="32"/>
       <c r="AD90" s="32"/>
@@ -16466,9 +18357,9 @@
       <c r="BC90" s="33"/>
     </row>
     <row r="91" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A91" s="80"/>
-      <c r="B91" s="81"/>
-      <c r="C91" s="82"/>
+      <c r="A91" s="94"/>
+      <c r="B91" s="95"/>
+      <c r="C91" s="96"/>
       <c r="D91" s="32"/>
       <c r="Q91" s="32"/>
       <c r="AD91" s="32"/>
@@ -16482,9 +18373,9 @@
       <c r="BC91" s="33"/>
     </row>
     <row r="92" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A92" s="80"/>
-      <c r="B92" s="81"/>
-      <c r="C92" s="82"/>
+      <c r="A92" s="94"/>
+      <c r="B92" s="95"/>
+      <c r="C92" s="96"/>
       <c r="D92" s="32"/>
       <c r="Q92" s="32"/>
       <c r="AD92" s="32"/>
@@ -16498,9 +18389,9 @@
       <c r="BC92" s="33"/>
     </row>
     <row r="93" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A93" s="80"/>
-      <c r="B93" s="81"/>
-      <c r="C93" s="82"/>
+      <c r="A93" s="94"/>
+      <c r="B93" s="95"/>
+      <c r="C93" s="96"/>
       <c r="D93" s="32"/>
       <c r="Q93" s="32"/>
       <c r="AD93" s="32"/>
@@ -16514,9 +18405,9 @@
       <c r="BC93" s="33"/>
     </row>
     <row r="94" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A94" s="80"/>
-      <c r="B94" s="81"/>
-      <c r="C94" s="82"/>
+      <c r="A94" s="94"/>
+      <c r="B94" s="95"/>
+      <c r="C94" s="96"/>
       <c r="D94" s="32"/>
       <c r="Q94" s="32"/>
       <c r="AD94" s="32"/>
@@ -16530,9 +18421,9 @@
       <c r="BC94" s="33"/>
     </row>
     <row r="95" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A95" s="80"/>
-      <c r="B95" s="81"/>
-      <c r="C95" s="82"/>
+      <c r="A95" s="94"/>
+      <c r="B95" s="95"/>
+      <c r="C95" s="96"/>
       <c r="D95" s="32"/>
       <c r="Q95" s="32"/>
       <c r="AD95" s="32"/>
@@ -16540,9 +18431,9 @@
       <c r="BC95" s="33"/>
     </row>
     <row r="96" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A96" s="83"/>
-      <c r="B96" s="84"/>
-      <c r="C96" s="85"/>
+      <c r="A96" s="97"/>
+      <c r="B96" s="98"/>
+      <c r="C96" s="99"/>
       <c r="D96" s="34"/>
       <c r="E96" s="35"/>
       <c r="F96" s="35"/>
@@ -16603,7 +18494,11 @@
     <mergeCell ref="O1:AE1"/>
     <mergeCell ref="AF1:AI1"/>
     <mergeCell ref="AJ1:AQ1"/>
-    <mergeCell ref="AQ48:BC49"/>
+    <mergeCell ref="Q4:AC5"/>
+    <mergeCell ref="AD4:AP5"/>
+    <mergeCell ref="AQ4:BC5"/>
+    <mergeCell ref="AR45:AU45"/>
+    <mergeCell ref="AV45:BC45"/>
     <mergeCell ref="AV1:BC1"/>
     <mergeCell ref="G2:N2"/>
     <mergeCell ref="O2:AE2"/>
@@ -16612,9 +18507,6 @@
     <mergeCell ref="AR2:AU2"/>
     <mergeCell ref="AV2:BC2"/>
     <mergeCell ref="AR1:AU1"/>
-    <mergeCell ref="Q4:AC5"/>
-    <mergeCell ref="AD4:AP5"/>
-    <mergeCell ref="AQ4:BC5"/>
     <mergeCell ref="A13:C28"/>
     <mergeCell ref="A29:C40"/>
     <mergeCell ref="A6:C12"/>
@@ -16626,15 +18518,14 @@
     <mergeCell ref="Q48:AC49"/>
     <mergeCell ref="AD48:AP49"/>
     <mergeCell ref="AJ45:AQ45"/>
-    <mergeCell ref="AR45:AU45"/>
-    <mergeCell ref="AV45:BC45"/>
     <mergeCell ref="G46:N46"/>
     <mergeCell ref="O46:AE46"/>
     <mergeCell ref="AF46:AI46"/>
     <mergeCell ref="AJ46:AQ46"/>
+    <mergeCell ref="AF45:AI45"/>
+    <mergeCell ref="AQ48:BC49"/>
     <mergeCell ref="AR46:AU46"/>
     <mergeCell ref="AV46:BC46"/>
-    <mergeCell ref="AF45:AI45"/>
     <mergeCell ref="A57:C72"/>
     <mergeCell ref="A73:C96"/>
     <mergeCell ref="D63:P64"/>
@@ -16649,6 +18540,1955 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52AE6612-F953-40BE-B3DB-193722671E9C}">
+  <dimension ref="A1:AG26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="W11" sqref="W11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="30.75" customWidth="1"/>
+    <col min="2" max="10" width="2.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="33" width="3.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:33">
+      <c r="A1" s="64"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
+      <c r="K1" s="64"/>
+      <c r="L1" s="64"/>
+      <c r="M1" s="64"/>
+      <c r="N1" s="64"/>
+      <c r="O1" s="64"/>
+      <c r="P1" s="64"/>
+      <c r="Q1" s="64"/>
+      <c r="R1" s="64"/>
+      <c r="S1" s="64"/>
+      <c r="T1" s="64"/>
+      <c r="U1" s="64"/>
+      <c r="V1" s="64"/>
+      <c r="W1" s="64"/>
+      <c r="X1" s="64"/>
+      <c r="Y1" s="64"/>
+      <c r="Z1" s="64"/>
+      <c r="AA1" s="64"/>
+      <c r="AB1" s="64"/>
+      <c r="AC1" s="64"/>
+      <c r="AD1" s="64"/>
+      <c r="AE1" s="64"/>
+      <c r="AF1" s="64"/>
+      <c r="AG1" s="64"/>
+    </row>
+    <row r="2" spans="1:33">
+      <c r="A2" s="64"/>
+      <c r="B2" s="64">
+        <v>1</v>
+      </c>
+      <c r="C2" s="64">
+        <v>2</v>
+      </c>
+      <c r="D2" s="64">
+        <v>3</v>
+      </c>
+      <c r="E2" s="64">
+        <v>4</v>
+      </c>
+      <c r="F2" s="64">
+        <v>5</v>
+      </c>
+      <c r="G2" s="64">
+        <v>6</v>
+      </c>
+      <c r="H2" s="64">
+        <v>7</v>
+      </c>
+      <c r="I2" s="64">
+        <v>8</v>
+      </c>
+      <c r="J2" s="64">
+        <v>9</v>
+      </c>
+      <c r="K2" s="64">
+        <v>10</v>
+      </c>
+      <c r="L2" s="64">
+        <v>11</v>
+      </c>
+      <c r="M2" s="64">
+        <v>12</v>
+      </c>
+      <c r="N2" s="64">
+        <v>13</v>
+      </c>
+      <c r="O2" s="64">
+        <v>14</v>
+      </c>
+      <c r="P2" s="64">
+        <v>15</v>
+      </c>
+      <c r="Q2" s="64">
+        <v>16</v>
+      </c>
+      <c r="R2" s="64">
+        <v>17</v>
+      </c>
+      <c r="S2" s="64">
+        <v>18</v>
+      </c>
+      <c r="T2" s="64">
+        <v>19</v>
+      </c>
+      <c r="U2" s="64">
+        <v>20</v>
+      </c>
+      <c r="V2" s="64">
+        <v>21</v>
+      </c>
+      <c r="W2" s="64">
+        <v>22</v>
+      </c>
+      <c r="X2" s="64">
+        <v>23</v>
+      </c>
+      <c r="Y2" s="64">
+        <v>24</v>
+      </c>
+      <c r="Z2" s="64">
+        <v>25</v>
+      </c>
+      <c r="AA2" s="64">
+        <v>26</v>
+      </c>
+      <c r="AB2" s="64">
+        <v>27</v>
+      </c>
+      <c r="AC2" s="64">
+        <v>28</v>
+      </c>
+      <c r="AD2" s="64">
+        <v>29</v>
+      </c>
+      <c r="AE2" s="64">
+        <v>30</v>
+      </c>
+      <c r="AF2" s="64"/>
+      <c r="AG2" s="64"/>
+    </row>
+    <row r="3" spans="1:33">
+      <c r="A3" s="64" t="s">
+        <v>158</v>
+      </c>
+      <c r="B3" s="64"/>
+      <c r="C3" s="64" t="s">
+        <v>159</v>
+      </c>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="64"/>
+      <c r="I3" s="64"/>
+      <c r="J3" s="64"/>
+      <c r="K3" s="64"/>
+      <c r="L3" s="64"/>
+      <c r="M3" s="64"/>
+      <c r="N3" s="64"/>
+      <c r="O3" s="64"/>
+      <c r="P3" s="64"/>
+      <c r="Q3" s="64"/>
+      <c r="R3" s="64"/>
+      <c r="S3" s="64"/>
+      <c r="T3" s="64"/>
+      <c r="U3" s="64"/>
+      <c r="V3" s="64"/>
+      <c r="W3" s="64"/>
+      <c r="X3" s="64"/>
+      <c r="Y3" s="64"/>
+      <c r="Z3" s="64"/>
+      <c r="AA3" s="64"/>
+      <c r="AB3" s="64"/>
+      <c r="AC3" s="64"/>
+      <c r="AD3" s="64"/>
+      <c r="AE3" s="64"/>
+      <c r="AF3" s="64"/>
+      <c r="AG3" s="64"/>
+    </row>
+    <row r="4" spans="1:33">
+      <c r="A4" s="64" t="s">
+        <v>160</v>
+      </c>
+      <c r="B4" s="64"/>
+      <c r="C4" s="64"/>
+      <c r="D4" s="64" t="s">
+        <v>159</v>
+      </c>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="64"/>
+      <c r="H4" s="64"/>
+      <c r="I4" s="64"/>
+      <c r="J4" s="64"/>
+      <c r="K4" s="64"/>
+      <c r="L4" s="64"/>
+      <c r="M4" s="64"/>
+      <c r="N4" s="64"/>
+      <c r="O4" s="64"/>
+      <c r="P4" s="64"/>
+      <c r="Q4" s="64"/>
+      <c r="R4" s="64"/>
+      <c r="S4" s="64"/>
+      <c r="T4" s="64"/>
+      <c r="U4" s="64"/>
+      <c r="V4" s="64"/>
+      <c r="W4" s="64"/>
+      <c r="X4" s="64"/>
+      <c r="Y4" s="64"/>
+      <c r="Z4" s="64"/>
+      <c r="AA4" s="64"/>
+      <c r="AB4" s="64"/>
+      <c r="AC4" s="64"/>
+      <c r="AD4" s="64"/>
+      <c r="AE4" s="64"/>
+      <c r="AF4" s="64"/>
+      <c r="AG4" s="64"/>
+    </row>
+    <row r="5" spans="1:33">
+      <c r="A5" s="64" t="s">
+        <v>161</v>
+      </c>
+      <c r="B5" s="64"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="64" t="s">
+        <v>159</v>
+      </c>
+      <c r="E5" s="64"/>
+      <c r="F5" s="64"/>
+      <c r="G5" s="64"/>
+      <c r="H5" s="64"/>
+      <c r="I5" s="64"/>
+      <c r="J5" s="64"/>
+      <c r="K5" s="64"/>
+      <c r="L5" s="64"/>
+      <c r="M5" s="64"/>
+      <c r="N5" s="64"/>
+      <c r="O5" s="64"/>
+      <c r="P5" s="64"/>
+      <c r="Q5" s="64"/>
+      <c r="R5" s="64"/>
+      <c r="S5" s="64"/>
+      <c r="T5" s="64"/>
+      <c r="U5" s="64"/>
+      <c r="V5" s="64"/>
+      <c r="W5" s="64"/>
+      <c r="X5" s="64"/>
+      <c r="Y5" s="64"/>
+      <c r="Z5" s="64"/>
+      <c r="AA5" s="64"/>
+      <c r="AB5" s="64"/>
+      <c r="AC5" s="64"/>
+      <c r="AD5" s="64"/>
+      <c r="AE5" s="64"/>
+      <c r="AF5" s="64"/>
+      <c r="AG5" s="64"/>
+    </row>
+    <row r="6" spans="1:33">
+      <c r="A6" s="64" t="s">
+        <v>162</v>
+      </c>
+      <c r="B6" s="64"/>
+      <c r="C6" s="64"/>
+      <c r="D6" s="64" t="s">
+        <v>159</v>
+      </c>
+      <c r="E6" s="64"/>
+      <c r="F6" s="64"/>
+      <c r="G6" s="64"/>
+      <c r="H6" s="64"/>
+      <c r="I6" s="64"/>
+      <c r="J6" s="64"/>
+      <c r="K6" s="64"/>
+      <c r="L6" s="64"/>
+      <c r="M6" s="64"/>
+      <c r="N6" s="64"/>
+      <c r="O6" s="64"/>
+      <c r="P6" s="64"/>
+      <c r="Q6" s="64"/>
+      <c r="R6" s="64"/>
+      <c r="S6" s="64"/>
+      <c r="T6" s="64"/>
+      <c r="U6" s="64"/>
+      <c r="V6" s="64"/>
+      <c r="W6" s="64"/>
+      <c r="X6" s="64"/>
+      <c r="Y6" s="64"/>
+      <c r="Z6" s="64"/>
+      <c r="AA6" s="64"/>
+      <c r="AB6" s="64"/>
+      <c r="AC6" s="64"/>
+      <c r="AD6" s="64"/>
+      <c r="AE6" s="64"/>
+      <c r="AF6" s="64"/>
+      <c r="AG6" s="64"/>
+    </row>
+    <row r="7" spans="1:33">
+      <c r="A7" s="64"/>
+      <c r="B7" s="64"/>
+      <c r="C7" s="64"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="64"/>
+      <c r="G7" s="64"/>
+      <c r="H7" s="64"/>
+      <c r="I7" s="64"/>
+      <c r="J7" s="64"/>
+      <c r="K7" s="64"/>
+      <c r="L7" s="64"/>
+      <c r="M7" s="64"/>
+      <c r="N7" s="64"/>
+      <c r="O7" s="64"/>
+      <c r="P7" s="64"/>
+      <c r="Q7" s="64"/>
+      <c r="R7" s="64"/>
+      <c r="S7" s="64"/>
+      <c r="T7" s="64"/>
+      <c r="U7" s="64"/>
+      <c r="V7" s="64"/>
+      <c r="W7" s="64"/>
+      <c r="X7" s="64"/>
+      <c r="Y7" s="64"/>
+      <c r="Z7" s="64"/>
+      <c r="AA7" s="64"/>
+      <c r="AB7" s="64"/>
+      <c r="AC7" s="64"/>
+      <c r="AD7" s="64"/>
+      <c r="AE7" s="64"/>
+      <c r="AF7" s="64"/>
+      <c r="AG7" s="64"/>
+    </row>
+    <row r="8" spans="1:33">
+      <c r="A8" s="64" t="s">
+        <v>164</v>
+      </c>
+      <c r="B8" s="64"/>
+      <c r="C8" s="64"/>
+      <c r="D8" s="64"/>
+      <c r="E8" s="64"/>
+      <c r="F8" s="64"/>
+      <c r="G8" s="64"/>
+      <c r="H8" s="64"/>
+      <c r="I8" s="64"/>
+      <c r="J8" s="64"/>
+      <c r="K8" s="64"/>
+      <c r="L8" s="64"/>
+      <c r="M8" s="64"/>
+      <c r="N8" s="64"/>
+      <c r="O8" s="64"/>
+      <c r="P8" s="64"/>
+      <c r="Q8" s="64"/>
+      <c r="R8" s="64"/>
+      <c r="S8" s="64"/>
+      <c r="T8" s="64"/>
+      <c r="U8" s="64"/>
+      <c r="V8" s="64"/>
+      <c r="W8" s="64"/>
+      <c r="X8" s="64"/>
+      <c r="Y8" s="64"/>
+      <c r="Z8" s="64"/>
+      <c r="AA8" s="64"/>
+      <c r="AB8" s="64"/>
+      <c r="AC8" s="64"/>
+      <c r="AD8" s="64"/>
+      <c r="AE8" s="64"/>
+      <c r="AF8" s="64"/>
+      <c r="AG8" s="64"/>
+    </row>
+    <row r="9" spans="1:33">
+      <c r="A9" s="64" t="s">
+        <v>163</v>
+      </c>
+      <c r="B9" s="64"/>
+      <c r="C9" s="64"/>
+      <c r="D9" s="64"/>
+      <c r="E9" s="64"/>
+      <c r="F9" s="64"/>
+      <c r="G9" s="64"/>
+      <c r="H9" s="64"/>
+      <c r="I9" s="64"/>
+      <c r="J9" s="64"/>
+      <c r="K9" s="64"/>
+      <c r="L9" s="64"/>
+      <c r="M9" s="64"/>
+      <c r="N9" s="64"/>
+      <c r="O9" s="64"/>
+      <c r="P9" s="64"/>
+      <c r="Q9" s="64"/>
+      <c r="R9" s="64"/>
+      <c r="S9" s="64"/>
+      <c r="T9" s="64"/>
+      <c r="U9" s="64"/>
+      <c r="V9" s="64"/>
+      <c r="W9" s="64"/>
+      <c r="X9" s="64"/>
+      <c r="Y9" s="64"/>
+      <c r="Z9" s="64"/>
+      <c r="AA9" s="64"/>
+      <c r="AB9" s="64"/>
+      <c r="AC9" s="64"/>
+      <c r="AD9" s="64"/>
+      <c r="AE9" s="64"/>
+      <c r="AF9" s="64"/>
+      <c r="AG9" s="64"/>
+    </row>
+    <row r="10" spans="1:33">
+      <c r="A10" s="64" t="s">
+        <v>166</v>
+      </c>
+      <c r="B10" s="64"/>
+      <c r="C10" s="64"/>
+      <c r="D10" s="64"/>
+      <c r="E10" s="64"/>
+      <c r="F10" s="64"/>
+      <c r="G10" s="64"/>
+      <c r="H10" s="64"/>
+      <c r="I10" s="64"/>
+      <c r="J10" s="64"/>
+      <c r="K10" s="64"/>
+      <c r="L10" s="64"/>
+      <c r="M10" s="64"/>
+      <c r="N10" s="64"/>
+      <c r="O10" s="64"/>
+      <c r="P10" s="64"/>
+      <c r="Q10" s="64"/>
+      <c r="R10" s="64"/>
+      <c r="S10" s="64"/>
+      <c r="T10" s="64"/>
+      <c r="U10" s="64"/>
+      <c r="V10" s="64"/>
+      <c r="W10" s="64"/>
+      <c r="X10" s="64"/>
+      <c r="Y10" s="64"/>
+      <c r="Z10" s="64"/>
+      <c r="AA10" s="64"/>
+      <c r="AB10" s="64"/>
+      <c r="AC10" s="64"/>
+      <c r="AD10" s="64"/>
+      <c r="AE10" s="64"/>
+      <c r="AF10" s="64"/>
+      <c r="AG10" s="64"/>
+    </row>
+    <row r="11" spans="1:33">
+      <c r="A11" s="64" t="s">
+        <v>165</v>
+      </c>
+      <c r="B11" s="64"/>
+      <c r="C11" s="64"/>
+      <c r="D11" s="64"/>
+      <c r="E11" s="64"/>
+      <c r="F11" s="64"/>
+      <c r="G11" s="64"/>
+      <c r="H11" s="64"/>
+      <c r="I11" s="64"/>
+      <c r="J11" s="64"/>
+      <c r="K11" s="64"/>
+      <c r="L11" s="64"/>
+      <c r="M11" s="64"/>
+      <c r="N11" s="64"/>
+      <c r="O11" s="64"/>
+      <c r="P11" s="64"/>
+      <c r="Q11" s="64"/>
+      <c r="R11" s="64"/>
+      <c r="S11" s="64"/>
+      <c r="T11" s="64"/>
+      <c r="U11" s="64"/>
+      <c r="V11" s="64"/>
+      <c r="W11" s="64"/>
+      <c r="X11" s="64"/>
+      <c r="Y11" s="64"/>
+      <c r="Z11" s="64"/>
+      <c r="AA11" s="64"/>
+      <c r="AB11" s="64"/>
+      <c r="AC11" s="64"/>
+      <c r="AD11" s="64"/>
+      <c r="AE11" s="64"/>
+      <c r="AF11" s="64"/>
+      <c r="AG11" s="64"/>
+    </row>
+    <row r="12" spans="1:33">
+      <c r="A12" s="64"/>
+      <c r="B12" s="64"/>
+      <c r="C12" s="64"/>
+      <c r="D12" s="64"/>
+      <c r="E12" s="64"/>
+      <c r="F12" s="64"/>
+      <c r="G12" s="64"/>
+      <c r="H12" s="64"/>
+      <c r="I12" s="64"/>
+      <c r="J12" s="64"/>
+      <c r="K12" s="64"/>
+      <c r="L12" s="64"/>
+      <c r="M12" s="64"/>
+      <c r="N12" s="64"/>
+      <c r="O12" s="64"/>
+      <c r="P12" s="64"/>
+      <c r="Q12" s="64"/>
+      <c r="R12" s="64"/>
+      <c r="S12" s="64"/>
+      <c r="T12" s="64"/>
+      <c r="U12" s="64"/>
+      <c r="V12" s="64"/>
+      <c r="W12" s="64"/>
+      <c r="X12" s="64"/>
+      <c r="Y12" s="64"/>
+      <c r="Z12" s="64"/>
+      <c r="AA12" s="64"/>
+      <c r="AB12" s="64"/>
+      <c r="AC12" s="64"/>
+      <c r="AD12" s="64"/>
+      <c r="AE12" s="64"/>
+      <c r="AF12" s="64"/>
+      <c r="AG12" s="64"/>
+    </row>
+    <row r="13" spans="1:33">
+      <c r="A13" s="64" t="s">
+        <v>167</v>
+      </c>
+      <c r="B13" s="64"/>
+      <c r="C13" s="64"/>
+      <c r="D13" s="64"/>
+      <c r="E13" s="64"/>
+      <c r="F13" s="64"/>
+      <c r="G13" s="64"/>
+      <c r="H13" s="64"/>
+      <c r="I13" s="64"/>
+      <c r="J13" s="64"/>
+      <c r="K13" s="64"/>
+      <c r="L13" s="64"/>
+      <c r="M13" s="64"/>
+      <c r="N13" s="64"/>
+      <c r="O13" s="64"/>
+      <c r="P13" s="64"/>
+      <c r="Q13" s="64"/>
+      <c r="R13" s="64"/>
+      <c r="S13" s="64"/>
+      <c r="T13" s="64"/>
+      <c r="U13" s="64"/>
+      <c r="V13" s="64"/>
+      <c r="W13" s="64"/>
+      <c r="X13" s="64"/>
+      <c r="Y13" s="64"/>
+      <c r="Z13" s="64"/>
+      <c r="AA13" s="64"/>
+      <c r="AB13" s="64"/>
+      <c r="AC13" s="64"/>
+      <c r="AD13" s="64"/>
+      <c r="AE13" s="64"/>
+      <c r="AF13" s="64"/>
+      <c r="AG13" s="64"/>
+    </row>
+    <row r="14" spans="1:33">
+      <c r="A14" s="64" t="s">
+        <v>168</v>
+      </c>
+      <c r="B14" s="64"/>
+      <c r="C14" s="64"/>
+      <c r="D14" s="64"/>
+      <c r="E14" s="64"/>
+      <c r="F14" s="64"/>
+      <c r="G14" s="64"/>
+      <c r="H14" s="64"/>
+      <c r="I14" s="64"/>
+      <c r="J14" s="64"/>
+      <c r="K14" s="64"/>
+      <c r="L14" s="64"/>
+      <c r="M14" s="64"/>
+      <c r="N14" s="64"/>
+      <c r="O14" s="64"/>
+      <c r="P14" s="64"/>
+      <c r="Q14" s="64"/>
+      <c r="R14" s="64"/>
+      <c r="S14" s="64"/>
+      <c r="T14" s="64"/>
+      <c r="U14" s="64"/>
+      <c r="V14" s="64"/>
+      <c r="W14" s="64"/>
+      <c r="X14" s="64"/>
+      <c r="Y14" s="64"/>
+      <c r="Z14" s="64"/>
+      <c r="AA14" s="64"/>
+      <c r="AB14" s="64"/>
+      <c r="AC14" s="64"/>
+      <c r="AD14" s="64"/>
+      <c r="AE14" s="64"/>
+      <c r="AF14" s="64"/>
+      <c r="AG14" s="64"/>
+    </row>
+    <row r="15" spans="1:33">
+      <c r="A15" s="64" t="s">
+        <v>169</v>
+      </c>
+      <c r="B15" s="64"/>
+      <c r="C15" s="64"/>
+      <c r="D15" s="64"/>
+      <c r="E15" s="64"/>
+      <c r="F15" s="64"/>
+      <c r="G15" s="64"/>
+      <c r="H15" s="64"/>
+      <c r="I15" s="64"/>
+      <c r="J15" s="64"/>
+      <c r="K15" s="64"/>
+      <c r="L15" s="64"/>
+      <c r="M15" s="64"/>
+      <c r="N15" s="64"/>
+      <c r="O15" s="64"/>
+      <c r="P15" s="64"/>
+      <c r="Q15" s="64"/>
+      <c r="R15" s="64"/>
+      <c r="S15" s="64"/>
+      <c r="T15" s="64"/>
+      <c r="U15" s="64"/>
+      <c r="V15" s="64"/>
+      <c r="W15" s="64"/>
+      <c r="X15" s="64"/>
+      <c r="Y15" s="64"/>
+      <c r="Z15" s="64"/>
+      <c r="AA15" s="64"/>
+      <c r="AB15" s="64"/>
+      <c r="AC15" s="64"/>
+      <c r="AD15" s="64"/>
+      <c r="AE15" s="64"/>
+      <c r="AF15" s="64"/>
+      <c r="AG15" s="64"/>
+    </row>
+    <row r="16" spans="1:33">
+      <c r="A16" s="64"/>
+      <c r="B16" s="64"/>
+      <c r="C16" s="64"/>
+      <c r="D16" s="64"/>
+      <c r="E16" s="64"/>
+      <c r="F16" s="64"/>
+      <c r="G16" s="64"/>
+      <c r="H16" s="64"/>
+      <c r="I16" s="64"/>
+      <c r="J16" s="64"/>
+      <c r="K16" s="64"/>
+      <c r="L16" s="64"/>
+      <c r="M16" s="64"/>
+      <c r="N16" s="64"/>
+      <c r="O16" s="64"/>
+      <c r="P16" s="64"/>
+      <c r="Q16" s="64"/>
+      <c r="R16" s="64"/>
+      <c r="S16" s="64"/>
+      <c r="T16" s="64"/>
+      <c r="U16" s="64"/>
+      <c r="V16" s="64"/>
+      <c r="W16" s="64"/>
+      <c r="X16" s="64"/>
+      <c r="Y16" s="64"/>
+      <c r="Z16" s="64"/>
+      <c r="AA16" s="64"/>
+      <c r="AB16" s="64"/>
+      <c r="AC16" s="64"/>
+      <c r="AD16" s="64"/>
+      <c r="AE16" s="64"/>
+      <c r="AF16" s="64"/>
+      <c r="AG16" s="64"/>
+    </row>
+    <row r="17" spans="1:33">
+      <c r="A17" s="64" t="s">
+        <v>161</v>
+      </c>
+      <c r="B17" s="64"/>
+      <c r="C17" s="64"/>
+      <c r="D17" s="64"/>
+      <c r="E17" s="64"/>
+      <c r="F17" s="64"/>
+      <c r="G17" s="64"/>
+      <c r="H17" s="64"/>
+      <c r="I17" s="64"/>
+      <c r="J17" s="64"/>
+      <c r="K17" s="64"/>
+      <c r="L17" s="64"/>
+      <c r="M17" s="64"/>
+      <c r="N17" s="64"/>
+      <c r="O17" s="64"/>
+      <c r="P17" s="64"/>
+      <c r="Q17" s="64"/>
+      <c r="R17" s="64"/>
+      <c r="S17" s="64"/>
+      <c r="T17" s="64"/>
+      <c r="U17" s="64"/>
+      <c r="V17" s="64"/>
+      <c r="W17" s="64"/>
+      <c r="X17" s="64"/>
+      <c r="Y17" s="64"/>
+      <c r="Z17" s="64"/>
+      <c r="AA17" s="64"/>
+      <c r="AB17" s="64"/>
+      <c r="AC17" s="64"/>
+      <c r="AD17" s="64"/>
+      <c r="AE17" s="64"/>
+      <c r="AF17" s="64"/>
+      <c r="AG17" s="64"/>
+    </row>
+    <row r="18" spans="1:33">
+      <c r="A18" s="64"/>
+      <c r="B18" s="64"/>
+      <c r="C18" s="64"/>
+      <c r="D18" s="64"/>
+      <c r="E18" s="64"/>
+      <c r="F18" s="64"/>
+      <c r="G18" s="64"/>
+      <c r="H18" s="64"/>
+      <c r="I18" s="64"/>
+      <c r="J18" s="64"/>
+      <c r="K18" s="64"/>
+      <c r="L18" s="64"/>
+      <c r="M18" s="64"/>
+      <c r="N18" s="64"/>
+      <c r="O18" s="64"/>
+      <c r="P18" s="64"/>
+      <c r="Q18" s="64"/>
+      <c r="R18" s="64"/>
+      <c r="S18" s="64"/>
+      <c r="T18" s="64"/>
+      <c r="U18" s="64"/>
+      <c r="V18" s="64"/>
+      <c r="W18" s="64"/>
+      <c r="X18" s="64"/>
+      <c r="Y18" s="64"/>
+      <c r="Z18" s="64"/>
+      <c r="AA18" s="64"/>
+      <c r="AB18" s="64"/>
+      <c r="AC18" s="64"/>
+      <c r="AD18" s="64"/>
+      <c r="AE18" s="64"/>
+      <c r="AF18" s="64"/>
+      <c r="AG18" s="64"/>
+    </row>
+    <row r="19" spans="1:33">
+      <c r="A19" s="64" t="s">
+        <v>162</v>
+      </c>
+      <c r="B19" s="64"/>
+      <c r="C19" s="64"/>
+      <c r="D19" s="64"/>
+      <c r="E19" s="64"/>
+      <c r="F19" s="64"/>
+      <c r="G19" s="64"/>
+      <c r="H19" s="64"/>
+      <c r="I19" s="64"/>
+      <c r="J19" s="64"/>
+      <c r="K19" s="64"/>
+      <c r="L19" s="64"/>
+      <c r="M19" s="64"/>
+      <c r="N19" s="64"/>
+      <c r="O19" s="64"/>
+      <c r="P19" s="64"/>
+      <c r="Q19" s="64"/>
+      <c r="R19" s="64"/>
+      <c r="S19" s="64"/>
+      <c r="T19" s="64"/>
+      <c r="U19" s="64"/>
+      <c r="V19" s="64"/>
+      <c r="W19" s="64"/>
+      <c r="X19" s="64"/>
+      <c r="Y19" s="64"/>
+      <c r="Z19" s="64"/>
+      <c r="AA19" s="64"/>
+      <c r="AB19" s="64"/>
+      <c r="AC19" s="64"/>
+      <c r="AD19" s="64"/>
+      <c r="AE19" s="64"/>
+      <c r="AF19" s="64"/>
+      <c r="AG19" s="64"/>
+    </row>
+    <row r="20" spans="1:33">
+      <c r="A20" s="64" t="s">
+        <v>170</v>
+      </c>
+      <c r="B20" s="64"/>
+      <c r="C20" s="64"/>
+      <c r="D20" s="64"/>
+      <c r="E20" s="64"/>
+      <c r="F20" s="64"/>
+      <c r="G20" s="64"/>
+      <c r="H20" s="64"/>
+      <c r="I20" s="64"/>
+      <c r="J20" s="64"/>
+      <c r="K20" s="64"/>
+      <c r="L20" s="64"/>
+      <c r="M20" s="64"/>
+      <c r="N20" s="64"/>
+      <c r="O20" s="64"/>
+      <c r="P20" s="64"/>
+      <c r="Q20" s="64"/>
+      <c r="R20" s="64"/>
+      <c r="S20" s="64"/>
+      <c r="T20" s="64"/>
+      <c r="U20" s="64"/>
+      <c r="V20" s="64"/>
+      <c r="W20" s="64"/>
+      <c r="X20" s="64"/>
+      <c r="Y20" s="64"/>
+      <c r="Z20" s="64"/>
+      <c r="AA20" s="64"/>
+      <c r="AB20" s="64"/>
+      <c r="AC20" s="64"/>
+      <c r="AD20" s="64"/>
+      <c r="AE20" s="64"/>
+      <c r="AF20" s="64"/>
+      <c r="AG20" s="64"/>
+    </row>
+    <row r="21" spans="1:33">
+      <c r="A21" s="64"/>
+      <c r="B21" s="64"/>
+      <c r="C21" s="64"/>
+      <c r="D21" s="64"/>
+      <c r="E21" s="64"/>
+      <c r="F21" s="64"/>
+      <c r="G21" s="64"/>
+      <c r="H21" s="64"/>
+      <c r="I21" s="64"/>
+      <c r="J21" s="64"/>
+      <c r="K21" s="64"/>
+      <c r="L21" s="64"/>
+      <c r="M21" s="64"/>
+      <c r="N21" s="64"/>
+      <c r="O21" s="64"/>
+      <c r="P21" s="64"/>
+      <c r="Q21" s="64"/>
+      <c r="R21" s="64"/>
+      <c r="S21" s="64"/>
+      <c r="T21" s="64"/>
+      <c r="U21" s="64"/>
+      <c r="V21" s="64"/>
+      <c r="W21" s="64"/>
+      <c r="X21" s="64"/>
+      <c r="Y21" s="64"/>
+      <c r="Z21" s="64"/>
+      <c r="AA21" s="64"/>
+      <c r="AB21" s="64"/>
+      <c r="AC21" s="64"/>
+      <c r="AD21" s="64"/>
+      <c r="AE21" s="64"/>
+      <c r="AF21" s="64"/>
+      <c r="AG21" s="64"/>
+    </row>
+    <row r="22" spans="1:33">
+      <c r="A22" s="64"/>
+      <c r="B22" s="64"/>
+      <c r="C22" s="64"/>
+      <c r="D22" s="64"/>
+      <c r="E22" s="64"/>
+      <c r="F22" s="64"/>
+      <c r="G22" s="64"/>
+      <c r="H22" s="64"/>
+      <c r="I22" s="64"/>
+      <c r="J22" s="64"/>
+      <c r="K22" s="64"/>
+      <c r="L22" s="64"/>
+      <c r="M22" s="64"/>
+      <c r="N22" s="64"/>
+      <c r="O22" s="64"/>
+      <c r="P22" s="64"/>
+      <c r="Q22" s="64"/>
+      <c r="R22" s="64"/>
+      <c r="S22" s="64"/>
+      <c r="T22" s="64"/>
+      <c r="U22" s="64"/>
+      <c r="V22" s="64"/>
+      <c r="W22" s="64"/>
+      <c r="X22" s="64"/>
+      <c r="Y22" s="64"/>
+      <c r="Z22" s="64"/>
+      <c r="AA22" s="64"/>
+      <c r="AB22" s="64"/>
+      <c r="AC22" s="64"/>
+      <c r="AD22" s="64"/>
+      <c r="AE22" s="64"/>
+      <c r="AF22" s="64"/>
+      <c r="AG22" s="64"/>
+    </row>
+    <row r="23" spans="1:33">
+      <c r="A23" s="64"/>
+      <c r="B23" s="64"/>
+      <c r="C23" s="64"/>
+      <c r="D23" s="64"/>
+      <c r="E23" s="64"/>
+      <c r="F23" s="64"/>
+      <c r="G23" s="64"/>
+      <c r="H23" s="64"/>
+      <c r="I23" s="64"/>
+      <c r="J23" s="64"/>
+      <c r="K23" s="64"/>
+      <c r="L23" s="64"/>
+      <c r="M23" s="64"/>
+      <c r="N23" s="64"/>
+      <c r="O23" s="64"/>
+      <c r="P23" s="64"/>
+      <c r="Q23" s="64"/>
+      <c r="R23" s="64"/>
+      <c r="S23" s="64"/>
+      <c r="T23" s="64"/>
+      <c r="U23" s="64"/>
+      <c r="V23" s="64"/>
+      <c r="W23" s="64"/>
+      <c r="X23" s="64"/>
+      <c r="Y23" s="64"/>
+      <c r="Z23" s="64"/>
+      <c r="AA23" s="64"/>
+      <c r="AB23" s="64"/>
+      <c r="AC23" s="64"/>
+      <c r="AD23" s="64"/>
+      <c r="AE23" s="64"/>
+      <c r="AF23" s="64"/>
+      <c r="AG23" s="64"/>
+    </row>
+    <row r="24" spans="1:33">
+      <c r="A24" s="64"/>
+      <c r="B24" s="64"/>
+      <c r="C24" s="64"/>
+      <c r="D24" s="64"/>
+      <c r="E24" s="64"/>
+      <c r="F24" s="64"/>
+      <c r="G24" s="64"/>
+      <c r="H24" s="64"/>
+      <c r="I24" s="64"/>
+      <c r="J24" s="64"/>
+      <c r="K24" s="64"/>
+      <c r="L24" s="64"/>
+      <c r="M24" s="64"/>
+      <c r="N24" s="64"/>
+      <c r="O24" s="64"/>
+      <c r="P24" s="64"/>
+      <c r="Q24" s="64"/>
+      <c r="R24" s="64"/>
+      <c r="S24" s="64"/>
+      <c r="T24" s="64"/>
+      <c r="U24" s="64"/>
+      <c r="V24" s="64"/>
+      <c r="W24" s="64"/>
+      <c r="X24" s="64"/>
+      <c r="Y24" s="64"/>
+      <c r="Z24" s="64"/>
+      <c r="AA24" s="64"/>
+      <c r="AB24" s="64"/>
+      <c r="AC24" s="64"/>
+      <c r="AD24" s="64"/>
+      <c r="AE24" s="64"/>
+      <c r="AF24" s="64"/>
+      <c r="AG24" s="64"/>
+    </row>
+    <row r="25" spans="1:33">
+      <c r="A25" s="64"/>
+      <c r="B25" s="64"/>
+      <c r="C25" s="64"/>
+      <c r="D25" s="64"/>
+      <c r="E25" s="64"/>
+      <c r="F25" s="64"/>
+      <c r="G25" s="64"/>
+      <c r="H25" s="64"/>
+      <c r="I25" s="64"/>
+      <c r="J25" s="64"/>
+      <c r="K25" s="64"/>
+      <c r="L25" s="64"/>
+      <c r="M25" s="64"/>
+      <c r="N25" s="64"/>
+      <c r="O25" s="64"/>
+      <c r="P25" s="64"/>
+      <c r="Q25" s="64"/>
+      <c r="R25" s="64"/>
+      <c r="S25" s="64"/>
+      <c r="T25" s="64"/>
+      <c r="U25" s="64"/>
+      <c r="V25" s="64"/>
+      <c r="W25" s="64"/>
+      <c r="X25" s="64"/>
+      <c r="Y25" s="64"/>
+      <c r="Z25" s="64"/>
+      <c r="AA25" s="64"/>
+      <c r="AB25" s="64"/>
+      <c r="AC25" s="64"/>
+      <c r="AD25" s="64"/>
+      <c r="AE25" s="64"/>
+      <c r="AF25" s="64"/>
+      <c r="AG25" s="64"/>
+    </row>
+    <row r="26" spans="1:33">
+      <c r="A26" s="64"/>
+      <c r="B26" s="64"/>
+      <c r="C26" s="64"/>
+      <c r="D26" s="64"/>
+      <c r="E26" s="64"/>
+      <c r="F26" s="64"/>
+      <c r="G26" s="64"/>
+      <c r="H26" s="64"/>
+      <c r="I26" s="64"/>
+      <c r="J26" s="64"/>
+      <c r="K26" s="64"/>
+      <c r="L26" s="64"/>
+      <c r="M26" s="64"/>
+      <c r="N26" s="64"/>
+      <c r="O26" s="64"/>
+      <c r="P26" s="64"/>
+      <c r="Q26" s="64"/>
+      <c r="R26" s="64"/>
+      <c r="S26" s="64"/>
+      <c r="T26" s="64"/>
+      <c r="U26" s="64"/>
+      <c r="V26" s="64"/>
+      <c r="W26" s="64"/>
+      <c r="X26" s="64"/>
+      <c r="Y26" s="64"/>
+      <c r="Z26" s="64"/>
+      <c r="AA26" s="64"/>
+      <c r="AB26" s="64"/>
+      <c r="AC26" s="64"/>
+      <c r="AD26" s="64"/>
+      <c r="AE26" s="64"/>
+      <c r="AF26" s="64"/>
+      <c r="AG26" s="64"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48F05230-2FA2-4429-BD9D-BA18E0E9B0EE}">
+  <dimension ref="A1:H26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="2" max="2" width="14.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="14.25" thickBot="1"/>
+    <row r="3" spans="1:8">
+      <c r="B3" s="65" t="s">
+        <v>175</v>
+      </c>
+      <c r="C3" s="66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="B4" s="67" t="s">
+        <v>174</v>
+      </c>
+      <c r="C4" s="68">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="B5" s="67" t="s">
+        <v>172</v>
+      </c>
+      <c r="C5" s="68">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="14.25" thickBot="1">
+      <c r="B6" s="69" t="s">
+        <v>173</v>
+      </c>
+      <c r="C6" s="70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="14.25" thickBot="1"/>
+    <row r="9" spans="1:8">
+      <c r="B9" s="65" t="s">
+        <v>175</v>
+      </c>
+      <c r="C9" s="66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="B10" s="67" t="s">
+        <v>174</v>
+      </c>
+      <c r="C10" s="68">
+        <v>1</v>
+      </c>
+      <c r="E10" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="B11" s="67" t="s">
+        <v>172</v>
+      </c>
+      <c r="C11" s="68">
+        <v>1</v>
+      </c>
+      <c r="E11" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="14.25" thickBot="1">
+      <c r="B12" s="69" t="s">
+        <v>173</v>
+      </c>
+      <c r="C12" s="70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="H13" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" ht="14.25" thickBot="1"/>
+    <row r="20" spans="2:5">
+      <c r="B20" s="65" t="s">
+        <v>175</v>
+      </c>
+      <c r="C20" s="66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5">
+      <c r="B21" s="67" t="s">
+        <v>174</v>
+      </c>
+      <c r="C21" s="68">
+        <v>1</v>
+      </c>
+      <c r="E21" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5">
+      <c r="B22" s="67" t="s">
+        <v>172</v>
+      </c>
+      <c r="C22" s="68">
+        <v>1</v>
+      </c>
+      <c r="E22" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" ht="14.25" thickBot="1">
+      <c r="B23" s="69" t="s">
+        <v>173</v>
+      </c>
+      <c r="C23" s="70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5">
+      <c r="E26" t="s">
+        <v>181</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{364C05D2-C698-4939-9826-14C25C695399}">
+  <dimension ref="A1:F47"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="M33" sqref="M33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="16.125" style="73" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13" style="73" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="9" style="73"/>
+    <col min="5" max="5" width="30.875" style="73" customWidth="1"/>
+    <col min="6" max="6" width="18.375" style="73" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="73"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="71" t="s">
+        <v>183</v>
+      </c>
+      <c r="B1" s="72"/>
+      <c r="C1" s="71" t="s">
+        <v>184</v>
+      </c>
+      <c r="D1" s="71" t="s">
+        <v>185</v>
+      </c>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="72">
+        <v>1</v>
+      </c>
+      <c r="B2" s="71" t="s">
+        <v>186</v>
+      </c>
+      <c r="C2" s="74">
+        <v>9</v>
+      </c>
+      <c r="D2" s="74">
+        <v>1</v>
+      </c>
+      <c r="E2" s="72" t="s">
+        <v>187</v>
+      </c>
+      <c r="F2" s="72"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="72">
+        <v>2</v>
+      </c>
+      <c r="B3" s="72" t="s">
+        <v>188</v>
+      </c>
+      <c r="C3" s="72">
+        <v>9</v>
+      </c>
+      <c r="D3" s="72">
+        <v>2</v>
+      </c>
+      <c r="E3" s="72" t="s">
+        <v>189</v>
+      </c>
+      <c r="F3" s="72"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="72">
+        <v>3</v>
+      </c>
+      <c r="B4" s="72" t="s">
+        <v>190</v>
+      </c>
+      <c r="C4" s="72">
+        <v>9</v>
+      </c>
+      <c r="D4" s="72">
+        <v>1</v>
+      </c>
+      <c r="E4" s="71" t="s">
+        <v>191</v>
+      </c>
+      <c r="F4" s="71"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="72">
+        <v>4</v>
+      </c>
+      <c r="B5" s="72" t="s">
+        <v>192</v>
+      </c>
+      <c r="C5" s="72">
+        <v>9</v>
+      </c>
+      <c r="D5" s="72">
+        <v>10</v>
+      </c>
+      <c r="E5" s="71" t="s">
+        <v>193</v>
+      </c>
+      <c r="F5" s="71"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="72">
+        <v>5</v>
+      </c>
+      <c r="B6" s="72" t="s">
+        <v>194</v>
+      </c>
+      <c r="C6" s="75" t="s">
+        <v>195</v>
+      </c>
+      <c r="D6" s="72">
+        <v>40</v>
+      </c>
+      <c r="E6" s="71" t="s">
+        <v>196</v>
+      </c>
+      <c r="F6" s="71"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="72">
+        <v>6</v>
+      </c>
+      <c r="B7" s="72" t="s">
+        <v>197</v>
+      </c>
+      <c r="C7" s="72">
+        <v>9</v>
+      </c>
+      <c r="D7" s="72">
+        <v>4</v>
+      </c>
+      <c r="E7" s="77" t="s">
+        <v>198</v>
+      </c>
+      <c r="F7" s="71" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="72">
+        <v>7</v>
+      </c>
+      <c r="B8" s="77" t="s">
+        <v>200</v>
+      </c>
+      <c r="C8" s="72">
+        <v>9</v>
+      </c>
+      <c r="D8" s="72">
+        <v>4</v>
+      </c>
+      <c r="E8" s="72"/>
+      <c r="F8" s="71" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="72">
+        <v>8</v>
+      </c>
+      <c r="B9" s="71" t="s">
+        <v>202</v>
+      </c>
+      <c r="C9" s="75" t="s">
+        <v>195</v>
+      </c>
+      <c r="D9" s="72">
+        <v>15</v>
+      </c>
+      <c r="E9" s="71" t="s">
+        <v>242</v>
+      </c>
+      <c r="F9" s="71" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="72">
+        <v>9</v>
+      </c>
+      <c r="B10" s="71" t="s">
+        <v>204</v>
+      </c>
+      <c r="C10" s="72">
+        <v>9</v>
+      </c>
+      <c r="D10" s="72">
+        <v>3</v>
+      </c>
+      <c r="E10" s="72"/>
+      <c r="F10" s="71" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="72">
+        <v>10</v>
+      </c>
+      <c r="B11" s="71" t="s">
+        <v>206</v>
+      </c>
+      <c r="C11" s="75" t="s">
+        <v>195</v>
+      </c>
+      <c r="D11" s="72">
+        <v>15</v>
+      </c>
+      <c r="E11" s="71" t="s">
+        <v>242</v>
+      </c>
+      <c r="F11" s="71" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="72">
+        <v>11</v>
+      </c>
+      <c r="B12" s="71" t="s">
+        <v>208</v>
+      </c>
+      <c r="C12" s="72">
+        <v>9</v>
+      </c>
+      <c r="D12" s="72">
+        <v>1</v>
+      </c>
+      <c r="E12" s="72"/>
+      <c r="F12" s="71" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="72">
+        <v>12</v>
+      </c>
+      <c r="B13" s="77" t="s">
+        <v>210</v>
+      </c>
+      <c r="C13" s="72">
+        <v>9</v>
+      </c>
+      <c r="D13" s="72">
+        <v>7</v>
+      </c>
+      <c r="E13" s="72"/>
+      <c r="F13" s="71" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="72">
+        <v>13</v>
+      </c>
+      <c r="B14" s="71" t="s">
+        <v>212</v>
+      </c>
+      <c r="C14" s="75" t="s">
+        <v>195</v>
+      </c>
+      <c r="D14" s="72">
+        <v>17</v>
+      </c>
+      <c r="E14" s="71" t="s">
+        <v>213</v>
+      </c>
+      <c r="F14" s="71"/>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="71" t="s">
+        <v>214</v>
+      </c>
+      <c r="B17" s="72"/>
+      <c r="C17" s="71" t="s">
+        <v>184</v>
+      </c>
+      <c r="D17" s="71" t="s">
+        <v>185</v>
+      </c>
+      <c r="E17" s="72"/>
+      <c r="F17" s="72"/>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="72">
+        <v>1</v>
+      </c>
+      <c r="B18" s="71" t="s">
+        <v>186</v>
+      </c>
+      <c r="C18" s="74">
+        <v>9</v>
+      </c>
+      <c r="D18" s="74">
+        <v>1</v>
+      </c>
+      <c r="E18" s="72" t="s">
+        <v>215</v>
+      </c>
+      <c r="F18" s="72"/>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="72">
+        <v>2</v>
+      </c>
+      <c r="B19" s="71" t="s">
+        <v>216</v>
+      </c>
+      <c r="C19" s="72">
+        <v>9</v>
+      </c>
+      <c r="D19" s="72">
+        <v>4</v>
+      </c>
+      <c r="E19" s="72"/>
+      <c r="F19" s="71" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="72">
+        <v>3</v>
+      </c>
+      <c r="B20" s="71" t="s">
+        <v>217</v>
+      </c>
+      <c r="C20" s="75" t="s">
+        <v>195</v>
+      </c>
+      <c r="D20" s="72">
+        <v>15</v>
+      </c>
+      <c r="E20" s="71" t="s">
+        <v>242</v>
+      </c>
+      <c r="F20" s="71" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="72">
+        <v>4</v>
+      </c>
+      <c r="B21" s="71" t="s">
+        <v>218</v>
+      </c>
+      <c r="C21" s="72">
+        <v>9</v>
+      </c>
+      <c r="D21" s="72">
+        <v>3</v>
+      </c>
+      <c r="E21" s="72"/>
+      <c r="F21" s="71" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="72">
+        <v>5</v>
+      </c>
+      <c r="B22" s="71" t="s">
+        <v>219</v>
+      </c>
+      <c r="C22" s="75" t="s">
+        <v>195</v>
+      </c>
+      <c r="D22" s="72">
+        <v>15</v>
+      </c>
+      <c r="E22" s="71" t="s">
+        <v>243</v>
+      </c>
+      <c r="F22" s="71" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="72">
+        <v>6</v>
+      </c>
+      <c r="B23" s="71" t="s">
+        <v>212</v>
+      </c>
+      <c r="C23" s="75" t="s">
+        <v>195</v>
+      </c>
+      <c r="D23" s="72">
+        <v>4</v>
+      </c>
+      <c r="E23" s="71" t="s">
+        <v>213</v>
+      </c>
+      <c r="F23" s="71"/>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="72">
+        <v>7</v>
+      </c>
+      <c r="B24" s="71" t="s">
+        <v>208</v>
+      </c>
+      <c r="C24" s="72">
+        <v>9</v>
+      </c>
+      <c r="D24" s="72">
+        <v>1</v>
+      </c>
+      <c r="E24" s="71" t="s">
+        <v>220</v>
+      </c>
+      <c r="F24" s="71" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="72">
+        <v>8</v>
+      </c>
+      <c r="B25" s="71" t="s">
+        <v>210</v>
+      </c>
+      <c r="C25" s="72">
+        <v>9</v>
+      </c>
+      <c r="D25" s="72">
+        <v>7</v>
+      </c>
+      <c r="E25" s="71" t="s">
+        <v>221</v>
+      </c>
+      <c r="F25" s="71" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="72">
+        <v>9</v>
+      </c>
+      <c r="B26" s="71" t="s">
+        <v>222</v>
+      </c>
+      <c r="C26" s="75" t="s">
+        <v>195</v>
+      </c>
+      <c r="D26" s="72">
+        <v>30</v>
+      </c>
+      <c r="E26" s="71" t="s">
+        <v>196</v>
+      </c>
+      <c r="F26" s="71" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="72">
+        <v>10</v>
+      </c>
+      <c r="B27" s="71" t="s">
+        <v>224</v>
+      </c>
+      <c r="C27" s="72">
+        <v>9</v>
+      </c>
+      <c r="D27" s="76">
+        <v>10</v>
+      </c>
+      <c r="E27" s="71" t="s">
+        <v>221</v>
+      </c>
+      <c r="F27" s="71" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="72">
+        <v>11</v>
+      </c>
+      <c r="B28" s="71" t="s">
+        <v>225</v>
+      </c>
+      <c r="C28" s="72">
+        <v>9</v>
+      </c>
+      <c r="D28" s="76">
+        <v>1</v>
+      </c>
+      <c r="E28" s="71" t="s">
+        <v>226</v>
+      </c>
+      <c r="F28" s="71"/>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="72">
+        <v>12</v>
+      </c>
+      <c r="B29" s="71" t="s">
+        <v>227</v>
+      </c>
+      <c r="C29" s="75" t="s">
+        <v>195</v>
+      </c>
+      <c r="D29" s="76">
+        <v>20</v>
+      </c>
+      <c r="E29" s="71" t="s">
+        <v>244</v>
+      </c>
+      <c r="F29" s="71" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="72">
+        <v>13</v>
+      </c>
+      <c r="B30" s="71" t="s">
+        <v>229</v>
+      </c>
+      <c r="C30" s="72">
+        <v>9</v>
+      </c>
+      <c r="D30" s="72">
+        <v>1</v>
+      </c>
+      <c r="E30" s="71" t="s">
+        <v>230</v>
+      </c>
+      <c r="F30" s="71"/>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="72">
+        <v>14</v>
+      </c>
+      <c r="B31" s="71" t="s">
+        <v>212</v>
+      </c>
+      <c r="C31" s="75" t="s">
+        <v>195</v>
+      </c>
+      <c r="D31" s="72">
+        <v>8</v>
+      </c>
+      <c r="E31" s="71" t="s">
+        <v>213</v>
+      </c>
+      <c r="F31" s="71"/>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="72" t="s">
+        <v>231</v>
+      </c>
+      <c r="B34" s="72"/>
+      <c r="C34" s="71" t="s">
+        <v>184</v>
+      </c>
+      <c r="D34" s="71" t="s">
+        <v>185</v>
+      </c>
+      <c r="E34" s="72"/>
+      <c r="F34" s="72"/>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="72">
+        <v>1</v>
+      </c>
+      <c r="B35" s="71" t="s">
+        <v>186</v>
+      </c>
+      <c r="C35" s="74">
+        <v>9</v>
+      </c>
+      <c r="D35" s="74">
+        <v>1</v>
+      </c>
+      <c r="E35" s="72" t="s">
+        <v>232</v>
+      </c>
+      <c r="F35" s="72"/>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="72">
+        <v>2</v>
+      </c>
+      <c r="B36" s="72" t="s">
+        <v>233</v>
+      </c>
+      <c r="C36" s="74">
+        <v>9</v>
+      </c>
+      <c r="D36" s="72">
+        <v>6</v>
+      </c>
+      <c r="E36" s="71" t="s">
+        <v>234</v>
+      </c>
+      <c r="F36" s="71"/>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="72">
+        <v>3</v>
+      </c>
+      <c r="B37" s="71" t="s">
+        <v>235</v>
+      </c>
+      <c r="C37" s="74">
+        <v>9</v>
+      </c>
+      <c r="D37" s="72">
+        <v>12</v>
+      </c>
+      <c r="E37" s="71" t="s">
+        <v>234</v>
+      </c>
+      <c r="F37" s="71"/>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="72">
+        <v>4</v>
+      </c>
+      <c r="B38" s="71" t="s">
+        <v>236</v>
+      </c>
+      <c r="C38" s="74">
+        <v>9</v>
+      </c>
+      <c r="D38" s="72">
+        <v>6</v>
+      </c>
+      <c r="E38" s="71" t="s">
+        <v>193</v>
+      </c>
+      <c r="F38" s="71"/>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="72">
+        <v>5</v>
+      </c>
+      <c r="B39" s="71" t="s">
+        <v>237</v>
+      </c>
+      <c r="C39" s="74">
+        <v>9</v>
+      </c>
+      <c r="D39" s="72">
+        <v>12</v>
+      </c>
+      <c r="E39" s="71" t="s">
+        <v>193</v>
+      </c>
+      <c r="F39" s="71"/>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="72">
+        <v>6</v>
+      </c>
+      <c r="B40" s="71" t="s">
+        <v>238</v>
+      </c>
+      <c r="C40" s="74">
+        <v>9</v>
+      </c>
+      <c r="D40" s="72">
+        <v>6</v>
+      </c>
+      <c r="E40" s="71" t="s">
+        <v>193</v>
+      </c>
+      <c r="F40" s="71"/>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="72">
+        <v>7</v>
+      </c>
+      <c r="B41" s="71" t="s">
+        <v>239</v>
+      </c>
+      <c r="C41" s="74">
+        <v>9</v>
+      </c>
+      <c r="D41" s="72">
+        <v>12</v>
+      </c>
+      <c r="E41" s="71" t="s">
+        <v>193</v>
+      </c>
+      <c r="F41" s="71"/>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="72">
+        <v>8</v>
+      </c>
+      <c r="B42" s="71" t="s">
+        <v>212</v>
+      </c>
+      <c r="C42" s="75" t="s">
+        <v>195</v>
+      </c>
+      <c r="D42" s="72">
+        <v>65</v>
+      </c>
+      <c r="E42" s="71" t="s">
+        <v>213</v>
+      </c>
+      <c r="F42" s="71"/>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="71" t="s">
+        <v>240</v>
+      </c>
+      <c r="B45" s="72"/>
+      <c r="C45" s="71" t="s">
+        <v>184</v>
+      </c>
+      <c r="D45" s="71" t="s">
+        <v>185</v>
+      </c>
+      <c r="E45" s="72"/>
+      <c r="F45" s="72"/>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="72">
+        <v>1</v>
+      </c>
+      <c r="B46" s="71" t="s">
+        <v>186</v>
+      </c>
+      <c r="C46" s="74">
+        <v>9</v>
+      </c>
+      <c r="D46" s="74">
+        <v>1</v>
+      </c>
+      <c r="E46" s="72" t="s">
+        <v>241</v>
+      </c>
+      <c r="F46" s="72"/>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="72">
+        <v>2</v>
+      </c>
+      <c r="B47" s="71" t="s">
+        <v>212</v>
+      </c>
+      <c r="C47" s="75" t="s">
+        <v>195</v>
+      </c>
+      <c r="D47" s="74">
+        <v>119</v>
+      </c>
+      <c r="E47" s="71" t="s">
+        <v>213</v>
+      </c>
+      <c r="F47" s="71"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A787FDD9-CEBD-4A9C-80FE-0E245A10CDA7}">
   <dimension ref="A1:S35"/>
   <sheetViews>
@@ -16808,14 +20648,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97420AAF-D3E0-435B-8240-AAA34C2F822D}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="X19" sqref="X19"/>
     </sheetView>
   </sheetViews>
@@ -16831,7 +20671,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9252281D-548E-4462-B5BF-37DF1747F4C2}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -16880,7 +20720,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8ED2544B-8D98-45F6-AB64-2F366EC5A64E}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -16901,80 +20741,4 @@
   <pageSetup paperSize="9" scale="74" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B24B5982-8541-44DB-B3BD-1B096671C8F5}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="V61" sqref="V61"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
-  <cols>
-    <col min="1" max="16384" width="9" style="1"/>
-  </cols>
-  <sheetData/>
-  <phoneticPr fontId="2"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="74" fitToHeight="0" orientation="landscape" r:id="rId1"/>
-  <rowBreaks count="1" manualBreakCount="1">
-    <brk id="51" max="16383" man="1"/>
-  </rowBreaks>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA48FBA2-72B7-4C12-94E8-D245E2213145}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="R14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="T23" sqref="T23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
-  <cols>
-    <col min="1" max="16384" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="14" spans="18:18">
-      <c r="R14" s="2"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="92" orientation="landscape" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA7ED03A-26E0-4B65-8761-FC4FD6E2F58A}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="L53" sqref="L53"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
-  <cols>
-    <col min="1" max="16384" width="9" style="1"/>
-  </cols>
-  <sheetData/>
-  <phoneticPr fontId="2"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="92" orientation="landscape" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
 </file>
--- a/市場_2025改修/基本設計_2025/概要20250606修正.xlsx
+++ b/市場_2025改修/基本設計_2025/概要20250606修正.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01_Work\Git\si001\市場_2025改修\基本設計_2025\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\works\Git\si001\市場_2025改修\基本設計_2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57FB3D59-298B-4848-996D-64A741707BF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C151FFA-9F5E-453F-8413-4ED30DEC4F94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{78BC9F0C-B871-4580-9558-94BE9D1399D8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{78BC9F0C-B871-4580-9558-94BE9D1399D8}"/>
   </bookViews>
   <sheets>
     <sheet name="アプリ構成" sheetId="9" r:id="rId1"/>
@@ -30,9 +30,13 @@
   <definedNames>
     <definedName name="a">#REF!</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">アプリ構成!$A$1:$BL$64</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">フロー!$A$48:$BC$96</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="6">メニュー!$A$1:$T$51</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">月間スケジュール!$A$1:$AE$26</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="10">口座データ!$A$1:$P$43</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="7">口座マスタ!$A$1:$T$51</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">全銀!$A$1:$I$27</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">全銀データ!$A$1:$L$49</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="9">調整入力!$A$1:$T$104</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="11">入金消込!$A$1:$P$43</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="8">納付書!$A$1:$T$51</definedName>
@@ -60,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="247">
   <si>
     <t>銀行名</t>
     <rPh sb="0" eb="2">
@@ -1986,6 +1990,13 @@
       <t>ゴウケイ</t>
     </rPh>
     <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>業務スケジュール</t>
+    <rPh sb="0" eb="2">
+      <t>ギョウム</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
@@ -4783,8 +4794,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8879205" y="937260"/>
-          <a:ext cx="3015853" cy="3571875"/>
+          <a:off x="7827645" y="1042035"/>
+          <a:ext cx="2672953" cy="3571875"/>
           <a:chOff x="8963025" y="809625"/>
           <a:chExt cx="3038713" cy="3571875"/>
         </a:xfrm>
@@ -5777,7 +5788,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>50</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
+      <xdr:colOff>165735</xdr:colOff>
       <xdr:row>37</xdr:row>
       <xdr:rowOff>82674</xdr:rowOff>
     </xdr:to>
@@ -14331,20 +14342,20 @@
   </sheetPr>
   <dimension ref="A1:BL64"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="U1" sqref="U1:AI1"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection sqref="A1:BL64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.5" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="2.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="7" width="2.5" style="3"/>
-    <col min="8" max="8" width="2.75" style="3" customWidth="1"/>
-    <col min="9" max="12" width="2.5" style="3"/>
-    <col min="13" max="13" width="3.75" style="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="2.5" style="3"/>
+    <col min="1" max="7" width="2.44140625" style="3"/>
+    <col min="8" max="8" width="2.77734375" style="3" customWidth="1"/>
+    <col min="9" max="12" width="2.44140625" style="3"/>
+    <col min="13" max="13" width="3.77734375" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="2.44140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:64" ht="30" customHeight="1">
+    <row r="1" spans="1:64" ht="38.4" customHeight="1">
       <c r="A1" s="87" t="s">
         <v>5</v>
       </c>
@@ -14422,7 +14433,7 @@
       <c r="BK1" s="80"/>
       <c r="BL1" s="80"/>
     </row>
-    <row r="2" spans="1:64" ht="18.75" customHeight="1">
+    <row r="2" spans="1:64" ht="18.600000000000001" customHeight="1">
       <c r="A2" s="87"/>
       <c r="B2" s="87"/>
       <c r="C2" s="87"/>
@@ -15305,7 +15316,7 @@
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>
-  <pageSetup paperSize="9" scale="63" orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="63" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -15322,7 +15333,7 @@
       <selection activeCell="V61" sqref="V61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
@@ -15348,7 +15359,7 @@
       <selection activeCell="T23" sqref="T23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
@@ -15375,7 +15386,7 @@
       <selection activeCell="L53" sqref="L53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
@@ -15395,12 +15406,12 @@
       <selection activeCell="I52" sqref="I52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="4" max="4" width="26.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="39" spans="2:7" ht="24">
+    <row r="39" spans="2:7" ht="22.2">
       <c r="B39" s="1" t="s">
         <v>126</v>
       </c>
@@ -15416,7 +15427,7 @@
       </c>
       <c r="G39" s="42"/>
     </row>
-    <row r="40" spans="2:7" ht="18.75">
+    <row r="40" spans="2:7" ht="18">
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -15778,7 +15789,7 @@
       <c r="F62" s="57"/>
       <c r="G62" s="57"/>
     </row>
-    <row r="66" spans="2:9" ht="24">
+    <row r="66" spans="2:9" ht="22.2">
       <c r="B66" s="1" t="s">
         <v>139</v>
       </c>
@@ -15796,7 +15807,7 @@
       <c r="H66" s="1"/>
       <c r="I66" s="42"/>
     </row>
-    <row r="67" spans="2:9" ht="18.75">
+    <row r="67" spans="2:9" ht="18">
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
@@ -16292,7 +16303,7 @@
       <c r="H89" s="57"/>
       <c r="I89" s="57"/>
     </row>
-    <row r="93" spans="2:9" ht="24">
+    <row r="93" spans="2:9" ht="22.2">
       <c r="B93" s="1" t="s">
         <v>143</v>
       </c>
@@ -16308,7 +16319,7 @@
       </c>
       <c r="G93" s="42"/>
     </row>
-    <row r="94" spans="2:9" ht="18.75">
+    <row r="94" spans="2:9" ht="18">
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
@@ -16682,7 +16693,7 @@
       <c r="F117" s="57"/>
       <c r="G117" s="57"/>
     </row>
-    <row r="121" spans="1:7" ht="24">
+    <row r="121" spans="1:7" ht="22.2">
       <c r="A121" t="s">
         <v>147</v>
       </c>
@@ -16701,7 +16712,7 @@
       </c>
       <c r="G121" s="42"/>
     </row>
-    <row r="122" spans="1:7" ht="18.75">
+    <row r="122" spans="1:7" ht="18">
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
       <c r="D122" s="1"/>
@@ -16768,18 +16779,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FD6CF4B-365B-4D50-AAAC-3AA79B2CDBBA}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:BC96"/>
   <sheetViews>
-    <sheetView topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="AJ46" sqref="AJ46:AQ46"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="A48" sqref="A48:BC96"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.375" defaultRowHeight="14.25" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="2.33203125" defaultRowHeight="14.25" customHeight="1"/>
   <cols>
-    <col min="55" max="55" width="5.625" customWidth="1"/>
+    <col min="55" max="55" width="5.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:55" s="27" customFormat="1" ht="16.5">
+    <row r="1" spans="1:55" s="27" customFormat="1" ht="16.2">
       <c r="A1" s="109" t="s">
         <v>104</v>
       </c>
@@ -16846,7 +16860,7 @@
       <c r="BB1" s="122"/>
       <c r="BC1" s="123"/>
     </row>
-    <row r="2" spans="1:55" s="27" customFormat="1" ht="16.5">
+    <row r="2" spans="1:55" s="27" customFormat="1" ht="16.2">
       <c r="A2" s="112"/>
       <c r="B2" s="113"/>
       <c r="C2" s="113"/>
@@ -16909,10 +16923,10 @@
       <c r="BB2" s="122"/>
       <c r="BC2" s="123"/>
     </row>
-    <row r="3" spans="1:55" s="27" customFormat="1" ht="16.5">
+    <row r="3" spans="1:55" s="27" customFormat="1" ht="16.2">
       <c r="BC3" s="28"/>
     </row>
-    <row r="4" spans="1:55" ht="13.5">
+    <row r="4" spans="1:55" ht="13.2">
       <c r="A4" s="100" t="s">
         <v>111</v>
       </c>
@@ -16975,7 +16989,7 @@
       <c r="BB4" s="101"/>
       <c r="BC4" s="104"/>
     </row>
-    <row r="5" spans="1:55" ht="13.5">
+    <row r="5" spans="1:55" ht="13.2">
       <c r="A5" s="102"/>
       <c r="B5" s="103"/>
       <c r="C5" s="105"/>
@@ -17032,7 +17046,7 @@
       <c r="BB5" s="103"/>
       <c r="BC5" s="105"/>
     </row>
-    <row r="6" spans="1:55" ht="13.5">
+    <row r="6" spans="1:55" ht="13.2">
       <c r="A6" s="106"/>
       <c r="B6" s="107"/>
       <c r="C6" s="108"/>
@@ -17089,7 +17103,7 @@
       <c r="BB6" s="30"/>
       <c r="BC6" s="31"/>
     </row>
-    <row r="7" spans="1:55" ht="13.5">
+    <row r="7" spans="1:55" ht="13.2">
       <c r="A7" s="91"/>
       <c r="B7" s="92"/>
       <c r="C7" s="93"/>
@@ -17099,7 +17113,7 @@
       <c r="AP7" s="33"/>
       <c r="BC7" s="33"/>
     </row>
-    <row r="8" spans="1:55" ht="13.5">
+    <row r="8" spans="1:55" ht="13.2">
       <c r="A8" s="91"/>
       <c r="B8" s="92"/>
       <c r="C8" s="93"/>
@@ -17109,7 +17123,7 @@
       <c r="AP8" s="33"/>
       <c r="BC8" s="33"/>
     </row>
-    <row r="9" spans="1:55" ht="13.5">
+    <row r="9" spans="1:55" ht="13.2">
       <c r="A9" s="91"/>
       <c r="B9" s="92"/>
       <c r="C9" s="93"/>
@@ -17119,7 +17133,7 @@
       <c r="AP9" s="33"/>
       <c r="BC9" s="33"/>
     </row>
-    <row r="10" spans="1:55" ht="13.5">
+    <row r="10" spans="1:55" ht="13.2">
       <c r="A10" s="91"/>
       <c r="B10" s="92"/>
       <c r="C10" s="93"/>
@@ -17129,7 +17143,7 @@
       <c r="AP10" s="33"/>
       <c r="BC10" s="33"/>
     </row>
-    <row r="11" spans="1:55" ht="13.5">
+    <row r="11" spans="1:55" ht="13.2">
       <c r="A11" s="91"/>
       <c r="B11" s="92"/>
       <c r="C11" s="93"/>
@@ -17139,7 +17153,7 @@
       <c r="AP11" s="33"/>
       <c r="BC11" s="33"/>
     </row>
-    <row r="12" spans="1:55" ht="13.5">
+    <row r="12" spans="1:55" ht="13.2">
       <c r="A12" s="91"/>
       <c r="B12" s="92"/>
       <c r="C12" s="93"/>
@@ -17149,7 +17163,7 @@
       <c r="AP12" s="33"/>
       <c r="BC12" s="33"/>
     </row>
-    <row r="13" spans="1:55" ht="13.5">
+    <row r="13" spans="1:55" ht="13.2">
       <c r="A13" s="91"/>
       <c r="B13" s="92"/>
       <c r="C13" s="93"/>
@@ -17159,7 +17173,7 @@
       <c r="AP13" s="33"/>
       <c r="BC13" s="33"/>
     </row>
-    <row r="14" spans="1:55" ht="13.5">
+    <row r="14" spans="1:55" ht="13.2">
       <c r="A14" s="91"/>
       <c r="B14" s="92"/>
       <c r="C14" s="93"/>
@@ -17169,7 +17183,7 @@
       <c r="AP14" s="33"/>
       <c r="BC14" s="33"/>
     </row>
-    <row r="15" spans="1:55" ht="13.5">
+    <row r="15" spans="1:55" ht="13.2">
       <c r="A15" s="91"/>
       <c r="B15" s="92"/>
       <c r="C15" s="93"/>
@@ -17179,7 +17193,7 @@
       <c r="AP15" s="33"/>
       <c r="BC15" s="33"/>
     </row>
-    <row r="16" spans="1:55" ht="13.5">
+    <row r="16" spans="1:55" ht="13.2">
       <c r="A16" s="91"/>
       <c r="B16" s="92"/>
       <c r="C16" s="93"/>
@@ -17189,7 +17203,7 @@
       <c r="AP16" s="33"/>
       <c r="BC16" s="33"/>
     </row>
-    <row r="17" spans="1:55" ht="13.5">
+    <row r="17" spans="1:55" ht="13.2">
       <c r="A17" s="91"/>
       <c r="B17" s="92"/>
       <c r="C17" s="93"/>
@@ -17199,7 +17213,7 @@
       <c r="AP17" s="33"/>
       <c r="BC17" s="33"/>
     </row>
-    <row r="18" spans="1:55" ht="13.5">
+    <row r="18" spans="1:55" ht="13.2">
       <c r="A18" s="91"/>
       <c r="B18" s="92"/>
       <c r="C18" s="93"/>
@@ -17209,7 +17223,7 @@
       <c r="AP18" s="33"/>
       <c r="BC18" s="33"/>
     </row>
-    <row r="19" spans="1:55" ht="13.5">
+    <row r="19" spans="1:55" ht="13.2">
       <c r="A19" s="91"/>
       <c r="B19" s="92"/>
       <c r="C19" s="93"/>
@@ -17219,7 +17233,7 @@
       <c r="AP19" s="33"/>
       <c r="BC19" s="33"/>
     </row>
-    <row r="20" spans="1:55" ht="13.5">
+    <row r="20" spans="1:55" ht="13.2">
       <c r="A20" s="91"/>
       <c r="B20" s="92"/>
       <c r="C20" s="93"/>
@@ -17229,7 +17243,7 @@
       <c r="AP20" s="33"/>
       <c r="BC20" s="33"/>
     </row>
-    <row r="21" spans="1:55" ht="13.5">
+    <row r="21" spans="1:55" ht="13.2">
       <c r="A21" s="91"/>
       <c r="B21" s="92"/>
       <c r="C21" s="93"/>
@@ -17239,7 +17253,7 @@
       <c r="AP21" s="33"/>
       <c r="BC21" s="33"/>
     </row>
-    <row r="22" spans="1:55" ht="13.5">
+    <row r="22" spans="1:55" ht="13.2">
       <c r="A22" s="91"/>
       <c r="B22" s="92"/>
       <c r="C22" s="93"/>
@@ -17249,7 +17263,7 @@
       <c r="AP22" s="33"/>
       <c r="BC22" s="33"/>
     </row>
-    <row r="23" spans="1:55" ht="13.5">
+    <row r="23" spans="1:55" ht="13.2">
       <c r="A23" s="91"/>
       <c r="B23" s="92"/>
       <c r="C23" s="93"/>
@@ -17259,7 +17273,7 @@
       <c r="AP23" s="33"/>
       <c r="BC23" s="33"/>
     </row>
-    <row r="24" spans="1:55" ht="13.5">
+    <row r="24" spans="1:55" ht="13.2">
       <c r="A24" s="91"/>
       <c r="B24" s="92"/>
       <c r="C24" s="93"/>
@@ -17269,7 +17283,7 @@
       <c r="AP24" s="33"/>
       <c r="BC24" s="33"/>
     </row>
-    <row r="25" spans="1:55" ht="13.5">
+    <row r="25" spans="1:55" ht="13.2">
       <c r="A25" s="91"/>
       <c r="B25" s="92"/>
       <c r="C25" s="93"/>
@@ -17279,7 +17293,7 @@
       <c r="AP25" s="33"/>
       <c r="BC25" s="33"/>
     </row>
-    <row r="26" spans="1:55" ht="13.5">
+    <row r="26" spans="1:55" ht="13.2">
       <c r="A26" s="91"/>
       <c r="B26" s="92"/>
       <c r="C26" s="93"/>
@@ -17289,7 +17303,7 @@
       <c r="AP26" s="33"/>
       <c r="BC26" s="33"/>
     </row>
-    <row r="27" spans="1:55" ht="13.5">
+    <row r="27" spans="1:55" ht="13.2">
       <c r="A27" s="91"/>
       <c r="B27" s="92"/>
       <c r="C27" s="93"/>
@@ -17299,7 +17313,7 @@
       <c r="AP27" s="33"/>
       <c r="BC27" s="33"/>
     </row>
-    <row r="28" spans="1:55" ht="13.5">
+    <row r="28" spans="1:55" ht="13.2">
       <c r="A28" s="91"/>
       <c r="B28" s="92"/>
       <c r="C28" s="93"/>
@@ -17309,7 +17323,7 @@
       <c r="AP28" s="33"/>
       <c r="BC28" s="33"/>
     </row>
-    <row r="29" spans="1:55" ht="13.5">
+    <row r="29" spans="1:55" ht="13.2">
       <c r="A29" s="94"/>
       <c r="B29" s="95"/>
       <c r="C29" s="96"/>
@@ -17319,7 +17333,7 @@
       <c r="AP29" s="33"/>
       <c r="BC29" s="33"/>
     </row>
-    <row r="30" spans="1:55" ht="13.5">
+    <row r="30" spans="1:55" ht="13.2">
       <c r="A30" s="94"/>
       <c r="B30" s="95"/>
       <c r="C30" s="96"/>
@@ -17329,7 +17343,7 @@
       <c r="AP30" s="33"/>
       <c r="BC30" s="33"/>
     </row>
-    <row r="31" spans="1:55" ht="13.5">
+    <row r="31" spans="1:55" ht="13.2">
       <c r="A31" s="94"/>
       <c r="B31" s="95"/>
       <c r="C31" s="96"/>
@@ -17339,7 +17353,7 @@
       <c r="AP31" s="33"/>
       <c r="BC31" s="33"/>
     </row>
-    <row r="32" spans="1:55" ht="13.5">
+    <row r="32" spans="1:55" ht="13.2">
       <c r="A32" s="94"/>
       <c r="B32" s="95"/>
       <c r="C32" s="96"/>
@@ -17349,7 +17363,7 @@
       <c r="AP32" s="33"/>
       <c r="BC32" s="33"/>
     </row>
-    <row r="33" spans="1:55" ht="13.5">
+    <row r="33" spans="1:55" ht="13.2">
       <c r="A33" s="94"/>
       <c r="B33" s="95"/>
       <c r="C33" s="96"/>
@@ -17359,7 +17373,7 @@
       <c r="AP33" s="33"/>
       <c r="BC33" s="33"/>
     </row>
-    <row r="34" spans="1:55" ht="13.5">
+    <row r="34" spans="1:55" ht="13.2">
       <c r="A34" s="94"/>
       <c r="B34" s="95"/>
       <c r="C34" s="96"/>
@@ -17369,7 +17383,7 @@
       <c r="AP34" s="33"/>
       <c r="BC34" s="33"/>
     </row>
-    <row r="35" spans="1:55" ht="13.5">
+    <row r="35" spans="1:55" ht="13.2">
       <c r="A35" s="94"/>
       <c r="B35" s="95"/>
       <c r="C35" s="96"/>
@@ -17379,7 +17393,7 @@
       <c r="AP35" s="33"/>
       <c r="BC35" s="33"/>
     </row>
-    <row r="36" spans="1:55" ht="13.5">
+    <row r="36" spans="1:55" ht="13.2">
       <c r="A36" s="94"/>
       <c r="B36" s="95"/>
       <c r="C36" s="96"/>
@@ -17389,7 +17403,7 @@
       <c r="AP36" s="33"/>
       <c r="BC36" s="33"/>
     </row>
-    <row r="37" spans="1:55" ht="13.5">
+    <row r="37" spans="1:55" ht="13.2">
       <c r="A37" s="94"/>
       <c r="B37" s="95"/>
       <c r="C37" s="96"/>
@@ -17399,7 +17413,7 @@
       <c r="AP37" s="33"/>
       <c r="BC37" s="33"/>
     </row>
-    <row r="38" spans="1:55" ht="13.5">
+    <row r="38" spans="1:55" ht="13.2">
       <c r="A38" s="94"/>
       <c r="B38" s="95"/>
       <c r="C38" s="96"/>
@@ -17409,7 +17423,7 @@
       <c r="AP38" s="33"/>
       <c r="BC38" s="33"/>
     </row>
-    <row r="39" spans="1:55" ht="13.5">
+    <row r="39" spans="1:55" ht="13.2">
       <c r="A39" s="94"/>
       <c r="B39" s="95"/>
       <c r="C39" s="96"/>
@@ -17419,7 +17433,7 @@
       <c r="AP39" s="33"/>
       <c r="BC39" s="33"/>
     </row>
-    <row r="40" spans="1:55" ht="13.5">
+    <row r="40" spans="1:55" ht="13.2">
       <c r="A40" s="97"/>
       <c r="B40" s="98"/>
       <c r="C40" s="99"/>
@@ -17476,7 +17490,7 @@
       <c r="BB40" s="35"/>
       <c r="BC40" s="36"/>
     </row>
-    <row r="41" spans="1:55" ht="13.5">
+    <row r="41" spans="1:55" ht="13.2">
       <c r="A41" s="37"/>
       <c r="B41" s="37"/>
       <c r="C41" s="37"/>
@@ -17533,7 +17547,7 @@
       <c r="BB41" s="30"/>
       <c r="BC41" s="30"/>
     </row>
-    <row r="42" spans="1:55" ht="13.5">
+    <row r="42" spans="1:55" ht="13.2">
       <c r="A42" s="38"/>
       <c r="B42" s="38"/>
       <c r="C42" s="38"/>
@@ -18535,27 +18549,33 @@
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" scale="67" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52AE6612-F953-40BE-B3DB-193722671E9C}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:AG26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="W11" sqref="W11"/>
+      <selection sqref="A1:AE26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="30.75" customWidth="1"/>
-    <col min="2" max="10" width="2.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="33" width="3.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.77734375" customWidth="1"/>
+    <col min="2" max="10" width="2.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="33" width="3.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33">
-      <c r="A1" s="64"/>
+      <c r="A1" s="64" t="s">
+        <v>246</v>
+      </c>
       <c r="B1" s="64"/>
       <c r="C1" s="64"/>
       <c r="D1" s="64"/>
@@ -18768,9 +18788,7 @@
       </c>
       <c r="B5" s="64"/>
       <c r="C5" s="64"/>
-      <c r="D5" s="64" t="s">
-        <v>159</v>
-      </c>
+      <c r="D5" s="64"/>
       <c r="E5" s="64"/>
       <c r="F5" s="64"/>
       <c r="G5" s="64"/>
@@ -18807,9 +18825,7 @@
       </c>
       <c r="B6" s="64"/>
       <c r="C6" s="64"/>
-      <c r="D6" s="64" t="s">
-        <v>159</v>
-      </c>
+      <c r="D6" s="64"/>
       <c r="E6" s="64"/>
       <c r="F6" s="64"/>
       <c r="G6" s="64"/>
@@ -19563,6 +19579,7 @@
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -19571,12 +19588,12 @@
   <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+      <selection sqref="A1:I27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="2" max="2" width="14.875" customWidth="1"/>
+    <col min="2" max="2" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -19587,7 +19604,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="14.25" thickBot="1"/>
+    <row r="2" spans="1:8" ht="13.8" thickBot="1"/>
     <row r="3" spans="1:8">
       <c r="B3" s="65" t="s">
         <v>175</v>
@@ -19618,7 +19635,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="14.25" thickBot="1">
+    <row r="6" spans="1:8" ht="13.8" thickBot="1">
       <c r="B6" s="69" t="s">
         <v>173</v>
       </c>
@@ -19626,7 +19643,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="14.25" thickBot="1"/>
+    <row r="8" spans="1:8" ht="13.8" thickBot="1"/>
     <row r="9" spans="1:8">
       <c r="B9" s="65" t="s">
         <v>175</v>
@@ -19657,7 +19674,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="14.25" thickBot="1">
+    <row r="12" spans="1:8" ht="13.8" thickBot="1">
       <c r="B12" s="69" t="s">
         <v>173</v>
       </c>
@@ -19670,7 +19687,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="19" spans="2:5" ht="14.25" thickBot="1"/>
+    <row r="19" spans="2:5" ht="13.8" thickBot="1"/>
     <row r="20" spans="2:5">
       <c r="B20" s="65" t="s">
         <v>175</v>
@@ -19701,7 +19718,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="23" spans="2:5" ht="14.25" thickBot="1">
+    <row r="23" spans="2:5" ht="13.8" thickBot="1">
       <c r="B23" s="69" t="s">
         <v>173</v>
       </c>
@@ -19717,25 +19734,29 @@
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{364C05D2-C698-4939-9826-14C25C695399}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="M33" sqref="M33"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:L49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="16.125" style="73" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.109375" style="73" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" style="73" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="9" style="73"/>
-    <col min="5" max="5" width="30.875" style="73" customWidth="1"/>
-    <col min="6" max="6" width="18.375" style="73" customWidth="1"/>
+    <col min="5" max="5" width="35.6640625" style="73" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.33203125" style="73" customWidth="1"/>
     <col min="7" max="16384" width="9" style="73"/>
   </cols>
   <sheetData>
@@ -20484,7 +20505,8 @@
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" scale="58" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -20496,13 +20518,13 @@
       <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="11" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="13" bestFit="1" customWidth="1"/>
   </cols>
@@ -20659,7 +20681,7 @@
       <selection activeCell="X19" sqref="X19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
@@ -20682,7 +20704,7 @@
       <selection activeCell="X23" sqref="X23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
@@ -20731,7 +20753,7 @@
       <selection activeCell="X21" sqref="X21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="16384" width="9" style="1"/>
   </cols>

--- a/市場_2025改修/基本設計_2025/概要20250606修正.xlsx
+++ b/市場_2025改修/基本設計_2025/概要20250606修正.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\works\Git\si001\市場_2025改修\基本設計_2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C151FFA-9F5E-453F-8413-4ED30DEC4F94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E3CE859-FD99-4947-983D-AAE1A9AB08B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{78BC9F0C-B871-4580-9558-94BE9D1399D8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{78BC9F0C-B871-4580-9558-94BE9D1399D8}"/>
   </bookViews>
   <sheets>
     <sheet name="アプリ構成" sheetId="9" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="248">
   <si>
     <t>銀行名</t>
     <rPh sb="0" eb="2">
@@ -1995,6 +1995,13 @@
     <t>業務スケジュール</t>
     <rPh sb="0" eb="2">
       <t>ギョウム</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>口座</t>
+    <rPh sb="0" eb="2">
+      <t>コウザ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -2921,60 +2928,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3011,6 +2964,24 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="14" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3019,6 +2990,42 @@
     </xf>
     <xf numFmtId="176" fontId="14" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -14342,7 +14349,7 @@
   </sheetPr>
   <dimension ref="A1:BL64"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection sqref="A1:BL64"/>
     </sheetView>
   </sheetViews>
@@ -16784,8 +16791,8 @@
   </sheetPr>
   <dimension ref="A1:BC96"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="A48" sqref="A48:BC96"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="AR97" sqref="AR97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.33203125" defaultRowHeight="14.25" customHeight="1"/>
@@ -16794,262 +16801,262 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:55" s="27" customFormat="1" ht="16.2">
-      <c r="A1" s="109" t="s">
+      <c r="A1" s="91" t="s">
         <v>104</v>
       </c>
-      <c r="B1" s="110"/>
-      <c r="C1" s="110"/>
-      <c r="D1" s="110"/>
-      <c r="E1" s="110"/>
-      <c r="F1" s="111"/>
-      <c r="G1" s="115" t="s">
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="97" t="s">
         <v>105</v>
       </c>
-      <c r="H1" s="116"/>
-      <c r="I1" s="116"/>
-      <c r="J1" s="116"/>
-      <c r="K1" s="116"/>
-      <c r="L1" s="116"/>
-      <c r="M1" s="116"/>
-      <c r="N1" s="117"/>
-      <c r="O1" s="115" t="s">
+      <c r="H1" s="98"/>
+      <c r="I1" s="98"/>
+      <c r="J1" s="98"/>
+      <c r="K1" s="98"/>
+      <c r="L1" s="98"/>
+      <c r="M1" s="98"/>
+      <c r="N1" s="99"/>
+      <c r="O1" s="97" t="s">
         <v>106</v>
       </c>
-      <c r="P1" s="116"/>
-      <c r="Q1" s="116"/>
-      <c r="R1" s="116"/>
-      <c r="S1" s="116"/>
-      <c r="T1" s="116"/>
-      <c r="U1" s="116"/>
-      <c r="V1" s="116"/>
-      <c r="W1" s="116"/>
-      <c r="X1" s="116"/>
-      <c r="Y1" s="116"/>
-      <c r="Z1" s="116"/>
-      <c r="AA1" s="116"/>
-      <c r="AB1" s="116"/>
-      <c r="AC1" s="116"/>
-      <c r="AD1" s="116"/>
-      <c r="AE1" s="117"/>
-      <c r="AF1" s="115" t="s">
+      <c r="P1" s="98"/>
+      <c r="Q1" s="98"/>
+      <c r="R1" s="98"/>
+      <c r="S1" s="98"/>
+      <c r="T1" s="98"/>
+      <c r="U1" s="98"/>
+      <c r="V1" s="98"/>
+      <c r="W1" s="98"/>
+      <c r="X1" s="98"/>
+      <c r="Y1" s="98"/>
+      <c r="Z1" s="98"/>
+      <c r="AA1" s="98"/>
+      <c r="AB1" s="98"/>
+      <c r="AC1" s="98"/>
+      <c r="AD1" s="98"/>
+      <c r="AE1" s="99"/>
+      <c r="AF1" s="97" t="s">
         <v>107</v>
       </c>
-      <c r="AG1" s="116"/>
-      <c r="AH1" s="116"/>
-      <c r="AI1" s="117"/>
-      <c r="AJ1" s="118"/>
-      <c r="AK1" s="119"/>
-      <c r="AL1" s="119"/>
-      <c r="AM1" s="119"/>
-      <c r="AN1" s="119"/>
-      <c r="AO1" s="119"/>
-      <c r="AP1" s="119"/>
-      <c r="AQ1" s="120"/>
-      <c r="AR1" s="115" t="s">
+      <c r="AG1" s="98"/>
+      <c r="AH1" s="98"/>
+      <c r="AI1" s="99"/>
+      <c r="AJ1" s="100"/>
+      <c r="AK1" s="101"/>
+      <c r="AL1" s="101"/>
+      <c r="AM1" s="101"/>
+      <c r="AN1" s="101"/>
+      <c r="AO1" s="101"/>
+      <c r="AP1" s="101"/>
+      <c r="AQ1" s="102"/>
+      <c r="AR1" s="97" t="s">
         <v>108</v>
       </c>
-      <c r="AS1" s="116"/>
-      <c r="AT1" s="116"/>
-      <c r="AU1" s="117"/>
-      <c r="AV1" s="121"/>
-      <c r="AW1" s="122"/>
-      <c r="AX1" s="122"/>
-      <c r="AY1" s="122"/>
-      <c r="AZ1" s="122"/>
-      <c r="BA1" s="122"/>
-      <c r="BB1" s="122"/>
-      <c r="BC1" s="123"/>
+      <c r="AS1" s="98"/>
+      <c r="AT1" s="98"/>
+      <c r="AU1" s="99"/>
+      <c r="AV1" s="109"/>
+      <c r="AW1" s="110"/>
+      <c r="AX1" s="110"/>
+      <c r="AY1" s="110"/>
+      <c r="AZ1" s="110"/>
+      <c r="BA1" s="110"/>
+      <c r="BB1" s="110"/>
+      <c r="BC1" s="111"/>
     </row>
     <row r="2" spans="1:55" s="27" customFormat="1" ht="16.2">
-      <c r="A2" s="112"/>
-      <c r="B2" s="113"/>
-      <c r="C2" s="113"/>
-      <c r="D2" s="113"/>
-      <c r="E2" s="113"/>
-      <c r="F2" s="114"/>
-      <c r="G2" s="118" t="s">
+      <c r="A2" s="94"/>
+      <c r="B2" s="95"/>
+      <c r="C2" s="95"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="95"/>
+      <c r="F2" s="96"/>
+      <c r="G2" s="100" t="s">
         <v>124</v>
       </c>
-      <c r="H2" s="119"/>
-      <c r="I2" s="119"/>
-      <c r="J2" s="119"/>
-      <c r="K2" s="119"/>
-      <c r="L2" s="119"/>
-      <c r="M2" s="119"/>
-      <c r="N2" s="120"/>
-      <c r="O2" s="118"/>
-      <c r="P2" s="119"/>
-      <c r="Q2" s="119"/>
-      <c r="R2" s="119"/>
-      <c r="S2" s="119"/>
-      <c r="T2" s="119"/>
-      <c r="U2" s="119"/>
-      <c r="V2" s="119"/>
-      <c r="W2" s="119"/>
-      <c r="X2" s="119"/>
-      <c r="Y2" s="119"/>
-      <c r="Z2" s="119"/>
-      <c r="AA2" s="119"/>
-      <c r="AB2" s="119"/>
-      <c r="AC2" s="119"/>
-      <c r="AD2" s="119"/>
-      <c r="AE2" s="120"/>
-      <c r="AF2" s="112" t="s">
+      <c r="H2" s="101"/>
+      <c r="I2" s="101"/>
+      <c r="J2" s="101"/>
+      <c r="K2" s="101"/>
+      <c r="L2" s="101"/>
+      <c r="M2" s="101"/>
+      <c r="N2" s="102"/>
+      <c r="O2" s="100"/>
+      <c r="P2" s="101"/>
+      <c r="Q2" s="101"/>
+      <c r="R2" s="101"/>
+      <c r="S2" s="101"/>
+      <c r="T2" s="101"/>
+      <c r="U2" s="101"/>
+      <c r="V2" s="101"/>
+      <c r="W2" s="101"/>
+      <c r="X2" s="101"/>
+      <c r="Y2" s="101"/>
+      <c r="Z2" s="101"/>
+      <c r="AA2" s="101"/>
+      <c r="AB2" s="101"/>
+      <c r="AC2" s="101"/>
+      <c r="AD2" s="101"/>
+      <c r="AE2" s="102"/>
+      <c r="AF2" s="94" t="s">
         <v>109</v>
       </c>
-      <c r="AG2" s="113"/>
-      <c r="AH2" s="113"/>
-      <c r="AI2" s="114"/>
-      <c r="AJ2" s="118"/>
-      <c r="AK2" s="119"/>
-      <c r="AL2" s="119"/>
-      <c r="AM2" s="119"/>
-      <c r="AN2" s="119"/>
-      <c r="AO2" s="119"/>
-      <c r="AP2" s="119"/>
-      <c r="AQ2" s="120"/>
-      <c r="AR2" s="112" t="s">
+      <c r="AG2" s="95"/>
+      <c r="AH2" s="95"/>
+      <c r="AI2" s="96"/>
+      <c r="AJ2" s="100"/>
+      <c r="AK2" s="101"/>
+      <c r="AL2" s="101"/>
+      <c r="AM2" s="101"/>
+      <c r="AN2" s="101"/>
+      <c r="AO2" s="101"/>
+      <c r="AP2" s="101"/>
+      <c r="AQ2" s="102"/>
+      <c r="AR2" s="94" t="s">
         <v>110</v>
       </c>
-      <c r="AS2" s="113"/>
-      <c r="AT2" s="113"/>
-      <c r="AU2" s="114"/>
-      <c r="AV2" s="121"/>
-      <c r="AW2" s="122"/>
-      <c r="AX2" s="122"/>
-      <c r="AY2" s="122"/>
-      <c r="AZ2" s="122"/>
-      <c r="BA2" s="122"/>
-      <c r="BB2" s="122"/>
-      <c r="BC2" s="123"/>
+      <c r="AS2" s="95"/>
+      <c r="AT2" s="95"/>
+      <c r="AU2" s="96"/>
+      <c r="AV2" s="109"/>
+      <c r="AW2" s="110"/>
+      <c r="AX2" s="110"/>
+      <c r="AY2" s="110"/>
+      <c r="AZ2" s="110"/>
+      <c r="BA2" s="110"/>
+      <c r="BB2" s="110"/>
+      <c r="BC2" s="111"/>
     </row>
     <row r="3" spans="1:55" s="27" customFormat="1" ht="16.2">
       <c r="BC3" s="28"/>
     </row>
     <row r="4" spans="1:55" ht="13.2">
-      <c r="A4" s="100" t="s">
+      <c r="A4" s="103" t="s">
         <v>111</v>
       </c>
-      <c r="B4" s="101"/>
-      <c r="C4" s="104"/>
-      <c r="D4" s="100" t="s">
+      <c r="B4" s="104"/>
+      <c r="C4" s="107"/>
+      <c r="D4" s="103" t="s">
         <v>113</v>
       </c>
-      <c r="E4" s="101"/>
-      <c r="F4" s="101"/>
-      <c r="G4" s="101"/>
-      <c r="H4" s="101"/>
-      <c r="I4" s="101"/>
-      <c r="J4" s="101"/>
-      <c r="K4" s="101"/>
-      <c r="L4" s="101"/>
-      <c r="M4" s="101"/>
-      <c r="N4" s="101"/>
-      <c r="O4" s="101"/>
-      <c r="P4" s="101"/>
-      <c r="Q4" s="100" t="s">
+      <c r="E4" s="104"/>
+      <c r="F4" s="104"/>
+      <c r="G4" s="104"/>
+      <c r="H4" s="104"/>
+      <c r="I4" s="104"/>
+      <c r="J4" s="104"/>
+      <c r="K4" s="104"/>
+      <c r="L4" s="104"/>
+      <c r="M4" s="104"/>
+      <c r="N4" s="104"/>
+      <c r="O4" s="104"/>
+      <c r="P4" s="104"/>
+      <c r="Q4" s="103" t="s">
         <v>112</v>
       </c>
-      <c r="R4" s="101"/>
-      <c r="S4" s="101"/>
-      <c r="T4" s="101"/>
-      <c r="U4" s="101"/>
-      <c r="V4" s="101"/>
-      <c r="W4" s="101"/>
-      <c r="X4" s="101"/>
-      <c r="Y4" s="101"/>
-      <c r="Z4" s="101"/>
-      <c r="AA4" s="101"/>
-      <c r="AB4" s="101"/>
-      <c r="AC4" s="101"/>
-      <c r="AD4" s="100"/>
-      <c r="AE4" s="101"/>
-      <c r="AF4" s="101"/>
-      <c r="AG4" s="101"/>
-      <c r="AH4" s="101"/>
-      <c r="AI4" s="101"/>
-      <c r="AJ4" s="101"/>
-      <c r="AK4" s="101"/>
-      <c r="AL4" s="101"/>
-      <c r="AM4" s="101"/>
-      <c r="AN4" s="101"/>
-      <c r="AO4" s="101"/>
-      <c r="AP4" s="104"/>
-      <c r="AQ4" s="101"/>
-      <c r="AR4" s="101"/>
-      <c r="AS4" s="101"/>
-      <c r="AT4" s="101"/>
-      <c r="AU4" s="101"/>
-      <c r="AV4" s="101"/>
-      <c r="AW4" s="101"/>
-      <c r="AX4" s="101"/>
-      <c r="AY4" s="101"/>
-      <c r="AZ4" s="101"/>
-      <c r="BA4" s="101"/>
-      <c r="BB4" s="101"/>
-      <c r="BC4" s="104"/>
+      <c r="R4" s="104"/>
+      <c r="S4" s="104"/>
+      <c r="T4" s="104"/>
+      <c r="U4" s="104"/>
+      <c r="V4" s="104"/>
+      <c r="W4" s="104"/>
+      <c r="X4" s="104"/>
+      <c r="Y4" s="104"/>
+      <c r="Z4" s="104"/>
+      <c r="AA4" s="104"/>
+      <c r="AB4" s="104"/>
+      <c r="AC4" s="104"/>
+      <c r="AD4" s="103"/>
+      <c r="AE4" s="104"/>
+      <c r="AF4" s="104"/>
+      <c r="AG4" s="104"/>
+      <c r="AH4" s="104"/>
+      <c r="AI4" s="104"/>
+      <c r="AJ4" s="104"/>
+      <c r="AK4" s="104"/>
+      <c r="AL4" s="104"/>
+      <c r="AM4" s="104"/>
+      <c r="AN4" s="104"/>
+      <c r="AO4" s="104"/>
+      <c r="AP4" s="107"/>
+      <c r="AQ4" s="104"/>
+      <c r="AR4" s="104"/>
+      <c r="AS4" s="104"/>
+      <c r="AT4" s="104"/>
+      <c r="AU4" s="104"/>
+      <c r="AV4" s="104"/>
+      <c r="AW4" s="104"/>
+      <c r="AX4" s="104"/>
+      <c r="AY4" s="104"/>
+      <c r="AZ4" s="104"/>
+      <c r="BA4" s="104"/>
+      <c r="BB4" s="104"/>
+      <c r="BC4" s="107"/>
     </row>
     <row r="5" spans="1:55" ht="13.2">
-      <c r="A5" s="102"/>
-      <c r="B5" s="103"/>
-      <c r="C5" s="105"/>
-      <c r="D5" s="102"/>
-      <c r="E5" s="103"/>
-      <c r="F5" s="103"/>
-      <c r="G5" s="103"/>
-      <c r="H5" s="103"/>
-      <c r="I5" s="103"/>
-      <c r="J5" s="103"/>
-      <c r="K5" s="103"/>
-      <c r="L5" s="103"/>
-      <c r="M5" s="103"/>
-      <c r="N5" s="103"/>
-      <c r="O5" s="103"/>
-      <c r="P5" s="103"/>
-      <c r="Q5" s="102"/>
-      <c r="R5" s="103"/>
-      <c r="S5" s="103"/>
-      <c r="T5" s="103"/>
-      <c r="U5" s="103"/>
-      <c r="V5" s="103"/>
-      <c r="W5" s="103"/>
-      <c r="X5" s="103"/>
-      <c r="Y5" s="103"/>
-      <c r="Z5" s="103"/>
-      <c r="AA5" s="103"/>
-      <c r="AB5" s="103"/>
-      <c r="AC5" s="103"/>
-      <c r="AD5" s="102"/>
-      <c r="AE5" s="103"/>
-      <c r="AF5" s="103"/>
-      <c r="AG5" s="103"/>
-      <c r="AH5" s="103"/>
-      <c r="AI5" s="103"/>
-      <c r="AJ5" s="103"/>
-      <c r="AK5" s="103"/>
-      <c r="AL5" s="103"/>
-      <c r="AM5" s="103"/>
-      <c r="AN5" s="103"/>
-      <c r="AO5" s="103"/>
-      <c r="AP5" s="105"/>
-      <c r="AQ5" s="103"/>
-      <c r="AR5" s="103"/>
-      <c r="AS5" s="103"/>
-      <c r="AT5" s="103"/>
-      <c r="AU5" s="103"/>
-      <c r="AV5" s="103"/>
-      <c r="AW5" s="103"/>
-      <c r="AX5" s="103"/>
-      <c r="AY5" s="103"/>
-      <c r="AZ5" s="103"/>
-      <c r="BA5" s="103"/>
-      <c r="BB5" s="103"/>
-      <c r="BC5" s="105"/>
+      <c r="A5" s="105"/>
+      <c r="B5" s="106"/>
+      <c r="C5" s="108"/>
+      <c r="D5" s="105"/>
+      <c r="E5" s="106"/>
+      <c r="F5" s="106"/>
+      <c r="G5" s="106"/>
+      <c r="H5" s="106"/>
+      <c r="I5" s="106"/>
+      <c r="J5" s="106"/>
+      <c r="K5" s="106"/>
+      <c r="L5" s="106"/>
+      <c r="M5" s="106"/>
+      <c r="N5" s="106"/>
+      <c r="O5" s="106"/>
+      <c r="P5" s="106"/>
+      <c r="Q5" s="105"/>
+      <c r="R5" s="106"/>
+      <c r="S5" s="106"/>
+      <c r="T5" s="106"/>
+      <c r="U5" s="106"/>
+      <c r="V5" s="106"/>
+      <c r="W5" s="106"/>
+      <c r="X5" s="106"/>
+      <c r="Y5" s="106"/>
+      <c r="Z5" s="106"/>
+      <c r="AA5" s="106"/>
+      <c r="AB5" s="106"/>
+      <c r="AC5" s="106"/>
+      <c r="AD5" s="105"/>
+      <c r="AE5" s="106"/>
+      <c r="AF5" s="106"/>
+      <c r="AG5" s="106"/>
+      <c r="AH5" s="106"/>
+      <c r="AI5" s="106"/>
+      <c r="AJ5" s="106"/>
+      <c r="AK5" s="106"/>
+      <c r="AL5" s="106"/>
+      <c r="AM5" s="106"/>
+      <c r="AN5" s="106"/>
+      <c r="AO5" s="106"/>
+      <c r="AP5" s="108"/>
+      <c r="AQ5" s="106"/>
+      <c r="AR5" s="106"/>
+      <c r="AS5" s="106"/>
+      <c r="AT5" s="106"/>
+      <c r="AU5" s="106"/>
+      <c r="AV5" s="106"/>
+      <c r="AW5" s="106"/>
+      <c r="AX5" s="106"/>
+      <c r="AY5" s="106"/>
+      <c r="AZ5" s="106"/>
+      <c r="BA5" s="106"/>
+      <c r="BB5" s="106"/>
+      <c r="BC5" s="108"/>
     </row>
     <row r="6" spans="1:55" ht="13.2">
-      <c r="A6" s="106"/>
-      <c r="B6" s="107"/>
-      <c r="C6" s="108"/>
+      <c r="A6" s="121"/>
+      <c r="B6" s="122"/>
+      <c r="C6" s="123"/>
       <c r="D6" s="29"/>
       <c r="E6" s="30"/>
       <c r="F6" s="30"/>
@@ -17104,9 +17111,9 @@
       <c r="BC6" s="31"/>
     </row>
     <row r="7" spans="1:55" ht="13.2">
-      <c r="A7" s="91"/>
-      <c r="B7" s="92"/>
-      <c r="C7" s="93"/>
+      <c r="A7" s="112"/>
+      <c r="B7" s="113"/>
+      <c r="C7" s="114"/>
       <c r="D7" s="32"/>
       <c r="Q7" s="32"/>
       <c r="AD7" s="32"/>
@@ -17114,9 +17121,9 @@
       <c r="BC7" s="33"/>
     </row>
     <row r="8" spans="1:55" ht="13.2">
-      <c r="A8" s="91"/>
-      <c r="B8" s="92"/>
-      <c r="C8" s="93"/>
+      <c r="A8" s="112"/>
+      <c r="B8" s="113"/>
+      <c r="C8" s="114"/>
       <c r="D8" s="32"/>
       <c r="Q8" s="32"/>
       <c r="AD8" s="32"/>
@@ -17124,9 +17131,9 @@
       <c r="BC8" s="33"/>
     </row>
     <row r="9" spans="1:55" ht="13.2">
-      <c r="A9" s="91"/>
-      <c r="B9" s="92"/>
-      <c r="C9" s="93"/>
+      <c r="A9" s="112"/>
+      <c r="B9" s="113"/>
+      <c r="C9" s="114"/>
       <c r="D9" s="32"/>
       <c r="Q9" s="32"/>
       <c r="AD9" s="32"/>
@@ -17134,9 +17141,9 @@
       <c r="BC9" s="33"/>
     </row>
     <row r="10" spans="1:55" ht="13.2">
-      <c r="A10" s="91"/>
-      <c r="B10" s="92"/>
-      <c r="C10" s="93"/>
+      <c r="A10" s="112"/>
+      <c r="B10" s="113"/>
+      <c r="C10" s="114"/>
       <c r="D10" s="32"/>
       <c r="Q10" s="32"/>
       <c r="AD10" s="32"/>
@@ -17144,9 +17151,9 @@
       <c r="BC10" s="33"/>
     </row>
     <row r="11" spans="1:55" ht="13.2">
-      <c r="A11" s="91"/>
-      <c r="B11" s="92"/>
-      <c r="C11" s="93"/>
+      <c r="A11" s="112"/>
+      <c r="B11" s="113"/>
+      <c r="C11" s="114"/>
       <c r="D11" s="32"/>
       <c r="Q11" s="32"/>
       <c r="AD11" s="32"/>
@@ -17154,9 +17161,9 @@
       <c r="BC11" s="33"/>
     </row>
     <row r="12" spans="1:55" ht="13.2">
-      <c r="A12" s="91"/>
-      <c r="B12" s="92"/>
-      <c r="C12" s="93"/>
+      <c r="A12" s="112"/>
+      <c r="B12" s="113"/>
+      <c r="C12" s="114"/>
       <c r="D12" s="32"/>
       <c r="Q12" s="32"/>
       <c r="AD12" s="32"/>
@@ -17164,9 +17171,9 @@
       <c r="BC12" s="33"/>
     </row>
     <row r="13" spans="1:55" ht="13.2">
-      <c r="A13" s="91"/>
-      <c r="B13" s="92"/>
-      <c r="C13" s="93"/>
+      <c r="A13" s="112"/>
+      <c r="B13" s="113"/>
+      <c r="C13" s="114"/>
       <c r="D13" s="32"/>
       <c r="Q13" s="32"/>
       <c r="AD13" s="32"/>
@@ -17174,9 +17181,9 @@
       <c r="BC13" s="33"/>
     </row>
     <row r="14" spans="1:55" ht="13.2">
-      <c r="A14" s="91"/>
-      <c r="B14" s="92"/>
-      <c r="C14" s="93"/>
+      <c r="A14" s="112"/>
+      <c r="B14" s="113"/>
+      <c r="C14" s="114"/>
       <c r="D14" s="32"/>
       <c r="Q14" s="32"/>
       <c r="AD14" s="32"/>
@@ -17184,9 +17191,9 @@
       <c r="BC14" s="33"/>
     </row>
     <row r="15" spans="1:55" ht="13.2">
-      <c r="A15" s="91"/>
-      <c r="B15" s="92"/>
-      <c r="C15" s="93"/>
+      <c r="A15" s="112"/>
+      <c r="B15" s="113"/>
+      <c r="C15" s="114"/>
       <c r="D15" s="32"/>
       <c r="Q15" s="32"/>
       <c r="AD15" s="32"/>
@@ -17194,9 +17201,9 @@
       <c r="BC15" s="33"/>
     </row>
     <row r="16" spans="1:55" ht="13.2">
-      <c r="A16" s="91"/>
-      <c r="B16" s="92"/>
-      <c r="C16" s="93"/>
+      <c r="A16" s="112"/>
+      <c r="B16" s="113"/>
+      <c r="C16" s="114"/>
       <c r="D16" s="32"/>
       <c r="Q16" s="32"/>
       <c r="AD16" s="32"/>
@@ -17204,9 +17211,9 @@
       <c r="BC16" s="33"/>
     </row>
     <row r="17" spans="1:55" ht="13.2">
-      <c r="A17" s="91"/>
-      <c r="B17" s="92"/>
-      <c r="C17" s="93"/>
+      <c r="A17" s="112"/>
+      <c r="B17" s="113"/>
+      <c r="C17" s="114"/>
       <c r="D17" s="32"/>
       <c r="Q17" s="32"/>
       <c r="AD17" s="32"/>
@@ -17214,9 +17221,9 @@
       <c r="BC17" s="33"/>
     </row>
     <row r="18" spans="1:55" ht="13.2">
-      <c r="A18" s="91"/>
-      <c r="B18" s="92"/>
-      <c r="C18" s="93"/>
+      <c r="A18" s="112"/>
+      <c r="B18" s="113"/>
+      <c r="C18" s="114"/>
       <c r="D18" s="32"/>
       <c r="Q18" s="32"/>
       <c r="AD18" s="32"/>
@@ -17224,9 +17231,9 @@
       <c r="BC18" s="33"/>
     </row>
     <row r="19" spans="1:55" ht="13.2">
-      <c r="A19" s="91"/>
-      <c r="B19" s="92"/>
-      <c r="C19" s="93"/>
+      <c r="A19" s="112"/>
+      <c r="B19" s="113"/>
+      <c r="C19" s="114"/>
       <c r="D19" s="32"/>
       <c r="Q19" s="32"/>
       <c r="AD19" s="32"/>
@@ -17234,9 +17241,9 @@
       <c r="BC19" s="33"/>
     </row>
     <row r="20" spans="1:55" ht="13.2">
-      <c r="A20" s="91"/>
-      <c r="B20" s="92"/>
-      <c r="C20" s="93"/>
+      <c r="A20" s="112"/>
+      <c r="B20" s="113"/>
+      <c r="C20" s="114"/>
       <c r="D20" s="32"/>
       <c r="Q20" s="32"/>
       <c r="AD20" s="32"/>
@@ -17244,9 +17251,9 @@
       <c r="BC20" s="33"/>
     </row>
     <row r="21" spans="1:55" ht="13.2">
-      <c r="A21" s="91"/>
-      <c r="B21" s="92"/>
-      <c r="C21" s="93"/>
+      <c r="A21" s="112"/>
+      <c r="B21" s="113"/>
+      <c r="C21" s="114"/>
       <c r="D21" s="32"/>
       <c r="Q21" s="32"/>
       <c r="AD21" s="32"/>
@@ -17254,9 +17261,9 @@
       <c r="BC21" s="33"/>
     </row>
     <row r="22" spans="1:55" ht="13.2">
-      <c r="A22" s="91"/>
-      <c r="B22" s="92"/>
-      <c r="C22" s="93"/>
+      <c r="A22" s="112"/>
+      <c r="B22" s="113"/>
+      <c r="C22" s="114"/>
       <c r="D22" s="32"/>
       <c r="Q22" s="32"/>
       <c r="AD22" s="32"/>
@@ -17264,9 +17271,9 @@
       <c r="BC22" s="33"/>
     </row>
     <row r="23" spans="1:55" ht="13.2">
-      <c r="A23" s="91"/>
-      <c r="B23" s="92"/>
-      <c r="C23" s="93"/>
+      <c r="A23" s="112"/>
+      <c r="B23" s="113"/>
+      <c r="C23" s="114"/>
       <c r="D23" s="32"/>
       <c r="Q23" s="32"/>
       <c r="AD23" s="32"/>
@@ -17274,9 +17281,9 @@
       <c r="BC23" s="33"/>
     </row>
     <row r="24" spans="1:55" ht="13.2">
-      <c r="A24" s="91"/>
-      <c r="B24" s="92"/>
-      <c r="C24" s="93"/>
+      <c r="A24" s="112"/>
+      <c r="B24" s="113"/>
+      <c r="C24" s="114"/>
       <c r="D24" s="32"/>
       <c r="Q24" s="32"/>
       <c r="AD24" s="32"/>
@@ -17284,9 +17291,9 @@
       <c r="BC24" s="33"/>
     </row>
     <row r="25" spans="1:55" ht="13.2">
-      <c r="A25" s="91"/>
-      <c r="B25" s="92"/>
-      <c r="C25" s="93"/>
+      <c r="A25" s="112"/>
+      <c r="B25" s="113"/>
+      <c r="C25" s="114"/>
       <c r="D25" s="32"/>
       <c r="Q25" s="32"/>
       <c r="AD25" s="32"/>
@@ -17294,9 +17301,9 @@
       <c r="BC25" s="33"/>
     </row>
     <row r="26" spans="1:55" ht="13.2">
-      <c r="A26" s="91"/>
-      <c r="B26" s="92"/>
-      <c r="C26" s="93"/>
+      <c r="A26" s="112"/>
+      <c r="B26" s="113"/>
+      <c r="C26" s="114"/>
       <c r="D26" s="32"/>
       <c r="Q26" s="32"/>
       <c r="AD26" s="32"/>
@@ -17304,9 +17311,9 @@
       <c r="BC26" s="33"/>
     </row>
     <row r="27" spans="1:55" ht="13.2">
-      <c r="A27" s="91"/>
-      <c r="B27" s="92"/>
-      <c r="C27" s="93"/>
+      <c r="A27" s="112"/>
+      <c r="B27" s="113"/>
+      <c r="C27" s="114"/>
       <c r="D27" s="32"/>
       <c r="Q27" s="32"/>
       <c r="AD27" s="32"/>
@@ -17314,9 +17321,9 @@
       <c r="BC27" s="33"/>
     </row>
     <row r="28" spans="1:55" ht="13.2">
-      <c r="A28" s="91"/>
-      <c r="B28" s="92"/>
-      <c r="C28" s="93"/>
+      <c r="A28" s="112"/>
+      <c r="B28" s="113"/>
+      <c r="C28" s="114"/>
       <c r="D28" s="32"/>
       <c r="Q28" s="32"/>
       <c r="AD28" s="32"/>
@@ -17324,9 +17331,9 @@
       <c r="BC28" s="33"/>
     </row>
     <row r="29" spans="1:55" ht="13.2">
-      <c r="A29" s="94"/>
-      <c r="B29" s="95"/>
-      <c r="C29" s="96"/>
+      <c r="A29" s="115"/>
+      <c r="B29" s="116"/>
+      <c r="C29" s="117"/>
       <c r="D29" s="32"/>
       <c r="Q29" s="32"/>
       <c r="AD29" s="32"/>
@@ -17334,9 +17341,9 @@
       <c r="BC29" s="33"/>
     </row>
     <row r="30" spans="1:55" ht="13.2">
-      <c r="A30" s="94"/>
-      <c r="B30" s="95"/>
-      <c r="C30" s="96"/>
+      <c r="A30" s="115"/>
+      <c r="B30" s="116"/>
+      <c r="C30" s="117"/>
       <c r="D30" s="32"/>
       <c r="Q30" s="32"/>
       <c r="AD30" s="32"/>
@@ -17344,9 +17351,9 @@
       <c r="BC30" s="33"/>
     </row>
     <row r="31" spans="1:55" ht="13.2">
-      <c r="A31" s="94"/>
-      <c r="B31" s="95"/>
-      <c r="C31" s="96"/>
+      <c r="A31" s="115"/>
+      <c r="B31" s="116"/>
+      <c r="C31" s="117"/>
       <c r="D31" s="32"/>
       <c r="Q31" s="32"/>
       <c r="AD31" s="32"/>
@@ -17354,9 +17361,9 @@
       <c r="BC31" s="33"/>
     </row>
     <row r="32" spans="1:55" ht="13.2">
-      <c r="A32" s="94"/>
-      <c r="B32" s="95"/>
-      <c r="C32" s="96"/>
+      <c r="A32" s="115"/>
+      <c r="B32" s="116"/>
+      <c r="C32" s="117"/>
       <c r="D32" s="32"/>
       <c r="Q32" s="32"/>
       <c r="AD32" s="32"/>
@@ -17364,9 +17371,9 @@
       <c r="BC32" s="33"/>
     </row>
     <row r="33" spans="1:55" ht="13.2">
-      <c r="A33" s="94"/>
-      <c r="B33" s="95"/>
-      <c r="C33" s="96"/>
+      <c r="A33" s="115"/>
+      <c r="B33" s="116"/>
+      <c r="C33" s="117"/>
       <c r="D33" s="32"/>
       <c r="Q33" s="32"/>
       <c r="AD33" s="32"/>
@@ -17374,9 +17381,9 @@
       <c r="BC33" s="33"/>
     </row>
     <row r="34" spans="1:55" ht="13.2">
-      <c r="A34" s="94"/>
-      <c r="B34" s="95"/>
-      <c r="C34" s="96"/>
+      <c r="A34" s="115"/>
+      <c r="B34" s="116"/>
+      <c r="C34" s="117"/>
       <c r="D34" s="32"/>
       <c r="Q34" s="32"/>
       <c r="AD34" s="32"/>
@@ -17384,9 +17391,9 @@
       <c r="BC34" s="33"/>
     </row>
     <row r="35" spans="1:55" ht="13.2">
-      <c r="A35" s="94"/>
-      <c r="B35" s="95"/>
-      <c r="C35" s="96"/>
+      <c r="A35" s="115"/>
+      <c r="B35" s="116"/>
+      <c r="C35" s="117"/>
       <c r="D35" s="32"/>
       <c r="Q35" s="32"/>
       <c r="AD35" s="32"/>
@@ -17394,9 +17401,9 @@
       <c r="BC35" s="33"/>
     </row>
     <row r="36" spans="1:55" ht="13.2">
-      <c r="A36" s="94"/>
-      <c r="B36" s="95"/>
-      <c r="C36" s="96"/>
+      <c r="A36" s="115"/>
+      <c r="B36" s="116"/>
+      <c r="C36" s="117"/>
       <c r="D36" s="32"/>
       <c r="Q36" s="32"/>
       <c r="AD36" s="32"/>
@@ -17404,9 +17411,9 @@
       <c r="BC36" s="33"/>
     </row>
     <row r="37" spans="1:55" ht="13.2">
-      <c r="A37" s="94"/>
-      <c r="B37" s="95"/>
-      <c r="C37" s="96"/>
+      <c r="A37" s="115"/>
+      <c r="B37" s="116"/>
+      <c r="C37" s="117"/>
       <c r="D37" s="32"/>
       <c r="Q37" s="32"/>
       <c r="AD37" s="32"/>
@@ -17414,9 +17421,9 @@
       <c r="BC37" s="33"/>
     </row>
     <row r="38" spans="1:55" ht="13.2">
-      <c r="A38" s="94"/>
-      <c r="B38" s="95"/>
-      <c r="C38" s="96"/>
+      <c r="A38" s="115"/>
+      <c r="B38" s="116"/>
+      <c r="C38" s="117"/>
       <c r="D38" s="32"/>
       <c r="Q38" s="32"/>
       <c r="AD38" s="32"/>
@@ -17424,9 +17431,9 @@
       <c r="BC38" s="33"/>
     </row>
     <row r="39" spans="1:55" ht="13.2">
-      <c r="A39" s="94"/>
-      <c r="B39" s="95"/>
-      <c r="C39" s="96"/>
+      <c r="A39" s="115"/>
+      <c r="B39" s="116"/>
+      <c r="C39" s="117"/>
       <c r="D39" s="32"/>
       <c r="Q39" s="32"/>
       <c r="AD39" s="32"/>
@@ -17434,9 +17441,9 @@
       <c r="BC39" s="33"/>
     </row>
     <row r="40" spans="1:55" ht="13.2">
-      <c r="A40" s="97"/>
-      <c r="B40" s="98"/>
-      <c r="C40" s="99"/>
+      <c r="A40" s="118"/>
+      <c r="B40" s="119"/>
+      <c r="C40" s="120"/>
       <c r="D40" s="34"/>
       <c r="E40" s="35"/>
       <c r="F40" s="35"/>
@@ -17553,138 +17560,138 @@
       <c r="C42" s="38"/>
     </row>
     <row r="45" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A45" s="109" t="s">
+      <c r="A45" s="91" t="s">
         <v>104</v>
       </c>
-      <c r="B45" s="110"/>
-      <c r="C45" s="110"/>
-      <c r="D45" s="110"/>
-      <c r="E45" s="110"/>
-      <c r="F45" s="111"/>
-      <c r="G45" s="115" t="s">
+      <c r="B45" s="92"/>
+      <c r="C45" s="92"/>
+      <c r="D45" s="92"/>
+      <c r="E45" s="92"/>
+      <c r="F45" s="93"/>
+      <c r="G45" s="97" t="s">
         <v>105</v>
       </c>
-      <c r="H45" s="116"/>
-      <c r="I45" s="116"/>
-      <c r="J45" s="116"/>
-      <c r="K45" s="116"/>
-      <c r="L45" s="116"/>
-      <c r="M45" s="116"/>
-      <c r="N45" s="117"/>
-      <c r="O45" s="115" t="s">
+      <c r="H45" s="98"/>
+      <c r="I45" s="98"/>
+      <c r="J45" s="98"/>
+      <c r="K45" s="98"/>
+      <c r="L45" s="98"/>
+      <c r="M45" s="98"/>
+      <c r="N45" s="99"/>
+      <c r="O45" s="97" t="s">
         <v>106</v>
       </c>
-      <c r="P45" s="116"/>
-      <c r="Q45" s="116"/>
-      <c r="R45" s="116"/>
-      <c r="S45" s="116"/>
-      <c r="T45" s="116"/>
-      <c r="U45" s="116"/>
-      <c r="V45" s="116"/>
-      <c r="W45" s="116"/>
-      <c r="X45" s="116"/>
-      <c r="Y45" s="116"/>
-      <c r="Z45" s="116"/>
-      <c r="AA45" s="116"/>
-      <c r="AB45" s="116"/>
-      <c r="AC45" s="116"/>
-      <c r="AD45" s="116"/>
-      <c r="AE45" s="117"/>
-      <c r="AF45" s="115" t="s">
+      <c r="P45" s="98"/>
+      <c r="Q45" s="98"/>
+      <c r="R45" s="98"/>
+      <c r="S45" s="98"/>
+      <c r="T45" s="98"/>
+      <c r="U45" s="98"/>
+      <c r="V45" s="98"/>
+      <c r="W45" s="98"/>
+      <c r="X45" s="98"/>
+      <c r="Y45" s="98"/>
+      <c r="Z45" s="98"/>
+      <c r="AA45" s="98"/>
+      <c r="AB45" s="98"/>
+      <c r="AC45" s="98"/>
+      <c r="AD45" s="98"/>
+      <c r="AE45" s="99"/>
+      <c r="AF45" s="97" t="s">
         <v>107</v>
       </c>
-      <c r="AG45" s="116"/>
-      <c r="AH45" s="116"/>
-      <c r="AI45" s="117"/>
-      <c r="AJ45" s="118" t="s">
+      <c r="AG45" s="98"/>
+      <c r="AH45" s="98"/>
+      <c r="AI45" s="99"/>
+      <c r="AJ45" s="100" t="s">
         <v>152</v>
       </c>
-      <c r="AK45" s="119"/>
-      <c r="AL45" s="119"/>
-      <c r="AM45" s="119"/>
-      <c r="AN45" s="119"/>
-      <c r="AO45" s="119"/>
-      <c r="AP45" s="119"/>
-      <c r="AQ45" s="120"/>
-      <c r="AR45" s="115" t="s">
+      <c r="AK45" s="101"/>
+      <c r="AL45" s="101"/>
+      <c r="AM45" s="101"/>
+      <c r="AN45" s="101"/>
+      <c r="AO45" s="101"/>
+      <c r="AP45" s="101"/>
+      <c r="AQ45" s="102"/>
+      <c r="AR45" s="97" t="s">
         <v>108</v>
       </c>
-      <c r="AS45" s="116"/>
-      <c r="AT45" s="116"/>
-      <c r="AU45" s="117"/>
-      <c r="AV45" s="121">
+      <c r="AS45" s="98"/>
+      <c r="AT45" s="98"/>
+      <c r="AU45" s="99"/>
+      <c r="AV45" s="109">
         <v>45814</v>
       </c>
-      <c r="AW45" s="122"/>
-      <c r="AX45" s="122"/>
-      <c r="AY45" s="122"/>
-      <c r="AZ45" s="122"/>
-      <c r="BA45" s="122"/>
-      <c r="BB45" s="122"/>
-      <c r="BC45" s="123"/>
+      <c r="AW45" s="110"/>
+      <c r="AX45" s="110"/>
+      <c r="AY45" s="110"/>
+      <c r="AZ45" s="110"/>
+      <c r="BA45" s="110"/>
+      <c r="BB45" s="110"/>
+      <c r="BC45" s="111"/>
     </row>
     <row r="46" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A46" s="112"/>
-      <c r="B46" s="113"/>
-      <c r="C46" s="113"/>
-      <c r="D46" s="113"/>
-      <c r="E46" s="113"/>
-      <c r="F46" s="114"/>
-      <c r="G46" s="118" t="s">
+      <c r="A46" s="94"/>
+      <c r="B46" s="95"/>
+      <c r="C46" s="95"/>
+      <c r="D46" s="95"/>
+      <c r="E46" s="95"/>
+      <c r="F46" s="96"/>
+      <c r="G46" s="100" t="s">
         <v>125</v>
       </c>
-      <c r="H46" s="119"/>
-      <c r="I46" s="119"/>
-      <c r="J46" s="119"/>
-      <c r="K46" s="119"/>
-      <c r="L46" s="119"/>
-      <c r="M46" s="119"/>
-      <c r="N46" s="120"/>
-      <c r="O46" s="118"/>
-      <c r="P46" s="119"/>
-      <c r="Q46" s="119"/>
-      <c r="R46" s="119"/>
-      <c r="S46" s="119"/>
-      <c r="T46" s="119"/>
-      <c r="U46" s="119"/>
-      <c r="V46" s="119"/>
-      <c r="W46" s="119"/>
-      <c r="X46" s="119"/>
-      <c r="Y46" s="119"/>
-      <c r="Z46" s="119"/>
-      <c r="AA46" s="119"/>
-      <c r="AB46" s="119"/>
-      <c r="AC46" s="119"/>
-      <c r="AD46" s="119"/>
-      <c r="AE46" s="120"/>
-      <c r="AF46" s="112" t="s">
+      <c r="H46" s="101"/>
+      <c r="I46" s="101"/>
+      <c r="J46" s="101"/>
+      <c r="K46" s="101"/>
+      <c r="L46" s="101"/>
+      <c r="M46" s="101"/>
+      <c r="N46" s="102"/>
+      <c r="O46" s="100"/>
+      <c r="P46" s="101"/>
+      <c r="Q46" s="101"/>
+      <c r="R46" s="101"/>
+      <c r="S46" s="101"/>
+      <c r="T46" s="101"/>
+      <c r="U46" s="101"/>
+      <c r="V46" s="101"/>
+      <c r="W46" s="101"/>
+      <c r="X46" s="101"/>
+      <c r="Y46" s="101"/>
+      <c r="Z46" s="101"/>
+      <c r="AA46" s="101"/>
+      <c r="AB46" s="101"/>
+      <c r="AC46" s="101"/>
+      <c r="AD46" s="101"/>
+      <c r="AE46" s="102"/>
+      <c r="AF46" s="94" t="s">
         <v>109</v>
       </c>
-      <c r="AG46" s="113"/>
-      <c r="AH46" s="113"/>
-      <c r="AI46" s="114"/>
-      <c r="AJ46" s="118"/>
-      <c r="AK46" s="119"/>
-      <c r="AL46" s="119"/>
-      <c r="AM46" s="119"/>
-      <c r="AN46" s="119"/>
-      <c r="AO46" s="119"/>
-      <c r="AP46" s="119"/>
-      <c r="AQ46" s="120"/>
-      <c r="AR46" s="112" t="s">
+      <c r="AG46" s="95"/>
+      <c r="AH46" s="95"/>
+      <c r="AI46" s="96"/>
+      <c r="AJ46" s="100"/>
+      <c r="AK46" s="101"/>
+      <c r="AL46" s="101"/>
+      <c r="AM46" s="101"/>
+      <c r="AN46" s="101"/>
+      <c r="AO46" s="101"/>
+      <c r="AP46" s="101"/>
+      <c r="AQ46" s="102"/>
+      <c r="AR46" s="94" t="s">
         <v>110</v>
       </c>
-      <c r="AS46" s="113"/>
-      <c r="AT46" s="113"/>
-      <c r="AU46" s="114"/>
-      <c r="AV46" s="121"/>
-      <c r="AW46" s="122"/>
-      <c r="AX46" s="122"/>
-      <c r="AY46" s="122"/>
-      <c r="AZ46" s="122"/>
-      <c r="BA46" s="122"/>
-      <c r="BB46" s="122"/>
-      <c r="BC46" s="123"/>
+      <c r="AS46" s="95"/>
+      <c r="AT46" s="95"/>
+      <c r="AU46" s="96"/>
+      <c r="AV46" s="109"/>
+      <c r="AW46" s="110"/>
+      <c r="AX46" s="110"/>
+      <c r="AY46" s="110"/>
+      <c r="AZ46" s="110"/>
+      <c r="BA46" s="110"/>
+      <c r="BB46" s="110"/>
+      <c r="BC46" s="111"/>
     </row>
     <row r="47" spans="1:55" ht="14.25" customHeight="1">
       <c r="A47" s="27"/>
@@ -17744,129 +17751,129 @@
       <c r="BC47" s="28"/>
     </row>
     <row r="48" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A48" s="100" t="s">
+      <c r="A48" s="103" t="s">
         <v>111</v>
       </c>
-      <c r="B48" s="101"/>
-      <c r="C48" s="104"/>
-      <c r="D48" s="100" t="s">
+      <c r="B48" s="104"/>
+      <c r="C48" s="107"/>
+      <c r="D48" s="103" t="s">
         <v>113</v>
       </c>
-      <c r="E48" s="101"/>
-      <c r="F48" s="101"/>
-      <c r="G48" s="101"/>
-      <c r="H48" s="101"/>
-      <c r="I48" s="101"/>
-      <c r="J48" s="101"/>
-      <c r="K48" s="101"/>
-      <c r="L48" s="101"/>
-      <c r="M48" s="101"/>
-      <c r="N48" s="101"/>
-      <c r="O48" s="101"/>
-      <c r="P48" s="101"/>
-      <c r="Q48" s="100" t="s">
+      <c r="E48" s="104"/>
+      <c r="F48" s="104"/>
+      <c r="G48" s="104"/>
+      <c r="H48" s="104"/>
+      <c r="I48" s="104"/>
+      <c r="J48" s="104"/>
+      <c r="K48" s="104"/>
+      <c r="L48" s="104"/>
+      <c r="M48" s="104"/>
+      <c r="N48" s="104"/>
+      <c r="O48" s="104"/>
+      <c r="P48" s="104"/>
+      <c r="Q48" s="103" t="s">
         <v>112</v>
       </c>
-      <c r="R48" s="101"/>
-      <c r="S48" s="101"/>
-      <c r="T48" s="101"/>
-      <c r="U48" s="101"/>
-      <c r="V48" s="101"/>
-      <c r="W48" s="101"/>
-      <c r="X48" s="101"/>
-      <c r="Y48" s="101"/>
-      <c r="Z48" s="101"/>
-      <c r="AA48" s="101"/>
-      <c r="AB48" s="101"/>
-      <c r="AC48" s="101"/>
-      <c r="AD48" s="100"/>
-      <c r="AE48" s="101"/>
-      <c r="AF48" s="101"/>
-      <c r="AG48" s="101"/>
-      <c r="AH48" s="101"/>
-      <c r="AI48" s="101"/>
-      <c r="AJ48" s="101"/>
-      <c r="AK48" s="101"/>
-      <c r="AL48" s="101"/>
-      <c r="AM48" s="101"/>
-      <c r="AN48" s="101"/>
-      <c r="AO48" s="101"/>
-      <c r="AP48" s="104"/>
-      <c r="AQ48" s="101"/>
-      <c r="AR48" s="101"/>
-      <c r="AS48" s="101"/>
-      <c r="AT48" s="101"/>
-      <c r="AU48" s="101"/>
-      <c r="AV48" s="101"/>
-      <c r="AW48" s="101"/>
-      <c r="AX48" s="101"/>
-      <c r="AY48" s="101"/>
-      <c r="AZ48" s="101"/>
-      <c r="BA48" s="101"/>
-      <c r="BB48" s="101"/>
-      <c r="BC48" s="104"/>
+      <c r="R48" s="104"/>
+      <c r="S48" s="104"/>
+      <c r="T48" s="104"/>
+      <c r="U48" s="104"/>
+      <c r="V48" s="104"/>
+      <c r="W48" s="104"/>
+      <c r="X48" s="104"/>
+      <c r="Y48" s="104"/>
+      <c r="Z48" s="104"/>
+      <c r="AA48" s="104"/>
+      <c r="AB48" s="104"/>
+      <c r="AC48" s="104"/>
+      <c r="AD48" s="103"/>
+      <c r="AE48" s="104"/>
+      <c r="AF48" s="104"/>
+      <c r="AG48" s="104"/>
+      <c r="AH48" s="104"/>
+      <c r="AI48" s="104"/>
+      <c r="AJ48" s="104"/>
+      <c r="AK48" s="104"/>
+      <c r="AL48" s="104"/>
+      <c r="AM48" s="104"/>
+      <c r="AN48" s="104"/>
+      <c r="AO48" s="104"/>
+      <c r="AP48" s="107"/>
+      <c r="AQ48" s="104"/>
+      <c r="AR48" s="104"/>
+      <c r="AS48" s="104"/>
+      <c r="AT48" s="104"/>
+      <c r="AU48" s="104"/>
+      <c r="AV48" s="104"/>
+      <c r="AW48" s="104"/>
+      <c r="AX48" s="104"/>
+      <c r="AY48" s="104"/>
+      <c r="AZ48" s="104"/>
+      <c r="BA48" s="104"/>
+      <c r="BB48" s="104"/>
+      <c r="BC48" s="107"/>
     </row>
     <row r="49" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A49" s="102"/>
-      <c r="B49" s="103"/>
-      <c r="C49" s="105"/>
-      <c r="D49" s="102"/>
-      <c r="E49" s="103"/>
-      <c r="F49" s="103"/>
-      <c r="G49" s="103"/>
-      <c r="H49" s="103"/>
-      <c r="I49" s="103"/>
-      <c r="J49" s="103"/>
-      <c r="K49" s="103"/>
-      <c r="L49" s="103"/>
-      <c r="M49" s="103"/>
-      <c r="N49" s="103"/>
-      <c r="O49" s="103"/>
-      <c r="P49" s="103"/>
-      <c r="Q49" s="102"/>
-      <c r="R49" s="103"/>
-      <c r="S49" s="103"/>
-      <c r="T49" s="103"/>
-      <c r="U49" s="103"/>
-      <c r="V49" s="103"/>
-      <c r="W49" s="103"/>
-      <c r="X49" s="103"/>
-      <c r="Y49" s="103"/>
-      <c r="Z49" s="103"/>
-      <c r="AA49" s="103"/>
-      <c r="AB49" s="103"/>
-      <c r="AC49" s="103"/>
-      <c r="AD49" s="102"/>
-      <c r="AE49" s="103"/>
-      <c r="AF49" s="103"/>
-      <c r="AG49" s="103"/>
-      <c r="AH49" s="103"/>
-      <c r="AI49" s="103"/>
-      <c r="AJ49" s="103"/>
-      <c r="AK49" s="103"/>
-      <c r="AL49" s="103"/>
-      <c r="AM49" s="103"/>
-      <c r="AN49" s="103"/>
-      <c r="AO49" s="103"/>
-      <c r="AP49" s="105"/>
-      <c r="AQ49" s="103"/>
-      <c r="AR49" s="103"/>
-      <c r="AS49" s="103"/>
-      <c r="AT49" s="103"/>
-      <c r="AU49" s="103"/>
-      <c r="AV49" s="103"/>
-      <c r="AW49" s="103"/>
-      <c r="AX49" s="103"/>
-      <c r="AY49" s="103"/>
-      <c r="AZ49" s="103"/>
-      <c r="BA49" s="103"/>
-      <c r="BB49" s="103"/>
-      <c r="BC49" s="105"/>
+      <c r="A49" s="105"/>
+      <c r="B49" s="106"/>
+      <c r="C49" s="108"/>
+      <c r="D49" s="105"/>
+      <c r="E49" s="106"/>
+      <c r="F49" s="106"/>
+      <c r="G49" s="106"/>
+      <c r="H49" s="106"/>
+      <c r="I49" s="106"/>
+      <c r="J49" s="106"/>
+      <c r="K49" s="106"/>
+      <c r="L49" s="106"/>
+      <c r="M49" s="106"/>
+      <c r="N49" s="106"/>
+      <c r="O49" s="106"/>
+      <c r="P49" s="106"/>
+      <c r="Q49" s="105"/>
+      <c r="R49" s="106"/>
+      <c r="S49" s="106"/>
+      <c r="T49" s="106"/>
+      <c r="U49" s="106"/>
+      <c r="V49" s="106"/>
+      <c r="W49" s="106"/>
+      <c r="X49" s="106"/>
+      <c r="Y49" s="106"/>
+      <c r="Z49" s="106"/>
+      <c r="AA49" s="106"/>
+      <c r="AB49" s="106"/>
+      <c r="AC49" s="106"/>
+      <c r="AD49" s="105"/>
+      <c r="AE49" s="106"/>
+      <c r="AF49" s="106"/>
+      <c r="AG49" s="106"/>
+      <c r="AH49" s="106"/>
+      <c r="AI49" s="106"/>
+      <c r="AJ49" s="106"/>
+      <c r="AK49" s="106"/>
+      <c r="AL49" s="106"/>
+      <c r="AM49" s="106"/>
+      <c r="AN49" s="106"/>
+      <c r="AO49" s="106"/>
+      <c r="AP49" s="108"/>
+      <c r="AQ49" s="106"/>
+      <c r="AR49" s="106"/>
+      <c r="AS49" s="106"/>
+      <c r="AT49" s="106"/>
+      <c r="AU49" s="106"/>
+      <c r="AV49" s="106"/>
+      <c r="AW49" s="106"/>
+      <c r="AX49" s="106"/>
+      <c r="AY49" s="106"/>
+      <c r="AZ49" s="106"/>
+      <c r="BA49" s="106"/>
+      <c r="BB49" s="106"/>
+      <c r="BC49" s="108"/>
     </row>
     <row r="50" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A50" s="106"/>
-      <c r="B50" s="107"/>
-      <c r="C50" s="108"/>
+      <c r="A50" s="121"/>
+      <c r="B50" s="122"/>
+      <c r="C50" s="123"/>
       <c r="D50" s="29"/>
       <c r="E50" s="30"/>
       <c r="F50" s="30"/>
@@ -17921,9 +17928,9 @@
       <c r="BC50" s="31"/>
     </row>
     <row r="51" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A51" s="91"/>
-      <c r="B51" s="92"/>
-      <c r="C51" s="93"/>
+      <c r="A51" s="112"/>
+      <c r="B51" s="113"/>
+      <c r="C51" s="114"/>
       <c r="D51" s="32"/>
       <c r="Q51" s="32"/>
       <c r="AD51" s="32"/>
@@ -17931,9 +17938,9 @@
       <c r="BC51" s="33"/>
     </row>
     <row r="52" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A52" s="91"/>
-      <c r="B52" s="92"/>
-      <c r="C52" s="93"/>
+      <c r="A52" s="112"/>
+      <c r="B52" s="113"/>
+      <c r="C52" s="114"/>
       <c r="D52" s="32"/>
       <c r="Q52" s="32"/>
       <c r="AD52" s="32"/>
@@ -17941,9 +17948,9 @@
       <c r="BC52" s="33"/>
     </row>
     <row r="53" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A53" s="91"/>
-      <c r="B53" s="92"/>
-      <c r="C53" s="93"/>
+      <c r="A53" s="112"/>
+      <c r="B53" s="113"/>
+      <c r="C53" s="114"/>
       <c r="D53" s="32"/>
       <c r="Q53" s="32"/>
       <c r="AD53" s="32"/>
@@ -17951,9 +17958,9 @@
       <c r="BC53" s="33"/>
     </row>
     <row r="54" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A54" s="91"/>
-      <c r="B54" s="92"/>
-      <c r="C54" s="93"/>
+      <c r="A54" s="112"/>
+      <c r="B54" s="113"/>
+      <c r="C54" s="114"/>
       <c r="D54" s="32"/>
       <c r="Q54" s="32"/>
       <c r="AD54" s="32"/>
@@ -17961,9 +17968,9 @@
       <c r="BC54" s="33"/>
     </row>
     <row r="55" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A55" s="91"/>
-      <c r="B55" s="92"/>
-      <c r="C55" s="93"/>
+      <c r="A55" s="112"/>
+      <c r="B55" s="113"/>
+      <c r="C55" s="114"/>
       <c r="D55" s="32"/>
       <c r="Q55" s="32"/>
       <c r="AD55" s="32"/>
@@ -17971,9 +17978,9 @@
       <c r="BC55" s="33"/>
     </row>
     <row r="56" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A56" s="91"/>
-      <c r="B56" s="92"/>
-      <c r="C56" s="93"/>
+      <c r="A56" s="112"/>
+      <c r="B56" s="113"/>
+      <c r="C56" s="114"/>
       <c r="D56" s="32"/>
       <c r="Q56" s="32"/>
       <c r="AD56" s="32"/>
@@ -17981,9 +17988,9 @@
       <c r="BC56" s="33"/>
     </row>
     <row r="57" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A57" s="91"/>
-      <c r="B57" s="92"/>
-      <c r="C57" s="93"/>
+      <c r="A57" s="112"/>
+      <c r="B57" s="113"/>
+      <c r="C57" s="114"/>
       <c r="D57" s="32"/>
       <c r="Q57" s="32"/>
       <c r="AD57" s="32"/>
@@ -17991,9 +17998,9 @@
       <c r="BC57" s="33"/>
     </row>
     <row r="58" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A58" s="91"/>
-      <c r="B58" s="92"/>
-      <c r="C58" s="93"/>
+      <c r="A58" s="112"/>
+      <c r="B58" s="113"/>
+      <c r="C58" s="114"/>
       <c r="D58" s="32"/>
       <c r="Q58" s="32"/>
       <c r="AD58" s="32"/>
@@ -18001,9 +18008,9 @@
       <c r="BC58" s="33"/>
     </row>
     <row r="59" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A59" s="91"/>
-      <c r="B59" s="92"/>
-      <c r="C59" s="93"/>
+      <c r="A59" s="112"/>
+      <c r="B59" s="113"/>
+      <c r="C59" s="114"/>
       <c r="D59" s="32"/>
       <c r="Q59" s="32"/>
       <c r="AD59" s="32"/>
@@ -18011,9 +18018,9 @@
       <c r="BC59" s="33"/>
     </row>
     <row r="60" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A60" s="91"/>
-      <c r="B60" s="92"/>
-      <c r="C60" s="93"/>
+      <c r="A60" s="112"/>
+      <c r="B60" s="113"/>
+      <c r="C60" s="114"/>
       <c r="D60" s="32"/>
       <c r="Q60" s="32"/>
       <c r="AD60" s="32"/>
@@ -18021,9 +18028,9 @@
       <c r="BC60" s="33"/>
     </row>
     <row r="61" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A61" s="91"/>
-      <c r="B61" s="92"/>
-      <c r="C61" s="93"/>
+      <c r="A61" s="112"/>
+      <c r="B61" s="113"/>
+      <c r="C61" s="114"/>
       <c r="D61" s="32"/>
       <c r="Q61" s="32"/>
       <c r="AD61" s="32"/>
@@ -18031,9 +18038,9 @@
       <c r="BC61" s="33"/>
     </row>
     <row r="62" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A62" s="91"/>
-      <c r="B62" s="92"/>
-      <c r="C62" s="93"/>
+      <c r="A62" s="112"/>
+      <c r="B62" s="113"/>
+      <c r="C62" s="114"/>
       <c r="D62" s="32"/>
       <c r="Q62" s="32"/>
       <c r="AD62" s="32"/>
@@ -18041,46 +18048,46 @@
       <c r="BC62" s="33"/>
     </row>
     <row r="63" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A63" s="91"/>
-      <c r="B63" s="92"/>
-      <c r="C63" s="93"/>
-      <c r="D63" s="100" t="s">
+      <c r="A63" s="112"/>
+      <c r="B63" s="113"/>
+      <c r="C63" s="114"/>
+      <c r="D63" s="103" t="s">
         <v>114</v>
       </c>
-      <c r="E63" s="101"/>
-      <c r="F63" s="101"/>
-      <c r="G63" s="101"/>
-      <c r="H63" s="101"/>
-      <c r="I63" s="101"/>
-      <c r="J63" s="101"/>
-      <c r="K63" s="101"/>
-      <c r="L63" s="101"/>
-      <c r="M63" s="101"/>
-      <c r="N63" s="101"/>
-      <c r="O63" s="101"/>
-      <c r="P63" s="101"/>
+      <c r="E63" s="104"/>
+      <c r="F63" s="104"/>
+      <c r="G63" s="104"/>
+      <c r="H63" s="104"/>
+      <c r="I63" s="104"/>
+      <c r="J63" s="104"/>
+      <c r="K63" s="104"/>
+      <c r="L63" s="104"/>
+      <c r="M63" s="104"/>
+      <c r="N63" s="104"/>
+      <c r="O63" s="104"/>
+      <c r="P63" s="104"/>
       <c r="Q63" s="32"/>
       <c r="AD63" s="32"/>
       <c r="AP63" s="33"/>
       <c r="BC63" s="33"/>
     </row>
     <row r="64" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A64" s="91"/>
-      <c r="B64" s="92"/>
-      <c r="C64" s="93"/>
-      <c r="D64" s="102"/>
-      <c r="E64" s="103"/>
-      <c r="F64" s="103"/>
-      <c r="G64" s="103"/>
-      <c r="H64" s="103"/>
-      <c r="I64" s="103"/>
-      <c r="J64" s="103"/>
-      <c r="K64" s="103"/>
-      <c r="L64" s="103"/>
-      <c r="M64" s="103"/>
-      <c r="N64" s="103"/>
-      <c r="O64" s="103"/>
-      <c r="P64" s="103"/>
+      <c r="A64" s="112"/>
+      <c r="B64" s="113"/>
+      <c r="C64" s="114"/>
+      <c r="D64" s="105"/>
+      <c r="E64" s="106"/>
+      <c r="F64" s="106"/>
+      <c r="G64" s="106"/>
+      <c r="H64" s="106"/>
+      <c r="I64" s="106"/>
+      <c r="J64" s="106"/>
+      <c r="K64" s="106"/>
+      <c r="L64" s="106"/>
+      <c r="M64" s="106"/>
+      <c r="N64" s="106"/>
+      <c r="O64" s="106"/>
+      <c r="P64" s="106"/>
       <c r="Q64" s="32"/>
       <c r="AD64" s="32"/>
       <c r="AP64" s="33"/>
@@ -18093,9 +18100,9 @@
       <c r="BC64" s="33"/>
     </row>
     <row r="65" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A65" s="91"/>
-      <c r="B65" s="92"/>
-      <c r="C65" s="93"/>
+      <c r="A65" s="112"/>
+      <c r="B65" s="113"/>
+      <c r="C65" s="114"/>
       <c r="D65" s="32"/>
       <c r="Q65" s="32"/>
       <c r="AD65" s="32"/>
@@ -18109,9 +18116,9 @@
       <c r="BC65" s="33"/>
     </row>
     <row r="66" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A66" s="91"/>
-      <c r="B66" s="92"/>
-      <c r="C66" s="93"/>
+      <c r="A66" s="112"/>
+      <c r="B66" s="113"/>
+      <c r="C66" s="114"/>
       <c r="D66" s="32"/>
       <c r="Q66" s="32"/>
       <c r="AD66" s="32"/>
@@ -18119,9 +18126,9 @@
       <c r="BC66" s="33"/>
     </row>
     <row r="67" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A67" s="91"/>
-      <c r="B67" s="92"/>
-      <c r="C67" s="93"/>
+      <c r="A67" s="112"/>
+      <c r="B67" s="113"/>
+      <c r="C67" s="114"/>
       <c r="D67" s="32"/>
       <c r="Q67" s="32"/>
       <c r="AD67" s="32"/>
@@ -18129,9 +18136,9 @@
       <c r="BC67" s="33"/>
     </row>
     <row r="68" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A68" s="91"/>
-      <c r="B68" s="92"/>
-      <c r="C68" s="93"/>
+      <c r="A68" s="112"/>
+      <c r="B68" s="113"/>
+      <c r="C68" s="114"/>
       <c r="D68" s="32"/>
       <c r="Q68" s="32"/>
       <c r="AD68" s="32"/>
@@ -18139,9 +18146,9 @@
       <c r="BC68" s="33"/>
     </row>
     <row r="69" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A69" s="91"/>
-      <c r="B69" s="92"/>
-      <c r="C69" s="93"/>
+      <c r="A69" s="112"/>
+      <c r="B69" s="113"/>
+      <c r="C69" s="114"/>
       <c r="D69" s="32"/>
       <c r="Q69" s="32"/>
       <c r="AD69" s="32"/>
@@ -18149,9 +18156,9 @@
       <c r="BC69" s="33"/>
     </row>
     <row r="70" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A70" s="91"/>
-      <c r="B70" s="92"/>
-      <c r="C70" s="93"/>
+      <c r="A70" s="112"/>
+      <c r="B70" s="113"/>
+      <c r="C70" s="114"/>
       <c r="D70" s="32"/>
       <c r="Q70" s="32"/>
       <c r="AD70" s="32"/>
@@ -18159,9 +18166,9 @@
       <c r="BC70" s="33"/>
     </row>
     <row r="71" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A71" s="91"/>
-      <c r="B71" s="92"/>
-      <c r="C71" s="93"/>
+      <c r="A71" s="112"/>
+      <c r="B71" s="113"/>
+      <c r="C71" s="114"/>
       <c r="D71" s="32"/>
       <c r="Q71" s="32"/>
       <c r="AD71" s="32"/>
@@ -18175,9 +18182,9 @@
       <c r="BC71" s="33"/>
     </row>
     <row r="72" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A72" s="91"/>
-      <c r="B72" s="92"/>
-      <c r="C72" s="93"/>
+      <c r="A72" s="112"/>
+      <c r="B72" s="113"/>
+      <c r="C72" s="114"/>
       <c r="D72" s="32"/>
       <c r="Q72" s="32"/>
       <c r="AD72" s="32"/>
@@ -18185,9 +18192,9 @@
       <c r="BC72" s="33"/>
     </row>
     <row r="73" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A73" s="94"/>
-      <c r="B73" s="95"/>
-      <c r="C73" s="96"/>
+      <c r="A73" s="115"/>
+      <c r="B73" s="116"/>
+      <c r="C73" s="117"/>
       <c r="D73" s="32"/>
       <c r="Q73" s="32"/>
       <c r="AD73" s="32"/>
@@ -18195,9 +18202,9 @@
       <c r="BC73" s="33"/>
     </row>
     <row r="74" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A74" s="94"/>
-      <c r="B74" s="95"/>
-      <c r="C74" s="96"/>
+      <c r="A74" s="115"/>
+      <c r="B74" s="116"/>
+      <c r="C74" s="117"/>
       <c r="D74" s="32"/>
       <c r="Q74" s="32"/>
       <c r="AD74" s="32"/>
@@ -18205,9 +18212,9 @@
       <c r="BC74" s="33"/>
     </row>
     <row r="75" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A75" s="94"/>
-      <c r="B75" s="95"/>
-      <c r="C75" s="96"/>
+      <c r="A75" s="115"/>
+      <c r="B75" s="116"/>
+      <c r="C75" s="117"/>
       <c r="D75" s="32"/>
       <c r="Q75" s="32"/>
       <c r="AD75" s="32"/>
@@ -18215,9 +18222,9 @@
       <c r="BC75" s="33"/>
     </row>
     <row r="76" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A76" s="94"/>
-      <c r="B76" s="95"/>
-      <c r="C76" s="96"/>
+      <c r="A76" s="115"/>
+      <c r="B76" s="116"/>
+      <c r="C76" s="117"/>
       <c r="D76" s="32"/>
       <c r="Q76" s="32"/>
       <c r="AD76" s="32"/>
@@ -18225,9 +18232,9 @@
       <c r="BC76" s="33"/>
     </row>
     <row r="77" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A77" s="94"/>
-      <c r="B77" s="95"/>
-      <c r="C77" s="96"/>
+      <c r="A77" s="115"/>
+      <c r="B77" s="116"/>
+      <c r="C77" s="117"/>
       <c r="D77" s="32"/>
       <c r="Q77" s="32"/>
       <c r="AD77" s="32"/>
@@ -18235,9 +18242,9 @@
       <c r="BC77" s="33"/>
     </row>
     <row r="78" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A78" s="94"/>
-      <c r="B78" s="95"/>
-      <c r="C78" s="96"/>
+      <c r="A78" s="115"/>
+      <c r="B78" s="116"/>
+      <c r="C78" s="117"/>
       <c r="D78" s="32"/>
       <c r="Q78" s="32"/>
       <c r="AD78" s="32"/>
@@ -18245,9 +18252,9 @@
       <c r="BC78" s="33"/>
     </row>
     <row r="79" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A79" s="94"/>
-      <c r="B79" s="95"/>
-      <c r="C79" s="96"/>
+      <c r="A79" s="115"/>
+      <c r="B79" s="116"/>
+      <c r="C79" s="117"/>
       <c r="D79" s="32"/>
       <c r="Q79" s="32"/>
       <c r="AD79" s="32"/>
@@ -18255,9 +18262,9 @@
       <c r="BC79" s="33"/>
     </row>
     <row r="80" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A80" s="94"/>
-      <c r="B80" s="95"/>
-      <c r="C80" s="96"/>
+      <c r="A80" s="115"/>
+      <c r="B80" s="116"/>
+      <c r="C80" s="117"/>
       <c r="D80" s="32"/>
       <c r="Q80" s="32"/>
       <c r="AD80" s="32"/>
@@ -18265,9 +18272,9 @@
       <c r="BC80" s="33"/>
     </row>
     <row r="81" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A81" s="94"/>
-      <c r="B81" s="95"/>
-      <c r="C81" s="96"/>
+      <c r="A81" s="115"/>
+      <c r="B81" s="116"/>
+      <c r="C81" s="117"/>
       <c r="D81" s="32"/>
       <c r="Q81" s="32"/>
       <c r="AD81" s="32"/>
@@ -18281,9 +18288,9 @@
       <c r="BC81" s="33"/>
     </row>
     <row r="82" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A82" s="94"/>
-      <c r="B82" s="95"/>
-      <c r="C82" s="96"/>
+      <c r="A82" s="115"/>
+      <c r="B82" s="116"/>
+      <c r="C82" s="117"/>
       <c r="D82" s="32"/>
       <c r="Q82" s="32"/>
       <c r="AD82" s="32"/>
@@ -18291,9 +18298,9 @@
       <c r="BC82" s="33"/>
     </row>
     <row r="83" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A83" s="94"/>
-      <c r="B83" s="95"/>
-      <c r="C83" s="96"/>
+      <c r="A83" s="115"/>
+      <c r="B83" s="116"/>
+      <c r="C83" s="117"/>
       <c r="D83" s="32"/>
       <c r="Q83" s="32"/>
       <c r="AD83" s="32"/>
@@ -18301,9 +18308,9 @@
       <c r="BC83" s="33"/>
     </row>
     <row r="84" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A84" s="94"/>
-      <c r="B84" s="95"/>
-      <c r="C84" s="96"/>
+      <c r="A84" s="115"/>
+      <c r="B84" s="116"/>
+      <c r="C84" s="117"/>
       <c r="D84" s="32"/>
       <c r="Q84" s="32"/>
       <c r="AD84" s="32"/>
@@ -18311,9 +18318,9 @@
       <c r="BC84" s="33"/>
     </row>
     <row r="85" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A85" s="94"/>
-      <c r="B85" s="95"/>
-      <c r="C85" s="96"/>
+      <c r="A85" s="115"/>
+      <c r="B85" s="116"/>
+      <c r="C85" s="117"/>
       <c r="D85" s="32"/>
       <c r="Q85" s="32"/>
       <c r="AD85" s="32"/>
@@ -18321,9 +18328,9 @@
       <c r="BC85" s="33"/>
     </row>
     <row r="86" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A86" s="94"/>
-      <c r="B86" s="95"/>
-      <c r="C86" s="96"/>
+      <c r="A86" s="115"/>
+      <c r="B86" s="116"/>
+      <c r="C86" s="117"/>
       <c r="D86" s="32"/>
       <c r="Q86" s="32"/>
       <c r="AD86" s="32"/>
@@ -18331,9 +18338,9 @@
       <c r="BC86" s="33"/>
     </row>
     <row r="87" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A87" s="94"/>
-      <c r="B87" s="95"/>
-      <c r="C87" s="96"/>
+      <c r="A87" s="115"/>
+      <c r="B87" s="116"/>
+      <c r="C87" s="117"/>
       <c r="D87" s="32"/>
       <c r="Q87" s="32"/>
       <c r="AD87" s="32"/>
@@ -18341,9 +18348,9 @@
       <c r="BC87" s="33"/>
     </row>
     <row r="88" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A88" s="94"/>
-      <c r="B88" s="95"/>
-      <c r="C88" s="96"/>
+      <c r="A88" s="115"/>
+      <c r="B88" s="116"/>
+      <c r="C88" s="117"/>
       <c r="D88" s="32"/>
       <c r="Q88" s="32"/>
       <c r="AD88" s="32"/>
@@ -18351,9 +18358,9 @@
       <c r="BC88" s="33"/>
     </row>
     <row r="89" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A89" s="94"/>
-      <c r="B89" s="95"/>
-      <c r="C89" s="96"/>
+      <c r="A89" s="115"/>
+      <c r="B89" s="116"/>
+      <c r="C89" s="117"/>
       <c r="D89" s="32"/>
       <c r="Q89" s="32"/>
       <c r="AD89" s="32"/>
@@ -18361,9 +18368,9 @@
       <c r="BC89" s="33"/>
     </row>
     <row r="90" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A90" s="94"/>
-      <c r="B90" s="95"/>
-      <c r="C90" s="96"/>
+      <c r="A90" s="115"/>
+      <c r="B90" s="116"/>
+      <c r="C90" s="117"/>
       <c r="D90" s="32"/>
       <c r="Q90" s="32"/>
       <c r="AD90" s="32"/>
@@ -18371,9 +18378,9 @@
       <c r="BC90" s="33"/>
     </row>
     <row r="91" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A91" s="94"/>
-      <c r="B91" s="95"/>
-      <c r="C91" s="96"/>
+      <c r="A91" s="115"/>
+      <c r="B91" s="116"/>
+      <c r="C91" s="117"/>
       <c r="D91" s="32"/>
       <c r="Q91" s="32"/>
       <c r="AD91" s="32"/>
@@ -18387,9 +18394,9 @@
       <c r="BC91" s="33"/>
     </row>
     <row r="92" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A92" s="94"/>
-      <c r="B92" s="95"/>
-      <c r="C92" s="96"/>
+      <c r="A92" s="115"/>
+      <c r="B92" s="116"/>
+      <c r="C92" s="117"/>
       <c r="D92" s="32"/>
       <c r="Q92" s="32"/>
       <c r="AD92" s="32"/>
@@ -18403,9 +18410,9 @@
       <c r="BC92" s="33"/>
     </row>
     <row r="93" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A93" s="94"/>
-      <c r="B93" s="95"/>
-      <c r="C93" s="96"/>
+      <c r="A93" s="115"/>
+      <c r="B93" s="116"/>
+      <c r="C93" s="117"/>
       <c r="D93" s="32"/>
       <c r="Q93" s="32"/>
       <c r="AD93" s="32"/>
@@ -18419,9 +18426,9 @@
       <c r="BC93" s="33"/>
     </row>
     <row r="94" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A94" s="94"/>
-      <c r="B94" s="95"/>
-      <c r="C94" s="96"/>
+      <c r="A94" s="115"/>
+      <c r="B94" s="116"/>
+      <c r="C94" s="117"/>
       <c r="D94" s="32"/>
       <c r="Q94" s="32"/>
       <c r="AD94" s="32"/>
@@ -18435,19 +18442,25 @@
       <c r="BC94" s="33"/>
     </row>
     <row r="95" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A95" s="94"/>
-      <c r="B95" s="95"/>
-      <c r="C95" s="96"/>
+      <c r="A95" s="115"/>
+      <c r="B95" s="116"/>
+      <c r="C95" s="117"/>
       <c r="D95" s="32"/>
       <c r="Q95" s="32"/>
       <c r="AD95" s="32"/>
       <c r="AP95" s="33"/>
+      <c r="AQ95" s="39" t="s">
+        <v>115</v>
+      </c>
+      <c r="AR95" t="s">
+        <v>247</v>
+      </c>
       <c r="BC95" s="33"/>
     </row>
     <row r="96" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A96" s="97"/>
-      <c r="B96" s="98"/>
-      <c r="C96" s="99"/>
+      <c r="A96" s="118"/>
+      <c r="B96" s="119"/>
+      <c r="C96" s="120"/>
       <c r="D96" s="34"/>
       <c r="E96" s="35"/>
       <c r="F96" s="35"/>
@@ -18503,29 +18516,12 @@
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="A1:F2"/>
-    <mergeCell ref="G1:N1"/>
-    <mergeCell ref="O1:AE1"/>
-    <mergeCell ref="AF1:AI1"/>
-    <mergeCell ref="AJ1:AQ1"/>
-    <mergeCell ref="Q4:AC5"/>
-    <mergeCell ref="AD4:AP5"/>
-    <mergeCell ref="AQ4:BC5"/>
-    <mergeCell ref="AR45:AU45"/>
-    <mergeCell ref="AV45:BC45"/>
-    <mergeCell ref="AV1:BC1"/>
-    <mergeCell ref="G2:N2"/>
-    <mergeCell ref="O2:AE2"/>
-    <mergeCell ref="AF2:AI2"/>
-    <mergeCell ref="AJ2:AQ2"/>
-    <mergeCell ref="AR2:AU2"/>
-    <mergeCell ref="AV2:BC2"/>
-    <mergeCell ref="AR1:AU1"/>
-    <mergeCell ref="A13:C28"/>
-    <mergeCell ref="A29:C40"/>
-    <mergeCell ref="A6:C12"/>
-    <mergeCell ref="A4:C5"/>
-    <mergeCell ref="D4:P5"/>
+    <mergeCell ref="A57:C72"/>
+    <mergeCell ref="A73:C96"/>
+    <mergeCell ref="D63:P64"/>
+    <mergeCell ref="A48:C49"/>
+    <mergeCell ref="D48:P49"/>
+    <mergeCell ref="A50:C56"/>
     <mergeCell ref="A45:F46"/>
     <mergeCell ref="G45:N45"/>
     <mergeCell ref="O45:AE45"/>
@@ -18540,12 +18536,29 @@
     <mergeCell ref="AQ48:BC49"/>
     <mergeCell ref="AR46:AU46"/>
     <mergeCell ref="AV46:BC46"/>
-    <mergeCell ref="A57:C72"/>
-    <mergeCell ref="A73:C96"/>
-    <mergeCell ref="D63:P64"/>
-    <mergeCell ref="A48:C49"/>
-    <mergeCell ref="D48:P49"/>
-    <mergeCell ref="A50:C56"/>
+    <mergeCell ref="A13:C28"/>
+    <mergeCell ref="A29:C40"/>
+    <mergeCell ref="A6:C12"/>
+    <mergeCell ref="A4:C5"/>
+    <mergeCell ref="D4:P5"/>
+    <mergeCell ref="AV1:BC1"/>
+    <mergeCell ref="G2:N2"/>
+    <mergeCell ref="O2:AE2"/>
+    <mergeCell ref="AF2:AI2"/>
+    <mergeCell ref="AJ2:AQ2"/>
+    <mergeCell ref="AR2:AU2"/>
+    <mergeCell ref="AV2:BC2"/>
+    <mergeCell ref="AR1:AU1"/>
+    <mergeCell ref="Q4:AC5"/>
+    <mergeCell ref="AD4:AP5"/>
+    <mergeCell ref="AQ4:BC5"/>
+    <mergeCell ref="AR45:AU45"/>
+    <mergeCell ref="AV45:BC45"/>
+    <mergeCell ref="A1:F2"/>
+    <mergeCell ref="G1:N1"/>
+    <mergeCell ref="O1:AE1"/>
+    <mergeCell ref="AF1:AI1"/>
+    <mergeCell ref="AJ1:AQ1"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/市場_2025改修/基本設計_2025/概要20250606修正.xlsx
+++ b/市場_2025改修/基本設計_2025/概要20250606修正.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\works\Git\si001\市場_2025改修\基本設計_2025\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01_Work\Git\si001\市場_2025改修\基本設計_2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E3CE859-FD99-4947-983D-AAE1A9AB08B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60EB6500-4FF2-48F5-A8B2-B1135C6DAA3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{78BC9F0C-B871-4580-9558-94BE9D1399D8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{78BC9F0C-B871-4580-9558-94BE9D1399D8}"/>
   </bookViews>
   <sheets>
     <sheet name="アプリ構成" sheetId="9" r:id="rId1"/>
@@ -4801,8 +4801,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7827645" y="1042035"/>
-          <a:ext cx="2672953" cy="3571875"/>
+          <a:off x="8879205" y="1032510"/>
+          <a:ext cx="3015853" cy="3571875"/>
           <a:chOff x="8963025" y="809625"/>
           <a:chExt cx="3038713" cy="3571875"/>
         </a:xfrm>
@@ -14349,20 +14349,20 @@
   </sheetPr>
   <dimension ref="A1:BL64"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection sqref="A1:BL64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="2.5" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="7" width="2.44140625" style="3"/>
-    <col min="8" max="8" width="2.77734375" style="3" customWidth="1"/>
-    <col min="9" max="12" width="2.44140625" style="3"/>
-    <col min="13" max="13" width="3.77734375" style="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="2.44140625" style="3"/>
+    <col min="1" max="7" width="2.5" style="3"/>
+    <col min="8" max="8" width="2.75" style="3" customWidth="1"/>
+    <col min="9" max="12" width="2.5" style="3"/>
+    <col min="13" max="13" width="3.75" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="2.5" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:64" ht="38.4" customHeight="1">
+    <row r="1" spans="1:64" ht="38.450000000000003" customHeight="1">
       <c r="A1" s="87" t="s">
         <v>5</v>
       </c>
@@ -15323,7 +15323,7 @@
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>
-  <pageSetup paperSize="9" scale="63" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="60" orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -15340,7 +15340,7 @@
       <selection activeCell="V61" sqref="V61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
@@ -15366,7 +15366,7 @@
       <selection activeCell="T23" sqref="T23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
@@ -15393,7 +15393,7 @@
       <selection activeCell="L53" sqref="L53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
@@ -15413,12 +15413,12 @@
       <selection activeCell="I52" sqref="I52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="4" max="4" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="39" spans="2:7" ht="22.2">
+    <row r="39" spans="2:7" ht="24">
       <c r="B39" s="1" t="s">
         <v>126</v>
       </c>
@@ -15434,7 +15434,7 @@
       </c>
       <c r="G39" s="42"/>
     </row>
-    <row r="40" spans="2:7" ht="18">
+    <row r="40" spans="2:7" ht="18.75">
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -15796,7 +15796,7 @@
       <c r="F62" s="57"/>
       <c r="G62" s="57"/>
     </row>
-    <row r="66" spans="2:9" ht="22.2">
+    <row r="66" spans="2:9" ht="24">
       <c r="B66" s="1" t="s">
         <v>139</v>
       </c>
@@ -15814,7 +15814,7 @@
       <c r="H66" s="1"/>
       <c r="I66" s="42"/>
     </row>
-    <row r="67" spans="2:9" ht="18">
+    <row r="67" spans="2:9" ht="18.75">
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
@@ -16310,7 +16310,7 @@
       <c r="H89" s="57"/>
       <c r="I89" s="57"/>
     </row>
-    <row r="93" spans="2:9" ht="22.2">
+    <row r="93" spans="2:9" ht="24">
       <c r="B93" s="1" t="s">
         <v>143</v>
       </c>
@@ -16326,7 +16326,7 @@
       </c>
       <c r="G93" s="42"/>
     </row>
-    <row r="94" spans="2:9" ht="18">
+    <row r="94" spans="2:9" ht="18.75">
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
@@ -16700,7 +16700,7 @@
       <c r="F117" s="57"/>
       <c r="G117" s="57"/>
     </row>
-    <row r="121" spans="1:7" ht="22.2">
+    <row r="121" spans="1:7" ht="24">
       <c r="A121" t="s">
         <v>147</v>
       </c>
@@ -16719,7 +16719,7 @@
       </c>
       <c r="G121" s="42"/>
     </row>
-    <row r="122" spans="1:7" ht="18">
+    <row r="122" spans="1:7" ht="18.75">
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
       <c r="D122" s="1"/>
@@ -16791,16 +16791,16 @@
   </sheetPr>
   <dimension ref="A1:BC96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="AR97" sqref="AR97"/>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="BL75" sqref="BL75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.33203125" defaultRowHeight="14.25" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="2.375" defaultRowHeight="14.25" customHeight="1"/>
   <cols>
-    <col min="55" max="55" width="5.6640625" customWidth="1"/>
+    <col min="55" max="55" width="5.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:55" s="27" customFormat="1" ht="16.2">
+    <row r="1" spans="1:55" s="27" customFormat="1" ht="16.5">
       <c r="A1" s="91" t="s">
         <v>104</v>
       </c>
@@ -16867,7 +16867,7 @@
       <c r="BB1" s="110"/>
       <c r="BC1" s="111"/>
     </row>
-    <row r="2" spans="1:55" s="27" customFormat="1" ht="16.2">
+    <row r="2" spans="1:55" s="27" customFormat="1" ht="16.5">
       <c r="A2" s="94"/>
       <c r="B2" s="95"/>
       <c r="C2" s="95"/>
@@ -16930,10 +16930,10 @@
       <c r="BB2" s="110"/>
       <c r="BC2" s="111"/>
     </row>
-    <row r="3" spans="1:55" s="27" customFormat="1" ht="16.2">
+    <row r="3" spans="1:55" s="27" customFormat="1" ht="16.5">
       <c r="BC3" s="28"/>
     </row>
-    <row r="4" spans="1:55" ht="13.2">
+    <row r="4" spans="1:55" ht="13.5">
       <c r="A4" s="103" t="s">
         <v>111</v>
       </c>
@@ -16996,7 +16996,7 @@
       <c r="BB4" s="104"/>
       <c r="BC4" s="107"/>
     </row>
-    <row r="5" spans="1:55" ht="13.2">
+    <row r="5" spans="1:55" ht="13.5">
       <c r="A5" s="105"/>
       <c r="B5" s="106"/>
       <c r="C5" s="108"/>
@@ -17053,7 +17053,7 @@
       <c r="BB5" s="106"/>
       <c r="BC5" s="108"/>
     </row>
-    <row r="6" spans="1:55" ht="13.2">
+    <row r="6" spans="1:55" ht="13.5">
       <c r="A6" s="121"/>
       <c r="B6" s="122"/>
       <c r="C6" s="123"/>
@@ -17110,7 +17110,7 @@
       <c r="BB6" s="30"/>
       <c r="BC6" s="31"/>
     </row>
-    <row r="7" spans="1:55" ht="13.2">
+    <row r="7" spans="1:55" ht="13.5">
       <c r="A7" s="112"/>
       <c r="B7" s="113"/>
       <c r="C7" s="114"/>
@@ -17120,7 +17120,7 @@
       <c r="AP7" s="33"/>
       <c r="BC7" s="33"/>
     </row>
-    <row r="8" spans="1:55" ht="13.2">
+    <row r="8" spans="1:55" ht="13.5">
       <c r="A8" s="112"/>
       <c r="B8" s="113"/>
       <c r="C8" s="114"/>
@@ -17130,7 +17130,7 @@
       <c r="AP8" s="33"/>
       <c r="BC8" s="33"/>
     </row>
-    <row r="9" spans="1:55" ht="13.2">
+    <row r="9" spans="1:55" ht="13.5">
       <c r="A9" s="112"/>
       <c r="B9" s="113"/>
       <c r="C9" s="114"/>
@@ -17140,7 +17140,7 @@
       <c r="AP9" s="33"/>
       <c r="BC9" s="33"/>
     </row>
-    <row r="10" spans="1:55" ht="13.2">
+    <row r="10" spans="1:55" ht="13.5">
       <c r="A10" s="112"/>
       <c r="B10" s="113"/>
       <c r="C10" s="114"/>
@@ -17150,7 +17150,7 @@
       <c r="AP10" s="33"/>
       <c r="BC10" s="33"/>
     </row>
-    <row r="11" spans="1:55" ht="13.2">
+    <row r="11" spans="1:55" ht="13.5">
       <c r="A11" s="112"/>
       <c r="B11" s="113"/>
       <c r="C11" s="114"/>
@@ -17160,7 +17160,7 @@
       <c r="AP11" s="33"/>
       <c r="BC11" s="33"/>
     </row>
-    <row r="12" spans="1:55" ht="13.2">
+    <row r="12" spans="1:55" ht="13.5">
       <c r="A12" s="112"/>
       <c r="B12" s="113"/>
       <c r="C12" s="114"/>
@@ -17170,7 +17170,7 @@
       <c r="AP12" s="33"/>
       <c r="BC12" s="33"/>
     </row>
-    <row r="13" spans="1:55" ht="13.2">
+    <row r="13" spans="1:55" ht="13.5">
       <c r="A13" s="112"/>
       <c r="B13" s="113"/>
       <c r="C13" s="114"/>
@@ -17180,7 +17180,7 @@
       <c r="AP13" s="33"/>
       <c r="BC13" s="33"/>
     </row>
-    <row r="14" spans="1:55" ht="13.2">
+    <row r="14" spans="1:55" ht="13.5">
       <c r="A14" s="112"/>
       <c r="B14" s="113"/>
       <c r="C14" s="114"/>
@@ -17190,7 +17190,7 @@
       <c r="AP14" s="33"/>
       <c r="BC14" s="33"/>
     </row>
-    <row r="15" spans="1:55" ht="13.2">
+    <row r="15" spans="1:55" ht="13.5">
       <c r="A15" s="112"/>
       <c r="B15" s="113"/>
       <c r="C15" s="114"/>
@@ -17200,7 +17200,7 @@
       <c r="AP15" s="33"/>
       <c r="BC15" s="33"/>
     </row>
-    <row r="16" spans="1:55" ht="13.2">
+    <row r="16" spans="1:55" ht="13.5">
       <c r="A16" s="112"/>
       <c r="B16" s="113"/>
       <c r="C16" s="114"/>
@@ -17210,7 +17210,7 @@
       <c r="AP16" s="33"/>
       <c r="BC16" s="33"/>
     </row>
-    <row r="17" spans="1:55" ht="13.2">
+    <row r="17" spans="1:55" ht="13.5">
       <c r="A17" s="112"/>
       <c r="B17" s="113"/>
       <c r="C17" s="114"/>
@@ -17220,7 +17220,7 @@
       <c r="AP17" s="33"/>
       <c r="BC17" s="33"/>
     </row>
-    <row r="18" spans="1:55" ht="13.2">
+    <row r="18" spans="1:55" ht="13.5">
       <c r="A18" s="112"/>
       <c r="B18" s="113"/>
       <c r="C18" s="114"/>
@@ -17230,7 +17230,7 @@
       <c r="AP18" s="33"/>
       <c r="BC18" s="33"/>
     </row>
-    <row r="19" spans="1:55" ht="13.2">
+    <row r="19" spans="1:55" ht="13.5">
       <c r="A19" s="112"/>
       <c r="B19" s="113"/>
       <c r="C19" s="114"/>
@@ -17240,7 +17240,7 @@
       <c r="AP19" s="33"/>
       <c r="BC19" s="33"/>
     </row>
-    <row r="20" spans="1:55" ht="13.2">
+    <row r="20" spans="1:55" ht="13.5">
       <c r="A20" s="112"/>
       <c r="B20" s="113"/>
       <c r="C20" s="114"/>
@@ -17250,7 +17250,7 @@
       <c r="AP20" s="33"/>
       <c r="BC20" s="33"/>
     </row>
-    <row r="21" spans="1:55" ht="13.2">
+    <row r="21" spans="1:55" ht="13.5">
       <c r="A21" s="112"/>
       <c r="B21" s="113"/>
       <c r="C21" s="114"/>
@@ -17260,7 +17260,7 @@
       <c r="AP21" s="33"/>
       <c r="BC21" s="33"/>
     </row>
-    <row r="22" spans="1:55" ht="13.2">
+    <row r="22" spans="1:55" ht="13.5">
       <c r="A22" s="112"/>
       <c r="B22" s="113"/>
       <c r="C22" s="114"/>
@@ -17270,7 +17270,7 @@
       <c r="AP22" s="33"/>
       <c r="BC22" s="33"/>
     </row>
-    <row r="23" spans="1:55" ht="13.2">
+    <row r="23" spans="1:55" ht="13.5">
       <c r="A23" s="112"/>
       <c r="B23" s="113"/>
       <c r="C23" s="114"/>
@@ -17280,7 +17280,7 @@
       <c r="AP23" s="33"/>
       <c r="BC23" s="33"/>
     </row>
-    <row r="24" spans="1:55" ht="13.2">
+    <row r="24" spans="1:55" ht="13.5">
       <c r="A24" s="112"/>
       <c r="B24" s="113"/>
       <c r="C24" s="114"/>
@@ -17290,7 +17290,7 @@
       <c r="AP24" s="33"/>
       <c r="BC24" s="33"/>
     </row>
-    <row r="25" spans="1:55" ht="13.2">
+    <row r="25" spans="1:55" ht="13.5">
       <c r="A25" s="112"/>
       <c r="B25" s="113"/>
       <c r="C25" s="114"/>
@@ -17300,7 +17300,7 @@
       <c r="AP25" s="33"/>
       <c r="BC25" s="33"/>
     </row>
-    <row r="26" spans="1:55" ht="13.2">
+    <row r="26" spans="1:55" ht="13.5">
       <c r="A26" s="112"/>
       <c r="B26" s="113"/>
       <c r="C26" s="114"/>
@@ -17310,7 +17310,7 @@
       <c r="AP26" s="33"/>
       <c r="BC26" s="33"/>
     </row>
-    <row r="27" spans="1:55" ht="13.2">
+    <row r="27" spans="1:55" ht="13.5">
       <c r="A27" s="112"/>
       <c r="B27" s="113"/>
       <c r="C27" s="114"/>
@@ -17320,7 +17320,7 @@
       <c r="AP27" s="33"/>
       <c r="BC27" s="33"/>
     </row>
-    <row r="28" spans="1:55" ht="13.2">
+    <row r="28" spans="1:55" ht="13.5">
       <c r="A28" s="112"/>
       <c r="B28" s="113"/>
       <c r="C28" s="114"/>
@@ -17330,7 +17330,7 @@
       <c r="AP28" s="33"/>
       <c r="BC28" s="33"/>
     </row>
-    <row r="29" spans="1:55" ht="13.2">
+    <row r="29" spans="1:55" ht="13.5">
       <c r="A29" s="115"/>
       <c r="B29" s="116"/>
       <c r="C29" s="117"/>
@@ -17340,7 +17340,7 @@
       <c r="AP29" s="33"/>
       <c r="BC29" s="33"/>
     </row>
-    <row r="30" spans="1:55" ht="13.2">
+    <row r="30" spans="1:55" ht="13.5">
       <c r="A30" s="115"/>
       <c r="B30" s="116"/>
       <c r="C30" s="117"/>
@@ -17350,7 +17350,7 @@
       <c r="AP30" s="33"/>
       <c r="BC30" s="33"/>
     </row>
-    <row r="31" spans="1:55" ht="13.2">
+    <row r="31" spans="1:55" ht="13.5">
       <c r="A31" s="115"/>
       <c r="B31" s="116"/>
       <c r="C31" s="117"/>
@@ -17360,7 +17360,7 @@
       <c r="AP31" s="33"/>
       <c r="BC31" s="33"/>
     </row>
-    <row r="32" spans="1:55" ht="13.2">
+    <row r="32" spans="1:55" ht="13.5">
       <c r="A32" s="115"/>
       <c r="B32" s="116"/>
       <c r="C32" s="117"/>
@@ -17370,7 +17370,7 @@
       <c r="AP32" s="33"/>
       <c r="BC32" s="33"/>
     </row>
-    <row r="33" spans="1:55" ht="13.2">
+    <row r="33" spans="1:55" ht="13.5">
       <c r="A33" s="115"/>
       <c r="B33" s="116"/>
       <c r="C33" s="117"/>
@@ -17380,7 +17380,7 @@
       <c r="AP33" s="33"/>
       <c r="BC33" s="33"/>
     </row>
-    <row r="34" spans="1:55" ht="13.2">
+    <row r="34" spans="1:55" ht="13.5">
       <c r="A34" s="115"/>
       <c r="B34" s="116"/>
       <c r="C34" s="117"/>
@@ -17390,7 +17390,7 @@
       <c r="AP34" s="33"/>
       <c r="BC34" s="33"/>
     </row>
-    <row r="35" spans="1:55" ht="13.2">
+    <row r="35" spans="1:55" ht="13.5">
       <c r="A35" s="115"/>
       <c r="B35" s="116"/>
       <c r="C35" s="117"/>
@@ -17400,7 +17400,7 @@
       <c r="AP35" s="33"/>
       <c r="BC35" s="33"/>
     </row>
-    <row r="36" spans="1:55" ht="13.2">
+    <row r="36" spans="1:55" ht="13.5">
       <c r="A36" s="115"/>
       <c r="B36" s="116"/>
       <c r="C36" s="117"/>
@@ -17410,7 +17410,7 @@
       <c r="AP36" s="33"/>
       <c r="BC36" s="33"/>
     </row>
-    <row r="37" spans="1:55" ht="13.2">
+    <row r="37" spans="1:55" ht="13.5">
       <c r="A37" s="115"/>
       <c r="B37" s="116"/>
       <c r="C37" s="117"/>
@@ -17420,7 +17420,7 @@
       <c r="AP37" s="33"/>
       <c r="BC37" s="33"/>
     </row>
-    <row r="38" spans="1:55" ht="13.2">
+    <row r="38" spans="1:55" ht="13.5">
       <c r="A38" s="115"/>
       <c r="B38" s="116"/>
       <c r="C38" s="117"/>
@@ -17430,7 +17430,7 @@
       <c r="AP38" s="33"/>
       <c r="BC38" s="33"/>
     </row>
-    <row r="39" spans="1:55" ht="13.2">
+    <row r="39" spans="1:55" ht="13.5">
       <c r="A39" s="115"/>
       <c r="B39" s="116"/>
       <c r="C39" s="117"/>
@@ -17440,7 +17440,7 @@
       <c r="AP39" s="33"/>
       <c r="BC39" s="33"/>
     </row>
-    <row r="40" spans="1:55" ht="13.2">
+    <row r="40" spans="1:55" ht="13.5">
       <c r="A40" s="118"/>
       <c r="B40" s="119"/>
       <c r="C40" s="120"/>
@@ -17497,7 +17497,7 @@
       <c r="BB40" s="35"/>
       <c r="BC40" s="36"/>
     </row>
-    <row r="41" spans="1:55" ht="13.2">
+    <row r="41" spans="1:55" ht="13.5">
       <c r="A41" s="37"/>
       <c r="B41" s="37"/>
       <c r="C41" s="37"/>
@@ -17554,7 +17554,7 @@
       <c r="BB41" s="30"/>
       <c r="BC41" s="30"/>
     </row>
-    <row r="42" spans="1:55" ht="13.2">
+    <row r="42" spans="1:55" ht="13.5">
       <c r="A42" s="38"/>
       <c r="B42" s="38"/>
       <c r="C42" s="38"/>
@@ -18562,7 +18562,7 @@
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="67" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="77" orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -18575,14 +18575,14 @@
   <dimension ref="A1:AG26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:AE26"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="30.77734375" customWidth="1"/>
-    <col min="2" max="10" width="2.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="33" width="3.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.75" customWidth="1"/>
+    <col min="2" max="10" width="2.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="33" width="3.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33">
@@ -19601,12 +19601,12 @@
   <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:I27"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="14.88671875" customWidth="1"/>
+    <col min="2" max="2" width="14.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -19617,7 +19617,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="13.8" thickBot="1"/>
+    <row r="2" spans="1:8" ht="14.25" thickBot="1"/>
     <row r="3" spans="1:8">
       <c r="B3" s="65" t="s">
         <v>175</v>
@@ -19648,7 +19648,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="13.8" thickBot="1">
+    <row r="6" spans="1:8" ht="14.25" thickBot="1">
       <c r="B6" s="69" t="s">
         <v>173</v>
       </c>
@@ -19656,7 +19656,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="13.8" thickBot="1"/>
+    <row r="8" spans="1:8" ht="14.25" thickBot="1"/>
     <row r="9" spans="1:8">
       <c r="B9" s="65" t="s">
         <v>175</v>
@@ -19687,7 +19687,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="13.8" thickBot="1">
+    <row r="12" spans="1:8" ht="14.25" thickBot="1">
       <c r="B12" s="69" t="s">
         <v>173</v>
       </c>
@@ -19700,7 +19700,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="19" spans="2:5" ht="13.8" thickBot="1"/>
+    <row r="19" spans="2:5" ht="14.25" thickBot="1"/>
     <row r="20" spans="2:5">
       <c r="B20" s="65" t="s">
         <v>175</v>
@@ -19731,7 +19731,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="23" spans="2:5" ht="13.8" thickBot="1">
+    <row r="23" spans="2:5" ht="14.25" thickBot="1">
       <c r="B23" s="69" t="s">
         <v>173</v>
       </c>
@@ -19747,7 +19747,7 @@
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -19763,13 +19763,13 @@
       <selection sqref="A1:L49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="16.109375" style="73" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.125" style="73" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" style="73" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="9" style="73"/>
-    <col min="5" max="5" width="35.6640625" style="73" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.33203125" style="73" customWidth="1"/>
+    <col min="5" max="5" width="35.625" style="73" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.375" style="73" customWidth="1"/>
     <col min="7" max="16384" width="9" style="73"/>
   </cols>
   <sheetData>
@@ -20518,7 +20518,7 @@
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="58" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="82" orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -20531,13 +20531,13 @@
       <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.375" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="11" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="13" bestFit="1" customWidth="1"/>
   </cols>
@@ -20694,7 +20694,7 @@
       <selection activeCell="X19" sqref="X19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
@@ -20717,7 +20717,7 @@
       <selection activeCell="X23" sqref="X23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
@@ -20766,7 +20766,7 @@
       <selection activeCell="X21" sqref="X21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="16384" width="9" style="1"/>
   </cols>

--- a/市場_2025改修/基本設計_2025/概要20250606修正.xlsx
+++ b/市場_2025改修/基本設計_2025/概要20250606修正.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01_Work\Git\si001\市場_2025改修\基本設計_2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60EB6500-4FF2-48F5-A8B2-B1135C6DAA3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF1DDA3C-6B1A-41E7-966B-70F408071048}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{78BC9F0C-B871-4580-9558-94BE9D1399D8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{78BC9F0C-B871-4580-9558-94BE9D1399D8}"/>
   </bookViews>
   <sheets>
     <sheet name="アプリ構成" sheetId="9" r:id="rId1"/>
@@ -32,7 +32,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">アプリ構成!$A$1:$BL$64</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">フロー!$A$48:$BC$96</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="6">メニュー!$A$1:$T$51</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">月間スケジュール!$A$1:$AE$26</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">月間スケジュール!$A$1:$AE$28</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="10">口座データ!$A$1:$P$43</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="7">口座マスタ!$A$1:$T$51</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">全銀!$A$1:$I$27</definedName>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="256">
   <si>
     <t>銀行名</t>
     <rPh sb="0" eb="2">
@@ -1243,16 +1243,6 @@
     </rPh>
     <rPh sb="5" eb="7">
       <t>サクセイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>調整入力</t>
-    <rPh sb="0" eb="2">
-      <t>チョウセイ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ニュウリョク</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1809,10 +1799,6 @@
     <phoneticPr fontId="7"/>
   </si>
   <si>
-    <t>①テナントコード</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
     <t>結果コード</t>
     <rPh sb="0" eb="2">
       <t>ケッカ</t>
@@ -1972,19 +1958,6 @@
     <phoneticPr fontId="7"/>
   </si>
   <si>
-    <t>左詰残スペース　テナントコード＋カナ</t>
-    <rPh sb="0" eb="1">
-      <t>ヒダリ</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>ツ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ザン</t>
-    </rPh>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
     <t>⑨　テナント合計</t>
     <rPh sb="6" eb="8">
       <t>ゴウケイ</t>
@@ -2002,6 +1975,137 @@
     <t>口座</t>
     <rPh sb="0" eb="2">
       <t>コウザ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>◎</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>→</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>+２</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>調定入力</t>
+    <rPh sb="0" eb="1">
+      <t>チョウ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>テイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>※レコード確認（１，１，１，１）←案（１，N，1，1）</t>
+    <rPh sb="5" eb="7">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>アン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>※テナント毎合計で請求する</t>
+    <rPh sb="5" eb="6">
+      <t>マイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ゴウケイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>セイキュウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>※ヘッダーに口座番号あるので↑になる</t>
+    <rPh sb="6" eb="8">
+      <t>コウザ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>バンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>左詰残スペース　テナントコード</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>＋カナ</t>
+    </r>
+    <rPh sb="0" eb="1">
+      <t>ヒダリ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ツ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ザン</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>①テナントコード　4桁</t>
+    <rPh sb="10" eb="11">
+      <t>ケタ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>土日は後日へ（祝代は手修正）</t>
+    <rPh sb="0" eb="2">
+      <t>ドニチ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>アト</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>シュク</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>テ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>口座引き落とし日</t>
+    <rPh sb="0" eb="2">
+      <t>コウザ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ヒ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -2015,7 +2119,7 @@
     <numFmt numFmtId="177" formatCode="@&quot;頁&quot;"/>
     <numFmt numFmtId="178" formatCode="@&quot;件&quot;"/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2199,6 +2303,28 @@
       <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="MS UI Gothic"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="MS UI Gothic"/>
+      <family val="3"/>
       <charset val="128"/>
     </font>
   </fonts>
@@ -2664,7 +2790,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="124">
+  <cellXfs count="127">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2928,6 +3054,60 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2964,24 +3144,6 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="14" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2991,41 +3153,14 @@
     <xf numFmtId="176" fontId="14" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" quotePrefix="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -9862,7 +9997,19 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>調停</a:t>
+            <a:t>調</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>定</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
@@ -14349,8 +14496,8 @@
   </sheetPr>
   <dimension ref="A1:BL64"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection sqref="A1:BL64"/>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="AG5" sqref="AG5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.5" defaultRowHeight="15" customHeight="1"/>
@@ -16792,7 +16939,7 @@
   <dimension ref="A1:BC96"/>
   <sheetViews>
     <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="BL75" sqref="BL75"/>
+      <selection activeCell="AW78" sqref="AW78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.375" defaultRowHeight="14.25" customHeight="1"/>
@@ -16801,262 +16948,262 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:55" s="27" customFormat="1" ht="16.5">
-      <c r="A1" s="91" t="s">
+      <c r="A1" s="109" t="s">
         <v>104</v>
       </c>
-      <c r="B1" s="92"/>
-      <c r="C1" s="92"/>
-      <c r="D1" s="92"/>
-      <c r="E1" s="92"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="97" t="s">
+      <c r="B1" s="110"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="110"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="111"/>
+      <c r="G1" s="115" t="s">
         <v>105</v>
       </c>
-      <c r="H1" s="98"/>
-      <c r="I1" s="98"/>
-      <c r="J1" s="98"/>
-      <c r="K1" s="98"/>
-      <c r="L1" s="98"/>
-      <c r="M1" s="98"/>
-      <c r="N1" s="99"/>
-      <c r="O1" s="97" t="s">
+      <c r="H1" s="116"/>
+      <c r="I1" s="116"/>
+      <c r="J1" s="116"/>
+      <c r="K1" s="116"/>
+      <c r="L1" s="116"/>
+      <c r="M1" s="116"/>
+      <c r="N1" s="117"/>
+      <c r="O1" s="115" t="s">
         <v>106</v>
       </c>
-      <c r="P1" s="98"/>
-      <c r="Q1" s="98"/>
-      <c r="R1" s="98"/>
-      <c r="S1" s="98"/>
-      <c r="T1" s="98"/>
-      <c r="U1" s="98"/>
-      <c r="V1" s="98"/>
-      <c r="W1" s="98"/>
-      <c r="X1" s="98"/>
-      <c r="Y1" s="98"/>
-      <c r="Z1" s="98"/>
-      <c r="AA1" s="98"/>
-      <c r="AB1" s="98"/>
-      <c r="AC1" s="98"/>
-      <c r="AD1" s="98"/>
-      <c r="AE1" s="99"/>
-      <c r="AF1" s="97" t="s">
+      <c r="P1" s="116"/>
+      <c r="Q1" s="116"/>
+      <c r="R1" s="116"/>
+      <c r="S1" s="116"/>
+      <c r="T1" s="116"/>
+      <c r="U1" s="116"/>
+      <c r="V1" s="116"/>
+      <c r="W1" s="116"/>
+      <c r="X1" s="116"/>
+      <c r="Y1" s="116"/>
+      <c r="Z1" s="116"/>
+      <c r="AA1" s="116"/>
+      <c r="AB1" s="116"/>
+      <c r="AC1" s="116"/>
+      <c r="AD1" s="116"/>
+      <c r="AE1" s="117"/>
+      <c r="AF1" s="115" t="s">
         <v>107</v>
       </c>
-      <c r="AG1" s="98"/>
-      <c r="AH1" s="98"/>
-      <c r="AI1" s="99"/>
-      <c r="AJ1" s="100"/>
-      <c r="AK1" s="101"/>
-      <c r="AL1" s="101"/>
-      <c r="AM1" s="101"/>
-      <c r="AN1" s="101"/>
-      <c r="AO1" s="101"/>
-      <c r="AP1" s="101"/>
-      <c r="AQ1" s="102"/>
-      <c r="AR1" s="97" t="s">
+      <c r="AG1" s="116"/>
+      <c r="AH1" s="116"/>
+      <c r="AI1" s="117"/>
+      <c r="AJ1" s="118"/>
+      <c r="AK1" s="119"/>
+      <c r="AL1" s="119"/>
+      <c r="AM1" s="119"/>
+      <c r="AN1" s="119"/>
+      <c r="AO1" s="119"/>
+      <c r="AP1" s="119"/>
+      <c r="AQ1" s="120"/>
+      <c r="AR1" s="115" t="s">
         <v>108</v>
       </c>
-      <c r="AS1" s="98"/>
-      <c r="AT1" s="98"/>
-      <c r="AU1" s="99"/>
-      <c r="AV1" s="109"/>
-      <c r="AW1" s="110"/>
-      <c r="AX1" s="110"/>
-      <c r="AY1" s="110"/>
-      <c r="AZ1" s="110"/>
-      <c r="BA1" s="110"/>
-      <c r="BB1" s="110"/>
-      <c r="BC1" s="111"/>
+      <c r="AS1" s="116"/>
+      <c r="AT1" s="116"/>
+      <c r="AU1" s="117"/>
+      <c r="AV1" s="121"/>
+      <c r="AW1" s="122"/>
+      <c r="AX1" s="122"/>
+      <c r="AY1" s="122"/>
+      <c r="AZ1" s="122"/>
+      <c r="BA1" s="122"/>
+      <c r="BB1" s="122"/>
+      <c r="BC1" s="123"/>
     </row>
     <row r="2" spans="1:55" s="27" customFormat="1" ht="16.5">
-      <c r="A2" s="94"/>
-      <c r="B2" s="95"/>
-      <c r="C2" s="95"/>
-      <c r="D2" s="95"/>
-      <c r="E2" s="95"/>
-      <c r="F2" s="96"/>
-      <c r="G2" s="100" t="s">
+      <c r="A2" s="112"/>
+      <c r="B2" s="113"/>
+      <c r="C2" s="113"/>
+      <c r="D2" s="113"/>
+      <c r="E2" s="113"/>
+      <c r="F2" s="114"/>
+      <c r="G2" s="118" t="s">
         <v>124</v>
       </c>
-      <c r="H2" s="101"/>
-      <c r="I2" s="101"/>
-      <c r="J2" s="101"/>
-      <c r="K2" s="101"/>
-      <c r="L2" s="101"/>
-      <c r="M2" s="101"/>
-      <c r="N2" s="102"/>
-      <c r="O2" s="100"/>
-      <c r="P2" s="101"/>
-      <c r="Q2" s="101"/>
-      <c r="R2" s="101"/>
-      <c r="S2" s="101"/>
-      <c r="T2" s="101"/>
-      <c r="U2" s="101"/>
-      <c r="V2" s="101"/>
-      <c r="W2" s="101"/>
-      <c r="X2" s="101"/>
-      <c r="Y2" s="101"/>
-      <c r="Z2" s="101"/>
-      <c r="AA2" s="101"/>
-      <c r="AB2" s="101"/>
-      <c r="AC2" s="101"/>
-      <c r="AD2" s="101"/>
-      <c r="AE2" s="102"/>
-      <c r="AF2" s="94" t="s">
+      <c r="H2" s="119"/>
+      <c r="I2" s="119"/>
+      <c r="J2" s="119"/>
+      <c r="K2" s="119"/>
+      <c r="L2" s="119"/>
+      <c r="M2" s="119"/>
+      <c r="N2" s="120"/>
+      <c r="O2" s="118"/>
+      <c r="P2" s="119"/>
+      <c r="Q2" s="119"/>
+      <c r="R2" s="119"/>
+      <c r="S2" s="119"/>
+      <c r="T2" s="119"/>
+      <c r="U2" s="119"/>
+      <c r="V2" s="119"/>
+      <c r="W2" s="119"/>
+      <c r="X2" s="119"/>
+      <c r="Y2" s="119"/>
+      <c r="Z2" s="119"/>
+      <c r="AA2" s="119"/>
+      <c r="AB2" s="119"/>
+      <c r="AC2" s="119"/>
+      <c r="AD2" s="119"/>
+      <c r="AE2" s="120"/>
+      <c r="AF2" s="112" t="s">
         <v>109</v>
       </c>
-      <c r="AG2" s="95"/>
-      <c r="AH2" s="95"/>
-      <c r="AI2" s="96"/>
-      <c r="AJ2" s="100"/>
-      <c r="AK2" s="101"/>
-      <c r="AL2" s="101"/>
-      <c r="AM2" s="101"/>
-      <c r="AN2" s="101"/>
-      <c r="AO2" s="101"/>
-      <c r="AP2" s="101"/>
-      <c r="AQ2" s="102"/>
-      <c r="AR2" s="94" t="s">
+      <c r="AG2" s="113"/>
+      <c r="AH2" s="113"/>
+      <c r="AI2" s="114"/>
+      <c r="AJ2" s="118"/>
+      <c r="AK2" s="119"/>
+      <c r="AL2" s="119"/>
+      <c r="AM2" s="119"/>
+      <c r="AN2" s="119"/>
+      <c r="AO2" s="119"/>
+      <c r="AP2" s="119"/>
+      <c r="AQ2" s="120"/>
+      <c r="AR2" s="112" t="s">
         <v>110</v>
       </c>
-      <c r="AS2" s="95"/>
-      <c r="AT2" s="95"/>
-      <c r="AU2" s="96"/>
-      <c r="AV2" s="109"/>
-      <c r="AW2" s="110"/>
-      <c r="AX2" s="110"/>
-      <c r="AY2" s="110"/>
-      <c r="AZ2" s="110"/>
-      <c r="BA2" s="110"/>
-      <c r="BB2" s="110"/>
-      <c r="BC2" s="111"/>
+      <c r="AS2" s="113"/>
+      <c r="AT2" s="113"/>
+      <c r="AU2" s="114"/>
+      <c r="AV2" s="121"/>
+      <c r="AW2" s="122"/>
+      <c r="AX2" s="122"/>
+      <c r="AY2" s="122"/>
+      <c r="AZ2" s="122"/>
+      <c r="BA2" s="122"/>
+      <c r="BB2" s="122"/>
+      <c r="BC2" s="123"/>
     </row>
     <row r="3" spans="1:55" s="27" customFormat="1" ht="16.5">
       <c r="BC3" s="28"/>
     </row>
     <row r="4" spans="1:55" ht="13.5">
-      <c r="A4" s="103" t="s">
+      <c r="A4" s="100" t="s">
         <v>111</v>
       </c>
-      <c r="B4" s="104"/>
-      <c r="C4" s="107"/>
-      <c r="D4" s="103" t="s">
+      <c r="B4" s="101"/>
+      <c r="C4" s="104"/>
+      <c r="D4" s="100" t="s">
         <v>113</v>
       </c>
-      <c r="E4" s="104"/>
-      <c r="F4" s="104"/>
-      <c r="G4" s="104"/>
-      <c r="H4" s="104"/>
-      <c r="I4" s="104"/>
-      <c r="J4" s="104"/>
-      <c r="K4" s="104"/>
-      <c r="L4" s="104"/>
-      <c r="M4" s="104"/>
-      <c r="N4" s="104"/>
-      <c r="O4" s="104"/>
-      <c r="P4" s="104"/>
-      <c r="Q4" s="103" t="s">
+      <c r="E4" s="101"/>
+      <c r="F4" s="101"/>
+      <c r="G4" s="101"/>
+      <c r="H4" s="101"/>
+      <c r="I4" s="101"/>
+      <c r="J4" s="101"/>
+      <c r="K4" s="101"/>
+      <c r="L4" s="101"/>
+      <c r="M4" s="101"/>
+      <c r="N4" s="101"/>
+      <c r="O4" s="101"/>
+      <c r="P4" s="101"/>
+      <c r="Q4" s="100" t="s">
         <v>112</v>
       </c>
-      <c r="R4" s="104"/>
-      <c r="S4" s="104"/>
-      <c r="T4" s="104"/>
-      <c r="U4" s="104"/>
-      <c r="V4" s="104"/>
-      <c r="W4" s="104"/>
-      <c r="X4" s="104"/>
-      <c r="Y4" s="104"/>
-      <c r="Z4" s="104"/>
-      <c r="AA4" s="104"/>
-      <c r="AB4" s="104"/>
-      <c r="AC4" s="104"/>
-      <c r="AD4" s="103"/>
-      <c r="AE4" s="104"/>
-      <c r="AF4" s="104"/>
-      <c r="AG4" s="104"/>
-      <c r="AH4" s="104"/>
-      <c r="AI4" s="104"/>
-      <c r="AJ4" s="104"/>
-      <c r="AK4" s="104"/>
-      <c r="AL4" s="104"/>
-      <c r="AM4" s="104"/>
-      <c r="AN4" s="104"/>
-      <c r="AO4" s="104"/>
-      <c r="AP4" s="107"/>
-      <c r="AQ4" s="104"/>
-      <c r="AR4" s="104"/>
-      <c r="AS4" s="104"/>
-      <c r="AT4" s="104"/>
-      <c r="AU4" s="104"/>
-      <c r="AV4" s="104"/>
-      <c r="AW4" s="104"/>
-      <c r="AX4" s="104"/>
-      <c r="AY4" s="104"/>
-      <c r="AZ4" s="104"/>
-      <c r="BA4" s="104"/>
-      <c r="BB4" s="104"/>
-      <c r="BC4" s="107"/>
+      <c r="R4" s="101"/>
+      <c r="S4" s="101"/>
+      <c r="T4" s="101"/>
+      <c r="U4" s="101"/>
+      <c r="V4" s="101"/>
+      <c r="W4" s="101"/>
+      <c r="X4" s="101"/>
+      <c r="Y4" s="101"/>
+      <c r="Z4" s="101"/>
+      <c r="AA4" s="101"/>
+      <c r="AB4" s="101"/>
+      <c r="AC4" s="101"/>
+      <c r="AD4" s="100"/>
+      <c r="AE4" s="101"/>
+      <c r="AF4" s="101"/>
+      <c r="AG4" s="101"/>
+      <c r="AH4" s="101"/>
+      <c r="AI4" s="101"/>
+      <c r="AJ4" s="101"/>
+      <c r="AK4" s="101"/>
+      <c r="AL4" s="101"/>
+      <c r="AM4" s="101"/>
+      <c r="AN4" s="101"/>
+      <c r="AO4" s="101"/>
+      <c r="AP4" s="104"/>
+      <c r="AQ4" s="101"/>
+      <c r="AR4" s="101"/>
+      <c r="AS4" s="101"/>
+      <c r="AT4" s="101"/>
+      <c r="AU4" s="101"/>
+      <c r="AV4" s="101"/>
+      <c r="AW4" s="101"/>
+      <c r="AX4" s="101"/>
+      <c r="AY4" s="101"/>
+      <c r="AZ4" s="101"/>
+      <c r="BA4" s="101"/>
+      <c r="BB4" s="101"/>
+      <c r="BC4" s="104"/>
     </row>
     <row r="5" spans="1:55" ht="13.5">
-      <c r="A5" s="105"/>
-      <c r="B5" s="106"/>
-      <c r="C5" s="108"/>
-      <c r="D5" s="105"/>
-      <c r="E5" s="106"/>
-      <c r="F5" s="106"/>
-      <c r="G5" s="106"/>
-      <c r="H5" s="106"/>
-      <c r="I5" s="106"/>
-      <c r="J5" s="106"/>
-      <c r="K5" s="106"/>
-      <c r="L5" s="106"/>
-      <c r="M5" s="106"/>
-      <c r="N5" s="106"/>
-      <c r="O5" s="106"/>
-      <c r="P5" s="106"/>
-      <c r="Q5" s="105"/>
-      <c r="R5" s="106"/>
-      <c r="S5" s="106"/>
-      <c r="T5" s="106"/>
-      <c r="U5" s="106"/>
-      <c r="V5" s="106"/>
-      <c r="W5" s="106"/>
-      <c r="X5" s="106"/>
-      <c r="Y5" s="106"/>
-      <c r="Z5" s="106"/>
-      <c r="AA5" s="106"/>
-      <c r="AB5" s="106"/>
-      <c r="AC5" s="106"/>
-      <c r="AD5" s="105"/>
-      <c r="AE5" s="106"/>
-      <c r="AF5" s="106"/>
-      <c r="AG5" s="106"/>
-      <c r="AH5" s="106"/>
-      <c r="AI5" s="106"/>
-      <c r="AJ5" s="106"/>
-      <c r="AK5" s="106"/>
-      <c r="AL5" s="106"/>
-      <c r="AM5" s="106"/>
-      <c r="AN5" s="106"/>
-      <c r="AO5" s="106"/>
-      <c r="AP5" s="108"/>
-      <c r="AQ5" s="106"/>
-      <c r="AR5" s="106"/>
-      <c r="AS5" s="106"/>
-      <c r="AT5" s="106"/>
-      <c r="AU5" s="106"/>
-      <c r="AV5" s="106"/>
-      <c r="AW5" s="106"/>
-      <c r="AX5" s="106"/>
-      <c r="AY5" s="106"/>
-      <c r="AZ5" s="106"/>
-      <c r="BA5" s="106"/>
-      <c r="BB5" s="106"/>
-      <c r="BC5" s="108"/>
+      <c r="A5" s="102"/>
+      <c r="B5" s="103"/>
+      <c r="C5" s="105"/>
+      <c r="D5" s="102"/>
+      <c r="E5" s="103"/>
+      <c r="F5" s="103"/>
+      <c r="G5" s="103"/>
+      <c r="H5" s="103"/>
+      <c r="I5" s="103"/>
+      <c r="J5" s="103"/>
+      <c r="K5" s="103"/>
+      <c r="L5" s="103"/>
+      <c r="M5" s="103"/>
+      <c r="N5" s="103"/>
+      <c r="O5" s="103"/>
+      <c r="P5" s="103"/>
+      <c r="Q5" s="102"/>
+      <c r="R5" s="103"/>
+      <c r="S5" s="103"/>
+      <c r="T5" s="103"/>
+      <c r="U5" s="103"/>
+      <c r="V5" s="103"/>
+      <c r="W5" s="103"/>
+      <c r="X5" s="103"/>
+      <c r="Y5" s="103"/>
+      <c r="Z5" s="103"/>
+      <c r="AA5" s="103"/>
+      <c r="AB5" s="103"/>
+      <c r="AC5" s="103"/>
+      <c r="AD5" s="102"/>
+      <c r="AE5" s="103"/>
+      <c r="AF5" s="103"/>
+      <c r="AG5" s="103"/>
+      <c r="AH5" s="103"/>
+      <c r="AI5" s="103"/>
+      <c r="AJ5" s="103"/>
+      <c r="AK5" s="103"/>
+      <c r="AL5" s="103"/>
+      <c r="AM5" s="103"/>
+      <c r="AN5" s="103"/>
+      <c r="AO5" s="103"/>
+      <c r="AP5" s="105"/>
+      <c r="AQ5" s="103"/>
+      <c r="AR5" s="103"/>
+      <c r="AS5" s="103"/>
+      <c r="AT5" s="103"/>
+      <c r="AU5" s="103"/>
+      <c r="AV5" s="103"/>
+      <c r="AW5" s="103"/>
+      <c r="AX5" s="103"/>
+      <c r="AY5" s="103"/>
+      <c r="AZ5" s="103"/>
+      <c r="BA5" s="103"/>
+      <c r="BB5" s="103"/>
+      <c r="BC5" s="105"/>
     </row>
     <row r="6" spans="1:55" ht="13.5">
-      <c r="A6" s="121"/>
-      <c r="B6" s="122"/>
-      <c r="C6" s="123"/>
+      <c r="A6" s="106"/>
+      <c r="B6" s="107"/>
+      <c r="C6" s="108"/>
       <c r="D6" s="29"/>
       <c r="E6" s="30"/>
       <c r="F6" s="30"/>
@@ -17111,9 +17258,9 @@
       <c r="BC6" s="31"/>
     </row>
     <row r="7" spans="1:55" ht="13.5">
-      <c r="A7" s="112"/>
-      <c r="B7" s="113"/>
-      <c r="C7" s="114"/>
+      <c r="A7" s="91"/>
+      <c r="B7" s="92"/>
+      <c r="C7" s="93"/>
       <c r="D7" s="32"/>
       <c r="Q7" s="32"/>
       <c r="AD7" s="32"/>
@@ -17121,9 +17268,9 @@
       <c r="BC7" s="33"/>
     </row>
     <row r="8" spans="1:55" ht="13.5">
-      <c r="A8" s="112"/>
-      <c r="B8" s="113"/>
-      <c r="C8" s="114"/>
+      <c r="A8" s="91"/>
+      <c r="B8" s="92"/>
+      <c r="C8" s="93"/>
       <c r="D8" s="32"/>
       <c r="Q8" s="32"/>
       <c r="AD8" s="32"/>
@@ -17131,9 +17278,9 @@
       <c r="BC8" s="33"/>
     </row>
     <row r="9" spans="1:55" ht="13.5">
-      <c r="A9" s="112"/>
-      <c r="B9" s="113"/>
-      <c r="C9" s="114"/>
+      <c r="A9" s="91"/>
+      <c r="B9" s="92"/>
+      <c r="C9" s="93"/>
       <c r="D9" s="32"/>
       <c r="Q9" s="32"/>
       <c r="AD9" s="32"/>
@@ -17141,9 +17288,9 @@
       <c r="BC9" s="33"/>
     </row>
     <row r="10" spans="1:55" ht="13.5">
-      <c r="A10" s="112"/>
-      <c r="B10" s="113"/>
-      <c r="C10" s="114"/>
+      <c r="A10" s="91"/>
+      <c r="B10" s="92"/>
+      <c r="C10" s="93"/>
       <c r="D10" s="32"/>
       <c r="Q10" s="32"/>
       <c r="AD10" s="32"/>
@@ -17151,9 +17298,9 @@
       <c r="BC10" s="33"/>
     </row>
     <row r="11" spans="1:55" ht="13.5">
-      <c r="A11" s="112"/>
-      <c r="B11" s="113"/>
-      <c r="C11" s="114"/>
+      <c r="A11" s="91"/>
+      <c r="B11" s="92"/>
+      <c r="C11" s="93"/>
       <c r="D11" s="32"/>
       <c r="Q11" s="32"/>
       <c r="AD11" s="32"/>
@@ -17161,9 +17308,9 @@
       <c r="BC11" s="33"/>
     </row>
     <row r="12" spans="1:55" ht="13.5">
-      <c r="A12" s="112"/>
-      <c r="B12" s="113"/>
-      <c r="C12" s="114"/>
+      <c r="A12" s="91"/>
+      <c r="B12" s="92"/>
+      <c r="C12" s="93"/>
       <c r="D12" s="32"/>
       <c r="Q12" s="32"/>
       <c r="AD12" s="32"/>
@@ -17171,9 +17318,9 @@
       <c r="BC12" s="33"/>
     </row>
     <row r="13" spans="1:55" ht="13.5">
-      <c r="A13" s="112"/>
-      <c r="B13" s="113"/>
-      <c r="C13" s="114"/>
+      <c r="A13" s="91"/>
+      <c r="B13" s="92"/>
+      <c r="C13" s="93"/>
       <c r="D13" s="32"/>
       <c r="Q13" s="32"/>
       <c r="AD13" s="32"/>
@@ -17181,9 +17328,9 @@
       <c r="BC13" s="33"/>
     </row>
     <row r="14" spans="1:55" ht="13.5">
-      <c r="A14" s="112"/>
-      <c r="B14" s="113"/>
-      <c r="C14" s="114"/>
+      <c r="A14" s="91"/>
+      <c r="B14" s="92"/>
+      <c r="C14" s="93"/>
       <c r="D14" s="32"/>
       <c r="Q14" s="32"/>
       <c r="AD14" s="32"/>
@@ -17191,9 +17338,9 @@
       <c r="BC14" s="33"/>
     </row>
     <row r="15" spans="1:55" ht="13.5">
-      <c r="A15" s="112"/>
-      <c r="B15" s="113"/>
-      <c r="C15" s="114"/>
+      <c r="A15" s="91"/>
+      <c r="B15" s="92"/>
+      <c r="C15" s="93"/>
       <c r="D15" s="32"/>
       <c r="Q15" s="32"/>
       <c r="AD15" s="32"/>
@@ -17201,9 +17348,9 @@
       <c r="BC15" s="33"/>
     </row>
     <row r="16" spans="1:55" ht="13.5">
-      <c r="A16" s="112"/>
-      <c r="B16" s="113"/>
-      <c r="C16" s="114"/>
+      <c r="A16" s="91"/>
+      <c r="B16" s="92"/>
+      <c r="C16" s="93"/>
       <c r="D16" s="32"/>
       <c r="Q16" s="32"/>
       <c r="AD16" s="32"/>
@@ -17211,9 +17358,9 @@
       <c r="BC16" s="33"/>
     </row>
     <row r="17" spans="1:55" ht="13.5">
-      <c r="A17" s="112"/>
-      <c r="B17" s="113"/>
-      <c r="C17" s="114"/>
+      <c r="A17" s="91"/>
+      <c r="B17" s="92"/>
+      <c r="C17" s="93"/>
       <c r="D17" s="32"/>
       <c r="Q17" s="32"/>
       <c r="AD17" s="32"/>
@@ -17221,9 +17368,9 @@
       <c r="BC17" s="33"/>
     </row>
     <row r="18" spans="1:55" ht="13.5">
-      <c r="A18" s="112"/>
-      <c r="B18" s="113"/>
-      <c r="C18" s="114"/>
+      <c r="A18" s="91"/>
+      <c r="B18" s="92"/>
+      <c r="C18" s="93"/>
       <c r="D18" s="32"/>
       <c r="Q18" s="32"/>
       <c r="AD18" s="32"/>
@@ -17231,9 +17378,9 @@
       <c r="BC18" s="33"/>
     </row>
     <row r="19" spans="1:55" ht="13.5">
-      <c r="A19" s="112"/>
-      <c r="B19" s="113"/>
-      <c r="C19" s="114"/>
+      <c r="A19" s="91"/>
+      <c r="B19" s="92"/>
+      <c r="C19" s="93"/>
       <c r="D19" s="32"/>
       <c r="Q19" s="32"/>
       <c r="AD19" s="32"/>
@@ -17241,9 +17388,9 @@
       <c r="BC19" s="33"/>
     </row>
     <row r="20" spans="1:55" ht="13.5">
-      <c r="A20" s="112"/>
-      <c r="B20" s="113"/>
-      <c r="C20" s="114"/>
+      <c r="A20" s="91"/>
+      <c r="B20" s="92"/>
+      <c r="C20" s="93"/>
       <c r="D20" s="32"/>
       <c r="Q20" s="32"/>
       <c r="AD20" s="32"/>
@@ -17251,9 +17398,9 @@
       <c r="BC20" s="33"/>
     </row>
     <row r="21" spans="1:55" ht="13.5">
-      <c r="A21" s="112"/>
-      <c r="B21" s="113"/>
-      <c r="C21" s="114"/>
+      <c r="A21" s="91"/>
+      <c r="B21" s="92"/>
+      <c r="C21" s="93"/>
       <c r="D21" s="32"/>
       <c r="Q21" s="32"/>
       <c r="AD21" s="32"/>
@@ -17261,9 +17408,9 @@
       <c r="BC21" s="33"/>
     </row>
     <row r="22" spans="1:55" ht="13.5">
-      <c r="A22" s="112"/>
-      <c r="B22" s="113"/>
-      <c r="C22" s="114"/>
+      <c r="A22" s="91"/>
+      <c r="B22" s="92"/>
+      <c r="C22" s="93"/>
       <c r="D22" s="32"/>
       <c r="Q22" s="32"/>
       <c r="AD22" s="32"/>
@@ -17271,9 +17418,9 @@
       <c r="BC22" s="33"/>
     </row>
     <row r="23" spans="1:55" ht="13.5">
-      <c r="A23" s="112"/>
-      <c r="B23" s="113"/>
-      <c r="C23" s="114"/>
+      <c r="A23" s="91"/>
+      <c r="B23" s="92"/>
+      <c r="C23" s="93"/>
       <c r="D23" s="32"/>
       <c r="Q23" s="32"/>
       <c r="AD23" s="32"/>
@@ -17281,9 +17428,9 @@
       <c r="BC23" s="33"/>
     </row>
     <row r="24" spans="1:55" ht="13.5">
-      <c r="A24" s="112"/>
-      <c r="B24" s="113"/>
-      <c r="C24" s="114"/>
+      <c r="A24" s="91"/>
+      <c r="B24" s="92"/>
+      <c r="C24" s="93"/>
       <c r="D24" s="32"/>
       <c r="Q24" s="32"/>
       <c r="AD24" s="32"/>
@@ -17291,9 +17438,9 @@
       <c r="BC24" s="33"/>
     </row>
     <row r="25" spans="1:55" ht="13.5">
-      <c r="A25" s="112"/>
-      <c r="B25" s="113"/>
-      <c r="C25" s="114"/>
+      <c r="A25" s="91"/>
+      <c r="B25" s="92"/>
+      <c r="C25" s="93"/>
       <c r="D25" s="32"/>
       <c r="Q25" s="32"/>
       <c r="AD25" s="32"/>
@@ -17301,9 +17448,9 @@
       <c r="BC25" s="33"/>
     </row>
     <row r="26" spans="1:55" ht="13.5">
-      <c r="A26" s="112"/>
-      <c r="B26" s="113"/>
-      <c r="C26" s="114"/>
+      <c r="A26" s="91"/>
+      <c r="B26" s="92"/>
+      <c r="C26" s="93"/>
       <c r="D26" s="32"/>
       <c r="Q26" s="32"/>
       <c r="AD26" s="32"/>
@@ -17311,9 +17458,9 @@
       <c r="BC26" s="33"/>
     </row>
     <row r="27" spans="1:55" ht="13.5">
-      <c r="A27" s="112"/>
-      <c r="B27" s="113"/>
-      <c r="C27" s="114"/>
+      <c r="A27" s="91"/>
+      <c r="B27" s="92"/>
+      <c r="C27" s="93"/>
       <c r="D27" s="32"/>
       <c r="Q27" s="32"/>
       <c r="AD27" s="32"/>
@@ -17321,9 +17468,9 @@
       <c r="BC27" s="33"/>
     </row>
     <row r="28" spans="1:55" ht="13.5">
-      <c r="A28" s="112"/>
-      <c r="B28" s="113"/>
-      <c r="C28" s="114"/>
+      <c r="A28" s="91"/>
+      <c r="B28" s="92"/>
+      <c r="C28" s="93"/>
       <c r="D28" s="32"/>
       <c r="Q28" s="32"/>
       <c r="AD28" s="32"/>
@@ -17331,9 +17478,9 @@
       <c r="BC28" s="33"/>
     </row>
     <row r="29" spans="1:55" ht="13.5">
-      <c r="A29" s="115"/>
-      <c r="B29" s="116"/>
-      <c r="C29" s="117"/>
+      <c r="A29" s="94"/>
+      <c r="B29" s="95"/>
+      <c r="C29" s="96"/>
       <c r="D29" s="32"/>
       <c r="Q29" s="32"/>
       <c r="AD29" s="32"/>
@@ -17341,9 +17488,9 @@
       <c r="BC29" s="33"/>
     </row>
     <row r="30" spans="1:55" ht="13.5">
-      <c r="A30" s="115"/>
-      <c r="B30" s="116"/>
-      <c r="C30" s="117"/>
+      <c r="A30" s="94"/>
+      <c r="B30" s="95"/>
+      <c r="C30" s="96"/>
       <c r="D30" s="32"/>
       <c r="Q30" s="32"/>
       <c r="AD30" s="32"/>
@@ -17351,9 +17498,9 @@
       <c r="BC30" s="33"/>
     </row>
     <row r="31" spans="1:55" ht="13.5">
-      <c r="A31" s="115"/>
-      <c r="B31" s="116"/>
-      <c r="C31" s="117"/>
+      <c r="A31" s="94"/>
+      <c r="B31" s="95"/>
+      <c r="C31" s="96"/>
       <c r="D31" s="32"/>
       <c r="Q31" s="32"/>
       <c r="AD31" s="32"/>
@@ -17361,9 +17508,9 @@
       <c r="BC31" s="33"/>
     </row>
     <row r="32" spans="1:55" ht="13.5">
-      <c r="A32" s="115"/>
-      <c r="B32" s="116"/>
-      <c r="C32" s="117"/>
+      <c r="A32" s="94"/>
+      <c r="B32" s="95"/>
+      <c r="C32" s="96"/>
       <c r="D32" s="32"/>
       <c r="Q32" s="32"/>
       <c r="AD32" s="32"/>
@@ -17371,9 +17518,9 @@
       <c r="BC32" s="33"/>
     </row>
     <row r="33" spans="1:55" ht="13.5">
-      <c r="A33" s="115"/>
-      <c r="B33" s="116"/>
-      <c r="C33" s="117"/>
+      <c r="A33" s="94"/>
+      <c r="B33" s="95"/>
+      <c r="C33" s="96"/>
       <c r="D33" s="32"/>
       <c r="Q33" s="32"/>
       <c r="AD33" s="32"/>
@@ -17381,9 +17528,9 @@
       <c r="BC33" s="33"/>
     </row>
     <row r="34" spans="1:55" ht="13.5">
-      <c r="A34" s="115"/>
-      <c r="B34" s="116"/>
-      <c r="C34" s="117"/>
+      <c r="A34" s="94"/>
+      <c r="B34" s="95"/>
+      <c r="C34" s="96"/>
       <c r="D34" s="32"/>
       <c r="Q34" s="32"/>
       <c r="AD34" s="32"/>
@@ -17391,9 +17538,9 @@
       <c r="BC34" s="33"/>
     </row>
     <row r="35" spans="1:55" ht="13.5">
-      <c r="A35" s="115"/>
-      <c r="B35" s="116"/>
-      <c r="C35" s="117"/>
+      <c r="A35" s="94"/>
+      <c r="B35" s="95"/>
+      <c r="C35" s="96"/>
       <c r="D35" s="32"/>
       <c r="Q35" s="32"/>
       <c r="AD35" s="32"/>
@@ -17401,9 +17548,9 @@
       <c r="BC35" s="33"/>
     </row>
     <row r="36" spans="1:55" ht="13.5">
-      <c r="A36" s="115"/>
-      <c r="B36" s="116"/>
-      <c r="C36" s="117"/>
+      <c r="A36" s="94"/>
+      <c r="B36" s="95"/>
+      <c r="C36" s="96"/>
       <c r="D36" s="32"/>
       <c r="Q36" s="32"/>
       <c r="AD36" s="32"/>
@@ -17411,9 +17558,9 @@
       <c r="BC36" s="33"/>
     </row>
     <row r="37" spans="1:55" ht="13.5">
-      <c r="A37" s="115"/>
-      <c r="B37" s="116"/>
-      <c r="C37" s="117"/>
+      <c r="A37" s="94"/>
+      <c r="B37" s="95"/>
+      <c r="C37" s="96"/>
       <c r="D37" s="32"/>
       <c r="Q37" s="32"/>
       <c r="AD37" s="32"/>
@@ -17421,9 +17568,9 @@
       <c r="BC37" s="33"/>
     </row>
     <row r="38" spans="1:55" ht="13.5">
-      <c r="A38" s="115"/>
-      <c r="B38" s="116"/>
-      <c r="C38" s="117"/>
+      <c r="A38" s="94"/>
+      <c r="B38" s="95"/>
+      <c r="C38" s="96"/>
       <c r="D38" s="32"/>
       <c r="Q38" s="32"/>
       <c r="AD38" s="32"/>
@@ -17431,9 +17578,9 @@
       <c r="BC38" s="33"/>
     </row>
     <row r="39" spans="1:55" ht="13.5">
-      <c r="A39" s="115"/>
-      <c r="B39" s="116"/>
-      <c r="C39" s="117"/>
+      <c r="A39" s="94"/>
+      <c r="B39" s="95"/>
+      <c r="C39" s="96"/>
       <c r="D39" s="32"/>
       <c r="Q39" s="32"/>
       <c r="AD39" s="32"/>
@@ -17441,9 +17588,9 @@
       <c r="BC39" s="33"/>
     </row>
     <row r="40" spans="1:55" ht="13.5">
-      <c r="A40" s="118"/>
-      <c r="B40" s="119"/>
-      <c r="C40" s="120"/>
+      <c r="A40" s="97"/>
+      <c r="B40" s="98"/>
+      <c r="C40" s="99"/>
       <c r="D40" s="34"/>
       <c r="E40" s="35"/>
       <c r="F40" s="35"/>
@@ -17560,138 +17707,138 @@
       <c r="C42" s="38"/>
     </row>
     <row r="45" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A45" s="91" t="s">
+      <c r="A45" s="109" t="s">
         <v>104</v>
       </c>
-      <c r="B45" s="92"/>
-      <c r="C45" s="92"/>
-      <c r="D45" s="92"/>
-      <c r="E45" s="92"/>
-      <c r="F45" s="93"/>
-      <c r="G45" s="97" t="s">
+      <c r="B45" s="110"/>
+      <c r="C45" s="110"/>
+      <c r="D45" s="110"/>
+      <c r="E45" s="110"/>
+      <c r="F45" s="111"/>
+      <c r="G45" s="115" t="s">
         <v>105</v>
       </c>
-      <c r="H45" s="98"/>
-      <c r="I45" s="98"/>
-      <c r="J45" s="98"/>
-      <c r="K45" s="98"/>
-      <c r="L45" s="98"/>
-      <c r="M45" s="98"/>
-      <c r="N45" s="99"/>
-      <c r="O45" s="97" t="s">
+      <c r="H45" s="116"/>
+      <c r="I45" s="116"/>
+      <c r="J45" s="116"/>
+      <c r="K45" s="116"/>
+      <c r="L45" s="116"/>
+      <c r="M45" s="116"/>
+      <c r="N45" s="117"/>
+      <c r="O45" s="115" t="s">
         <v>106</v>
       </c>
-      <c r="P45" s="98"/>
-      <c r="Q45" s="98"/>
-      <c r="R45" s="98"/>
-      <c r="S45" s="98"/>
-      <c r="T45" s="98"/>
-      <c r="U45" s="98"/>
-      <c r="V45" s="98"/>
-      <c r="W45" s="98"/>
-      <c r="X45" s="98"/>
-      <c r="Y45" s="98"/>
-      <c r="Z45" s="98"/>
-      <c r="AA45" s="98"/>
-      <c r="AB45" s="98"/>
-      <c r="AC45" s="98"/>
-      <c r="AD45" s="98"/>
-      <c r="AE45" s="99"/>
-      <c r="AF45" s="97" t="s">
+      <c r="P45" s="116"/>
+      <c r="Q45" s="116"/>
+      <c r="R45" s="116"/>
+      <c r="S45" s="116"/>
+      <c r="T45" s="116"/>
+      <c r="U45" s="116"/>
+      <c r="V45" s="116"/>
+      <c r="W45" s="116"/>
+      <c r="X45" s="116"/>
+      <c r="Y45" s="116"/>
+      <c r="Z45" s="116"/>
+      <c r="AA45" s="116"/>
+      <c r="AB45" s="116"/>
+      <c r="AC45" s="116"/>
+      <c r="AD45" s="116"/>
+      <c r="AE45" s="117"/>
+      <c r="AF45" s="115" t="s">
         <v>107</v>
       </c>
-      <c r="AG45" s="98"/>
-      <c r="AH45" s="98"/>
-      <c r="AI45" s="99"/>
-      <c r="AJ45" s="100" t="s">
+      <c r="AG45" s="116"/>
+      <c r="AH45" s="116"/>
+      <c r="AI45" s="117"/>
+      <c r="AJ45" s="118" t="s">
         <v>152</v>
       </c>
-      <c r="AK45" s="101"/>
-      <c r="AL45" s="101"/>
-      <c r="AM45" s="101"/>
-      <c r="AN45" s="101"/>
-      <c r="AO45" s="101"/>
-      <c r="AP45" s="101"/>
-      <c r="AQ45" s="102"/>
-      <c r="AR45" s="97" t="s">
+      <c r="AK45" s="119"/>
+      <c r="AL45" s="119"/>
+      <c r="AM45" s="119"/>
+      <c r="AN45" s="119"/>
+      <c r="AO45" s="119"/>
+      <c r="AP45" s="119"/>
+      <c r="AQ45" s="120"/>
+      <c r="AR45" s="115" t="s">
         <v>108</v>
       </c>
-      <c r="AS45" s="98"/>
-      <c r="AT45" s="98"/>
-      <c r="AU45" s="99"/>
-      <c r="AV45" s="109">
+      <c r="AS45" s="116"/>
+      <c r="AT45" s="116"/>
+      <c r="AU45" s="117"/>
+      <c r="AV45" s="121">
         <v>45814</v>
       </c>
-      <c r="AW45" s="110"/>
-      <c r="AX45" s="110"/>
-      <c r="AY45" s="110"/>
-      <c r="AZ45" s="110"/>
-      <c r="BA45" s="110"/>
-      <c r="BB45" s="110"/>
-      <c r="BC45" s="111"/>
+      <c r="AW45" s="122"/>
+      <c r="AX45" s="122"/>
+      <c r="AY45" s="122"/>
+      <c r="AZ45" s="122"/>
+      <c r="BA45" s="122"/>
+      <c r="BB45" s="122"/>
+      <c r="BC45" s="123"/>
     </row>
     <row r="46" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A46" s="94"/>
-      <c r="B46" s="95"/>
-      <c r="C46" s="95"/>
-      <c r="D46" s="95"/>
-      <c r="E46" s="95"/>
-      <c r="F46" s="96"/>
-      <c r="G46" s="100" t="s">
+      <c r="A46" s="112"/>
+      <c r="B46" s="113"/>
+      <c r="C46" s="113"/>
+      <c r="D46" s="113"/>
+      <c r="E46" s="113"/>
+      <c r="F46" s="114"/>
+      <c r="G46" s="118" t="s">
         <v>125</v>
       </c>
-      <c r="H46" s="101"/>
-      <c r="I46" s="101"/>
-      <c r="J46" s="101"/>
-      <c r="K46" s="101"/>
-      <c r="L46" s="101"/>
-      <c r="M46" s="101"/>
-      <c r="N46" s="102"/>
-      <c r="O46" s="100"/>
-      <c r="P46" s="101"/>
-      <c r="Q46" s="101"/>
-      <c r="R46" s="101"/>
-      <c r="S46" s="101"/>
-      <c r="T46" s="101"/>
-      <c r="U46" s="101"/>
-      <c r="V46" s="101"/>
-      <c r="W46" s="101"/>
-      <c r="X46" s="101"/>
-      <c r="Y46" s="101"/>
-      <c r="Z46" s="101"/>
-      <c r="AA46" s="101"/>
-      <c r="AB46" s="101"/>
-      <c r="AC46" s="101"/>
-      <c r="AD46" s="101"/>
-      <c r="AE46" s="102"/>
-      <c r="AF46" s="94" t="s">
+      <c r="H46" s="119"/>
+      <c r="I46" s="119"/>
+      <c r="J46" s="119"/>
+      <c r="K46" s="119"/>
+      <c r="L46" s="119"/>
+      <c r="M46" s="119"/>
+      <c r="N46" s="120"/>
+      <c r="O46" s="118"/>
+      <c r="P46" s="119"/>
+      <c r="Q46" s="119"/>
+      <c r="R46" s="119"/>
+      <c r="S46" s="119"/>
+      <c r="T46" s="119"/>
+      <c r="U46" s="119"/>
+      <c r="V46" s="119"/>
+      <c r="W46" s="119"/>
+      <c r="X46" s="119"/>
+      <c r="Y46" s="119"/>
+      <c r="Z46" s="119"/>
+      <c r="AA46" s="119"/>
+      <c r="AB46" s="119"/>
+      <c r="AC46" s="119"/>
+      <c r="AD46" s="119"/>
+      <c r="AE46" s="120"/>
+      <c r="AF46" s="112" t="s">
         <v>109</v>
       </c>
-      <c r="AG46" s="95"/>
-      <c r="AH46" s="95"/>
-      <c r="AI46" s="96"/>
-      <c r="AJ46" s="100"/>
-      <c r="AK46" s="101"/>
-      <c r="AL46" s="101"/>
-      <c r="AM46" s="101"/>
-      <c r="AN46" s="101"/>
-      <c r="AO46" s="101"/>
-      <c r="AP46" s="101"/>
-      <c r="AQ46" s="102"/>
-      <c r="AR46" s="94" t="s">
+      <c r="AG46" s="113"/>
+      <c r="AH46" s="113"/>
+      <c r="AI46" s="114"/>
+      <c r="AJ46" s="118"/>
+      <c r="AK46" s="119"/>
+      <c r="AL46" s="119"/>
+      <c r="AM46" s="119"/>
+      <c r="AN46" s="119"/>
+      <c r="AO46" s="119"/>
+      <c r="AP46" s="119"/>
+      <c r="AQ46" s="120"/>
+      <c r="AR46" s="112" t="s">
         <v>110</v>
       </c>
-      <c r="AS46" s="95"/>
-      <c r="AT46" s="95"/>
-      <c r="AU46" s="96"/>
-      <c r="AV46" s="109"/>
-      <c r="AW46" s="110"/>
-      <c r="AX46" s="110"/>
-      <c r="AY46" s="110"/>
-      <c r="AZ46" s="110"/>
-      <c r="BA46" s="110"/>
-      <c r="BB46" s="110"/>
-      <c r="BC46" s="111"/>
+      <c r="AS46" s="113"/>
+      <c r="AT46" s="113"/>
+      <c r="AU46" s="114"/>
+      <c r="AV46" s="121"/>
+      <c r="AW46" s="122"/>
+      <c r="AX46" s="122"/>
+      <c r="AY46" s="122"/>
+      <c r="AZ46" s="122"/>
+      <c r="BA46" s="122"/>
+      <c r="BB46" s="122"/>
+      <c r="BC46" s="123"/>
     </row>
     <row r="47" spans="1:55" ht="14.25" customHeight="1">
       <c r="A47" s="27"/>
@@ -17751,129 +17898,129 @@
       <c r="BC47" s="28"/>
     </row>
     <row r="48" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A48" s="103" t="s">
+      <c r="A48" s="100" t="s">
         <v>111</v>
       </c>
-      <c r="B48" s="104"/>
-      <c r="C48" s="107"/>
-      <c r="D48" s="103" t="s">
+      <c r="B48" s="101"/>
+      <c r="C48" s="104"/>
+      <c r="D48" s="100" t="s">
         <v>113</v>
       </c>
-      <c r="E48" s="104"/>
-      <c r="F48" s="104"/>
-      <c r="G48" s="104"/>
-      <c r="H48" s="104"/>
-      <c r="I48" s="104"/>
-      <c r="J48" s="104"/>
-      <c r="K48" s="104"/>
-      <c r="L48" s="104"/>
-      <c r="M48" s="104"/>
-      <c r="N48" s="104"/>
-      <c r="O48" s="104"/>
-      <c r="P48" s="104"/>
-      <c r="Q48" s="103" t="s">
+      <c r="E48" s="101"/>
+      <c r="F48" s="101"/>
+      <c r="G48" s="101"/>
+      <c r="H48" s="101"/>
+      <c r="I48" s="101"/>
+      <c r="J48" s="101"/>
+      <c r="K48" s="101"/>
+      <c r="L48" s="101"/>
+      <c r="M48" s="101"/>
+      <c r="N48" s="101"/>
+      <c r="O48" s="101"/>
+      <c r="P48" s="101"/>
+      <c r="Q48" s="100" t="s">
         <v>112</v>
       </c>
-      <c r="R48" s="104"/>
-      <c r="S48" s="104"/>
-      <c r="T48" s="104"/>
-      <c r="U48" s="104"/>
-      <c r="V48" s="104"/>
-      <c r="W48" s="104"/>
-      <c r="X48" s="104"/>
-      <c r="Y48" s="104"/>
-      <c r="Z48" s="104"/>
-      <c r="AA48" s="104"/>
-      <c r="AB48" s="104"/>
-      <c r="AC48" s="104"/>
-      <c r="AD48" s="103"/>
-      <c r="AE48" s="104"/>
-      <c r="AF48" s="104"/>
-      <c r="AG48" s="104"/>
-      <c r="AH48" s="104"/>
-      <c r="AI48" s="104"/>
-      <c r="AJ48" s="104"/>
-      <c r="AK48" s="104"/>
-      <c r="AL48" s="104"/>
-      <c r="AM48" s="104"/>
-      <c r="AN48" s="104"/>
-      <c r="AO48" s="104"/>
-      <c r="AP48" s="107"/>
-      <c r="AQ48" s="104"/>
-      <c r="AR48" s="104"/>
-      <c r="AS48" s="104"/>
-      <c r="AT48" s="104"/>
-      <c r="AU48" s="104"/>
-      <c r="AV48" s="104"/>
-      <c r="AW48" s="104"/>
-      <c r="AX48" s="104"/>
-      <c r="AY48" s="104"/>
-      <c r="AZ48" s="104"/>
-      <c r="BA48" s="104"/>
-      <c r="BB48" s="104"/>
-      <c r="BC48" s="107"/>
+      <c r="R48" s="101"/>
+      <c r="S48" s="101"/>
+      <c r="T48" s="101"/>
+      <c r="U48" s="101"/>
+      <c r="V48" s="101"/>
+      <c r="W48" s="101"/>
+      <c r="X48" s="101"/>
+      <c r="Y48" s="101"/>
+      <c r="Z48" s="101"/>
+      <c r="AA48" s="101"/>
+      <c r="AB48" s="101"/>
+      <c r="AC48" s="101"/>
+      <c r="AD48" s="100"/>
+      <c r="AE48" s="101"/>
+      <c r="AF48" s="101"/>
+      <c r="AG48" s="101"/>
+      <c r="AH48" s="101"/>
+      <c r="AI48" s="101"/>
+      <c r="AJ48" s="101"/>
+      <c r="AK48" s="101"/>
+      <c r="AL48" s="101"/>
+      <c r="AM48" s="101"/>
+      <c r="AN48" s="101"/>
+      <c r="AO48" s="101"/>
+      <c r="AP48" s="104"/>
+      <c r="AQ48" s="101"/>
+      <c r="AR48" s="101"/>
+      <c r="AS48" s="101"/>
+      <c r="AT48" s="101"/>
+      <c r="AU48" s="101"/>
+      <c r="AV48" s="101"/>
+      <c r="AW48" s="101"/>
+      <c r="AX48" s="101"/>
+      <c r="AY48" s="101"/>
+      <c r="AZ48" s="101"/>
+      <c r="BA48" s="101"/>
+      <c r="BB48" s="101"/>
+      <c r="BC48" s="104"/>
     </row>
     <row r="49" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A49" s="105"/>
-      <c r="B49" s="106"/>
-      <c r="C49" s="108"/>
-      <c r="D49" s="105"/>
-      <c r="E49" s="106"/>
-      <c r="F49" s="106"/>
-      <c r="G49" s="106"/>
-      <c r="H49" s="106"/>
-      <c r="I49" s="106"/>
-      <c r="J49" s="106"/>
-      <c r="K49" s="106"/>
-      <c r="L49" s="106"/>
-      <c r="M49" s="106"/>
-      <c r="N49" s="106"/>
-      <c r="O49" s="106"/>
-      <c r="P49" s="106"/>
-      <c r="Q49" s="105"/>
-      <c r="R49" s="106"/>
-      <c r="S49" s="106"/>
-      <c r="T49" s="106"/>
-      <c r="U49" s="106"/>
-      <c r="V49" s="106"/>
-      <c r="W49" s="106"/>
-      <c r="X49" s="106"/>
-      <c r="Y49" s="106"/>
-      <c r="Z49" s="106"/>
-      <c r="AA49" s="106"/>
-      <c r="AB49" s="106"/>
-      <c r="AC49" s="106"/>
-      <c r="AD49" s="105"/>
-      <c r="AE49" s="106"/>
-      <c r="AF49" s="106"/>
-      <c r="AG49" s="106"/>
-      <c r="AH49" s="106"/>
-      <c r="AI49" s="106"/>
-      <c r="AJ49" s="106"/>
-      <c r="AK49" s="106"/>
-      <c r="AL49" s="106"/>
-      <c r="AM49" s="106"/>
-      <c r="AN49" s="106"/>
-      <c r="AO49" s="106"/>
-      <c r="AP49" s="108"/>
-      <c r="AQ49" s="106"/>
-      <c r="AR49" s="106"/>
-      <c r="AS49" s="106"/>
-      <c r="AT49" s="106"/>
-      <c r="AU49" s="106"/>
-      <c r="AV49" s="106"/>
-      <c r="AW49" s="106"/>
-      <c r="AX49" s="106"/>
-      <c r="AY49" s="106"/>
-      <c r="AZ49" s="106"/>
-      <c r="BA49" s="106"/>
-      <c r="BB49" s="106"/>
-      <c r="BC49" s="108"/>
+      <c r="A49" s="102"/>
+      <c r="B49" s="103"/>
+      <c r="C49" s="105"/>
+      <c r="D49" s="102"/>
+      <c r="E49" s="103"/>
+      <c r="F49" s="103"/>
+      <c r="G49" s="103"/>
+      <c r="H49" s="103"/>
+      <c r="I49" s="103"/>
+      <c r="J49" s="103"/>
+      <c r="K49" s="103"/>
+      <c r="L49" s="103"/>
+      <c r="M49" s="103"/>
+      <c r="N49" s="103"/>
+      <c r="O49" s="103"/>
+      <c r="P49" s="103"/>
+      <c r="Q49" s="102"/>
+      <c r="R49" s="103"/>
+      <c r="S49" s="103"/>
+      <c r="T49" s="103"/>
+      <c r="U49" s="103"/>
+      <c r="V49" s="103"/>
+      <c r="W49" s="103"/>
+      <c r="X49" s="103"/>
+      <c r="Y49" s="103"/>
+      <c r="Z49" s="103"/>
+      <c r="AA49" s="103"/>
+      <c r="AB49" s="103"/>
+      <c r="AC49" s="103"/>
+      <c r="AD49" s="102"/>
+      <c r="AE49" s="103"/>
+      <c r="AF49" s="103"/>
+      <c r="AG49" s="103"/>
+      <c r="AH49" s="103"/>
+      <c r="AI49" s="103"/>
+      <c r="AJ49" s="103"/>
+      <c r="AK49" s="103"/>
+      <c r="AL49" s="103"/>
+      <c r="AM49" s="103"/>
+      <c r="AN49" s="103"/>
+      <c r="AO49" s="103"/>
+      <c r="AP49" s="105"/>
+      <c r="AQ49" s="103"/>
+      <c r="AR49" s="103"/>
+      <c r="AS49" s="103"/>
+      <c r="AT49" s="103"/>
+      <c r="AU49" s="103"/>
+      <c r="AV49" s="103"/>
+      <c r="AW49" s="103"/>
+      <c r="AX49" s="103"/>
+      <c r="AY49" s="103"/>
+      <c r="AZ49" s="103"/>
+      <c r="BA49" s="103"/>
+      <c r="BB49" s="103"/>
+      <c r="BC49" s="105"/>
     </row>
     <row r="50" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A50" s="121"/>
-      <c r="B50" s="122"/>
-      <c r="C50" s="123"/>
+      <c r="A50" s="106"/>
+      <c r="B50" s="107"/>
+      <c r="C50" s="108"/>
       <c r="D50" s="29"/>
       <c r="E50" s="30"/>
       <c r="F50" s="30"/>
@@ -17928,9 +18075,9 @@
       <c r="BC50" s="31"/>
     </row>
     <row r="51" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A51" s="112"/>
-      <c r="B51" s="113"/>
-      <c r="C51" s="114"/>
+      <c r="A51" s="91"/>
+      <c r="B51" s="92"/>
+      <c r="C51" s="93"/>
       <c r="D51" s="32"/>
       <c r="Q51" s="32"/>
       <c r="AD51" s="32"/>
@@ -17938,9 +18085,9 @@
       <c r="BC51" s="33"/>
     </row>
     <row r="52" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A52" s="112"/>
-      <c r="B52" s="113"/>
-      <c r="C52" s="114"/>
+      <c r="A52" s="91"/>
+      <c r="B52" s="92"/>
+      <c r="C52" s="93"/>
       <c r="D52" s="32"/>
       <c r="Q52" s="32"/>
       <c r="AD52" s="32"/>
@@ -17948,9 +18095,9 @@
       <c r="BC52" s="33"/>
     </row>
     <row r="53" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A53" s="112"/>
-      <c r="B53" s="113"/>
-      <c r="C53" s="114"/>
+      <c r="A53" s="91"/>
+      <c r="B53" s="92"/>
+      <c r="C53" s="93"/>
       <c r="D53" s="32"/>
       <c r="Q53" s="32"/>
       <c r="AD53" s="32"/>
@@ -17958,9 +18105,9 @@
       <c r="BC53" s="33"/>
     </row>
     <row r="54" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A54" s="112"/>
-      <c r="B54" s="113"/>
-      <c r="C54" s="114"/>
+      <c r="A54" s="91"/>
+      <c r="B54" s="92"/>
+      <c r="C54" s="93"/>
       <c r="D54" s="32"/>
       <c r="Q54" s="32"/>
       <c r="AD54" s="32"/>
@@ -17968,9 +18115,9 @@
       <c r="BC54" s="33"/>
     </row>
     <row r="55" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A55" s="112"/>
-      <c r="B55" s="113"/>
-      <c r="C55" s="114"/>
+      <c r="A55" s="91"/>
+      <c r="B55" s="92"/>
+      <c r="C55" s="93"/>
       <c r="D55" s="32"/>
       <c r="Q55" s="32"/>
       <c r="AD55" s="32"/>
@@ -17978,9 +18125,9 @@
       <c r="BC55" s="33"/>
     </row>
     <row r="56" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A56" s="112"/>
-      <c r="B56" s="113"/>
-      <c r="C56" s="114"/>
+      <c r="A56" s="91"/>
+      <c r="B56" s="92"/>
+      <c r="C56" s="93"/>
       <c r="D56" s="32"/>
       <c r="Q56" s="32"/>
       <c r="AD56" s="32"/>
@@ -17988,9 +18135,9 @@
       <c r="BC56" s="33"/>
     </row>
     <row r="57" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A57" s="112"/>
-      <c r="B57" s="113"/>
-      <c r="C57" s="114"/>
+      <c r="A57" s="91"/>
+      <c r="B57" s="92"/>
+      <c r="C57" s="93"/>
       <c r="D57" s="32"/>
       <c r="Q57" s="32"/>
       <c r="AD57" s="32"/>
@@ -17998,9 +18145,9 @@
       <c r="BC57" s="33"/>
     </row>
     <row r="58" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A58" s="112"/>
-      <c r="B58" s="113"/>
-      <c r="C58" s="114"/>
+      <c r="A58" s="91"/>
+      <c r="B58" s="92"/>
+      <c r="C58" s="93"/>
       <c r="D58" s="32"/>
       <c r="Q58" s="32"/>
       <c r="AD58" s="32"/>
@@ -18008,9 +18155,9 @@
       <c r="BC58" s="33"/>
     </row>
     <row r="59" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A59" s="112"/>
-      <c r="B59" s="113"/>
-      <c r="C59" s="114"/>
+      <c r="A59" s="91"/>
+      <c r="B59" s="92"/>
+      <c r="C59" s="93"/>
       <c r="D59" s="32"/>
       <c r="Q59" s="32"/>
       <c r="AD59" s="32"/>
@@ -18018,9 +18165,9 @@
       <c r="BC59" s="33"/>
     </row>
     <row r="60" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A60" s="112"/>
-      <c r="B60" s="113"/>
-      <c r="C60" s="114"/>
+      <c r="A60" s="91"/>
+      <c r="B60" s="92"/>
+      <c r="C60" s="93"/>
       <c r="D60" s="32"/>
       <c r="Q60" s="32"/>
       <c r="AD60" s="32"/>
@@ -18028,9 +18175,9 @@
       <c r="BC60" s="33"/>
     </row>
     <row r="61" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A61" s="112"/>
-      <c r="B61" s="113"/>
-      <c r="C61" s="114"/>
+      <c r="A61" s="91"/>
+      <c r="B61" s="92"/>
+      <c r="C61" s="93"/>
       <c r="D61" s="32"/>
       <c r="Q61" s="32"/>
       <c r="AD61" s="32"/>
@@ -18038,9 +18185,9 @@
       <c r="BC61" s="33"/>
     </row>
     <row r="62" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A62" s="112"/>
-      <c r="B62" s="113"/>
-      <c r="C62" s="114"/>
+      <c r="A62" s="91"/>
+      <c r="B62" s="92"/>
+      <c r="C62" s="93"/>
       <c r="D62" s="32"/>
       <c r="Q62" s="32"/>
       <c r="AD62" s="32"/>
@@ -18048,46 +18195,46 @@
       <c r="BC62" s="33"/>
     </row>
     <row r="63" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A63" s="112"/>
-      <c r="B63" s="113"/>
-      <c r="C63" s="114"/>
-      <c r="D63" s="103" t="s">
+      <c r="A63" s="91"/>
+      <c r="B63" s="92"/>
+      <c r="C63" s="93"/>
+      <c r="D63" s="100" t="s">
         <v>114</v>
       </c>
-      <c r="E63" s="104"/>
-      <c r="F63" s="104"/>
-      <c r="G63" s="104"/>
-      <c r="H63" s="104"/>
-      <c r="I63" s="104"/>
-      <c r="J63" s="104"/>
-      <c r="K63" s="104"/>
-      <c r="L63" s="104"/>
-      <c r="M63" s="104"/>
-      <c r="N63" s="104"/>
-      <c r="O63" s="104"/>
-      <c r="P63" s="104"/>
+      <c r="E63" s="101"/>
+      <c r="F63" s="101"/>
+      <c r="G63" s="101"/>
+      <c r="H63" s="101"/>
+      <c r="I63" s="101"/>
+      <c r="J63" s="101"/>
+      <c r="K63" s="101"/>
+      <c r="L63" s="101"/>
+      <c r="M63" s="101"/>
+      <c r="N63" s="101"/>
+      <c r="O63" s="101"/>
+      <c r="P63" s="101"/>
       <c r="Q63" s="32"/>
       <c r="AD63" s="32"/>
       <c r="AP63" s="33"/>
       <c r="BC63" s="33"/>
     </row>
     <row r="64" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A64" s="112"/>
-      <c r="B64" s="113"/>
-      <c r="C64" s="114"/>
-      <c r="D64" s="105"/>
-      <c r="E64" s="106"/>
-      <c r="F64" s="106"/>
-      <c r="G64" s="106"/>
-      <c r="H64" s="106"/>
-      <c r="I64" s="106"/>
-      <c r="J64" s="106"/>
-      <c r="K64" s="106"/>
-      <c r="L64" s="106"/>
-      <c r="M64" s="106"/>
-      <c r="N64" s="106"/>
-      <c r="O64" s="106"/>
-      <c r="P64" s="106"/>
+      <c r="A64" s="91"/>
+      <c r="B64" s="92"/>
+      <c r="C64" s="93"/>
+      <c r="D64" s="102"/>
+      <c r="E64" s="103"/>
+      <c r="F64" s="103"/>
+      <c r="G64" s="103"/>
+      <c r="H64" s="103"/>
+      <c r="I64" s="103"/>
+      <c r="J64" s="103"/>
+      <c r="K64" s="103"/>
+      <c r="L64" s="103"/>
+      <c r="M64" s="103"/>
+      <c r="N64" s="103"/>
+      <c r="O64" s="103"/>
+      <c r="P64" s="103"/>
       <c r="Q64" s="32"/>
       <c r="AD64" s="32"/>
       <c r="AP64" s="33"/>
@@ -18100,9 +18247,9 @@
       <c r="BC64" s="33"/>
     </row>
     <row r="65" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A65" s="112"/>
-      <c r="B65" s="113"/>
-      <c r="C65" s="114"/>
+      <c r="A65" s="91"/>
+      <c r="B65" s="92"/>
+      <c r="C65" s="93"/>
       <c r="D65" s="32"/>
       <c r="Q65" s="32"/>
       <c r="AD65" s="32"/>
@@ -18116,9 +18263,9 @@
       <c r="BC65" s="33"/>
     </row>
     <row r="66" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A66" s="112"/>
-      <c r="B66" s="113"/>
-      <c r="C66" s="114"/>
+      <c r="A66" s="91"/>
+      <c r="B66" s="92"/>
+      <c r="C66" s="93"/>
       <c r="D66" s="32"/>
       <c r="Q66" s="32"/>
       <c r="AD66" s="32"/>
@@ -18126,9 +18273,9 @@
       <c r="BC66" s="33"/>
     </row>
     <row r="67" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A67" s="112"/>
-      <c r="B67" s="113"/>
-      <c r="C67" s="114"/>
+      <c r="A67" s="91"/>
+      <c r="B67" s="92"/>
+      <c r="C67" s="93"/>
       <c r="D67" s="32"/>
       <c r="Q67" s="32"/>
       <c r="AD67" s="32"/>
@@ -18136,9 +18283,9 @@
       <c r="BC67" s="33"/>
     </row>
     <row r="68" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A68" s="112"/>
-      <c r="B68" s="113"/>
-      <c r="C68" s="114"/>
+      <c r="A68" s="91"/>
+      <c r="B68" s="92"/>
+      <c r="C68" s="93"/>
       <c r="D68" s="32"/>
       <c r="Q68" s="32"/>
       <c r="AD68" s="32"/>
@@ -18146,9 +18293,9 @@
       <c r="BC68" s="33"/>
     </row>
     <row r="69" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A69" s="112"/>
-      <c r="B69" s="113"/>
-      <c r="C69" s="114"/>
+      <c r="A69" s="91"/>
+      <c r="B69" s="92"/>
+      <c r="C69" s="93"/>
       <c r="D69" s="32"/>
       <c r="Q69" s="32"/>
       <c r="AD69" s="32"/>
@@ -18156,9 +18303,9 @@
       <c r="BC69" s="33"/>
     </row>
     <row r="70" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A70" s="112"/>
-      <c r="B70" s="113"/>
-      <c r="C70" s="114"/>
+      <c r="A70" s="91"/>
+      <c r="B70" s="92"/>
+      <c r="C70" s="93"/>
       <c r="D70" s="32"/>
       <c r="Q70" s="32"/>
       <c r="AD70" s="32"/>
@@ -18166,9 +18313,9 @@
       <c r="BC70" s="33"/>
     </row>
     <row r="71" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A71" s="112"/>
-      <c r="B71" s="113"/>
-      <c r="C71" s="114"/>
+      <c r="A71" s="91"/>
+      <c r="B71" s="92"/>
+      <c r="C71" s="93"/>
       <c r="D71" s="32"/>
       <c r="Q71" s="32"/>
       <c r="AD71" s="32"/>
@@ -18182,9 +18329,9 @@
       <c r="BC71" s="33"/>
     </row>
     <row r="72" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A72" s="112"/>
-      <c r="B72" s="113"/>
-      <c r="C72" s="114"/>
+      <c r="A72" s="91"/>
+      <c r="B72" s="92"/>
+      <c r="C72" s="93"/>
       <c r="D72" s="32"/>
       <c r="Q72" s="32"/>
       <c r="AD72" s="32"/>
@@ -18192,9 +18339,9 @@
       <c r="BC72" s="33"/>
     </row>
     <row r="73" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A73" s="115"/>
-      <c r="B73" s="116"/>
-      <c r="C73" s="117"/>
+      <c r="A73" s="94"/>
+      <c r="B73" s="95"/>
+      <c r="C73" s="96"/>
       <c r="D73" s="32"/>
       <c r="Q73" s="32"/>
       <c r="AD73" s="32"/>
@@ -18202,9 +18349,9 @@
       <c r="BC73" s="33"/>
     </row>
     <row r="74" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A74" s="115"/>
-      <c r="B74" s="116"/>
-      <c r="C74" s="117"/>
+      <c r="A74" s="94"/>
+      <c r="B74" s="95"/>
+      <c r="C74" s="96"/>
       <c r="D74" s="32"/>
       <c r="Q74" s="32"/>
       <c r="AD74" s="32"/>
@@ -18212,9 +18359,9 @@
       <c r="BC74" s="33"/>
     </row>
     <row r="75" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A75" s="115"/>
-      <c r="B75" s="116"/>
-      <c r="C75" s="117"/>
+      <c r="A75" s="94"/>
+      <c r="B75" s="95"/>
+      <c r="C75" s="96"/>
       <c r="D75" s="32"/>
       <c r="Q75" s="32"/>
       <c r="AD75" s="32"/>
@@ -18222,9 +18369,9 @@
       <c r="BC75" s="33"/>
     </row>
     <row r="76" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A76" s="115"/>
-      <c r="B76" s="116"/>
-      <c r="C76" s="117"/>
+      <c r="A76" s="94"/>
+      <c r="B76" s="95"/>
+      <c r="C76" s="96"/>
       <c r="D76" s="32"/>
       <c r="Q76" s="32"/>
       <c r="AD76" s="32"/>
@@ -18232,9 +18379,9 @@
       <c r="BC76" s="33"/>
     </row>
     <row r="77" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A77" s="115"/>
-      <c r="B77" s="116"/>
-      <c r="C77" s="117"/>
+      <c r="A77" s="94"/>
+      <c r="B77" s="95"/>
+      <c r="C77" s="96"/>
       <c r="D77" s="32"/>
       <c r="Q77" s="32"/>
       <c r="AD77" s="32"/>
@@ -18242,9 +18389,9 @@
       <c r="BC77" s="33"/>
     </row>
     <row r="78" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A78" s="115"/>
-      <c r="B78" s="116"/>
-      <c r="C78" s="117"/>
+      <c r="A78" s="94"/>
+      <c r="B78" s="95"/>
+      <c r="C78" s="96"/>
       <c r="D78" s="32"/>
       <c r="Q78" s="32"/>
       <c r="AD78" s="32"/>
@@ -18252,9 +18399,9 @@
       <c r="BC78" s="33"/>
     </row>
     <row r="79" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A79" s="115"/>
-      <c r="B79" s="116"/>
-      <c r="C79" s="117"/>
+      <c r="A79" s="94"/>
+      <c r="B79" s="95"/>
+      <c r="C79" s="96"/>
       <c r="D79" s="32"/>
       <c r="Q79" s="32"/>
       <c r="AD79" s="32"/>
@@ -18262,9 +18409,9 @@
       <c r="BC79" s="33"/>
     </row>
     <row r="80" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A80" s="115"/>
-      <c r="B80" s="116"/>
-      <c r="C80" s="117"/>
+      <c r="A80" s="94"/>
+      <c r="B80" s="95"/>
+      <c r="C80" s="96"/>
       <c r="D80" s="32"/>
       <c r="Q80" s="32"/>
       <c r="AD80" s="32"/>
@@ -18272,9 +18419,9 @@
       <c r="BC80" s="33"/>
     </row>
     <row r="81" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A81" s="115"/>
-      <c r="B81" s="116"/>
-      <c r="C81" s="117"/>
+      <c r="A81" s="94"/>
+      <c r="B81" s="95"/>
+      <c r="C81" s="96"/>
       <c r="D81" s="32"/>
       <c r="Q81" s="32"/>
       <c r="AD81" s="32"/>
@@ -18288,9 +18435,9 @@
       <c r="BC81" s="33"/>
     </row>
     <row r="82" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A82" s="115"/>
-      <c r="B82" s="116"/>
-      <c r="C82" s="117"/>
+      <c r="A82" s="94"/>
+      <c r="B82" s="95"/>
+      <c r="C82" s="96"/>
       <c r="D82" s="32"/>
       <c r="Q82" s="32"/>
       <c r="AD82" s="32"/>
@@ -18298,9 +18445,9 @@
       <c r="BC82" s="33"/>
     </row>
     <row r="83" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A83" s="115"/>
-      <c r="B83" s="116"/>
-      <c r="C83" s="117"/>
+      <c r="A83" s="94"/>
+      <c r="B83" s="95"/>
+      <c r="C83" s="96"/>
       <c r="D83" s="32"/>
       <c r="Q83" s="32"/>
       <c r="AD83" s="32"/>
@@ -18308,9 +18455,9 @@
       <c r="BC83" s="33"/>
     </row>
     <row r="84" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A84" s="115"/>
-      <c r="B84" s="116"/>
-      <c r="C84" s="117"/>
+      <c r="A84" s="94"/>
+      <c r="B84" s="95"/>
+      <c r="C84" s="96"/>
       <c r="D84" s="32"/>
       <c r="Q84" s="32"/>
       <c r="AD84" s="32"/>
@@ -18318,9 +18465,9 @@
       <c r="BC84" s="33"/>
     </row>
     <row r="85" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A85" s="115"/>
-      <c r="B85" s="116"/>
-      <c r="C85" s="117"/>
+      <c r="A85" s="94"/>
+      <c r="B85" s="95"/>
+      <c r="C85" s="96"/>
       <c r="D85" s="32"/>
       <c r="Q85" s="32"/>
       <c r="AD85" s="32"/>
@@ -18328,9 +18475,9 @@
       <c r="BC85" s="33"/>
     </row>
     <row r="86" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A86" s="115"/>
-      <c r="B86" s="116"/>
-      <c r="C86" s="117"/>
+      <c r="A86" s="94"/>
+      <c r="B86" s="95"/>
+      <c r="C86" s="96"/>
       <c r="D86" s="32"/>
       <c r="Q86" s="32"/>
       <c r="AD86" s="32"/>
@@ -18338,9 +18485,9 @@
       <c r="BC86" s="33"/>
     </row>
     <row r="87" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A87" s="115"/>
-      <c r="B87" s="116"/>
-      <c r="C87" s="117"/>
+      <c r="A87" s="94"/>
+      <c r="B87" s="95"/>
+      <c r="C87" s="96"/>
       <c r="D87" s="32"/>
       <c r="Q87" s="32"/>
       <c r="AD87" s="32"/>
@@ -18348,9 +18495,9 @@
       <c r="BC87" s="33"/>
     </row>
     <row r="88" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A88" s="115"/>
-      <c r="B88" s="116"/>
-      <c r="C88" s="117"/>
+      <c r="A88" s="94"/>
+      <c r="B88" s="95"/>
+      <c r="C88" s="96"/>
       <c r="D88" s="32"/>
       <c r="Q88" s="32"/>
       <c r="AD88" s="32"/>
@@ -18358,9 +18505,9 @@
       <c r="BC88" s="33"/>
     </row>
     <row r="89" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A89" s="115"/>
-      <c r="B89" s="116"/>
-      <c r="C89" s="117"/>
+      <c r="A89" s="94"/>
+      <c r="B89" s="95"/>
+      <c r="C89" s="96"/>
       <c r="D89" s="32"/>
       <c r="Q89" s="32"/>
       <c r="AD89" s="32"/>
@@ -18368,9 +18515,9 @@
       <c r="BC89" s="33"/>
     </row>
     <row r="90" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A90" s="115"/>
-      <c r="B90" s="116"/>
-      <c r="C90" s="117"/>
+      <c r="A90" s="94"/>
+      <c r="B90" s="95"/>
+      <c r="C90" s="96"/>
       <c r="D90" s="32"/>
       <c r="Q90" s="32"/>
       <c r="AD90" s="32"/>
@@ -18378,9 +18525,9 @@
       <c r="BC90" s="33"/>
     </row>
     <row r="91" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A91" s="115"/>
-      <c r="B91" s="116"/>
-      <c r="C91" s="117"/>
+      <c r="A91" s="94"/>
+      <c r="B91" s="95"/>
+      <c r="C91" s="96"/>
       <c r="D91" s="32"/>
       <c r="Q91" s="32"/>
       <c r="AD91" s="32"/>
@@ -18394,9 +18541,9 @@
       <c r="BC91" s="33"/>
     </row>
     <row r="92" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A92" s="115"/>
-      <c r="B92" s="116"/>
-      <c r="C92" s="117"/>
+      <c r="A92" s="94"/>
+      <c r="B92" s="95"/>
+      <c r="C92" s="96"/>
       <c r="D92" s="32"/>
       <c r="Q92" s="32"/>
       <c r="AD92" s="32"/>
@@ -18410,9 +18557,9 @@
       <c r="BC92" s="33"/>
     </row>
     <row r="93" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A93" s="115"/>
-      <c r="B93" s="116"/>
-      <c r="C93" s="117"/>
+      <c r="A93" s="94"/>
+      <c r="B93" s="95"/>
+      <c r="C93" s="96"/>
       <c r="D93" s="32"/>
       <c r="Q93" s="32"/>
       <c r="AD93" s="32"/>
@@ -18426,9 +18573,9 @@
       <c r="BC93" s="33"/>
     </row>
     <row r="94" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A94" s="115"/>
-      <c r="B94" s="116"/>
-      <c r="C94" s="117"/>
+      <c r="A94" s="94"/>
+      <c r="B94" s="95"/>
+      <c r="C94" s="96"/>
       <c r="D94" s="32"/>
       <c r="Q94" s="32"/>
       <c r="AD94" s="32"/>
@@ -18442,9 +18589,9 @@
       <c r="BC94" s="33"/>
     </row>
     <row r="95" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A95" s="115"/>
-      <c r="B95" s="116"/>
-      <c r="C95" s="117"/>
+      <c r="A95" s="94"/>
+      <c r="B95" s="95"/>
+      <c r="C95" s="96"/>
       <c r="D95" s="32"/>
       <c r="Q95" s="32"/>
       <c r="AD95" s="32"/>
@@ -18453,14 +18600,14 @@
         <v>115</v>
       </c>
       <c r="AR95" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="BC95" s="33"/>
     </row>
     <row r="96" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A96" s="118"/>
-      <c r="B96" s="119"/>
-      <c r="C96" s="120"/>
+      <c r="A96" s="97"/>
+      <c r="B96" s="98"/>
+      <c r="C96" s="99"/>
       <c r="D96" s="34"/>
       <c r="E96" s="35"/>
       <c r="F96" s="35"/>
@@ -18516,12 +18663,29 @@
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="A57:C72"/>
-    <mergeCell ref="A73:C96"/>
-    <mergeCell ref="D63:P64"/>
-    <mergeCell ref="A48:C49"/>
-    <mergeCell ref="D48:P49"/>
-    <mergeCell ref="A50:C56"/>
+    <mergeCell ref="A1:F2"/>
+    <mergeCell ref="G1:N1"/>
+    <mergeCell ref="O1:AE1"/>
+    <mergeCell ref="AF1:AI1"/>
+    <mergeCell ref="AJ1:AQ1"/>
+    <mergeCell ref="Q4:AC5"/>
+    <mergeCell ref="AD4:AP5"/>
+    <mergeCell ref="AQ4:BC5"/>
+    <mergeCell ref="AR45:AU45"/>
+    <mergeCell ref="AV45:BC45"/>
+    <mergeCell ref="AV1:BC1"/>
+    <mergeCell ref="G2:N2"/>
+    <mergeCell ref="O2:AE2"/>
+    <mergeCell ref="AF2:AI2"/>
+    <mergeCell ref="AJ2:AQ2"/>
+    <mergeCell ref="AR2:AU2"/>
+    <mergeCell ref="AV2:BC2"/>
+    <mergeCell ref="AR1:AU1"/>
+    <mergeCell ref="A13:C28"/>
+    <mergeCell ref="A29:C40"/>
+    <mergeCell ref="A6:C12"/>
+    <mergeCell ref="A4:C5"/>
+    <mergeCell ref="D4:P5"/>
     <mergeCell ref="A45:F46"/>
     <mergeCell ref="G45:N45"/>
     <mergeCell ref="O45:AE45"/>
@@ -18536,29 +18700,12 @@
     <mergeCell ref="AQ48:BC49"/>
     <mergeCell ref="AR46:AU46"/>
     <mergeCell ref="AV46:BC46"/>
-    <mergeCell ref="A13:C28"/>
-    <mergeCell ref="A29:C40"/>
-    <mergeCell ref="A6:C12"/>
-    <mergeCell ref="A4:C5"/>
-    <mergeCell ref="D4:P5"/>
-    <mergeCell ref="AV1:BC1"/>
-    <mergeCell ref="G2:N2"/>
-    <mergeCell ref="O2:AE2"/>
-    <mergeCell ref="AF2:AI2"/>
-    <mergeCell ref="AJ2:AQ2"/>
-    <mergeCell ref="AR2:AU2"/>
-    <mergeCell ref="AV2:BC2"/>
-    <mergeCell ref="AR1:AU1"/>
-    <mergeCell ref="Q4:AC5"/>
-    <mergeCell ref="AD4:AP5"/>
-    <mergeCell ref="AQ4:BC5"/>
-    <mergeCell ref="AR45:AU45"/>
-    <mergeCell ref="AV45:BC45"/>
-    <mergeCell ref="A1:F2"/>
-    <mergeCell ref="G1:N1"/>
-    <mergeCell ref="O1:AE1"/>
-    <mergeCell ref="AF1:AI1"/>
-    <mergeCell ref="AJ1:AQ1"/>
+    <mergeCell ref="A57:C72"/>
+    <mergeCell ref="A73:C96"/>
+    <mergeCell ref="D63:P64"/>
+    <mergeCell ref="A48:C49"/>
+    <mergeCell ref="D48:P49"/>
+    <mergeCell ref="A50:C56"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -18572,10 +18719,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AG26"/>
+  <dimension ref="A1:AG28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -18587,7 +18734,7 @@
   <sheetData>
     <row r="1" spans="1:33">
       <c r="A1" s="64" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B1" s="64"/>
       <c r="C1" s="64"/>
@@ -18624,94 +18771,94 @@
     </row>
     <row r="2" spans="1:33">
       <c r="A2" s="64"/>
-      <c r="B2" s="64">
+      <c r="B2" s="125">
         <v>1</v>
       </c>
-      <c r="C2" s="64">
+      <c r="C2" s="125">
         <v>2</v>
       </c>
-      <c r="D2" s="64">
+      <c r="D2" s="125">
         <v>3</v>
       </c>
-      <c r="E2" s="64">
+      <c r="E2" s="125">
         <v>4</v>
       </c>
-      <c r="F2" s="64">
+      <c r="F2" s="125">
         <v>5</v>
       </c>
-      <c r="G2" s="64">
+      <c r="G2" s="125">
         <v>6</v>
       </c>
-      <c r="H2" s="64">
+      <c r="H2" s="125">
         <v>7</v>
       </c>
-      <c r="I2" s="64">
+      <c r="I2" s="125">
         <v>8</v>
       </c>
-      <c r="J2" s="64">
+      <c r="J2" s="125">
         <v>9</v>
       </c>
-      <c r="K2" s="64">
+      <c r="K2" s="125">
         <v>10</v>
       </c>
-      <c r="L2" s="64">
+      <c r="L2" s="125">
         <v>11</v>
       </c>
-      <c r="M2" s="64">
+      <c r="M2" s="125">
         <v>12</v>
       </c>
-      <c r="N2" s="64">
+      <c r="N2" s="125">
         <v>13</v>
       </c>
-      <c r="O2" s="64">
+      <c r="O2" s="125">
         <v>14</v>
       </c>
-      <c r="P2" s="64">
+      <c r="P2" s="125">
         <v>15</v>
       </c>
-      <c r="Q2" s="64">
+      <c r="Q2" s="125">
         <v>16</v>
       </c>
-      <c r="R2" s="64">
+      <c r="R2" s="125">
         <v>17</v>
       </c>
-      <c r="S2" s="64">
+      <c r="S2" s="125">
         <v>18</v>
       </c>
-      <c r="T2" s="64">
+      <c r="T2" s="125">
         <v>19</v>
       </c>
-      <c r="U2" s="64">
+      <c r="U2" s="125">
         <v>20</v>
       </c>
-      <c r="V2" s="64">
+      <c r="V2" s="125">
         <v>21</v>
       </c>
-      <c r="W2" s="64">
+      <c r="W2" s="125">
         <v>22</v>
       </c>
-      <c r="X2" s="64">
+      <c r="X2" s="125">
         <v>23</v>
       </c>
-      <c r="Y2" s="64">
+      <c r="Y2" s="125">
         <v>24</v>
       </c>
-      <c r="Z2" s="64">
+      <c r="Z2" s="125">
         <v>25</v>
       </c>
-      <c r="AA2" s="64">
+      <c r="AA2" s="125">
         <v>26</v>
       </c>
-      <c r="AB2" s="64">
+      <c r="AB2" s="125">
         <v>27</v>
       </c>
-      <c r="AC2" s="64">
+      <c r="AC2" s="125">
         <v>28</v>
       </c>
-      <c r="AD2" s="64">
+      <c r="AD2" s="125">
         <v>29</v>
       </c>
-      <c r="AE2" s="64">
+      <c r="AE2" s="125">
         <v>30</v>
       </c>
       <c r="AF2" s="64"/>
@@ -18721,10 +18868,10 @@
       <c r="A3" s="64" t="s">
         <v>158</v>
       </c>
-      <c r="B3" s="64"/>
-      <c r="C3" s="64" t="s">
+      <c r="B3" s="64" t="s">
         <v>159</v>
       </c>
+      <c r="C3" s="64"/>
       <c r="D3" s="64"/>
       <c r="E3" s="64"/>
       <c r="F3" s="64"/>
@@ -18760,11 +18907,11 @@
       <c r="A4" s="64" t="s">
         <v>160</v>
       </c>
-      <c r="B4" s="64"/>
+      <c r="B4" s="64" t="s">
+        <v>159</v>
+      </c>
       <c r="C4" s="64"/>
-      <c r="D4" s="64" t="s">
-        <v>159</v>
-      </c>
+      <c r="D4" s="64"/>
       <c r="E4" s="64"/>
       <c r="F4" s="64"/>
       <c r="G4" s="64"/>
@@ -18808,7 +18955,9 @@
       <c r="H5" s="64"/>
       <c r="I5" s="64"/>
       <c r="J5" s="64"/>
-      <c r="K5" s="64"/>
+      <c r="K5" s="126" t="s">
+        <v>159</v>
+      </c>
       <c r="L5" s="64"/>
       <c r="M5" s="64"/>
       <c r="N5" s="64"/>
@@ -18845,7 +18994,9 @@
       <c r="H6" s="64"/>
       <c r="I6" s="64"/>
       <c r="J6" s="64"/>
-      <c r="K6" s="64"/>
+      <c r="K6" s="126" t="s">
+        <v>159</v>
+      </c>
       <c r="L6" s="64"/>
       <c r="M6" s="64"/>
       <c r="N6" s="64"/>
@@ -18906,13 +19057,17 @@
     </row>
     <row r="8" spans="1:33">
       <c r="A8" s="64" t="s">
-        <v>164</v>
+        <v>248</v>
       </c>
       <c r="B8" s="64"/>
       <c r="C8" s="64"/>
       <c r="D8" s="64"/>
-      <c r="E8" s="64"/>
-      <c r="F8" s="64"/>
+      <c r="E8" s="64" t="s">
+        <v>159</v>
+      </c>
+      <c r="F8" s="64" t="s">
+        <v>159</v>
+      </c>
       <c r="G8" s="64"/>
       <c r="H8" s="64"/>
       <c r="I8" s="64"/>
@@ -18949,19 +19104,31 @@
       <c r="C9" s="64"/>
       <c r="D9" s="64"/>
       <c r="E9" s="64"/>
-      <c r="F9" s="64"/>
+      <c r="F9" s="125" t="s">
+        <v>246</v>
+      </c>
       <c r="G9" s="64"/>
-      <c r="H9" s="64"/>
+      <c r="H9" s="125" t="s">
+        <v>246</v>
+      </c>
       <c r="I9" s="64"/>
-      <c r="J9" s="64"/>
-      <c r="K9" s="64"/>
-      <c r="L9" s="64"/>
-      <c r="M9" s="64"/>
-      <c r="N9" s="64"/>
-      <c r="O9" s="64"/>
-      <c r="P9" s="64"/>
-      <c r="Q9" s="64"/>
-      <c r="R9" s="64"/>
+      <c r="J9" s="125" t="s">
+        <v>246</v>
+      </c>
+      <c r="K9" s="125" t="s">
+        <v>246</v>
+      </c>
+      <c r="L9" s="125" t="s">
+        <v>246</v>
+      </c>
+      <c r="M9" s="125" t="s">
+        <v>246</v>
+      </c>
+      <c r="N9" s="125"/>
+      <c r="O9" s="125"/>
+      <c r="P9" s="125"/>
+      <c r="Q9" s="125"/>
+      <c r="R9" s="125"/>
       <c r="S9" s="64"/>
       <c r="T9" s="64"/>
       <c r="U9" s="64"/>
@@ -18980,26 +19147,50 @@
     </row>
     <row r="10" spans="1:33">
       <c r="A10" s="64" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B10" s="64"/>
       <c r="C10" s="64"/>
       <c r="D10" s="64"/>
       <c r="E10" s="64"/>
-      <c r="F10" s="64"/>
+      <c r="F10" s="125" t="s">
+        <v>246</v>
+      </c>
       <c r="G10" s="64"/>
-      <c r="H10" s="64"/>
+      <c r="H10" s="125" t="s">
+        <v>246</v>
+      </c>
       <c r="I10" s="64"/>
-      <c r="J10" s="64"/>
-      <c r="K10" s="64"/>
-      <c r="L10" s="64"/>
-      <c r="M10" s="64"/>
-      <c r="N10" s="64"/>
-      <c r="O10" s="64"/>
-      <c r="P10" s="64"/>
-      <c r="Q10" s="64"/>
-      <c r="R10" s="64"/>
-      <c r="S10" s="64"/>
+      <c r="J10" s="125" t="s">
+        <v>246</v>
+      </c>
+      <c r="K10" s="125" t="s">
+        <v>246</v>
+      </c>
+      <c r="L10" s="125" t="s">
+        <v>246</v>
+      </c>
+      <c r="M10" s="125" t="s">
+        <v>246</v>
+      </c>
+      <c r="N10" s="125" t="s">
+        <v>246</v>
+      </c>
+      <c r="O10" s="125" t="s">
+        <v>246</v>
+      </c>
+      <c r="P10" s="125" t="s">
+        <v>246</v>
+      </c>
+      <c r="Q10" s="125" t="s">
+        <v>246</v>
+      </c>
+      <c r="R10" s="125" t="s">
+        <v>246</v>
+      </c>
+      <c r="S10" s="125" t="s">
+        <v>246</v>
+      </c>
       <c r="T10" s="64"/>
       <c r="U10" s="64"/>
       <c r="V10" s="64"/>
@@ -19017,26 +19208,50 @@
     </row>
     <row r="11" spans="1:33">
       <c r="A11" s="64" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B11" s="64"/>
       <c r="C11" s="64"/>
       <c r="D11" s="64"/>
       <c r="E11" s="64"/>
-      <c r="F11" s="64"/>
+      <c r="F11" s="125" t="s">
+        <v>246</v>
+      </c>
       <c r="G11" s="64"/>
-      <c r="H11" s="64"/>
+      <c r="H11" s="125" t="s">
+        <v>246</v>
+      </c>
       <c r="I11" s="64"/>
-      <c r="J11" s="64"/>
-      <c r="K11" s="64"/>
-      <c r="L11" s="64"/>
-      <c r="M11" s="64"/>
-      <c r="N11" s="64"/>
-      <c r="O11" s="64"/>
-      <c r="P11" s="64"/>
-      <c r="Q11" s="64"/>
-      <c r="R11" s="64"/>
-      <c r="S11" s="64"/>
+      <c r="J11" s="125" t="s">
+        <v>246</v>
+      </c>
+      <c r="K11" s="125" t="s">
+        <v>246</v>
+      </c>
+      <c r="L11" s="125" t="s">
+        <v>246</v>
+      </c>
+      <c r="M11" s="125" t="s">
+        <v>246</v>
+      </c>
+      <c r="N11" s="125" t="s">
+        <v>246</v>
+      </c>
+      <c r="O11" s="125" t="s">
+        <v>246</v>
+      </c>
+      <c r="P11" s="125" t="s">
+        <v>246</v>
+      </c>
+      <c r="Q11" s="125" t="s">
+        <v>246</v>
+      </c>
+      <c r="R11" s="125" t="s">
+        <v>246</v>
+      </c>
+      <c r="S11" s="125" t="s">
+        <v>246</v>
+      </c>
       <c r="T11" s="64"/>
       <c r="U11" s="64"/>
       <c r="V11" s="64"/>
@@ -19078,7 +19293,9 @@
       <c r="W12" s="64"/>
       <c r="X12" s="64"/>
       <c r="Y12" s="64"/>
-      <c r="Z12" s="64"/>
+      <c r="Z12" s="64" t="s">
+        <v>254</v>
+      </c>
       <c r="AA12" s="64"/>
       <c r="AB12" s="64"/>
       <c r="AC12" s="64"/>
@@ -19089,7 +19306,7 @@
     </row>
     <row r="13" spans="1:33">
       <c r="A13" s="64" t="s">
-        <v>167</v>
+        <v>255</v>
       </c>
       <c r="B13" s="64"/>
       <c r="C13" s="64"/>
@@ -19109,25 +19326,33 @@
       <c r="Q13" s="64"/>
       <c r="R13" s="64"/>
       <c r="S13" s="64"/>
-      <c r="T13" s="64"/>
-      <c r="U13" s="64"/>
+      <c r="T13" s="64" t="s">
+        <v>245</v>
+      </c>
+      <c r="U13" s="64">
+        <v>-6</v>
+      </c>
       <c r="V13" s="64"/>
       <c r="W13" s="64"/>
       <c r="X13" s="64"/>
       <c r="Y13" s="64"/>
-      <c r="Z13" s="64"/>
+      <c r="Z13" s="64" t="s">
+        <v>159</v>
+      </c>
       <c r="AA13" s="64"/>
-      <c r="AB13" s="64"/>
-      <c r="AC13" s="64"/>
+      <c r="AB13" s="64" t="s">
+        <v>245</v>
+      </c>
+      <c r="AC13" s="124" t="s">
+        <v>247</v>
+      </c>
       <c r="AD13" s="64"/>
       <c r="AE13" s="64"/>
       <c r="AF13" s="64"/>
       <c r="AG13" s="64"/>
     </row>
     <row r="14" spans="1:33">
-      <c r="A14" s="64" t="s">
-        <v>168</v>
-      </c>
+      <c r="A14" s="64"/>
       <c r="B14" s="64"/>
       <c r="C14" s="64"/>
       <c r="D14" s="64"/>
@@ -19163,7 +19388,7 @@
     </row>
     <row r="15" spans="1:33">
       <c r="A15" s="64" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B15" s="64"/>
       <c r="C15" s="64"/>
@@ -19191,7 +19416,9 @@
       <c r="Y15" s="64"/>
       <c r="Z15" s="64"/>
       <c r="AA15" s="64"/>
-      <c r="AB15" s="64"/>
+      <c r="AB15" s="64" t="s">
+        <v>159</v>
+      </c>
       <c r="AC15" s="64"/>
       <c r="AD15" s="64"/>
       <c r="AE15" s="64"/>
@@ -19199,7 +19426,9 @@
       <c r="AG15" s="64"/>
     </row>
     <row r="16" spans="1:33">
-      <c r="A16" s="64"/>
+      <c r="A16" s="64" t="s">
+        <v>167</v>
+      </c>
       <c r="B16" s="64"/>
       <c r="C16" s="64"/>
       <c r="D16" s="64"/>
@@ -19226,7 +19455,9 @@
       <c r="Y16" s="64"/>
       <c r="Z16" s="64"/>
       <c r="AA16" s="64"/>
-      <c r="AB16" s="64"/>
+      <c r="AB16" s="64" t="s">
+        <v>159</v>
+      </c>
       <c r="AC16" s="64"/>
       <c r="AD16" s="64"/>
       <c r="AE16" s="64"/>
@@ -19235,7 +19466,7 @@
     </row>
     <row r="17" spans="1:33">
       <c r="A17" s="64" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="B17" s="64"/>
       <c r="C17" s="64"/>
@@ -19263,7 +19494,9 @@
       <c r="Y17" s="64"/>
       <c r="Z17" s="64"/>
       <c r="AA17" s="64"/>
-      <c r="AB17" s="64"/>
+      <c r="AB17" s="64" t="s">
+        <v>159</v>
+      </c>
       <c r="AC17" s="64"/>
       <c r="AD17" s="64"/>
       <c r="AE17" s="64"/>
@@ -19307,7 +19540,7 @@
     </row>
     <row r="19" spans="1:33">
       <c r="A19" s="64" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B19" s="64"/>
       <c r="C19" s="64"/>
@@ -19335,7 +19568,9 @@
       <c r="Y19" s="64"/>
       <c r="Z19" s="64"/>
       <c r="AA19" s="64"/>
-      <c r="AB19" s="64"/>
+      <c r="AB19" s="64" t="s">
+        <v>159</v>
+      </c>
       <c r="AC19" s="64"/>
       <c r="AD19" s="64"/>
       <c r="AE19" s="64"/>
@@ -19343,9 +19578,7 @@
       <c r="AG19" s="64"/>
     </row>
     <row r="20" spans="1:33">
-      <c r="A20" s="64" t="s">
-        <v>170</v>
-      </c>
+      <c r="A20" s="64"/>
       <c r="B20" s="64"/>
       <c r="C20" s="64"/>
       <c r="D20" s="64"/>
@@ -19380,7 +19613,9 @@
       <c r="AG20" s="64"/>
     </row>
     <row r="21" spans="1:33">
-      <c r="A21" s="64"/>
+      <c r="A21" s="64" t="s">
+        <v>162</v>
+      </c>
       <c r="B21" s="64"/>
       <c r="C21" s="64"/>
       <c r="D21" s="64"/>
@@ -19407,15 +19642,29 @@
       <c r="Y21" s="64"/>
       <c r="Z21" s="64"/>
       <c r="AA21" s="64"/>
-      <c r="AB21" s="64"/>
-      <c r="AC21" s="64"/>
-      <c r="AD21" s="64"/>
-      <c r="AE21" s="64"/>
-      <c r="AF21" s="64"/>
-      <c r="AG21" s="64"/>
+      <c r="AB21" s="125" t="s">
+        <v>246</v>
+      </c>
+      <c r="AC21" s="125" t="s">
+        <v>246</v>
+      </c>
+      <c r="AD21" s="125" t="s">
+        <v>246</v>
+      </c>
+      <c r="AE21" s="125" t="s">
+        <v>246</v>
+      </c>
+      <c r="AF21" s="125" t="s">
+        <v>246</v>
+      </c>
+      <c r="AG21" s="125" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="22" spans="1:33">
-      <c r="A22" s="64"/>
+      <c r="A22" s="64" t="s">
+        <v>169</v>
+      </c>
       <c r="B22" s="64"/>
       <c r="C22" s="64"/>
       <c r="D22" s="64"/>
@@ -19442,12 +19691,24 @@
       <c r="Y22" s="64"/>
       <c r="Z22" s="64"/>
       <c r="AA22" s="64"/>
-      <c r="AB22" s="64"/>
-      <c r="AC22" s="64"/>
-      <c r="AD22" s="64"/>
-      <c r="AE22" s="64"/>
-      <c r="AF22" s="64"/>
-      <c r="AG22" s="64"/>
+      <c r="AB22" s="125" t="s">
+        <v>246</v>
+      </c>
+      <c r="AC22" s="125" t="s">
+        <v>246</v>
+      </c>
+      <c r="AD22" s="125" t="s">
+        <v>246</v>
+      </c>
+      <c r="AE22" s="125" t="s">
+        <v>246</v>
+      </c>
+      <c r="AF22" s="125" t="s">
+        <v>246</v>
+      </c>
+      <c r="AG22" s="125" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="23" spans="1:33">
       <c r="A23" s="64"/>
@@ -19589,6 +19850,76 @@
       <c r="AF26" s="64"/>
       <c r="AG26" s="64"/>
     </row>
+    <row r="27" spans="1:33">
+      <c r="A27" s="64"/>
+      <c r="B27" s="64"/>
+      <c r="C27" s="64"/>
+      <c r="D27" s="64"/>
+      <c r="E27" s="64"/>
+      <c r="F27" s="64"/>
+      <c r="G27" s="64"/>
+      <c r="H27" s="64"/>
+      <c r="I27" s="64"/>
+      <c r="J27" s="64"/>
+      <c r="K27" s="64"/>
+      <c r="L27" s="64"/>
+      <c r="M27" s="64"/>
+      <c r="N27" s="64"/>
+      <c r="O27" s="64"/>
+      <c r="P27" s="64"/>
+      <c r="Q27" s="64"/>
+      <c r="R27" s="64"/>
+      <c r="S27" s="64"/>
+      <c r="T27" s="64"/>
+      <c r="U27" s="64"/>
+      <c r="V27" s="64"/>
+      <c r="W27" s="64"/>
+      <c r="X27" s="64"/>
+      <c r="Y27" s="64"/>
+      <c r="Z27" s="64"/>
+      <c r="AA27" s="64"/>
+      <c r="AB27" s="64"/>
+      <c r="AC27" s="64"/>
+      <c r="AD27" s="64"/>
+      <c r="AE27" s="64"/>
+      <c r="AF27" s="64"/>
+      <c r="AG27" s="64"/>
+    </row>
+    <row r="28" spans="1:33">
+      <c r="A28" s="64"/>
+      <c r="B28" s="64"/>
+      <c r="C28" s="64"/>
+      <c r="D28" s="64"/>
+      <c r="E28" s="64"/>
+      <c r="F28" s="64"/>
+      <c r="G28" s="64"/>
+      <c r="H28" s="64"/>
+      <c r="I28" s="64"/>
+      <c r="J28" s="64"/>
+      <c r="K28" s="64"/>
+      <c r="L28" s="64"/>
+      <c r="M28" s="64"/>
+      <c r="N28" s="64"/>
+      <c r="O28" s="64"/>
+      <c r="P28" s="64"/>
+      <c r="Q28" s="64"/>
+      <c r="R28" s="64"/>
+      <c r="S28" s="64"/>
+      <c r="T28" s="64"/>
+      <c r="U28" s="64"/>
+      <c r="V28" s="64"/>
+      <c r="W28" s="64"/>
+      <c r="X28" s="64"/>
+      <c r="Y28" s="64"/>
+      <c r="Z28" s="64"/>
+      <c r="AA28" s="64"/>
+      <c r="AB28" s="64"/>
+      <c r="AC28" s="64"/>
+      <c r="AD28" s="64"/>
+      <c r="AE28" s="64"/>
+      <c r="AF28" s="64"/>
+      <c r="AG28" s="64"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -19598,10 +19929,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48F05230-2FA2-4429-BD9D-BA18E0E9B0EE}">
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -19611,16 +19942,16 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="14.25" thickBot="1"/>
     <row r="3" spans="1:8">
       <c r="B3" s="65" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C3" s="66">
         <v>1</v>
@@ -19628,29 +19959,29 @@
     </row>
     <row r="4" spans="1:8">
       <c r="B4" s="67" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C4" s="68">
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="B5" s="67" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C5" s="68">
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="14.25" thickBot="1">
       <c r="B6" s="69" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C6" s="70">
         <v>1</v>
@@ -19659,7 +19990,7 @@
     <row r="8" spans="1:8" ht="14.25" thickBot="1"/>
     <row r="9" spans="1:8">
       <c r="B9" s="65" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C9" s="66">
         <v>1</v>
@@ -19667,29 +19998,29 @@
     </row>
     <row r="10" spans="1:8">
       <c r="B10" s="67" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C10" s="68">
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="B11" s="67" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C11" s="68">
         <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="14.25" thickBot="1">
       <c r="B12" s="69" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C12" s="70">
         <v>1</v>
@@ -19697,13 +20028,18 @@
     </row>
     <row r="13" spans="1:8">
       <c r="H13" t="s">
-        <v>179</v>
+        <v>178</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="H15" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="19" spans="2:5" ht="14.25" thickBot="1"/>
     <row r="20" spans="2:5">
       <c r="B20" s="65" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C20" s="66">
         <v>1</v>
@@ -19711,37 +20047,52 @@
     </row>
     <row r="21" spans="2:5">
       <c r="B21" s="67" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C21" s="68">
         <v>1</v>
       </c>
       <c r="E21" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="22" spans="2:5">
       <c r="B22" s="67" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C22" s="68">
         <v>1</v>
       </c>
       <c r="E22" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="23" spans="2:5" ht="14.25" thickBot="1">
       <c r="B23" s="69" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C23" s="70">
         <v>1</v>
       </c>
     </row>
+    <row r="24" spans="2:5">
+      <c r="E24" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5">
+      <c r="C25" t="s">
+        <v>250</v>
+      </c>
+    </row>
     <row r="26" spans="2:5">
-      <c r="E26" t="s">
-        <v>181</v>
+      <c r="C26" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5">
+      <c r="C27" t="s">
+        <v>251</v>
       </c>
     </row>
   </sheetData>
@@ -19760,7 +20111,7 @@
   <dimension ref="A1:F47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:L49"/>
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -19775,14 +20126,14 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="71" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B1" s="72"/>
       <c r="C1" s="71" t="s">
+        <v>183</v>
+      </c>
+      <c r="D1" s="71" t="s">
         <v>184</v>
-      </c>
-      <c r="D1" s="71" t="s">
-        <v>185</v>
       </c>
       <c r="E1" s="72"/>
       <c r="F1" s="72"/>
@@ -19792,7 +20143,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="71" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C2" s="74">
         <v>9</v>
@@ -19801,7 +20152,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="72" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F2" s="72"/>
     </row>
@@ -19810,7 +20161,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="72" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C3" s="72">
         <v>9</v>
@@ -19819,7 +20170,7 @@
         <v>2</v>
       </c>
       <c r="E3" s="72" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F3" s="72"/>
     </row>
@@ -19828,7 +20179,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="72" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C4" s="72">
         <v>9</v>
@@ -19837,7 +20188,7 @@
         <v>1</v>
       </c>
       <c r="E4" s="71" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F4" s="71"/>
     </row>
@@ -19846,7 +20197,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="72" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C5" s="72">
         <v>9</v>
@@ -19855,7 +20206,7 @@
         <v>10</v>
       </c>
       <c r="E5" s="71" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F5" s="71"/>
     </row>
@@ -19864,16 +20215,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="72" t="s">
+        <v>193</v>
+      </c>
+      <c r="C6" s="75" t="s">
         <v>194</v>
-      </c>
-      <c r="C6" s="75" t="s">
-        <v>195</v>
       </c>
       <c r="D6" s="72">
         <v>40</v>
       </c>
       <c r="E6" s="71" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F6" s="71"/>
     </row>
@@ -19882,7 +20233,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="72" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C7" s="72">
         <v>9</v>
@@ -19891,10 +20242,10 @@
         <v>4</v>
       </c>
       <c r="E7" s="77" t="s">
+        <v>197</v>
+      </c>
+      <c r="F7" s="71" t="s">
         <v>198</v>
-      </c>
-      <c r="F7" s="71" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -19902,7 +20253,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="77" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C8" s="72">
         <v>9</v>
@@ -19912,7 +20263,7 @@
       </c>
       <c r="E8" s="72"/>
       <c r="F8" s="71" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -19920,19 +20271,19 @@
         <v>8</v>
       </c>
       <c r="B9" s="71" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C9" s="75" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D9" s="72">
         <v>15</v>
       </c>
       <c r="E9" s="71" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="F9" s="71" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -19940,7 +20291,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="71" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C10" s="72">
         <v>9</v>
@@ -19950,7 +20301,7 @@
       </c>
       <c r="E10" s="72"/>
       <c r="F10" s="71" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -19958,19 +20309,19 @@
         <v>10</v>
       </c>
       <c r="B11" s="71" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C11" s="75" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D11" s="72">
         <v>15</v>
       </c>
       <c r="E11" s="71" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="F11" s="71" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -19978,7 +20329,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="71" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C12" s="72">
         <v>9</v>
@@ -19988,7 +20339,7 @@
       </c>
       <c r="E12" s="72"/>
       <c r="F12" s="71" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -19996,7 +20347,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="77" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C13" s="72">
         <v>9</v>
@@ -20006,7 +20357,7 @@
       </c>
       <c r="E13" s="72"/>
       <c r="F13" s="71" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -20014,29 +20365,29 @@
         <v>13</v>
       </c>
       <c r="B14" s="71" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C14" s="75" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D14" s="72">
         <v>17</v>
       </c>
       <c r="E14" s="71" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F14" s="71"/>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="71" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B17" s="72"/>
       <c r="C17" s="71" t="s">
+        <v>183</v>
+      </c>
+      <c r="D17" s="71" t="s">
         <v>184</v>
-      </c>
-      <c r="D17" s="71" t="s">
-        <v>185</v>
       </c>
       <c r="E17" s="72"/>
       <c r="F17" s="72"/>
@@ -20046,7 +20397,7 @@
         <v>1</v>
       </c>
       <c r="B18" s="71" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C18" s="74">
         <v>9</v>
@@ -20055,7 +20406,7 @@
         <v>1</v>
       </c>
       <c r="E18" s="72" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F18" s="72"/>
     </row>
@@ -20064,7 +20415,7 @@
         <v>2</v>
       </c>
       <c r="B19" s="71" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C19" s="72">
         <v>9</v>
@@ -20074,7 +20425,7 @@
       </c>
       <c r="E19" s="72"/>
       <c r="F19" s="71" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -20082,19 +20433,19 @@
         <v>3</v>
       </c>
       <c r="B20" s="71" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C20" s="75" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D20" s="72">
         <v>15</v>
       </c>
       <c r="E20" s="71" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="F20" s="71" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -20102,7 +20453,7 @@
         <v>4</v>
       </c>
       <c r="B21" s="71" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C21" s="72">
         <v>9</v>
@@ -20112,7 +20463,7 @@
       </c>
       <c r="E21" s="72"/>
       <c r="F21" s="71" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -20120,19 +20471,19 @@
         <v>5</v>
       </c>
       <c r="B22" s="71" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C22" s="75" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D22" s="72">
         <v>15</v>
       </c>
       <c r="E22" s="71" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F22" s="71" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -20140,16 +20491,16 @@
         <v>6</v>
       </c>
       <c r="B23" s="71" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C23" s="75" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D23" s="72">
         <v>4</v>
       </c>
       <c r="E23" s="71" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F23" s="71"/>
     </row>
@@ -20158,7 +20509,7 @@
         <v>7</v>
       </c>
       <c r="B24" s="71" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C24" s="72">
         <v>9</v>
@@ -20167,10 +20518,10 @@
         <v>1</v>
       </c>
       <c r="E24" s="71" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F24" s="71" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -20178,7 +20529,7 @@
         <v>8</v>
       </c>
       <c r="B25" s="71" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C25" s="72">
         <v>9</v>
@@ -20187,10 +20538,10 @@
         <v>7</v>
       </c>
       <c r="E25" s="71" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F25" s="71" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -20198,19 +20549,19 @@
         <v>9</v>
       </c>
       <c r="B26" s="71" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C26" s="75" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D26" s="72">
         <v>30</v>
       </c>
       <c r="E26" s="71" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F26" s="71" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -20218,7 +20569,7 @@
         <v>10</v>
       </c>
       <c r="B27" s="71" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C27" s="72">
         <v>9</v>
@@ -20227,10 +20578,10 @@
         <v>10</v>
       </c>
       <c r="E27" s="71" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F27" s="71" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -20238,7 +20589,7 @@
         <v>11</v>
       </c>
       <c r="B28" s="71" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C28" s="72">
         <v>9</v>
@@ -20247,7 +20598,7 @@
         <v>1</v>
       </c>
       <c r="E28" s="71" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F28" s="71"/>
     </row>
@@ -20256,19 +20607,19 @@
         <v>12</v>
       </c>
       <c r="B29" s="71" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C29" s="75" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D29" s="76">
         <v>20</v>
       </c>
       <c r="E29" s="71" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="F29" s="71" t="s">
-        <v>228</v>
+        <v>253</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -20276,7 +20627,7 @@
         <v>13</v>
       </c>
       <c r="B30" s="71" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C30" s="72">
         <v>9</v>
@@ -20285,7 +20636,7 @@
         <v>1</v>
       </c>
       <c r="E30" s="71" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="F30" s="71"/>
     </row>
@@ -20294,29 +20645,29 @@
         <v>14</v>
       </c>
       <c r="B31" s="71" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C31" s="75" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D31" s="72">
         <v>8</v>
       </c>
       <c r="E31" s="71" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F31" s="71"/>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="72" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B34" s="72"/>
       <c r="C34" s="71" t="s">
+        <v>183</v>
+      </c>
+      <c r="D34" s="71" t="s">
         <v>184</v>
-      </c>
-      <c r="D34" s="71" t="s">
-        <v>185</v>
       </c>
       <c r="E34" s="72"/>
       <c r="F34" s="72"/>
@@ -20326,7 +20677,7 @@
         <v>1</v>
       </c>
       <c r="B35" s="71" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C35" s="74">
         <v>9</v>
@@ -20335,7 +20686,7 @@
         <v>1</v>
       </c>
       <c r="E35" s="72" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F35" s="72"/>
     </row>
@@ -20344,7 +20695,7 @@
         <v>2</v>
       </c>
       <c r="B36" s="72" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C36" s="74">
         <v>9</v>
@@ -20353,7 +20704,7 @@
         <v>6</v>
       </c>
       <c r="E36" s="71" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F36" s="71"/>
     </row>
@@ -20362,7 +20713,7 @@
         <v>3</v>
       </c>
       <c r="B37" s="71" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C37" s="74">
         <v>9</v>
@@ -20371,7 +20722,7 @@
         <v>12</v>
       </c>
       <c r="E37" s="71" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F37" s="71"/>
     </row>
@@ -20380,7 +20731,7 @@
         <v>4</v>
       </c>
       <c r="B38" s="71" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C38" s="74">
         <v>9</v>
@@ -20389,7 +20740,7 @@
         <v>6</v>
       </c>
       <c r="E38" s="71" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F38" s="71"/>
     </row>
@@ -20398,7 +20749,7 @@
         <v>5</v>
       </c>
       <c r="B39" s="71" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C39" s="74">
         <v>9</v>
@@ -20407,7 +20758,7 @@
         <v>12</v>
       </c>
       <c r="E39" s="71" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F39" s="71"/>
     </row>
@@ -20416,7 +20767,7 @@
         <v>6</v>
       </c>
       <c r="B40" s="71" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C40" s="74">
         <v>9</v>
@@ -20425,7 +20776,7 @@
         <v>6</v>
       </c>
       <c r="E40" s="71" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F40" s="71"/>
     </row>
@@ -20434,7 +20785,7 @@
         <v>7</v>
       </c>
       <c r="B41" s="71" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C41" s="74">
         <v>9</v>
@@ -20443,7 +20794,7 @@
         <v>12</v>
       </c>
       <c r="E41" s="71" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F41" s="71"/>
     </row>
@@ -20452,29 +20803,29 @@
         <v>8</v>
       </c>
       <c r="B42" s="71" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C42" s="75" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D42" s="72">
         <v>65</v>
       </c>
       <c r="E42" s="71" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F42" s="71"/>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="71" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B45" s="72"/>
       <c r="C45" s="71" t="s">
+        <v>183</v>
+      </c>
+      <c r="D45" s="71" t="s">
         <v>184</v>
-      </c>
-      <c r="D45" s="71" t="s">
-        <v>185</v>
       </c>
       <c r="E45" s="72"/>
       <c r="F45" s="72"/>
@@ -20484,7 +20835,7 @@
         <v>1</v>
       </c>
       <c r="B46" s="71" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C46" s="74">
         <v>9</v>
@@ -20493,7 +20844,7 @@
         <v>1</v>
       </c>
       <c r="E46" s="72" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F46" s="72"/>
     </row>
@@ -20502,16 +20853,16 @@
         <v>2</v>
       </c>
       <c r="B47" s="71" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C47" s="75" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D47" s="74">
         <v>119</v>
       </c>
       <c r="E47" s="71" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F47" s="71"/>
     </row>
@@ -20528,7 +20879,7 @@
   <dimension ref="A1:S35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>

--- a/市場_2025改修/基本設計_2025/概要20250606修正.xlsx
+++ b/市場_2025改修/基本設計_2025/概要20250606修正.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01_Work\Git\si001\市場_2025改修\基本設計_2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF1DDA3C-6B1A-41E7-966B-70F408071048}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DB3C030-D5D6-47AD-8525-C189CEB74961}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{78BC9F0C-B871-4580-9558-94BE9D1399D8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{78BC9F0C-B871-4580-9558-94BE9D1399D8}"/>
   </bookViews>
   <sheets>
     <sheet name="アプリ構成" sheetId="9" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="256">
   <si>
     <t>銀行名</t>
     <rPh sb="0" eb="2">
@@ -1159,10 +1159,6 @@
   </si>
   <si>
     <t>振替不能</t>
-  </si>
-  <si>
-    <t>2025//6</t>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>藤城</t>
@@ -2107,6 +2103,10 @@
     <rPh sb="7" eb="8">
       <t>ヒ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2025//8</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -3015,6 +3015,15 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="3" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" quotePrefix="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3054,60 +3063,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3144,6 +3099,24 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="14" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3153,14 +3126,41 @@
     <xf numFmtId="176" fontId="14" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" quotePrefix="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -6064,6 +6064,442 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>94554</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="42" name="フリーフォーム 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7FA7B32-D57D-4752-B4A6-6DCCC56A0F33}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2875854" y="6638925"/>
+          <a:ext cx="819846" cy="4972050"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst>
+            <a:gd name="connsiteX0" fmla="*/ 876996 w 939910"/>
+            <a:gd name="connsiteY0" fmla="*/ 83709 h 2112534"/>
+            <a:gd name="connsiteX1" fmla="*/ 848421 w 939910"/>
+            <a:gd name="connsiteY1" fmla="*/ 150384 h 2112534"/>
+            <a:gd name="connsiteX2" fmla="*/ 696 w 939910"/>
+            <a:gd name="connsiteY2" fmla="*/ 1464834 h 2112534"/>
+            <a:gd name="connsiteX3" fmla="*/ 705546 w 939910"/>
+            <a:gd name="connsiteY3" fmla="*/ 2112534 h 2112534"/>
+          </a:gdLst>
+          <a:ahLst/>
+          <a:cxnLst>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX0" y="connsiteY0"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX1" y="connsiteY1"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX2" y="connsiteY2"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX3" y="connsiteY3"/>
+            </a:cxn>
+          </a:cxnLst>
+          <a:rect l="l" t="t" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="939910" h="2112534">
+              <a:moveTo>
+                <a:pt x="876996" y="83709"/>
+              </a:moveTo>
+              <a:cubicBezTo>
+                <a:pt x="935733" y="1952"/>
+                <a:pt x="994471" y="-79804"/>
+                <a:pt x="848421" y="150384"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="702371" y="380572"/>
+                <a:pt x="24509" y="1137809"/>
+                <a:pt x="696" y="1464834"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="-23117" y="1791859"/>
+                <a:pt x="570608" y="2001409"/>
+                <a:pt x="705546" y="2112534"/>
+              </a:cubicBezTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>75504</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="50" name="フリーフォーム 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB62B1BB-AA2C-420F-8AF4-54D375428BAE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2856804" y="7610474"/>
+          <a:ext cx="819846" cy="4086225"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst>
+            <a:gd name="connsiteX0" fmla="*/ 876996 w 939910"/>
+            <a:gd name="connsiteY0" fmla="*/ 83709 h 2112534"/>
+            <a:gd name="connsiteX1" fmla="*/ 848421 w 939910"/>
+            <a:gd name="connsiteY1" fmla="*/ 150384 h 2112534"/>
+            <a:gd name="connsiteX2" fmla="*/ 696 w 939910"/>
+            <a:gd name="connsiteY2" fmla="*/ 1464834 h 2112534"/>
+            <a:gd name="connsiteX3" fmla="*/ 705546 w 939910"/>
+            <a:gd name="connsiteY3" fmla="*/ 2112534 h 2112534"/>
+          </a:gdLst>
+          <a:ahLst/>
+          <a:cxnLst>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX0" y="connsiteY0"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX1" y="connsiteY1"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX2" y="connsiteY2"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX3" y="connsiteY3"/>
+            </a:cxn>
+          </a:cxnLst>
+          <a:rect l="l" t="t" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="939910" h="2112534">
+              <a:moveTo>
+                <a:pt x="876996" y="83709"/>
+              </a:moveTo>
+              <a:cubicBezTo>
+                <a:pt x="935733" y="1952"/>
+                <a:pt x="994471" y="-79804"/>
+                <a:pt x="848421" y="150384"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="702371" y="380572"/>
+                <a:pt x="24509" y="1137809"/>
+                <a:pt x="696" y="1464834"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="-23117" y="1791859"/>
+                <a:pt x="570608" y="2001409"/>
+                <a:pt x="705546" y="2112534"/>
+              </a:cubicBezTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="51" name="フリーフォーム 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F70B5331-247D-4B8B-A84C-89BBB9C7AE4D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2838450" y="8534399"/>
+          <a:ext cx="752475" cy="3076575"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst>
+            <a:gd name="connsiteX0" fmla="*/ 876996 w 939910"/>
+            <a:gd name="connsiteY0" fmla="*/ 83709 h 2112534"/>
+            <a:gd name="connsiteX1" fmla="*/ 848421 w 939910"/>
+            <a:gd name="connsiteY1" fmla="*/ 150384 h 2112534"/>
+            <a:gd name="connsiteX2" fmla="*/ 696 w 939910"/>
+            <a:gd name="connsiteY2" fmla="*/ 1464834 h 2112534"/>
+            <a:gd name="connsiteX3" fmla="*/ 705546 w 939910"/>
+            <a:gd name="connsiteY3" fmla="*/ 2112534 h 2112534"/>
+          </a:gdLst>
+          <a:ahLst/>
+          <a:cxnLst>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX0" y="connsiteY0"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX1" y="connsiteY1"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX2" y="connsiteY2"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX3" y="connsiteY3"/>
+            </a:cxn>
+          </a:cxnLst>
+          <a:rect l="l" t="t" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="939910" h="2112534">
+              <a:moveTo>
+                <a:pt x="876996" y="83709"/>
+              </a:moveTo>
+              <a:cubicBezTo>
+                <a:pt x="935733" y="1952"/>
+                <a:pt x="994471" y="-79804"/>
+                <a:pt x="848421" y="150384"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="702371" y="380572"/>
+                <a:pt x="24509" y="1137809"/>
+                <a:pt x="696" y="1464834"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="-23117" y="1791859"/>
+                <a:pt x="570608" y="2001409"/>
+                <a:pt x="705546" y="2112534"/>
+              </a:cubicBezTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>28576</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="53" name="フリーフォーム 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E83CE5E-0F2B-4E30-ADA9-FA0B87BFC84C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3028950" y="10706099"/>
+          <a:ext cx="542926" cy="1057275"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst>
+            <a:gd name="connsiteX0" fmla="*/ 876996 w 939910"/>
+            <a:gd name="connsiteY0" fmla="*/ 83709 h 2112534"/>
+            <a:gd name="connsiteX1" fmla="*/ 848421 w 939910"/>
+            <a:gd name="connsiteY1" fmla="*/ 150384 h 2112534"/>
+            <a:gd name="connsiteX2" fmla="*/ 696 w 939910"/>
+            <a:gd name="connsiteY2" fmla="*/ 1464834 h 2112534"/>
+            <a:gd name="connsiteX3" fmla="*/ 705546 w 939910"/>
+            <a:gd name="connsiteY3" fmla="*/ 2112534 h 2112534"/>
+          </a:gdLst>
+          <a:ahLst/>
+          <a:cxnLst>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX0" y="connsiteY0"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX1" y="connsiteY1"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX2" y="connsiteY2"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX3" y="connsiteY3"/>
+            </a:cxn>
+          </a:cxnLst>
+          <a:rect l="l" t="t" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="939910" h="2112534">
+              <a:moveTo>
+                <a:pt x="876996" y="83709"/>
+              </a:moveTo>
+              <a:cubicBezTo>
+                <a:pt x="935733" y="1952"/>
+                <a:pt x="994471" y="-79804"/>
+                <a:pt x="848421" y="150384"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="702371" y="380572"/>
+                <a:pt x="24509" y="1137809"/>
+                <a:pt x="696" y="1464834"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="-23117" y="1791859"/>
+                <a:pt x="570608" y="2001409"/>
+                <a:pt x="705546" y="2112534"/>
+              </a:cubicBezTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -14491,13 +14927,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86245B60-DA56-4A18-961B-4C85B060D63F}">
-  <sheetPr>
+  <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:BL64"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AG5" sqref="AG5"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="BA1" sqref="BA1:BL1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.5" defaultRowHeight="15" customHeight="1"/>
@@ -14510,160 +14946,162 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:64" ht="38.450000000000003" customHeight="1">
-      <c r="A1" s="87" t="s">
+      <c r="A1" s="90" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="81" t="s">
+      <c r="B1" s="90"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="90"/>
+      <c r="E1" s="90"/>
+      <c r="F1" s="90"/>
+      <c r="G1" s="90"/>
+      <c r="H1" s="90"/>
+      <c r="I1" s="90"/>
+      <c r="J1" s="90"/>
+      <c r="K1" s="90"/>
+      <c r="L1" s="84" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="81"/>
-      <c r="N1" s="81"/>
-      <c r="O1" s="81"/>
-      <c r="P1" s="81"/>
-      <c r="Q1" s="81"/>
-      <c r="R1" s="81"/>
-      <c r="S1" s="81"/>
-      <c r="T1" s="81"/>
-      <c r="U1" s="88" t="s">
-        <v>157</v>
-      </c>
-      <c r="V1" s="89"/>
-      <c r="W1" s="89"/>
-      <c r="X1" s="89"/>
-      <c r="Y1" s="89"/>
-      <c r="Z1" s="89"/>
-      <c r="AA1" s="89"/>
-      <c r="AB1" s="89"/>
-      <c r="AC1" s="89"/>
-      <c r="AD1" s="89"/>
-      <c r="AE1" s="89"/>
-      <c r="AF1" s="89"/>
-      <c r="AG1" s="89"/>
-      <c r="AH1" s="89"/>
-      <c r="AI1" s="90"/>
-      <c r="AJ1" s="85" t="s">
+      <c r="M1" s="84"/>
+      <c r="N1" s="84"/>
+      <c r="O1" s="84"/>
+      <c r="P1" s="84"/>
+      <c r="Q1" s="84"/>
+      <c r="R1" s="84"/>
+      <c r="S1" s="84"/>
+      <c r="T1" s="84"/>
+      <c r="U1" s="91" t="s">
+        <v>156</v>
+      </c>
+      <c r="V1" s="92"/>
+      <c r="W1" s="92"/>
+      <c r="X1" s="92"/>
+      <c r="Y1" s="92"/>
+      <c r="Z1" s="92"/>
+      <c r="AA1" s="92"/>
+      <c r="AB1" s="92"/>
+      <c r="AC1" s="92"/>
+      <c r="AD1" s="92"/>
+      <c r="AE1" s="92"/>
+      <c r="AF1" s="92"/>
+      <c r="AG1" s="92"/>
+      <c r="AH1" s="92"/>
+      <c r="AI1" s="93"/>
+      <c r="AJ1" s="88" t="s">
         <v>7</v>
       </c>
-      <c r="AK1" s="85"/>
-      <c r="AL1" s="85"/>
-      <c r="AM1" s="85"/>
-      <c r="AN1" s="85"/>
-      <c r="AO1" s="80" t="s">
+      <c r="AK1" s="88"/>
+      <c r="AL1" s="88"/>
+      <c r="AM1" s="88"/>
+      <c r="AN1" s="88"/>
+      <c r="AO1" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="AP1" s="80"/>
-      <c r="AQ1" s="80"/>
-      <c r="AR1" s="80"/>
-      <c r="AS1" s="80"/>
-      <c r="AT1" s="80"/>
-      <c r="AU1" s="80"/>
-      <c r="AV1" s="85" t="s">
+      <c r="AP1" s="83"/>
+      <c r="AQ1" s="83"/>
+      <c r="AR1" s="83"/>
+      <c r="AS1" s="83"/>
+      <c r="AT1" s="83"/>
+      <c r="AU1" s="83"/>
+      <c r="AV1" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="AW1" s="85"/>
-      <c r="AX1" s="85"/>
-      <c r="AY1" s="85"/>
-      <c r="AZ1" s="85"/>
-      <c r="BA1" s="80"/>
-      <c r="BB1" s="80"/>
-      <c r="BC1" s="80"/>
-      <c r="BD1" s="80"/>
-      <c r="BE1" s="80"/>
-      <c r="BF1" s="80"/>
-      <c r="BG1" s="80"/>
-      <c r="BH1" s="80"/>
-      <c r="BI1" s="80"/>
-      <c r="BJ1" s="80"/>
-      <c r="BK1" s="80"/>
-      <c r="BL1" s="80"/>
+      <c r="AW1" s="88"/>
+      <c r="AX1" s="88"/>
+      <c r="AY1" s="88"/>
+      <c r="AZ1" s="88"/>
+      <c r="BA1" s="83" t="s">
+        <v>8</v>
+      </c>
+      <c r="BB1" s="83"/>
+      <c r="BC1" s="83"/>
+      <c r="BD1" s="83"/>
+      <c r="BE1" s="83"/>
+      <c r="BF1" s="83"/>
+      <c r="BG1" s="83"/>
+      <c r="BH1" s="83"/>
+      <c r="BI1" s="83"/>
+      <c r="BJ1" s="83"/>
+      <c r="BK1" s="83"/>
+      <c r="BL1" s="83"/>
     </row>
     <row r="2" spans="1:64" ht="18.600000000000001" customHeight="1">
-      <c r="A2" s="87"/>
-      <c r="B2" s="87"/>
-      <c r="C2" s="87"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="87"/>
-      <c r="F2" s="87"/>
-      <c r="G2" s="87"/>
-      <c r="H2" s="87"/>
-      <c r="I2" s="87"/>
-      <c r="J2" s="87"/>
-      <c r="K2" s="87"/>
-      <c r="L2" s="81" t="s">
+      <c r="A2" s="90"/>
+      <c r="B2" s="90"/>
+      <c r="C2" s="90"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
+      <c r="G2" s="90"/>
+      <c r="H2" s="90"/>
+      <c r="I2" s="90"/>
+      <c r="J2" s="90"/>
+      <c r="K2" s="90"/>
+      <c r="L2" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="M2" s="81"/>
-      <c r="N2" s="81"/>
-      <c r="O2" s="81"/>
-      <c r="P2" s="81"/>
-      <c r="Q2" s="81"/>
-      <c r="R2" s="81"/>
-      <c r="S2" s="81"/>
-      <c r="T2" s="81"/>
-      <c r="U2" s="82" t="s">
+      <c r="M2" s="84"/>
+      <c r="N2" s="84"/>
+      <c r="O2" s="84"/>
+      <c r="P2" s="84"/>
+      <c r="Q2" s="84"/>
+      <c r="R2" s="84"/>
+      <c r="S2" s="84"/>
+      <c r="T2" s="84"/>
+      <c r="U2" s="85" t="s">
         <v>11</v>
       </c>
-      <c r="V2" s="83"/>
-      <c r="W2" s="83"/>
-      <c r="X2" s="83"/>
-      <c r="Y2" s="83"/>
-      <c r="Z2" s="83"/>
-      <c r="AA2" s="83"/>
-      <c r="AB2" s="83"/>
-      <c r="AC2" s="83"/>
-      <c r="AD2" s="83"/>
-      <c r="AE2" s="83"/>
-      <c r="AF2" s="83"/>
-      <c r="AG2" s="83"/>
-      <c r="AH2" s="83"/>
-      <c r="AI2" s="84"/>
-      <c r="AJ2" s="85" t="s">
+      <c r="V2" s="86"/>
+      <c r="W2" s="86"/>
+      <c r="X2" s="86"/>
+      <c r="Y2" s="86"/>
+      <c r="Z2" s="86"/>
+      <c r="AA2" s="86"/>
+      <c r="AB2" s="86"/>
+      <c r="AC2" s="86"/>
+      <c r="AD2" s="86"/>
+      <c r="AE2" s="86"/>
+      <c r="AF2" s="86"/>
+      <c r="AG2" s="86"/>
+      <c r="AH2" s="86"/>
+      <c r="AI2" s="87"/>
+      <c r="AJ2" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="AK2" s="85"/>
-      <c r="AL2" s="85"/>
-      <c r="AM2" s="85"/>
-      <c r="AN2" s="85"/>
-      <c r="AO2" s="86">
+      <c r="AK2" s="88"/>
+      <c r="AL2" s="88"/>
+      <c r="AM2" s="88"/>
+      <c r="AN2" s="88"/>
+      <c r="AO2" s="89">
         <v>44752</v>
       </c>
-      <c r="AP2" s="80"/>
-      <c r="AQ2" s="80"/>
-      <c r="AR2" s="80"/>
-      <c r="AS2" s="80"/>
-      <c r="AT2" s="80"/>
-      <c r="AU2" s="80"/>
-      <c r="AV2" s="85" t="s">
+      <c r="AP2" s="83"/>
+      <c r="AQ2" s="83"/>
+      <c r="AR2" s="83"/>
+      <c r="AS2" s="83"/>
+      <c r="AT2" s="83"/>
+      <c r="AU2" s="83"/>
+      <c r="AV2" s="88" t="s">
         <v>13</v>
       </c>
-      <c r="AW2" s="85"/>
-      <c r="AX2" s="85"/>
-      <c r="AY2" s="85"/>
-      <c r="AZ2" s="85"/>
-      <c r="BA2" s="86" t="s">
-        <v>151</v>
-      </c>
-      <c r="BB2" s="80"/>
-      <c r="BC2" s="80"/>
-      <c r="BD2" s="80"/>
-      <c r="BE2" s="80"/>
-      <c r="BF2" s="80"/>
-      <c r="BG2" s="80"/>
-      <c r="BH2" s="80"/>
-      <c r="BI2" s="80"/>
-      <c r="BJ2" s="80"/>
-      <c r="BK2" s="80"/>
-      <c r="BL2" s="80"/>
+      <c r="AW2" s="88"/>
+      <c r="AX2" s="88"/>
+      <c r="AY2" s="88"/>
+      <c r="AZ2" s="88"/>
+      <c r="BA2" s="89" t="s">
+        <v>255</v>
+      </c>
+      <c r="BB2" s="83"/>
+      <c r="BC2" s="83"/>
+      <c r="BD2" s="83"/>
+      <c r="BE2" s="83"/>
+      <c r="BF2" s="83"/>
+      <c r="BG2" s="83"/>
+      <c r="BH2" s="83"/>
+      <c r="BI2" s="83"/>
+      <c r="BJ2" s="83"/>
+      <c r="BK2" s="83"/>
+      <c r="BL2" s="83"/>
     </row>
     <row r="3" spans="1:64" ht="15" customHeight="1">
       <c r="A3" s="4"/>
@@ -14748,7 +15186,7 @@
       <c r="A11" s="4"/>
       <c r="O11" s="13"/>
       <c r="AC11" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AG11" s="3" t="s">
         <v>24</v>
@@ -14787,7 +15225,7 @@
         <v>22</v>
       </c>
       <c r="AG13" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AL13" s="3" t="s">
         <v>23</v>
@@ -14800,10 +15238,10 @@
       <c r="A14" s="4"/>
       <c r="O14" s="13"/>
       <c r="AC14" s="25" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AG14" s="25" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AL14" s="3" t="s">
         <v>25</v>
@@ -15200,11 +15638,11 @@
       <c r="D45" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="I45" s="78">
+      <c r="I45" s="81">
         <v>600</v>
       </c>
-      <c r="J45" s="78"/>
-      <c r="K45" s="78"/>
+      <c r="J45" s="81"/>
+      <c r="K45" s="81"/>
       <c r="L45" s="21" t="s">
         <v>60</v>
       </c>
@@ -15227,11 +15665,11 @@
       <c r="D46" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="I46" s="79">
+      <c r="I46" s="82">
         <v>1024</v>
       </c>
-      <c r="J46" s="79"/>
-      <c r="K46" s="79"/>
+      <c r="J46" s="82"/>
+      <c r="K46" s="82"/>
       <c r="L46" s="21" t="s">
         <v>64</v>
       </c>
@@ -15321,7 +15759,7 @@
       <c r="N54" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="AH54" s="3" t="s">
+      <c r="AH54" s="25" t="s">
         <v>72</v>
       </c>
       <c r="BL54" s="5"/>
@@ -15478,7 +15916,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B24B5982-8541-44DB-B3BD-1B096671C8F5}">
-  <sheetPr>
+  <sheetPr codeName="Sheet10">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1"/>
@@ -15504,7 +15942,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA48FBA2-72B7-4C12-94E8-D245E2213145}">
-  <sheetPr>
+  <sheetPr codeName="Sheet11">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="R14"/>
@@ -15531,7 +15969,7 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA7ED03A-26E0-4B65-8761-FC4FD6E2F58A}">
-  <sheetPr>
+  <sheetPr codeName="Sheet12">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1"/>
@@ -15554,6 +15992,7 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F5A455C-590E-47DF-B429-E54627F0B707}">
+  <sheetPr codeName="Sheet13"/>
   <dimension ref="A39:I125"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
@@ -16933,7 +17372,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FD6CF4B-365B-4D50-AAAC-3AA79B2CDBBA}">
-  <sheetPr>
+  <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:BC96"/>
@@ -16948,262 +17387,262 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:55" s="27" customFormat="1" ht="16.5">
-      <c r="A1" s="109" t="s">
+      <c r="A1" s="94" t="s">
         <v>104</v>
       </c>
-      <c r="B1" s="110"/>
-      <c r="C1" s="110"/>
-      <c r="D1" s="110"/>
-      <c r="E1" s="110"/>
-      <c r="F1" s="111"/>
-      <c r="G1" s="115" t="s">
+      <c r="B1" s="95"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="100" t="s">
         <v>105</v>
       </c>
-      <c r="H1" s="116"/>
-      <c r="I1" s="116"/>
-      <c r="J1" s="116"/>
-      <c r="K1" s="116"/>
-      <c r="L1" s="116"/>
-      <c r="M1" s="116"/>
-      <c r="N1" s="117"/>
-      <c r="O1" s="115" t="s">
+      <c r="H1" s="101"/>
+      <c r="I1" s="101"/>
+      <c r="J1" s="101"/>
+      <c r="K1" s="101"/>
+      <c r="L1" s="101"/>
+      <c r="M1" s="101"/>
+      <c r="N1" s="102"/>
+      <c r="O1" s="100" t="s">
         <v>106</v>
       </c>
-      <c r="P1" s="116"/>
-      <c r="Q1" s="116"/>
-      <c r="R1" s="116"/>
-      <c r="S1" s="116"/>
-      <c r="T1" s="116"/>
-      <c r="U1" s="116"/>
-      <c r="V1" s="116"/>
-      <c r="W1" s="116"/>
-      <c r="X1" s="116"/>
-      <c r="Y1" s="116"/>
-      <c r="Z1" s="116"/>
-      <c r="AA1" s="116"/>
-      <c r="AB1" s="116"/>
-      <c r="AC1" s="116"/>
-      <c r="AD1" s="116"/>
-      <c r="AE1" s="117"/>
-      <c r="AF1" s="115" t="s">
+      <c r="P1" s="101"/>
+      <c r="Q1" s="101"/>
+      <c r="R1" s="101"/>
+      <c r="S1" s="101"/>
+      <c r="T1" s="101"/>
+      <c r="U1" s="101"/>
+      <c r="V1" s="101"/>
+      <c r="W1" s="101"/>
+      <c r="X1" s="101"/>
+      <c r="Y1" s="101"/>
+      <c r="Z1" s="101"/>
+      <c r="AA1" s="101"/>
+      <c r="AB1" s="101"/>
+      <c r="AC1" s="101"/>
+      <c r="AD1" s="101"/>
+      <c r="AE1" s="102"/>
+      <c r="AF1" s="100" t="s">
         <v>107</v>
       </c>
-      <c r="AG1" s="116"/>
-      <c r="AH1" s="116"/>
-      <c r="AI1" s="117"/>
-      <c r="AJ1" s="118"/>
-      <c r="AK1" s="119"/>
-      <c r="AL1" s="119"/>
-      <c r="AM1" s="119"/>
-      <c r="AN1" s="119"/>
-      <c r="AO1" s="119"/>
-      <c r="AP1" s="119"/>
-      <c r="AQ1" s="120"/>
-      <c r="AR1" s="115" t="s">
+      <c r="AG1" s="101"/>
+      <c r="AH1" s="101"/>
+      <c r="AI1" s="102"/>
+      <c r="AJ1" s="103"/>
+      <c r="AK1" s="104"/>
+      <c r="AL1" s="104"/>
+      <c r="AM1" s="104"/>
+      <c r="AN1" s="104"/>
+      <c r="AO1" s="104"/>
+      <c r="AP1" s="104"/>
+      <c r="AQ1" s="105"/>
+      <c r="AR1" s="100" t="s">
         <v>108</v>
       </c>
-      <c r="AS1" s="116"/>
-      <c r="AT1" s="116"/>
-      <c r="AU1" s="117"/>
-      <c r="AV1" s="121"/>
-      <c r="AW1" s="122"/>
-      <c r="AX1" s="122"/>
-      <c r="AY1" s="122"/>
-      <c r="AZ1" s="122"/>
-      <c r="BA1" s="122"/>
-      <c r="BB1" s="122"/>
-      <c r="BC1" s="123"/>
+      <c r="AS1" s="101"/>
+      <c r="AT1" s="101"/>
+      <c r="AU1" s="102"/>
+      <c r="AV1" s="112"/>
+      <c r="AW1" s="113"/>
+      <c r="AX1" s="113"/>
+      <c r="AY1" s="113"/>
+      <c r="AZ1" s="113"/>
+      <c r="BA1" s="113"/>
+      <c r="BB1" s="113"/>
+      <c r="BC1" s="114"/>
     </row>
     <row r="2" spans="1:55" s="27" customFormat="1" ht="16.5">
-      <c r="A2" s="112"/>
-      <c r="B2" s="113"/>
-      <c r="C2" s="113"/>
-      <c r="D2" s="113"/>
-      <c r="E2" s="113"/>
-      <c r="F2" s="114"/>
-      <c r="G2" s="118" t="s">
+      <c r="A2" s="97"/>
+      <c r="B2" s="98"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="99"/>
+      <c r="G2" s="103" t="s">
         <v>124</v>
       </c>
-      <c r="H2" s="119"/>
-      <c r="I2" s="119"/>
-      <c r="J2" s="119"/>
-      <c r="K2" s="119"/>
-      <c r="L2" s="119"/>
-      <c r="M2" s="119"/>
-      <c r="N2" s="120"/>
-      <c r="O2" s="118"/>
-      <c r="P2" s="119"/>
-      <c r="Q2" s="119"/>
-      <c r="R2" s="119"/>
-      <c r="S2" s="119"/>
-      <c r="T2" s="119"/>
-      <c r="U2" s="119"/>
-      <c r="V2" s="119"/>
-      <c r="W2" s="119"/>
-      <c r="X2" s="119"/>
-      <c r="Y2" s="119"/>
-      <c r="Z2" s="119"/>
-      <c r="AA2" s="119"/>
-      <c r="AB2" s="119"/>
-      <c r="AC2" s="119"/>
-      <c r="AD2" s="119"/>
-      <c r="AE2" s="120"/>
-      <c r="AF2" s="112" t="s">
+      <c r="H2" s="104"/>
+      <c r="I2" s="104"/>
+      <c r="J2" s="104"/>
+      <c r="K2" s="104"/>
+      <c r="L2" s="104"/>
+      <c r="M2" s="104"/>
+      <c r="N2" s="105"/>
+      <c r="O2" s="103"/>
+      <c r="P2" s="104"/>
+      <c r="Q2" s="104"/>
+      <c r="R2" s="104"/>
+      <c r="S2" s="104"/>
+      <c r="T2" s="104"/>
+      <c r="U2" s="104"/>
+      <c r="V2" s="104"/>
+      <c r="W2" s="104"/>
+      <c r="X2" s="104"/>
+      <c r="Y2" s="104"/>
+      <c r="Z2" s="104"/>
+      <c r="AA2" s="104"/>
+      <c r="AB2" s="104"/>
+      <c r="AC2" s="104"/>
+      <c r="AD2" s="104"/>
+      <c r="AE2" s="105"/>
+      <c r="AF2" s="97" t="s">
         <v>109</v>
       </c>
-      <c r="AG2" s="113"/>
-      <c r="AH2" s="113"/>
-      <c r="AI2" s="114"/>
-      <c r="AJ2" s="118"/>
-      <c r="AK2" s="119"/>
-      <c r="AL2" s="119"/>
-      <c r="AM2" s="119"/>
-      <c r="AN2" s="119"/>
-      <c r="AO2" s="119"/>
-      <c r="AP2" s="119"/>
-      <c r="AQ2" s="120"/>
-      <c r="AR2" s="112" t="s">
+      <c r="AG2" s="98"/>
+      <c r="AH2" s="98"/>
+      <c r="AI2" s="99"/>
+      <c r="AJ2" s="103"/>
+      <c r="AK2" s="104"/>
+      <c r="AL2" s="104"/>
+      <c r="AM2" s="104"/>
+      <c r="AN2" s="104"/>
+      <c r="AO2" s="104"/>
+      <c r="AP2" s="104"/>
+      <c r="AQ2" s="105"/>
+      <c r="AR2" s="97" t="s">
         <v>110</v>
       </c>
-      <c r="AS2" s="113"/>
-      <c r="AT2" s="113"/>
-      <c r="AU2" s="114"/>
-      <c r="AV2" s="121"/>
-      <c r="AW2" s="122"/>
-      <c r="AX2" s="122"/>
-      <c r="AY2" s="122"/>
-      <c r="AZ2" s="122"/>
-      <c r="BA2" s="122"/>
-      <c r="BB2" s="122"/>
-      <c r="BC2" s="123"/>
+      <c r="AS2" s="98"/>
+      <c r="AT2" s="98"/>
+      <c r="AU2" s="99"/>
+      <c r="AV2" s="112"/>
+      <c r="AW2" s="113"/>
+      <c r="AX2" s="113"/>
+      <c r="AY2" s="113"/>
+      <c r="AZ2" s="113"/>
+      <c r="BA2" s="113"/>
+      <c r="BB2" s="113"/>
+      <c r="BC2" s="114"/>
     </row>
     <row r="3" spans="1:55" s="27" customFormat="1" ht="16.5">
       <c r="BC3" s="28"/>
     </row>
     <row r="4" spans="1:55" ht="13.5">
-      <c r="A4" s="100" t="s">
+      <c r="A4" s="106" t="s">
         <v>111</v>
       </c>
-      <c r="B4" s="101"/>
-      <c r="C4" s="104"/>
-      <c r="D4" s="100" t="s">
+      <c r="B4" s="107"/>
+      <c r="C4" s="110"/>
+      <c r="D4" s="106" t="s">
         <v>113</v>
       </c>
-      <c r="E4" s="101"/>
-      <c r="F4" s="101"/>
-      <c r="G4" s="101"/>
-      <c r="H4" s="101"/>
-      <c r="I4" s="101"/>
-      <c r="J4" s="101"/>
-      <c r="K4" s="101"/>
-      <c r="L4" s="101"/>
-      <c r="M4" s="101"/>
-      <c r="N4" s="101"/>
-      <c r="O4" s="101"/>
-      <c r="P4" s="101"/>
-      <c r="Q4" s="100" t="s">
+      <c r="E4" s="107"/>
+      <c r="F4" s="107"/>
+      <c r="G4" s="107"/>
+      <c r="H4" s="107"/>
+      <c r="I4" s="107"/>
+      <c r="J4" s="107"/>
+      <c r="K4" s="107"/>
+      <c r="L4" s="107"/>
+      <c r="M4" s="107"/>
+      <c r="N4" s="107"/>
+      <c r="O4" s="107"/>
+      <c r="P4" s="107"/>
+      <c r="Q4" s="106" t="s">
         <v>112</v>
       </c>
-      <c r="R4" s="101"/>
-      <c r="S4" s="101"/>
-      <c r="T4" s="101"/>
-      <c r="U4" s="101"/>
-      <c r="V4" s="101"/>
-      <c r="W4" s="101"/>
-      <c r="X4" s="101"/>
-      <c r="Y4" s="101"/>
-      <c r="Z4" s="101"/>
-      <c r="AA4" s="101"/>
-      <c r="AB4" s="101"/>
-      <c r="AC4" s="101"/>
-      <c r="AD4" s="100"/>
-      <c r="AE4" s="101"/>
-      <c r="AF4" s="101"/>
-      <c r="AG4" s="101"/>
-      <c r="AH4" s="101"/>
-      <c r="AI4" s="101"/>
-      <c r="AJ4" s="101"/>
-      <c r="AK4" s="101"/>
-      <c r="AL4" s="101"/>
-      <c r="AM4" s="101"/>
-      <c r="AN4" s="101"/>
-      <c r="AO4" s="101"/>
-      <c r="AP4" s="104"/>
-      <c r="AQ4" s="101"/>
-      <c r="AR4" s="101"/>
-      <c r="AS4" s="101"/>
-      <c r="AT4" s="101"/>
-      <c r="AU4" s="101"/>
-      <c r="AV4" s="101"/>
-      <c r="AW4" s="101"/>
-      <c r="AX4" s="101"/>
-      <c r="AY4" s="101"/>
-      <c r="AZ4" s="101"/>
-      <c r="BA4" s="101"/>
-      <c r="BB4" s="101"/>
-      <c r="BC4" s="104"/>
+      <c r="R4" s="107"/>
+      <c r="S4" s="107"/>
+      <c r="T4" s="107"/>
+      <c r="U4" s="107"/>
+      <c r="V4" s="107"/>
+      <c r="W4" s="107"/>
+      <c r="X4" s="107"/>
+      <c r="Y4" s="107"/>
+      <c r="Z4" s="107"/>
+      <c r="AA4" s="107"/>
+      <c r="AB4" s="107"/>
+      <c r="AC4" s="107"/>
+      <c r="AD4" s="106"/>
+      <c r="AE4" s="107"/>
+      <c r="AF4" s="107"/>
+      <c r="AG4" s="107"/>
+      <c r="AH4" s="107"/>
+      <c r="AI4" s="107"/>
+      <c r="AJ4" s="107"/>
+      <c r="AK4" s="107"/>
+      <c r="AL4" s="107"/>
+      <c r="AM4" s="107"/>
+      <c r="AN4" s="107"/>
+      <c r="AO4" s="107"/>
+      <c r="AP4" s="110"/>
+      <c r="AQ4" s="107"/>
+      <c r="AR4" s="107"/>
+      <c r="AS4" s="107"/>
+      <c r="AT4" s="107"/>
+      <c r="AU4" s="107"/>
+      <c r="AV4" s="107"/>
+      <c r="AW4" s="107"/>
+      <c r="AX4" s="107"/>
+      <c r="AY4" s="107"/>
+      <c r="AZ4" s="107"/>
+      <c r="BA4" s="107"/>
+      <c r="BB4" s="107"/>
+      <c r="BC4" s="110"/>
     </row>
     <row r="5" spans="1:55" ht="13.5">
-      <c r="A5" s="102"/>
-      <c r="B5" s="103"/>
-      <c r="C5" s="105"/>
-      <c r="D5" s="102"/>
-      <c r="E5" s="103"/>
-      <c r="F5" s="103"/>
-      <c r="G5" s="103"/>
-      <c r="H5" s="103"/>
-      <c r="I5" s="103"/>
-      <c r="J5" s="103"/>
-      <c r="K5" s="103"/>
-      <c r="L5" s="103"/>
-      <c r="M5" s="103"/>
-      <c r="N5" s="103"/>
-      <c r="O5" s="103"/>
-      <c r="P5" s="103"/>
-      <c r="Q5" s="102"/>
-      <c r="R5" s="103"/>
-      <c r="S5" s="103"/>
-      <c r="T5" s="103"/>
-      <c r="U5" s="103"/>
-      <c r="V5" s="103"/>
-      <c r="W5" s="103"/>
-      <c r="X5" s="103"/>
-      <c r="Y5" s="103"/>
-      <c r="Z5" s="103"/>
-      <c r="AA5" s="103"/>
-      <c r="AB5" s="103"/>
-      <c r="AC5" s="103"/>
-      <c r="AD5" s="102"/>
-      <c r="AE5" s="103"/>
-      <c r="AF5" s="103"/>
-      <c r="AG5" s="103"/>
-      <c r="AH5" s="103"/>
-      <c r="AI5" s="103"/>
-      <c r="AJ5" s="103"/>
-      <c r="AK5" s="103"/>
-      <c r="AL5" s="103"/>
-      <c r="AM5" s="103"/>
-      <c r="AN5" s="103"/>
-      <c r="AO5" s="103"/>
-      <c r="AP5" s="105"/>
-      <c r="AQ5" s="103"/>
-      <c r="AR5" s="103"/>
-      <c r="AS5" s="103"/>
-      <c r="AT5" s="103"/>
-      <c r="AU5" s="103"/>
-      <c r="AV5" s="103"/>
-      <c r="AW5" s="103"/>
-      <c r="AX5" s="103"/>
-      <c r="AY5" s="103"/>
-      <c r="AZ5" s="103"/>
-      <c r="BA5" s="103"/>
-      <c r="BB5" s="103"/>
-      <c r="BC5" s="105"/>
+      <c r="A5" s="108"/>
+      <c r="B5" s="109"/>
+      <c r="C5" s="111"/>
+      <c r="D5" s="108"/>
+      <c r="E5" s="109"/>
+      <c r="F5" s="109"/>
+      <c r="G5" s="109"/>
+      <c r="H5" s="109"/>
+      <c r="I5" s="109"/>
+      <c r="J5" s="109"/>
+      <c r="K5" s="109"/>
+      <c r="L5" s="109"/>
+      <c r="M5" s="109"/>
+      <c r="N5" s="109"/>
+      <c r="O5" s="109"/>
+      <c r="P5" s="109"/>
+      <c r="Q5" s="108"/>
+      <c r="R5" s="109"/>
+      <c r="S5" s="109"/>
+      <c r="T5" s="109"/>
+      <c r="U5" s="109"/>
+      <c r="V5" s="109"/>
+      <c r="W5" s="109"/>
+      <c r="X5" s="109"/>
+      <c r="Y5" s="109"/>
+      <c r="Z5" s="109"/>
+      <c r="AA5" s="109"/>
+      <c r="AB5" s="109"/>
+      <c r="AC5" s="109"/>
+      <c r="AD5" s="108"/>
+      <c r="AE5" s="109"/>
+      <c r="AF5" s="109"/>
+      <c r="AG5" s="109"/>
+      <c r="AH5" s="109"/>
+      <c r="AI5" s="109"/>
+      <c r="AJ5" s="109"/>
+      <c r="AK5" s="109"/>
+      <c r="AL5" s="109"/>
+      <c r="AM5" s="109"/>
+      <c r="AN5" s="109"/>
+      <c r="AO5" s="109"/>
+      <c r="AP5" s="111"/>
+      <c r="AQ5" s="109"/>
+      <c r="AR5" s="109"/>
+      <c r="AS5" s="109"/>
+      <c r="AT5" s="109"/>
+      <c r="AU5" s="109"/>
+      <c r="AV5" s="109"/>
+      <c r="AW5" s="109"/>
+      <c r="AX5" s="109"/>
+      <c r="AY5" s="109"/>
+      <c r="AZ5" s="109"/>
+      <c r="BA5" s="109"/>
+      <c r="BB5" s="109"/>
+      <c r="BC5" s="111"/>
     </row>
     <row r="6" spans="1:55" ht="13.5">
-      <c r="A6" s="106"/>
-      <c r="B6" s="107"/>
-      <c r="C6" s="108"/>
+      <c r="A6" s="124"/>
+      <c r="B6" s="125"/>
+      <c r="C6" s="126"/>
       <c r="D6" s="29"/>
       <c r="E6" s="30"/>
       <c r="F6" s="30"/>
@@ -17258,9 +17697,9 @@
       <c r="BC6" s="31"/>
     </row>
     <row r="7" spans="1:55" ht="13.5">
-      <c r="A7" s="91"/>
-      <c r="B7" s="92"/>
-      <c r="C7" s="93"/>
+      <c r="A7" s="115"/>
+      <c r="B7" s="116"/>
+      <c r="C7" s="117"/>
       <c r="D7" s="32"/>
       <c r="Q7" s="32"/>
       <c r="AD7" s="32"/>
@@ -17268,9 +17707,9 @@
       <c r="BC7" s="33"/>
     </row>
     <row r="8" spans="1:55" ht="13.5">
-      <c r="A8" s="91"/>
-      <c r="B8" s="92"/>
-      <c r="C8" s="93"/>
+      <c r="A8" s="115"/>
+      <c r="B8" s="116"/>
+      <c r="C8" s="117"/>
       <c r="D8" s="32"/>
       <c r="Q8" s="32"/>
       <c r="AD8" s="32"/>
@@ -17278,9 +17717,9 @@
       <c r="BC8" s="33"/>
     </row>
     <row r="9" spans="1:55" ht="13.5">
-      <c r="A9" s="91"/>
-      <c r="B9" s="92"/>
-      <c r="C9" s="93"/>
+      <c r="A9" s="115"/>
+      <c r="B9" s="116"/>
+      <c r="C9" s="117"/>
       <c r="D9" s="32"/>
       <c r="Q9" s="32"/>
       <c r="AD9" s="32"/>
@@ -17288,9 +17727,9 @@
       <c r="BC9" s="33"/>
     </row>
     <row r="10" spans="1:55" ht="13.5">
-      <c r="A10" s="91"/>
-      <c r="B10" s="92"/>
-      <c r="C10" s="93"/>
+      <c r="A10" s="115"/>
+      <c r="B10" s="116"/>
+      <c r="C10" s="117"/>
       <c r="D10" s="32"/>
       <c r="Q10" s="32"/>
       <c r="AD10" s="32"/>
@@ -17298,9 +17737,9 @@
       <c r="BC10" s="33"/>
     </row>
     <row r="11" spans="1:55" ht="13.5">
-      <c r="A11" s="91"/>
-      <c r="B11" s="92"/>
-      <c r="C11" s="93"/>
+      <c r="A11" s="115"/>
+      <c r="B11" s="116"/>
+      <c r="C11" s="117"/>
       <c r="D11" s="32"/>
       <c r="Q11" s="32"/>
       <c r="AD11" s="32"/>
@@ -17308,9 +17747,9 @@
       <c r="BC11" s="33"/>
     </row>
     <row r="12" spans="1:55" ht="13.5">
-      <c r="A12" s="91"/>
-      <c r="B12" s="92"/>
-      <c r="C12" s="93"/>
+      <c r="A12" s="115"/>
+      <c r="B12" s="116"/>
+      <c r="C12" s="117"/>
       <c r="D12" s="32"/>
       <c r="Q12" s="32"/>
       <c r="AD12" s="32"/>
@@ -17318,9 +17757,9 @@
       <c r="BC12" s="33"/>
     </row>
     <row r="13" spans="1:55" ht="13.5">
-      <c r="A13" s="91"/>
-      <c r="B13" s="92"/>
-      <c r="C13" s="93"/>
+      <c r="A13" s="115"/>
+      <c r="B13" s="116"/>
+      <c r="C13" s="117"/>
       <c r="D13" s="32"/>
       <c r="Q13" s="32"/>
       <c r="AD13" s="32"/>
@@ -17328,9 +17767,9 @@
       <c r="BC13" s="33"/>
     </row>
     <row r="14" spans="1:55" ht="13.5">
-      <c r="A14" s="91"/>
-      <c r="B14" s="92"/>
-      <c r="C14" s="93"/>
+      <c r="A14" s="115"/>
+      <c r="B14" s="116"/>
+      <c r="C14" s="117"/>
       <c r="D14" s="32"/>
       <c r="Q14" s="32"/>
       <c r="AD14" s="32"/>
@@ -17338,9 +17777,9 @@
       <c r="BC14" s="33"/>
     </row>
     <row r="15" spans="1:55" ht="13.5">
-      <c r="A15" s="91"/>
-      <c r="B15" s="92"/>
-      <c r="C15" s="93"/>
+      <c r="A15" s="115"/>
+      <c r="B15" s="116"/>
+      <c r="C15" s="117"/>
       <c r="D15" s="32"/>
       <c r="Q15" s="32"/>
       <c r="AD15" s="32"/>
@@ -17348,9 +17787,9 @@
       <c r="BC15" s="33"/>
     </row>
     <row r="16" spans="1:55" ht="13.5">
-      <c r="A16" s="91"/>
-      <c r="B16" s="92"/>
-      <c r="C16" s="93"/>
+      <c r="A16" s="115"/>
+      <c r="B16" s="116"/>
+      <c r="C16" s="117"/>
       <c r="D16" s="32"/>
       <c r="Q16" s="32"/>
       <c r="AD16" s="32"/>
@@ -17358,9 +17797,9 @@
       <c r="BC16" s="33"/>
     </row>
     <row r="17" spans="1:55" ht="13.5">
-      <c r="A17" s="91"/>
-      <c r="B17" s="92"/>
-      <c r="C17" s="93"/>
+      <c r="A17" s="115"/>
+      <c r="B17" s="116"/>
+      <c r="C17" s="117"/>
       <c r="D17" s="32"/>
       <c r="Q17" s="32"/>
       <c r="AD17" s="32"/>
@@ -17368,9 +17807,9 @@
       <c r="BC17" s="33"/>
     </row>
     <row r="18" spans="1:55" ht="13.5">
-      <c r="A18" s="91"/>
-      <c r="B18" s="92"/>
-      <c r="C18" s="93"/>
+      <c r="A18" s="115"/>
+      <c r="B18" s="116"/>
+      <c r="C18" s="117"/>
       <c r="D18" s="32"/>
       <c r="Q18" s="32"/>
       <c r="AD18" s="32"/>
@@ -17378,9 +17817,9 @@
       <c r="BC18" s="33"/>
     </row>
     <row r="19" spans="1:55" ht="13.5">
-      <c r="A19" s="91"/>
-      <c r="B19" s="92"/>
-      <c r="C19" s="93"/>
+      <c r="A19" s="115"/>
+      <c r="B19" s="116"/>
+      <c r="C19" s="117"/>
       <c r="D19" s="32"/>
       <c r="Q19" s="32"/>
       <c r="AD19" s="32"/>
@@ -17388,9 +17827,9 @@
       <c r="BC19" s="33"/>
     </row>
     <row r="20" spans="1:55" ht="13.5">
-      <c r="A20" s="91"/>
-      <c r="B20" s="92"/>
-      <c r="C20" s="93"/>
+      <c r="A20" s="115"/>
+      <c r="B20" s="116"/>
+      <c r="C20" s="117"/>
       <c r="D20" s="32"/>
       <c r="Q20" s="32"/>
       <c r="AD20" s="32"/>
@@ -17398,9 +17837,9 @@
       <c r="BC20" s="33"/>
     </row>
     <row r="21" spans="1:55" ht="13.5">
-      <c r="A21" s="91"/>
-      <c r="B21" s="92"/>
-      <c r="C21" s="93"/>
+      <c r="A21" s="115"/>
+      <c r="B21" s="116"/>
+      <c r="C21" s="117"/>
       <c r="D21" s="32"/>
       <c r="Q21" s="32"/>
       <c r="AD21" s="32"/>
@@ -17408,9 +17847,9 @@
       <c r="BC21" s="33"/>
     </row>
     <row r="22" spans="1:55" ht="13.5">
-      <c r="A22" s="91"/>
-      <c r="B22" s="92"/>
-      <c r="C22" s="93"/>
+      <c r="A22" s="115"/>
+      <c r="B22" s="116"/>
+      <c r="C22" s="117"/>
       <c r="D22" s="32"/>
       <c r="Q22" s="32"/>
       <c r="AD22" s="32"/>
@@ -17418,9 +17857,9 @@
       <c r="BC22" s="33"/>
     </row>
     <row r="23" spans="1:55" ht="13.5">
-      <c r="A23" s="91"/>
-      <c r="B23" s="92"/>
-      <c r="C23" s="93"/>
+      <c r="A23" s="115"/>
+      <c r="B23" s="116"/>
+      <c r="C23" s="117"/>
       <c r="D23" s="32"/>
       <c r="Q23" s="32"/>
       <c r="AD23" s="32"/>
@@ -17428,9 +17867,9 @@
       <c r="BC23" s="33"/>
     </row>
     <row r="24" spans="1:55" ht="13.5">
-      <c r="A24" s="91"/>
-      <c r="B24" s="92"/>
-      <c r="C24" s="93"/>
+      <c r="A24" s="115"/>
+      <c r="B24" s="116"/>
+      <c r="C24" s="117"/>
       <c r="D24" s="32"/>
       <c r="Q24" s="32"/>
       <c r="AD24" s="32"/>
@@ -17438,9 +17877,9 @@
       <c r="BC24" s="33"/>
     </row>
     <row r="25" spans="1:55" ht="13.5">
-      <c r="A25" s="91"/>
-      <c r="B25" s="92"/>
-      <c r="C25" s="93"/>
+      <c r="A25" s="115"/>
+      <c r="B25" s="116"/>
+      <c r="C25" s="117"/>
       <c r="D25" s="32"/>
       <c r="Q25" s="32"/>
       <c r="AD25" s="32"/>
@@ -17448,9 +17887,9 @@
       <c r="BC25" s="33"/>
     </row>
     <row r="26" spans="1:55" ht="13.5">
-      <c r="A26" s="91"/>
-      <c r="B26" s="92"/>
-      <c r="C26" s="93"/>
+      <c r="A26" s="115"/>
+      <c r="B26" s="116"/>
+      <c r="C26" s="117"/>
       <c r="D26" s="32"/>
       <c r="Q26" s="32"/>
       <c r="AD26" s="32"/>
@@ -17458,9 +17897,9 @@
       <c r="BC26" s="33"/>
     </row>
     <row r="27" spans="1:55" ht="13.5">
-      <c r="A27" s="91"/>
-      <c r="B27" s="92"/>
-      <c r="C27" s="93"/>
+      <c r="A27" s="115"/>
+      <c r="B27" s="116"/>
+      <c r="C27" s="117"/>
       <c r="D27" s="32"/>
       <c r="Q27" s="32"/>
       <c r="AD27" s="32"/>
@@ -17468,9 +17907,9 @@
       <c r="BC27" s="33"/>
     </row>
     <row r="28" spans="1:55" ht="13.5">
-      <c r="A28" s="91"/>
-      <c r="B28" s="92"/>
-      <c r="C28" s="93"/>
+      <c r="A28" s="115"/>
+      <c r="B28" s="116"/>
+      <c r="C28" s="117"/>
       <c r="D28" s="32"/>
       <c r="Q28" s="32"/>
       <c r="AD28" s="32"/>
@@ -17478,9 +17917,9 @@
       <c r="BC28" s="33"/>
     </row>
     <row r="29" spans="1:55" ht="13.5">
-      <c r="A29" s="94"/>
-      <c r="B29" s="95"/>
-      <c r="C29" s="96"/>
+      <c r="A29" s="118"/>
+      <c r="B29" s="119"/>
+      <c r="C29" s="120"/>
       <c r="D29" s="32"/>
       <c r="Q29" s="32"/>
       <c r="AD29" s="32"/>
@@ -17488,9 +17927,9 @@
       <c r="BC29" s="33"/>
     </row>
     <row r="30" spans="1:55" ht="13.5">
-      <c r="A30" s="94"/>
-      <c r="B30" s="95"/>
-      <c r="C30" s="96"/>
+      <c r="A30" s="118"/>
+      <c r="B30" s="119"/>
+      <c r="C30" s="120"/>
       <c r="D30" s="32"/>
       <c r="Q30" s="32"/>
       <c r="AD30" s="32"/>
@@ -17498,9 +17937,9 @@
       <c r="BC30" s="33"/>
     </row>
     <row r="31" spans="1:55" ht="13.5">
-      <c r="A31" s="94"/>
-      <c r="B31" s="95"/>
-      <c r="C31" s="96"/>
+      <c r="A31" s="118"/>
+      <c r="B31" s="119"/>
+      <c r="C31" s="120"/>
       <c r="D31" s="32"/>
       <c r="Q31" s="32"/>
       <c r="AD31" s="32"/>
@@ -17508,9 +17947,9 @@
       <c r="BC31" s="33"/>
     </row>
     <row r="32" spans="1:55" ht="13.5">
-      <c r="A32" s="94"/>
-      <c r="B32" s="95"/>
-      <c r="C32" s="96"/>
+      <c r="A32" s="118"/>
+      <c r="B32" s="119"/>
+      <c r="C32" s="120"/>
       <c r="D32" s="32"/>
       <c r="Q32" s="32"/>
       <c r="AD32" s="32"/>
@@ -17518,9 +17957,9 @@
       <c r="BC32" s="33"/>
     </row>
     <row r="33" spans="1:55" ht="13.5">
-      <c r="A33" s="94"/>
-      <c r="B33" s="95"/>
-      <c r="C33" s="96"/>
+      <c r="A33" s="118"/>
+      <c r="B33" s="119"/>
+      <c r="C33" s="120"/>
       <c r="D33" s="32"/>
       <c r="Q33" s="32"/>
       <c r="AD33" s="32"/>
@@ -17528,9 +17967,9 @@
       <c r="BC33" s="33"/>
     </row>
     <row r="34" spans="1:55" ht="13.5">
-      <c r="A34" s="94"/>
-      <c r="B34" s="95"/>
-      <c r="C34" s="96"/>
+      <c r="A34" s="118"/>
+      <c r="B34" s="119"/>
+      <c r="C34" s="120"/>
       <c r="D34" s="32"/>
       <c r="Q34" s="32"/>
       <c r="AD34" s="32"/>
@@ -17538,9 +17977,9 @@
       <c r="BC34" s="33"/>
     </row>
     <row r="35" spans="1:55" ht="13.5">
-      <c r="A35" s="94"/>
-      <c r="B35" s="95"/>
-      <c r="C35" s="96"/>
+      <c r="A35" s="118"/>
+      <c r="B35" s="119"/>
+      <c r="C35" s="120"/>
       <c r="D35" s="32"/>
       <c r="Q35" s="32"/>
       <c r="AD35" s="32"/>
@@ -17548,9 +17987,9 @@
       <c r="BC35" s="33"/>
     </row>
     <row r="36" spans="1:55" ht="13.5">
-      <c r="A36" s="94"/>
-      <c r="B36" s="95"/>
-      <c r="C36" s="96"/>
+      <c r="A36" s="118"/>
+      <c r="B36" s="119"/>
+      <c r="C36" s="120"/>
       <c r="D36" s="32"/>
       <c r="Q36" s="32"/>
       <c r="AD36" s="32"/>
@@ -17558,9 +17997,9 @@
       <c r="BC36" s="33"/>
     </row>
     <row r="37" spans="1:55" ht="13.5">
-      <c r="A37" s="94"/>
-      <c r="B37" s="95"/>
-      <c r="C37" s="96"/>
+      <c r="A37" s="118"/>
+      <c r="B37" s="119"/>
+      <c r="C37" s="120"/>
       <c r="D37" s="32"/>
       <c r="Q37" s="32"/>
       <c r="AD37" s="32"/>
@@ -17568,9 +18007,9 @@
       <c r="BC37" s="33"/>
     </row>
     <row r="38" spans="1:55" ht="13.5">
-      <c r="A38" s="94"/>
-      <c r="B38" s="95"/>
-      <c r="C38" s="96"/>
+      <c r="A38" s="118"/>
+      <c r="B38" s="119"/>
+      <c r="C38" s="120"/>
       <c r="D38" s="32"/>
       <c r="Q38" s="32"/>
       <c r="AD38" s="32"/>
@@ -17578,9 +18017,9 @@
       <c r="BC38" s="33"/>
     </row>
     <row r="39" spans="1:55" ht="13.5">
-      <c r="A39" s="94"/>
-      <c r="B39" s="95"/>
-      <c r="C39" s="96"/>
+      <c r="A39" s="118"/>
+      <c r="B39" s="119"/>
+      <c r="C39" s="120"/>
       <c r="D39" s="32"/>
       <c r="Q39" s="32"/>
       <c r="AD39" s="32"/>
@@ -17588,9 +18027,9 @@
       <c r="BC39" s="33"/>
     </row>
     <row r="40" spans="1:55" ht="13.5">
-      <c r="A40" s="97"/>
-      <c r="B40" s="98"/>
-      <c r="C40" s="99"/>
+      <c r="A40" s="121"/>
+      <c r="B40" s="122"/>
+      <c r="C40" s="123"/>
       <c r="D40" s="34"/>
       <c r="E40" s="35"/>
       <c r="F40" s="35"/>
@@ -17707,138 +18146,138 @@
       <c r="C42" s="38"/>
     </row>
     <row r="45" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A45" s="109" t="s">
+      <c r="A45" s="94" t="s">
         <v>104</v>
       </c>
-      <c r="B45" s="110"/>
-      <c r="C45" s="110"/>
-      <c r="D45" s="110"/>
-      <c r="E45" s="110"/>
-      <c r="F45" s="111"/>
-      <c r="G45" s="115" t="s">
+      <c r="B45" s="95"/>
+      <c r="C45" s="95"/>
+      <c r="D45" s="95"/>
+      <c r="E45" s="95"/>
+      <c r="F45" s="96"/>
+      <c r="G45" s="100" t="s">
         <v>105</v>
       </c>
-      <c r="H45" s="116"/>
-      <c r="I45" s="116"/>
-      <c r="J45" s="116"/>
-      <c r="K45" s="116"/>
-      <c r="L45" s="116"/>
-      <c r="M45" s="116"/>
-      <c r="N45" s="117"/>
-      <c r="O45" s="115" t="s">
+      <c r="H45" s="101"/>
+      <c r="I45" s="101"/>
+      <c r="J45" s="101"/>
+      <c r="K45" s="101"/>
+      <c r="L45" s="101"/>
+      <c r="M45" s="101"/>
+      <c r="N45" s="102"/>
+      <c r="O45" s="100" t="s">
         <v>106</v>
       </c>
-      <c r="P45" s="116"/>
-      <c r="Q45" s="116"/>
-      <c r="R45" s="116"/>
-      <c r="S45" s="116"/>
-      <c r="T45" s="116"/>
-      <c r="U45" s="116"/>
-      <c r="V45" s="116"/>
-      <c r="W45" s="116"/>
-      <c r="X45" s="116"/>
-      <c r="Y45" s="116"/>
-      <c r="Z45" s="116"/>
-      <c r="AA45" s="116"/>
-      <c r="AB45" s="116"/>
-      <c r="AC45" s="116"/>
-      <c r="AD45" s="116"/>
-      <c r="AE45" s="117"/>
-      <c r="AF45" s="115" t="s">
+      <c r="P45" s="101"/>
+      <c r="Q45" s="101"/>
+      <c r="R45" s="101"/>
+      <c r="S45" s="101"/>
+      <c r="T45" s="101"/>
+      <c r="U45" s="101"/>
+      <c r="V45" s="101"/>
+      <c r="W45" s="101"/>
+      <c r="X45" s="101"/>
+      <c r="Y45" s="101"/>
+      <c r="Z45" s="101"/>
+      <c r="AA45" s="101"/>
+      <c r="AB45" s="101"/>
+      <c r="AC45" s="101"/>
+      <c r="AD45" s="101"/>
+      <c r="AE45" s="102"/>
+      <c r="AF45" s="100" t="s">
         <v>107</v>
       </c>
-      <c r="AG45" s="116"/>
-      <c r="AH45" s="116"/>
-      <c r="AI45" s="117"/>
-      <c r="AJ45" s="118" t="s">
-        <v>152</v>
-      </c>
-      <c r="AK45" s="119"/>
-      <c r="AL45" s="119"/>
-      <c r="AM45" s="119"/>
-      <c r="AN45" s="119"/>
-      <c r="AO45" s="119"/>
-      <c r="AP45" s="119"/>
-      <c r="AQ45" s="120"/>
-      <c r="AR45" s="115" t="s">
+      <c r="AG45" s="101"/>
+      <c r="AH45" s="101"/>
+      <c r="AI45" s="102"/>
+      <c r="AJ45" s="103" t="s">
+        <v>151</v>
+      </c>
+      <c r="AK45" s="104"/>
+      <c r="AL45" s="104"/>
+      <c r="AM45" s="104"/>
+      <c r="AN45" s="104"/>
+      <c r="AO45" s="104"/>
+      <c r="AP45" s="104"/>
+      <c r="AQ45" s="105"/>
+      <c r="AR45" s="100" t="s">
         <v>108</v>
       </c>
-      <c r="AS45" s="116"/>
-      <c r="AT45" s="116"/>
-      <c r="AU45" s="117"/>
-      <c r="AV45" s="121">
+      <c r="AS45" s="101"/>
+      <c r="AT45" s="101"/>
+      <c r="AU45" s="102"/>
+      <c r="AV45" s="112">
         <v>45814</v>
       </c>
-      <c r="AW45" s="122"/>
-      <c r="AX45" s="122"/>
-      <c r="AY45" s="122"/>
-      <c r="AZ45" s="122"/>
-      <c r="BA45" s="122"/>
-      <c r="BB45" s="122"/>
-      <c r="BC45" s="123"/>
+      <c r="AW45" s="113"/>
+      <c r="AX45" s="113"/>
+      <c r="AY45" s="113"/>
+      <c r="AZ45" s="113"/>
+      <c r="BA45" s="113"/>
+      <c r="BB45" s="113"/>
+      <c r="BC45" s="114"/>
     </row>
     <row r="46" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A46" s="112"/>
-      <c r="B46" s="113"/>
-      <c r="C46" s="113"/>
-      <c r="D46" s="113"/>
-      <c r="E46" s="113"/>
-      <c r="F46" s="114"/>
-      <c r="G46" s="118" t="s">
+      <c r="A46" s="97"/>
+      <c r="B46" s="98"/>
+      <c r="C46" s="98"/>
+      <c r="D46" s="98"/>
+      <c r="E46" s="98"/>
+      <c r="F46" s="99"/>
+      <c r="G46" s="103" t="s">
         <v>125</v>
       </c>
-      <c r="H46" s="119"/>
-      <c r="I46" s="119"/>
-      <c r="J46" s="119"/>
-      <c r="K46" s="119"/>
-      <c r="L46" s="119"/>
-      <c r="M46" s="119"/>
-      <c r="N46" s="120"/>
-      <c r="O46" s="118"/>
-      <c r="P46" s="119"/>
-      <c r="Q46" s="119"/>
-      <c r="R46" s="119"/>
-      <c r="S46" s="119"/>
-      <c r="T46" s="119"/>
-      <c r="U46" s="119"/>
-      <c r="V46" s="119"/>
-      <c r="W46" s="119"/>
-      <c r="X46" s="119"/>
-      <c r="Y46" s="119"/>
-      <c r="Z46" s="119"/>
-      <c r="AA46" s="119"/>
-      <c r="AB46" s="119"/>
-      <c r="AC46" s="119"/>
-      <c r="AD46" s="119"/>
-      <c r="AE46" s="120"/>
-      <c r="AF46" s="112" t="s">
+      <c r="H46" s="104"/>
+      <c r="I46" s="104"/>
+      <c r="J46" s="104"/>
+      <c r="K46" s="104"/>
+      <c r="L46" s="104"/>
+      <c r="M46" s="104"/>
+      <c r="N46" s="105"/>
+      <c r="O46" s="103"/>
+      <c r="P46" s="104"/>
+      <c r="Q46" s="104"/>
+      <c r="R46" s="104"/>
+      <c r="S46" s="104"/>
+      <c r="T46" s="104"/>
+      <c r="U46" s="104"/>
+      <c r="V46" s="104"/>
+      <c r="W46" s="104"/>
+      <c r="X46" s="104"/>
+      <c r="Y46" s="104"/>
+      <c r="Z46" s="104"/>
+      <c r="AA46" s="104"/>
+      <c r="AB46" s="104"/>
+      <c r="AC46" s="104"/>
+      <c r="AD46" s="104"/>
+      <c r="AE46" s="105"/>
+      <c r="AF46" s="97" t="s">
         <v>109</v>
       </c>
-      <c r="AG46" s="113"/>
-      <c r="AH46" s="113"/>
-      <c r="AI46" s="114"/>
-      <c r="AJ46" s="118"/>
-      <c r="AK46" s="119"/>
-      <c r="AL46" s="119"/>
-      <c r="AM46" s="119"/>
-      <c r="AN46" s="119"/>
-      <c r="AO46" s="119"/>
-      <c r="AP46" s="119"/>
-      <c r="AQ46" s="120"/>
-      <c r="AR46" s="112" t="s">
+      <c r="AG46" s="98"/>
+      <c r="AH46" s="98"/>
+      <c r="AI46" s="99"/>
+      <c r="AJ46" s="103"/>
+      <c r="AK46" s="104"/>
+      <c r="AL46" s="104"/>
+      <c r="AM46" s="104"/>
+      <c r="AN46" s="104"/>
+      <c r="AO46" s="104"/>
+      <c r="AP46" s="104"/>
+      <c r="AQ46" s="105"/>
+      <c r="AR46" s="97" t="s">
         <v>110</v>
       </c>
-      <c r="AS46" s="113"/>
-      <c r="AT46" s="113"/>
-      <c r="AU46" s="114"/>
-      <c r="AV46" s="121"/>
-      <c r="AW46" s="122"/>
-      <c r="AX46" s="122"/>
-      <c r="AY46" s="122"/>
-      <c r="AZ46" s="122"/>
-      <c r="BA46" s="122"/>
-      <c r="BB46" s="122"/>
-      <c r="BC46" s="123"/>
+      <c r="AS46" s="98"/>
+      <c r="AT46" s="98"/>
+      <c r="AU46" s="99"/>
+      <c r="AV46" s="112"/>
+      <c r="AW46" s="113"/>
+      <c r="AX46" s="113"/>
+      <c r="AY46" s="113"/>
+      <c r="AZ46" s="113"/>
+      <c r="BA46" s="113"/>
+      <c r="BB46" s="113"/>
+      <c r="BC46" s="114"/>
     </row>
     <row r="47" spans="1:55" ht="14.25" customHeight="1">
       <c r="A47" s="27"/>
@@ -17898,129 +18337,129 @@
       <c r="BC47" s="28"/>
     </row>
     <row r="48" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A48" s="100" t="s">
+      <c r="A48" s="106" t="s">
         <v>111</v>
       </c>
-      <c r="B48" s="101"/>
-      <c r="C48" s="104"/>
-      <c r="D48" s="100" t="s">
+      <c r="B48" s="107"/>
+      <c r="C48" s="110"/>
+      <c r="D48" s="106" t="s">
         <v>113</v>
       </c>
-      <c r="E48" s="101"/>
-      <c r="F48" s="101"/>
-      <c r="G48" s="101"/>
-      <c r="H48" s="101"/>
-      <c r="I48" s="101"/>
-      <c r="J48" s="101"/>
-      <c r="K48" s="101"/>
-      <c r="L48" s="101"/>
-      <c r="M48" s="101"/>
-      <c r="N48" s="101"/>
-      <c r="O48" s="101"/>
-      <c r="P48" s="101"/>
-      <c r="Q48" s="100" t="s">
+      <c r="E48" s="107"/>
+      <c r="F48" s="107"/>
+      <c r="G48" s="107"/>
+      <c r="H48" s="107"/>
+      <c r="I48" s="107"/>
+      <c r="J48" s="107"/>
+      <c r="K48" s="107"/>
+      <c r="L48" s="107"/>
+      <c r="M48" s="107"/>
+      <c r="N48" s="107"/>
+      <c r="O48" s="107"/>
+      <c r="P48" s="107"/>
+      <c r="Q48" s="106" t="s">
         <v>112</v>
       </c>
-      <c r="R48" s="101"/>
-      <c r="S48" s="101"/>
-      <c r="T48" s="101"/>
-      <c r="U48" s="101"/>
-      <c r="V48" s="101"/>
-      <c r="W48" s="101"/>
-      <c r="X48" s="101"/>
-      <c r="Y48" s="101"/>
-      <c r="Z48" s="101"/>
-      <c r="AA48" s="101"/>
-      <c r="AB48" s="101"/>
-      <c r="AC48" s="101"/>
-      <c r="AD48" s="100"/>
-      <c r="AE48" s="101"/>
-      <c r="AF48" s="101"/>
-      <c r="AG48" s="101"/>
-      <c r="AH48" s="101"/>
-      <c r="AI48" s="101"/>
-      <c r="AJ48" s="101"/>
-      <c r="AK48" s="101"/>
-      <c r="AL48" s="101"/>
-      <c r="AM48" s="101"/>
-      <c r="AN48" s="101"/>
-      <c r="AO48" s="101"/>
-      <c r="AP48" s="104"/>
-      <c r="AQ48" s="101"/>
-      <c r="AR48" s="101"/>
-      <c r="AS48" s="101"/>
-      <c r="AT48" s="101"/>
-      <c r="AU48" s="101"/>
-      <c r="AV48" s="101"/>
-      <c r="AW48" s="101"/>
-      <c r="AX48" s="101"/>
-      <c r="AY48" s="101"/>
-      <c r="AZ48" s="101"/>
-      <c r="BA48" s="101"/>
-      <c r="BB48" s="101"/>
-      <c r="BC48" s="104"/>
+      <c r="R48" s="107"/>
+      <c r="S48" s="107"/>
+      <c r="T48" s="107"/>
+      <c r="U48" s="107"/>
+      <c r="V48" s="107"/>
+      <c r="W48" s="107"/>
+      <c r="X48" s="107"/>
+      <c r="Y48" s="107"/>
+      <c r="Z48" s="107"/>
+      <c r="AA48" s="107"/>
+      <c r="AB48" s="107"/>
+      <c r="AC48" s="107"/>
+      <c r="AD48" s="106"/>
+      <c r="AE48" s="107"/>
+      <c r="AF48" s="107"/>
+      <c r="AG48" s="107"/>
+      <c r="AH48" s="107"/>
+      <c r="AI48" s="107"/>
+      <c r="AJ48" s="107"/>
+      <c r="AK48" s="107"/>
+      <c r="AL48" s="107"/>
+      <c r="AM48" s="107"/>
+      <c r="AN48" s="107"/>
+      <c r="AO48" s="107"/>
+      <c r="AP48" s="110"/>
+      <c r="AQ48" s="107"/>
+      <c r="AR48" s="107"/>
+      <c r="AS48" s="107"/>
+      <c r="AT48" s="107"/>
+      <c r="AU48" s="107"/>
+      <c r="AV48" s="107"/>
+      <c r="AW48" s="107"/>
+      <c r="AX48" s="107"/>
+      <c r="AY48" s="107"/>
+      <c r="AZ48" s="107"/>
+      <c r="BA48" s="107"/>
+      <c r="BB48" s="107"/>
+      <c r="BC48" s="110"/>
     </row>
     <row r="49" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A49" s="102"/>
-      <c r="B49" s="103"/>
-      <c r="C49" s="105"/>
-      <c r="D49" s="102"/>
-      <c r="E49" s="103"/>
-      <c r="F49" s="103"/>
-      <c r="G49" s="103"/>
-      <c r="H49" s="103"/>
-      <c r="I49" s="103"/>
-      <c r="J49" s="103"/>
-      <c r="K49" s="103"/>
-      <c r="L49" s="103"/>
-      <c r="M49" s="103"/>
-      <c r="N49" s="103"/>
-      <c r="O49" s="103"/>
-      <c r="P49" s="103"/>
-      <c r="Q49" s="102"/>
-      <c r="R49" s="103"/>
-      <c r="S49" s="103"/>
-      <c r="T49" s="103"/>
-      <c r="U49" s="103"/>
-      <c r="V49" s="103"/>
-      <c r="W49" s="103"/>
-      <c r="X49" s="103"/>
-      <c r="Y49" s="103"/>
-      <c r="Z49" s="103"/>
-      <c r="AA49" s="103"/>
-      <c r="AB49" s="103"/>
-      <c r="AC49" s="103"/>
-      <c r="AD49" s="102"/>
-      <c r="AE49" s="103"/>
-      <c r="AF49" s="103"/>
-      <c r="AG49" s="103"/>
-      <c r="AH49" s="103"/>
-      <c r="AI49" s="103"/>
-      <c r="AJ49" s="103"/>
-      <c r="AK49" s="103"/>
-      <c r="AL49" s="103"/>
-      <c r="AM49" s="103"/>
-      <c r="AN49" s="103"/>
-      <c r="AO49" s="103"/>
-      <c r="AP49" s="105"/>
-      <c r="AQ49" s="103"/>
-      <c r="AR49" s="103"/>
-      <c r="AS49" s="103"/>
-      <c r="AT49" s="103"/>
-      <c r="AU49" s="103"/>
-      <c r="AV49" s="103"/>
-      <c r="AW49" s="103"/>
-      <c r="AX49" s="103"/>
-      <c r="AY49" s="103"/>
-      <c r="AZ49" s="103"/>
-      <c r="BA49" s="103"/>
-      <c r="BB49" s="103"/>
-      <c r="BC49" s="105"/>
+      <c r="A49" s="108"/>
+      <c r="B49" s="109"/>
+      <c r="C49" s="111"/>
+      <c r="D49" s="108"/>
+      <c r="E49" s="109"/>
+      <c r="F49" s="109"/>
+      <c r="G49" s="109"/>
+      <c r="H49" s="109"/>
+      <c r="I49" s="109"/>
+      <c r="J49" s="109"/>
+      <c r="K49" s="109"/>
+      <c r="L49" s="109"/>
+      <c r="M49" s="109"/>
+      <c r="N49" s="109"/>
+      <c r="O49" s="109"/>
+      <c r="P49" s="109"/>
+      <c r="Q49" s="108"/>
+      <c r="R49" s="109"/>
+      <c r="S49" s="109"/>
+      <c r="T49" s="109"/>
+      <c r="U49" s="109"/>
+      <c r="V49" s="109"/>
+      <c r="W49" s="109"/>
+      <c r="X49" s="109"/>
+      <c r="Y49" s="109"/>
+      <c r="Z49" s="109"/>
+      <c r="AA49" s="109"/>
+      <c r="AB49" s="109"/>
+      <c r="AC49" s="109"/>
+      <c r="AD49" s="108"/>
+      <c r="AE49" s="109"/>
+      <c r="AF49" s="109"/>
+      <c r="AG49" s="109"/>
+      <c r="AH49" s="109"/>
+      <c r="AI49" s="109"/>
+      <c r="AJ49" s="109"/>
+      <c r="AK49" s="109"/>
+      <c r="AL49" s="109"/>
+      <c r="AM49" s="109"/>
+      <c r="AN49" s="109"/>
+      <c r="AO49" s="109"/>
+      <c r="AP49" s="111"/>
+      <c r="AQ49" s="109"/>
+      <c r="AR49" s="109"/>
+      <c r="AS49" s="109"/>
+      <c r="AT49" s="109"/>
+      <c r="AU49" s="109"/>
+      <c r="AV49" s="109"/>
+      <c r="AW49" s="109"/>
+      <c r="AX49" s="109"/>
+      <c r="AY49" s="109"/>
+      <c r="AZ49" s="109"/>
+      <c r="BA49" s="109"/>
+      <c r="BB49" s="109"/>
+      <c r="BC49" s="111"/>
     </row>
     <row r="50" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A50" s="106"/>
-      <c r="B50" s="107"/>
-      <c r="C50" s="108"/>
+      <c r="A50" s="124"/>
+      <c r="B50" s="125"/>
+      <c r="C50" s="126"/>
       <c r="D50" s="29"/>
       <c r="E50" s="30"/>
       <c r="F50" s="30"/>
@@ -18075,9 +18514,9 @@
       <c r="BC50" s="31"/>
     </row>
     <row r="51" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A51" s="91"/>
-      <c r="B51" s="92"/>
-      <c r="C51" s="93"/>
+      <c r="A51" s="115"/>
+      <c r="B51" s="116"/>
+      <c r="C51" s="117"/>
       <c r="D51" s="32"/>
       <c r="Q51" s="32"/>
       <c r="AD51" s="32"/>
@@ -18085,9 +18524,9 @@
       <c r="BC51" s="33"/>
     </row>
     <row r="52" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A52" s="91"/>
-      <c r="B52" s="92"/>
-      <c r="C52" s="93"/>
+      <c r="A52" s="115"/>
+      <c r="B52" s="116"/>
+      <c r="C52" s="117"/>
       <c r="D52" s="32"/>
       <c r="Q52" s="32"/>
       <c r="AD52" s="32"/>
@@ -18095,9 +18534,9 @@
       <c r="BC52" s="33"/>
     </row>
     <row r="53" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A53" s="91"/>
-      <c r="B53" s="92"/>
-      <c r="C53" s="93"/>
+      <c r="A53" s="115"/>
+      <c r="B53" s="116"/>
+      <c r="C53" s="117"/>
       <c r="D53" s="32"/>
       <c r="Q53" s="32"/>
       <c r="AD53" s="32"/>
@@ -18105,9 +18544,9 @@
       <c r="BC53" s="33"/>
     </row>
     <row r="54" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A54" s="91"/>
-      <c r="B54" s="92"/>
-      <c r="C54" s="93"/>
+      <c r="A54" s="115"/>
+      <c r="B54" s="116"/>
+      <c r="C54" s="117"/>
       <c r="D54" s="32"/>
       <c r="Q54" s="32"/>
       <c r="AD54" s="32"/>
@@ -18115,9 +18554,9 @@
       <c r="BC54" s="33"/>
     </row>
     <row r="55" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A55" s="91"/>
-      <c r="B55" s="92"/>
-      <c r="C55" s="93"/>
+      <c r="A55" s="115"/>
+      <c r="B55" s="116"/>
+      <c r="C55" s="117"/>
       <c r="D55" s="32"/>
       <c r="Q55" s="32"/>
       <c r="AD55" s="32"/>
@@ -18125,9 +18564,9 @@
       <c r="BC55" s="33"/>
     </row>
     <row r="56" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A56" s="91"/>
-      <c r="B56" s="92"/>
-      <c r="C56" s="93"/>
+      <c r="A56" s="115"/>
+      <c r="B56" s="116"/>
+      <c r="C56" s="117"/>
       <c r="D56" s="32"/>
       <c r="Q56" s="32"/>
       <c r="AD56" s="32"/>
@@ -18135,9 +18574,9 @@
       <c r="BC56" s="33"/>
     </row>
     <row r="57" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A57" s="91"/>
-      <c r="B57" s="92"/>
-      <c r="C57" s="93"/>
+      <c r="A57" s="115"/>
+      <c r="B57" s="116"/>
+      <c r="C57" s="117"/>
       <c r="D57" s="32"/>
       <c r="Q57" s="32"/>
       <c r="AD57" s="32"/>
@@ -18145,9 +18584,9 @@
       <c r="BC57" s="33"/>
     </row>
     <row r="58" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A58" s="91"/>
-      <c r="B58" s="92"/>
-      <c r="C58" s="93"/>
+      <c r="A58" s="115"/>
+      <c r="B58" s="116"/>
+      <c r="C58" s="117"/>
       <c r="D58" s="32"/>
       <c r="Q58" s="32"/>
       <c r="AD58" s="32"/>
@@ -18155,9 +18594,9 @@
       <c r="BC58" s="33"/>
     </row>
     <row r="59" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A59" s="91"/>
-      <c r="B59" s="92"/>
-      <c r="C59" s="93"/>
+      <c r="A59" s="115"/>
+      <c r="B59" s="116"/>
+      <c r="C59" s="117"/>
       <c r="D59" s="32"/>
       <c r="Q59" s="32"/>
       <c r="AD59" s="32"/>
@@ -18165,9 +18604,9 @@
       <c r="BC59" s="33"/>
     </row>
     <row r="60" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A60" s="91"/>
-      <c r="B60" s="92"/>
-      <c r="C60" s="93"/>
+      <c r="A60" s="115"/>
+      <c r="B60" s="116"/>
+      <c r="C60" s="117"/>
       <c r="D60" s="32"/>
       <c r="Q60" s="32"/>
       <c r="AD60" s="32"/>
@@ -18175,9 +18614,9 @@
       <c r="BC60" s="33"/>
     </row>
     <row r="61" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A61" s="91"/>
-      <c r="B61" s="92"/>
-      <c r="C61" s="93"/>
+      <c r="A61" s="115"/>
+      <c r="B61" s="116"/>
+      <c r="C61" s="117"/>
       <c r="D61" s="32"/>
       <c r="Q61" s="32"/>
       <c r="AD61" s="32"/>
@@ -18185,9 +18624,9 @@
       <c r="BC61" s="33"/>
     </row>
     <row r="62" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A62" s="91"/>
-      <c r="B62" s="92"/>
-      <c r="C62" s="93"/>
+      <c r="A62" s="115"/>
+      <c r="B62" s="116"/>
+      <c r="C62" s="117"/>
       <c r="D62" s="32"/>
       <c r="Q62" s="32"/>
       <c r="AD62" s="32"/>
@@ -18195,46 +18634,46 @@
       <c r="BC62" s="33"/>
     </row>
     <row r="63" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A63" s="91"/>
-      <c r="B63" s="92"/>
-      <c r="C63" s="93"/>
-      <c r="D63" s="100" t="s">
+      <c r="A63" s="115"/>
+      <c r="B63" s="116"/>
+      <c r="C63" s="117"/>
+      <c r="D63" s="106" t="s">
         <v>114</v>
       </c>
-      <c r="E63" s="101"/>
-      <c r="F63" s="101"/>
-      <c r="G63" s="101"/>
-      <c r="H63" s="101"/>
-      <c r="I63" s="101"/>
-      <c r="J63" s="101"/>
-      <c r="K63" s="101"/>
-      <c r="L63" s="101"/>
-      <c r="M63" s="101"/>
-      <c r="N63" s="101"/>
-      <c r="O63" s="101"/>
-      <c r="P63" s="101"/>
+      <c r="E63" s="107"/>
+      <c r="F63" s="107"/>
+      <c r="G63" s="107"/>
+      <c r="H63" s="107"/>
+      <c r="I63" s="107"/>
+      <c r="J63" s="107"/>
+      <c r="K63" s="107"/>
+      <c r="L63" s="107"/>
+      <c r="M63" s="107"/>
+      <c r="N63" s="107"/>
+      <c r="O63" s="107"/>
+      <c r="P63" s="107"/>
       <c r="Q63" s="32"/>
       <c r="AD63" s="32"/>
       <c r="AP63" s="33"/>
       <c r="BC63" s="33"/>
     </row>
     <row r="64" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A64" s="91"/>
-      <c r="B64" s="92"/>
-      <c r="C64" s="93"/>
-      <c r="D64" s="102"/>
-      <c r="E64" s="103"/>
-      <c r="F64" s="103"/>
-      <c r="G64" s="103"/>
-      <c r="H64" s="103"/>
-      <c r="I64" s="103"/>
-      <c r="J64" s="103"/>
-      <c r="K64" s="103"/>
-      <c r="L64" s="103"/>
-      <c r="M64" s="103"/>
-      <c r="N64" s="103"/>
-      <c r="O64" s="103"/>
-      <c r="P64" s="103"/>
+      <c r="A64" s="115"/>
+      <c r="B64" s="116"/>
+      <c r="C64" s="117"/>
+      <c r="D64" s="108"/>
+      <c r="E64" s="109"/>
+      <c r="F64" s="109"/>
+      <c r="G64" s="109"/>
+      <c r="H64" s="109"/>
+      <c r="I64" s="109"/>
+      <c r="J64" s="109"/>
+      <c r="K64" s="109"/>
+      <c r="L64" s="109"/>
+      <c r="M64" s="109"/>
+      <c r="N64" s="109"/>
+      <c r="O64" s="109"/>
+      <c r="P64" s="109"/>
       <c r="Q64" s="32"/>
       <c r="AD64" s="32"/>
       <c r="AP64" s="33"/>
@@ -18247,9 +18686,9 @@
       <c r="BC64" s="33"/>
     </row>
     <row r="65" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A65" s="91"/>
-      <c r="B65" s="92"/>
-      <c r="C65" s="93"/>
+      <c r="A65" s="115"/>
+      <c r="B65" s="116"/>
+      <c r="C65" s="117"/>
       <c r="D65" s="32"/>
       <c r="Q65" s="32"/>
       <c r="AD65" s="32"/>
@@ -18263,9 +18702,9 @@
       <c r="BC65" s="33"/>
     </row>
     <row r="66" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A66" s="91"/>
-      <c r="B66" s="92"/>
-      <c r="C66" s="93"/>
+      <c r="A66" s="115"/>
+      <c r="B66" s="116"/>
+      <c r="C66" s="117"/>
       <c r="D66" s="32"/>
       <c r="Q66" s="32"/>
       <c r="AD66" s="32"/>
@@ -18273,9 +18712,9 @@
       <c r="BC66" s="33"/>
     </row>
     <row r="67" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A67" s="91"/>
-      <c r="B67" s="92"/>
-      <c r="C67" s="93"/>
+      <c r="A67" s="115"/>
+      <c r="B67" s="116"/>
+      <c r="C67" s="117"/>
       <c r="D67" s="32"/>
       <c r="Q67" s="32"/>
       <c r="AD67" s="32"/>
@@ -18283,9 +18722,9 @@
       <c r="BC67" s="33"/>
     </row>
     <row r="68" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A68" s="91"/>
-      <c r="B68" s="92"/>
-      <c r="C68" s="93"/>
+      <c r="A68" s="115"/>
+      <c r="B68" s="116"/>
+      <c r="C68" s="117"/>
       <c r="D68" s="32"/>
       <c r="Q68" s="32"/>
       <c r="AD68" s="32"/>
@@ -18293,9 +18732,9 @@
       <c r="BC68" s="33"/>
     </row>
     <row r="69" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A69" s="91"/>
-      <c r="B69" s="92"/>
-      <c r="C69" s="93"/>
+      <c r="A69" s="115"/>
+      <c r="B69" s="116"/>
+      <c r="C69" s="117"/>
       <c r="D69" s="32"/>
       <c r="Q69" s="32"/>
       <c r="AD69" s="32"/>
@@ -18303,9 +18742,9 @@
       <c r="BC69" s="33"/>
     </row>
     <row r="70" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A70" s="91"/>
-      <c r="B70" s="92"/>
-      <c r="C70" s="93"/>
+      <c r="A70" s="115"/>
+      <c r="B70" s="116"/>
+      <c r="C70" s="117"/>
       <c r="D70" s="32"/>
       <c r="Q70" s="32"/>
       <c r="AD70" s="32"/>
@@ -18313,9 +18752,9 @@
       <c r="BC70" s="33"/>
     </row>
     <row r="71" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A71" s="91"/>
-      <c r="B71" s="92"/>
-      <c r="C71" s="93"/>
+      <c r="A71" s="115"/>
+      <c r="B71" s="116"/>
+      <c r="C71" s="117"/>
       <c r="D71" s="32"/>
       <c r="Q71" s="32"/>
       <c r="AD71" s="32"/>
@@ -18329,9 +18768,9 @@
       <c r="BC71" s="33"/>
     </row>
     <row r="72" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A72" s="91"/>
-      <c r="B72" s="92"/>
-      <c r="C72" s="93"/>
+      <c r="A72" s="115"/>
+      <c r="B72" s="116"/>
+      <c r="C72" s="117"/>
       <c r="D72" s="32"/>
       <c r="Q72" s="32"/>
       <c r="AD72" s="32"/>
@@ -18339,9 +18778,9 @@
       <c r="BC72" s="33"/>
     </row>
     <row r="73" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A73" s="94"/>
-      <c r="B73" s="95"/>
-      <c r="C73" s="96"/>
+      <c r="A73" s="118"/>
+      <c r="B73" s="119"/>
+      <c r="C73" s="120"/>
       <c r="D73" s="32"/>
       <c r="Q73" s="32"/>
       <c r="AD73" s="32"/>
@@ -18349,9 +18788,9 @@
       <c r="BC73" s="33"/>
     </row>
     <row r="74" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A74" s="94"/>
-      <c r="B74" s="95"/>
-      <c r="C74" s="96"/>
+      <c r="A74" s="118"/>
+      <c r="B74" s="119"/>
+      <c r="C74" s="120"/>
       <c r="D74" s="32"/>
       <c r="Q74" s="32"/>
       <c r="AD74" s="32"/>
@@ -18359,9 +18798,9 @@
       <c r="BC74" s="33"/>
     </row>
     <row r="75" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A75" s="94"/>
-      <c r="B75" s="95"/>
-      <c r="C75" s="96"/>
+      <c r="A75" s="118"/>
+      <c r="B75" s="119"/>
+      <c r="C75" s="120"/>
       <c r="D75" s="32"/>
       <c r="Q75" s="32"/>
       <c r="AD75" s="32"/>
@@ -18369,9 +18808,9 @@
       <c r="BC75" s="33"/>
     </row>
     <row r="76" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A76" s="94"/>
-      <c r="B76" s="95"/>
-      <c r="C76" s="96"/>
+      <c r="A76" s="118"/>
+      <c r="B76" s="119"/>
+      <c r="C76" s="120"/>
       <c r="D76" s="32"/>
       <c r="Q76" s="32"/>
       <c r="AD76" s="32"/>
@@ -18379,9 +18818,9 @@
       <c r="BC76" s="33"/>
     </row>
     <row r="77" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A77" s="94"/>
-      <c r="B77" s="95"/>
-      <c r="C77" s="96"/>
+      <c r="A77" s="118"/>
+      <c r="B77" s="119"/>
+      <c r="C77" s="120"/>
       <c r="D77" s="32"/>
       <c r="Q77" s="32"/>
       <c r="AD77" s="32"/>
@@ -18389,9 +18828,9 @@
       <c r="BC77" s="33"/>
     </row>
     <row r="78" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A78" s="94"/>
-      <c r="B78" s="95"/>
-      <c r="C78" s="96"/>
+      <c r="A78" s="118"/>
+      <c r="B78" s="119"/>
+      <c r="C78" s="120"/>
       <c r="D78" s="32"/>
       <c r="Q78" s="32"/>
       <c r="AD78" s="32"/>
@@ -18399,9 +18838,9 @@
       <c r="BC78" s="33"/>
     </row>
     <row r="79" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A79" s="94"/>
-      <c r="B79" s="95"/>
-      <c r="C79" s="96"/>
+      <c r="A79" s="118"/>
+      <c r="B79" s="119"/>
+      <c r="C79" s="120"/>
       <c r="D79" s="32"/>
       <c r="Q79" s="32"/>
       <c r="AD79" s="32"/>
@@ -18409,9 +18848,9 @@
       <c r="BC79" s="33"/>
     </row>
     <row r="80" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A80" s="94"/>
-      <c r="B80" s="95"/>
-      <c r="C80" s="96"/>
+      <c r="A80" s="118"/>
+      <c r="B80" s="119"/>
+      <c r="C80" s="120"/>
       <c r="D80" s="32"/>
       <c r="Q80" s="32"/>
       <c r="AD80" s="32"/>
@@ -18419,9 +18858,9 @@
       <c r="BC80" s="33"/>
     </row>
     <row r="81" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A81" s="94"/>
-      <c r="B81" s="95"/>
-      <c r="C81" s="96"/>
+      <c r="A81" s="118"/>
+      <c r="B81" s="119"/>
+      <c r="C81" s="120"/>
       <c r="D81" s="32"/>
       <c r="Q81" s="32"/>
       <c r="AD81" s="32"/>
@@ -18435,9 +18874,9 @@
       <c r="BC81" s="33"/>
     </row>
     <row r="82" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A82" s="94"/>
-      <c r="B82" s="95"/>
-      <c r="C82" s="96"/>
+      <c r="A82" s="118"/>
+      <c r="B82" s="119"/>
+      <c r="C82" s="120"/>
       <c r="D82" s="32"/>
       <c r="Q82" s="32"/>
       <c r="AD82" s="32"/>
@@ -18445,9 +18884,9 @@
       <c r="BC82" s="33"/>
     </row>
     <row r="83" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A83" s="94"/>
-      <c r="B83" s="95"/>
-      <c r="C83" s="96"/>
+      <c r="A83" s="118"/>
+      <c r="B83" s="119"/>
+      <c r="C83" s="120"/>
       <c r="D83" s="32"/>
       <c r="Q83" s="32"/>
       <c r="AD83" s="32"/>
@@ -18455,9 +18894,9 @@
       <c r="BC83" s="33"/>
     </row>
     <row r="84" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A84" s="94"/>
-      <c r="B84" s="95"/>
-      <c r="C84" s="96"/>
+      <c r="A84" s="118"/>
+      <c r="B84" s="119"/>
+      <c r="C84" s="120"/>
       <c r="D84" s="32"/>
       <c r="Q84" s="32"/>
       <c r="AD84" s="32"/>
@@ -18465,9 +18904,9 @@
       <c r="BC84" s="33"/>
     </row>
     <row r="85" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A85" s="94"/>
-      <c r="B85" s="95"/>
-      <c r="C85" s="96"/>
+      <c r="A85" s="118"/>
+      <c r="B85" s="119"/>
+      <c r="C85" s="120"/>
       <c r="D85" s="32"/>
       <c r="Q85" s="32"/>
       <c r="AD85" s="32"/>
@@ -18475,9 +18914,9 @@
       <c r="BC85" s="33"/>
     </row>
     <row r="86" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A86" s="94"/>
-      <c r="B86" s="95"/>
-      <c r="C86" s="96"/>
+      <c r="A86" s="118"/>
+      <c r="B86" s="119"/>
+      <c r="C86" s="120"/>
       <c r="D86" s="32"/>
       <c r="Q86" s="32"/>
       <c r="AD86" s="32"/>
@@ -18485,9 +18924,9 @@
       <c r="BC86" s="33"/>
     </row>
     <row r="87" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A87" s="94"/>
-      <c r="B87" s="95"/>
-      <c r="C87" s="96"/>
+      <c r="A87" s="118"/>
+      <c r="B87" s="119"/>
+      <c r="C87" s="120"/>
       <c r="D87" s="32"/>
       <c r="Q87" s="32"/>
       <c r="AD87" s="32"/>
@@ -18495,9 +18934,9 @@
       <c r="BC87" s="33"/>
     </row>
     <row r="88" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A88" s="94"/>
-      <c r="B88" s="95"/>
-      <c r="C88" s="96"/>
+      <c r="A88" s="118"/>
+      <c r="B88" s="119"/>
+      <c r="C88" s="120"/>
       <c r="D88" s="32"/>
       <c r="Q88" s="32"/>
       <c r="AD88" s="32"/>
@@ -18505,9 +18944,9 @@
       <c r="BC88" s="33"/>
     </row>
     <row r="89" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A89" s="94"/>
-      <c r="B89" s="95"/>
-      <c r="C89" s="96"/>
+      <c r="A89" s="118"/>
+      <c r="B89" s="119"/>
+      <c r="C89" s="120"/>
       <c r="D89" s="32"/>
       <c r="Q89" s="32"/>
       <c r="AD89" s="32"/>
@@ -18515,9 +18954,9 @@
       <c r="BC89" s="33"/>
     </row>
     <row r="90" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A90" s="94"/>
-      <c r="B90" s="95"/>
-      <c r="C90" s="96"/>
+      <c r="A90" s="118"/>
+      <c r="B90" s="119"/>
+      <c r="C90" s="120"/>
       <c r="D90" s="32"/>
       <c r="Q90" s="32"/>
       <c r="AD90" s="32"/>
@@ -18525,9 +18964,9 @@
       <c r="BC90" s="33"/>
     </row>
     <row r="91" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A91" s="94"/>
-      <c r="B91" s="95"/>
-      <c r="C91" s="96"/>
+      <c r="A91" s="118"/>
+      <c r="B91" s="119"/>
+      <c r="C91" s="120"/>
       <c r="D91" s="32"/>
       <c r="Q91" s="32"/>
       <c r="AD91" s="32"/>
@@ -18541,9 +18980,9 @@
       <c r="BC91" s="33"/>
     </row>
     <row r="92" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A92" s="94"/>
-      <c r="B92" s="95"/>
-      <c r="C92" s="96"/>
+      <c r="A92" s="118"/>
+      <c r="B92" s="119"/>
+      <c r="C92" s="120"/>
       <c r="D92" s="32"/>
       <c r="Q92" s="32"/>
       <c r="AD92" s="32"/>
@@ -18557,9 +18996,9 @@
       <c r="BC92" s="33"/>
     </row>
     <row r="93" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A93" s="94"/>
-      <c r="B93" s="95"/>
-      <c r="C93" s="96"/>
+      <c r="A93" s="118"/>
+      <c r="B93" s="119"/>
+      <c r="C93" s="120"/>
       <c r="D93" s="32"/>
       <c r="Q93" s="32"/>
       <c r="AD93" s="32"/>
@@ -18573,9 +19012,9 @@
       <c r="BC93" s="33"/>
     </row>
     <row r="94" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A94" s="94"/>
-      <c r="B94" s="95"/>
-      <c r="C94" s="96"/>
+      <c r="A94" s="118"/>
+      <c r="B94" s="119"/>
+      <c r="C94" s="120"/>
       <c r="D94" s="32"/>
       <c r="Q94" s="32"/>
       <c r="AD94" s="32"/>
@@ -18589,9 +19028,9 @@
       <c r="BC94" s="33"/>
     </row>
     <row r="95" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A95" s="94"/>
-      <c r="B95" s="95"/>
-      <c r="C95" s="96"/>
+      <c r="A95" s="118"/>
+      <c r="B95" s="119"/>
+      <c r="C95" s="120"/>
       <c r="D95" s="32"/>
       <c r="Q95" s="32"/>
       <c r="AD95" s="32"/>
@@ -18600,14 +19039,14 @@
         <v>115</v>
       </c>
       <c r="AR95" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="BC95" s="33"/>
     </row>
     <row r="96" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A96" s="97"/>
-      <c r="B96" s="98"/>
-      <c r="C96" s="99"/>
+      <c r="A96" s="121"/>
+      <c r="B96" s="122"/>
+      <c r="C96" s="123"/>
       <c r="D96" s="34"/>
       <c r="E96" s="35"/>
       <c r="F96" s="35"/>
@@ -18663,29 +19102,12 @@
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="A1:F2"/>
-    <mergeCell ref="G1:N1"/>
-    <mergeCell ref="O1:AE1"/>
-    <mergeCell ref="AF1:AI1"/>
-    <mergeCell ref="AJ1:AQ1"/>
-    <mergeCell ref="Q4:AC5"/>
-    <mergeCell ref="AD4:AP5"/>
-    <mergeCell ref="AQ4:BC5"/>
-    <mergeCell ref="AR45:AU45"/>
-    <mergeCell ref="AV45:BC45"/>
-    <mergeCell ref="AV1:BC1"/>
-    <mergeCell ref="G2:N2"/>
-    <mergeCell ref="O2:AE2"/>
-    <mergeCell ref="AF2:AI2"/>
-    <mergeCell ref="AJ2:AQ2"/>
-    <mergeCell ref="AR2:AU2"/>
-    <mergeCell ref="AV2:BC2"/>
-    <mergeCell ref="AR1:AU1"/>
-    <mergeCell ref="A13:C28"/>
-    <mergeCell ref="A29:C40"/>
-    <mergeCell ref="A6:C12"/>
-    <mergeCell ref="A4:C5"/>
-    <mergeCell ref="D4:P5"/>
+    <mergeCell ref="A57:C72"/>
+    <mergeCell ref="A73:C96"/>
+    <mergeCell ref="D63:P64"/>
+    <mergeCell ref="A48:C49"/>
+    <mergeCell ref="D48:P49"/>
+    <mergeCell ref="A50:C56"/>
     <mergeCell ref="A45:F46"/>
     <mergeCell ref="G45:N45"/>
     <mergeCell ref="O45:AE45"/>
@@ -18700,12 +19122,29 @@
     <mergeCell ref="AQ48:BC49"/>
     <mergeCell ref="AR46:AU46"/>
     <mergeCell ref="AV46:BC46"/>
-    <mergeCell ref="A57:C72"/>
-    <mergeCell ref="A73:C96"/>
-    <mergeCell ref="D63:P64"/>
-    <mergeCell ref="A48:C49"/>
-    <mergeCell ref="D48:P49"/>
-    <mergeCell ref="A50:C56"/>
+    <mergeCell ref="A13:C28"/>
+    <mergeCell ref="A29:C40"/>
+    <mergeCell ref="A6:C12"/>
+    <mergeCell ref="A4:C5"/>
+    <mergeCell ref="D4:P5"/>
+    <mergeCell ref="AV1:BC1"/>
+    <mergeCell ref="G2:N2"/>
+    <mergeCell ref="O2:AE2"/>
+    <mergeCell ref="AF2:AI2"/>
+    <mergeCell ref="AJ2:AQ2"/>
+    <mergeCell ref="AR2:AU2"/>
+    <mergeCell ref="AV2:BC2"/>
+    <mergeCell ref="AR1:AU1"/>
+    <mergeCell ref="Q4:AC5"/>
+    <mergeCell ref="AD4:AP5"/>
+    <mergeCell ref="AQ4:BC5"/>
+    <mergeCell ref="AR45:AU45"/>
+    <mergeCell ref="AV45:BC45"/>
+    <mergeCell ref="A1:F2"/>
+    <mergeCell ref="G1:N1"/>
+    <mergeCell ref="O1:AE1"/>
+    <mergeCell ref="AF1:AI1"/>
+    <mergeCell ref="AJ1:AQ1"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -18716,12 +19155,12 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52AE6612-F953-40BE-B3DB-193722671E9C}">
-  <sheetPr>
+  <sheetPr codeName="Sheet3">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:AG28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
@@ -18734,7 +19173,7 @@
   <sheetData>
     <row r="1" spans="1:33">
       <c r="A1" s="64" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B1" s="64"/>
       <c r="C1" s="64"/>
@@ -18771,94 +19210,94 @@
     </row>
     <row r="2" spans="1:33">
       <c r="A2" s="64"/>
-      <c r="B2" s="125">
+      <c r="B2" s="79">
         <v>1</v>
       </c>
-      <c r="C2" s="125">
+      <c r="C2" s="79">
         <v>2</v>
       </c>
-      <c r="D2" s="125">
+      <c r="D2" s="79">
         <v>3</v>
       </c>
-      <c r="E2" s="125">
+      <c r="E2" s="79">
         <v>4</v>
       </c>
-      <c r="F2" s="125">
+      <c r="F2" s="79">
         <v>5</v>
       </c>
-      <c r="G2" s="125">
+      <c r="G2" s="79">
         <v>6</v>
       </c>
-      <c r="H2" s="125">
+      <c r="H2" s="79">
         <v>7</v>
       </c>
-      <c r="I2" s="125">
+      <c r="I2" s="79">
         <v>8</v>
       </c>
-      <c r="J2" s="125">
+      <c r="J2" s="79">
         <v>9</v>
       </c>
-      <c r="K2" s="125">
+      <c r="K2" s="79">
         <v>10</v>
       </c>
-      <c r="L2" s="125">
+      <c r="L2" s="79">
         <v>11</v>
       </c>
-      <c r="M2" s="125">
+      <c r="M2" s="79">
         <v>12</v>
       </c>
-      <c r="N2" s="125">
+      <c r="N2" s="79">
         <v>13</v>
       </c>
-      <c r="O2" s="125">
+      <c r="O2" s="79">
         <v>14</v>
       </c>
-      <c r="P2" s="125">
+      <c r="P2" s="79">
         <v>15</v>
       </c>
-      <c r="Q2" s="125">
+      <c r="Q2" s="79">
         <v>16</v>
       </c>
-      <c r="R2" s="125">
+      <c r="R2" s="79">
         <v>17</v>
       </c>
-      <c r="S2" s="125">
+      <c r="S2" s="79">
         <v>18</v>
       </c>
-      <c r="T2" s="125">
+      <c r="T2" s="79">
         <v>19</v>
       </c>
-      <c r="U2" s="125">
+      <c r="U2" s="79">
         <v>20</v>
       </c>
-      <c r="V2" s="125">
+      <c r="V2" s="79">
         <v>21</v>
       </c>
-      <c r="W2" s="125">
+      <c r="W2" s="79">
         <v>22</v>
       </c>
-      <c r="X2" s="125">
+      <c r="X2" s="79">
         <v>23</v>
       </c>
-      <c r="Y2" s="125">
+      <c r="Y2" s="79">
         <v>24</v>
       </c>
-      <c r="Z2" s="125">
+      <c r="Z2" s="79">
         <v>25</v>
       </c>
-      <c r="AA2" s="125">
+      <c r="AA2" s="79">
         <v>26</v>
       </c>
-      <c r="AB2" s="125">
+      <c r="AB2" s="79">
         <v>27</v>
       </c>
-      <c r="AC2" s="125">
+      <c r="AC2" s="79">
         <v>28</v>
       </c>
-      <c r="AD2" s="125">
+      <c r="AD2" s="79">
         <v>29</v>
       </c>
-      <c r="AE2" s="125">
+      <c r="AE2" s="79">
         <v>30</v>
       </c>
       <c r="AF2" s="64"/>
@@ -18866,10 +19305,10 @@
     </row>
     <row r="3" spans="1:33">
       <c r="A3" s="64" t="s">
+        <v>157</v>
+      </c>
+      <c r="B3" s="64" t="s">
         <v>158</v>
-      </c>
-      <c r="B3" s="64" t="s">
-        <v>159</v>
       </c>
       <c r="C3" s="64"/>
       <c r="D3" s="64"/>
@@ -18905,10 +19344,10 @@
     </row>
     <row r="4" spans="1:33">
       <c r="A4" s="64" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B4" s="64" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C4" s="64"/>
       <c r="D4" s="64"/>
@@ -18944,7 +19383,7 @@
     </row>
     <row r="5" spans="1:33">
       <c r="A5" s="64" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B5" s="64"/>
       <c r="C5" s="64"/>
@@ -18955,8 +19394,8 @@
       <c r="H5" s="64"/>
       <c r="I5" s="64"/>
       <c r="J5" s="64"/>
-      <c r="K5" s="126" t="s">
-        <v>159</v>
+      <c r="K5" s="80" t="s">
+        <v>158</v>
       </c>
       <c r="L5" s="64"/>
       <c r="M5" s="64"/>
@@ -18983,7 +19422,7 @@
     </row>
     <row r="6" spans="1:33">
       <c r="A6" s="64" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B6" s="64"/>
       <c r="C6" s="64"/>
@@ -18994,8 +19433,8 @@
       <c r="H6" s="64"/>
       <c r="I6" s="64"/>
       <c r="J6" s="64"/>
-      <c r="K6" s="126" t="s">
-        <v>159</v>
+      <c r="K6" s="80" t="s">
+        <v>158</v>
       </c>
       <c r="L6" s="64"/>
       <c r="M6" s="64"/>
@@ -19057,16 +19496,16 @@
     </row>
     <row r="8" spans="1:33">
       <c r="A8" s="64" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B8" s="64"/>
       <c r="C8" s="64"/>
       <c r="D8" s="64"/>
       <c r="E8" s="64" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F8" s="64" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G8" s="64"/>
       <c r="H8" s="64"/>
@@ -19098,37 +19537,37 @@
     </row>
     <row r="9" spans="1:33">
       <c r="A9" s="64" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B9" s="64"/>
       <c r="C9" s="64"/>
       <c r="D9" s="64"/>
       <c r="E9" s="64"/>
-      <c r="F9" s="125" t="s">
-        <v>246</v>
+      <c r="F9" s="79" t="s">
+        <v>245</v>
       </c>
       <c r="G9" s="64"/>
-      <c r="H9" s="125" t="s">
-        <v>246</v>
+      <c r="H9" s="79" t="s">
+        <v>245</v>
       </c>
       <c r="I9" s="64"/>
-      <c r="J9" s="125" t="s">
-        <v>246</v>
-      </c>
-      <c r="K9" s="125" t="s">
-        <v>246</v>
-      </c>
-      <c r="L9" s="125" t="s">
-        <v>246</v>
-      </c>
-      <c r="M9" s="125" t="s">
-        <v>246</v>
-      </c>
-      <c r="N9" s="125"/>
-      <c r="O9" s="125"/>
-      <c r="P9" s="125"/>
-      <c r="Q9" s="125"/>
-      <c r="R9" s="125"/>
+      <c r="J9" s="79" t="s">
+        <v>245</v>
+      </c>
+      <c r="K9" s="79" t="s">
+        <v>245</v>
+      </c>
+      <c r="L9" s="79" t="s">
+        <v>245</v>
+      </c>
+      <c r="M9" s="79" t="s">
+        <v>245</v>
+      </c>
+      <c r="N9" s="79"/>
+      <c r="O9" s="79"/>
+      <c r="P9" s="79"/>
+      <c r="Q9" s="79"/>
+      <c r="R9" s="79"/>
       <c r="S9" s="64"/>
       <c r="T9" s="64"/>
       <c r="U9" s="64"/>
@@ -19147,49 +19586,49 @@
     </row>
     <row r="10" spans="1:33">
       <c r="A10" s="64" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B10" s="64"/>
       <c r="C10" s="64"/>
       <c r="D10" s="64"/>
       <c r="E10" s="64"/>
-      <c r="F10" s="125" t="s">
-        <v>246</v>
+      <c r="F10" s="79" t="s">
+        <v>245</v>
       </c>
       <c r="G10" s="64"/>
-      <c r="H10" s="125" t="s">
-        <v>246</v>
+      <c r="H10" s="79" t="s">
+        <v>245</v>
       </c>
       <c r="I10" s="64"/>
-      <c r="J10" s="125" t="s">
-        <v>246</v>
-      </c>
-      <c r="K10" s="125" t="s">
-        <v>246</v>
-      </c>
-      <c r="L10" s="125" t="s">
-        <v>246</v>
-      </c>
-      <c r="M10" s="125" t="s">
-        <v>246</v>
-      </c>
-      <c r="N10" s="125" t="s">
-        <v>246</v>
-      </c>
-      <c r="O10" s="125" t="s">
-        <v>246</v>
-      </c>
-      <c r="P10" s="125" t="s">
-        <v>246</v>
-      </c>
-      <c r="Q10" s="125" t="s">
-        <v>246</v>
-      </c>
-      <c r="R10" s="125" t="s">
-        <v>246</v>
-      </c>
-      <c r="S10" s="125" t="s">
-        <v>246</v>
+      <c r="J10" s="79" t="s">
+        <v>245</v>
+      </c>
+      <c r="K10" s="79" t="s">
+        <v>245</v>
+      </c>
+      <c r="L10" s="79" t="s">
+        <v>245</v>
+      </c>
+      <c r="M10" s="79" t="s">
+        <v>245</v>
+      </c>
+      <c r="N10" s="79" t="s">
+        <v>245</v>
+      </c>
+      <c r="O10" s="79" t="s">
+        <v>245</v>
+      </c>
+      <c r="P10" s="79" t="s">
+        <v>245</v>
+      </c>
+      <c r="Q10" s="79" t="s">
+        <v>245</v>
+      </c>
+      <c r="R10" s="79" t="s">
+        <v>245</v>
+      </c>
+      <c r="S10" s="79" t="s">
+        <v>245</v>
       </c>
       <c r="T10" s="64"/>
       <c r="U10" s="64"/>
@@ -19208,49 +19647,49 @@
     </row>
     <row r="11" spans="1:33">
       <c r="A11" s="64" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B11" s="64"/>
       <c r="C11" s="64"/>
       <c r="D11" s="64"/>
       <c r="E11" s="64"/>
-      <c r="F11" s="125" t="s">
-        <v>246</v>
+      <c r="F11" s="79" t="s">
+        <v>245</v>
       </c>
       <c r="G11" s="64"/>
-      <c r="H11" s="125" t="s">
-        <v>246</v>
+      <c r="H11" s="79" t="s">
+        <v>245</v>
       </c>
       <c r="I11" s="64"/>
-      <c r="J11" s="125" t="s">
-        <v>246</v>
-      </c>
-      <c r="K11" s="125" t="s">
-        <v>246</v>
-      </c>
-      <c r="L11" s="125" t="s">
-        <v>246</v>
-      </c>
-      <c r="M11" s="125" t="s">
-        <v>246</v>
-      </c>
-      <c r="N11" s="125" t="s">
-        <v>246</v>
-      </c>
-      <c r="O11" s="125" t="s">
-        <v>246</v>
-      </c>
-      <c r="P11" s="125" t="s">
-        <v>246</v>
-      </c>
-      <c r="Q11" s="125" t="s">
-        <v>246</v>
-      </c>
-      <c r="R11" s="125" t="s">
-        <v>246</v>
-      </c>
-      <c r="S11" s="125" t="s">
-        <v>246</v>
+      <c r="J11" s="79" t="s">
+        <v>245</v>
+      </c>
+      <c r="K11" s="79" t="s">
+        <v>245</v>
+      </c>
+      <c r="L11" s="79" t="s">
+        <v>245</v>
+      </c>
+      <c r="M11" s="79" t="s">
+        <v>245</v>
+      </c>
+      <c r="N11" s="79" t="s">
+        <v>245</v>
+      </c>
+      <c r="O11" s="79" t="s">
+        <v>245</v>
+      </c>
+      <c r="P11" s="79" t="s">
+        <v>245</v>
+      </c>
+      <c r="Q11" s="79" t="s">
+        <v>245</v>
+      </c>
+      <c r="R11" s="79" t="s">
+        <v>245</v>
+      </c>
+      <c r="S11" s="79" t="s">
+        <v>245</v>
       </c>
       <c r="T11" s="64"/>
       <c r="U11" s="64"/>
@@ -19294,7 +19733,7 @@
       <c r="X12" s="64"/>
       <c r="Y12" s="64"/>
       <c r="Z12" s="64" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AA12" s="64"/>
       <c r="AB12" s="64"/>
@@ -19306,7 +19745,7 @@
     </row>
     <row r="13" spans="1:33">
       <c r="A13" s="64" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B13" s="64"/>
       <c r="C13" s="64"/>
@@ -19327,7 +19766,7 @@
       <c r="R13" s="64"/>
       <c r="S13" s="64"/>
       <c r="T13" s="64" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="U13" s="64">
         <v>-6</v>
@@ -19337,14 +19776,14 @@
       <c r="X13" s="64"/>
       <c r="Y13" s="64"/>
       <c r="Z13" s="64" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AA13" s="64"/>
       <c r="AB13" s="64" t="s">
-        <v>245</v>
-      </c>
-      <c r="AC13" s="124" t="s">
-        <v>247</v>
+        <v>244</v>
+      </c>
+      <c r="AC13" s="78" t="s">
+        <v>246</v>
       </c>
       <c r="AD13" s="64"/>
       <c r="AE13" s="64"/>
@@ -19388,7 +19827,7 @@
     </row>
     <row r="15" spans="1:33">
       <c r="A15" s="64" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B15" s="64"/>
       <c r="C15" s="64"/>
@@ -19417,7 +19856,7 @@
       <c r="Z15" s="64"/>
       <c r="AA15" s="64"/>
       <c r="AB15" s="64" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AC15" s="64"/>
       <c r="AD15" s="64"/>
@@ -19427,7 +19866,7 @@
     </row>
     <row r="16" spans="1:33">
       <c r="A16" s="64" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B16" s="64"/>
       <c r="C16" s="64"/>
@@ -19456,7 +19895,7 @@
       <c r="Z16" s="64"/>
       <c r="AA16" s="64"/>
       <c r="AB16" s="64" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AC16" s="64"/>
       <c r="AD16" s="64"/>
@@ -19466,7 +19905,7 @@
     </row>
     <row r="17" spans="1:33">
       <c r="A17" s="64" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B17" s="64"/>
       <c r="C17" s="64"/>
@@ -19495,7 +19934,7 @@
       <c r="Z17" s="64"/>
       <c r="AA17" s="64"/>
       <c r="AB17" s="64" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AC17" s="64"/>
       <c r="AD17" s="64"/>
@@ -19540,7 +19979,7 @@
     </row>
     <row r="19" spans="1:33">
       <c r="A19" s="64" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B19" s="64"/>
       <c r="C19" s="64"/>
@@ -19569,7 +20008,7 @@
       <c r="Z19" s="64"/>
       <c r="AA19" s="64"/>
       <c r="AB19" s="64" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AC19" s="64"/>
       <c r="AD19" s="64"/>
@@ -19614,7 +20053,7 @@
     </row>
     <row r="21" spans="1:33">
       <c r="A21" s="64" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B21" s="64"/>
       <c r="C21" s="64"/>
@@ -19642,28 +20081,28 @@
       <c r="Y21" s="64"/>
       <c r="Z21" s="64"/>
       <c r="AA21" s="64"/>
-      <c r="AB21" s="125" t="s">
-        <v>246</v>
-      </c>
-      <c r="AC21" s="125" t="s">
-        <v>246</v>
-      </c>
-      <c r="AD21" s="125" t="s">
-        <v>246</v>
-      </c>
-      <c r="AE21" s="125" t="s">
-        <v>246</v>
-      </c>
-      <c r="AF21" s="125" t="s">
-        <v>246</v>
-      </c>
-      <c r="AG21" s="125" t="s">
-        <v>246</v>
+      <c r="AB21" s="79" t="s">
+        <v>245</v>
+      </c>
+      <c r="AC21" s="79" t="s">
+        <v>245</v>
+      </c>
+      <c r="AD21" s="79" t="s">
+        <v>245</v>
+      </c>
+      <c r="AE21" s="79" t="s">
+        <v>245</v>
+      </c>
+      <c r="AF21" s="79" t="s">
+        <v>245</v>
+      </c>
+      <c r="AG21" s="79" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="22" spans="1:33">
       <c r="A22" s="64" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B22" s="64"/>
       <c r="C22" s="64"/>
@@ -19691,23 +20130,23 @@
       <c r="Y22" s="64"/>
       <c r="Z22" s="64"/>
       <c r="AA22" s="64"/>
-      <c r="AB22" s="125" t="s">
-        <v>246</v>
-      </c>
-      <c r="AC22" s="125" t="s">
-        <v>246</v>
-      </c>
-      <c r="AD22" s="125" t="s">
-        <v>246</v>
-      </c>
-      <c r="AE22" s="125" t="s">
-        <v>246</v>
-      </c>
-      <c r="AF22" s="125" t="s">
-        <v>246</v>
-      </c>
-      <c r="AG22" s="125" t="s">
-        <v>246</v>
+      <c r="AB22" s="79" t="s">
+        <v>245</v>
+      </c>
+      <c r="AC22" s="79" t="s">
+        <v>245</v>
+      </c>
+      <c r="AD22" s="79" t="s">
+        <v>245</v>
+      </c>
+      <c r="AE22" s="79" t="s">
+        <v>245</v>
+      </c>
+      <c r="AF22" s="79" t="s">
+        <v>245</v>
+      </c>
+      <c r="AG22" s="79" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="23" spans="1:33">
@@ -19929,6 +20368,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48F05230-2FA2-4429-BD9D-BA18E0E9B0EE}">
+  <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -19942,16 +20382,16 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="14.25" thickBot="1"/>
     <row r="3" spans="1:8">
       <c r="B3" s="65" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C3" s="66">
         <v>1</v>
@@ -19959,29 +20399,29 @@
     </row>
     <row r="4" spans="1:8">
       <c r="B4" s="67" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C4" s="68">
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="B5" s="67" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C5" s="68">
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="14.25" thickBot="1">
       <c r="B6" s="69" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C6" s="70">
         <v>1</v>
@@ -19990,7 +20430,7 @@
     <row r="8" spans="1:8" ht="14.25" thickBot="1"/>
     <row r="9" spans="1:8">
       <c r="B9" s="65" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C9" s="66">
         <v>1</v>
@@ -19998,29 +20438,29 @@
     </row>
     <row r="10" spans="1:8">
       <c r="B10" s="67" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C10" s="68">
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="B11" s="67" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C11" s="68">
         <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="14.25" thickBot="1">
       <c r="B12" s="69" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C12" s="70">
         <v>1</v>
@@ -20028,18 +20468,18 @@
     </row>
     <row r="13" spans="1:8">
       <c r="H13" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="H15" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="19" spans="2:5" ht="14.25" thickBot="1"/>
     <row r="20" spans="2:5">
       <c r="B20" s="65" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C20" s="66">
         <v>1</v>
@@ -20047,29 +20487,29 @@
     </row>
     <row r="21" spans="2:5">
       <c r="B21" s="67" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C21" s="68">
         <v>1</v>
       </c>
       <c r="E21" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="22" spans="2:5">
       <c r="B22" s="67" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C22" s="68">
         <v>1</v>
       </c>
       <c r="E22" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="23" spans="2:5" ht="14.25" thickBot="1">
       <c r="B23" s="69" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C23" s="70">
         <v>1</v>
@@ -20077,22 +20517,22 @@
     </row>
     <row r="24" spans="2:5">
       <c r="E24" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="25" spans="2:5">
       <c r="C25" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="26" spans="2:5">
       <c r="C26" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="27" spans="2:5">
       <c r="C27" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
   </sheetData>
@@ -20105,7 +20545,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{364C05D2-C698-4939-9826-14C25C695399}">
-  <sheetPr>
+  <sheetPr codeName="Sheet5">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:F47"/>
@@ -20126,14 +20566,14 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="71" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B1" s="72"/>
       <c r="C1" s="71" t="s">
+        <v>182</v>
+      </c>
+      <c r="D1" s="71" t="s">
         <v>183</v>
-      </c>
-      <c r="D1" s="71" t="s">
-        <v>184</v>
       </c>
       <c r="E1" s="72"/>
       <c r="F1" s="72"/>
@@ -20143,7 +20583,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="71" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C2" s="74">
         <v>9</v>
@@ -20152,7 +20592,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="72" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F2" s="72"/>
     </row>
@@ -20161,7 +20601,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="72" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C3" s="72">
         <v>9</v>
@@ -20170,7 +20610,7 @@
         <v>2</v>
       </c>
       <c r="E3" s="72" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F3" s="72"/>
     </row>
@@ -20179,7 +20619,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="72" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C4" s="72">
         <v>9</v>
@@ -20188,7 +20628,7 @@
         <v>1</v>
       </c>
       <c r="E4" s="71" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F4" s="71"/>
     </row>
@@ -20197,7 +20637,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="72" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C5" s="72">
         <v>9</v>
@@ -20206,7 +20646,7 @@
         <v>10</v>
       </c>
       <c r="E5" s="71" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F5" s="71"/>
     </row>
@@ -20215,16 +20655,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="72" t="s">
+        <v>192</v>
+      </c>
+      <c r="C6" s="75" t="s">
         <v>193</v>
-      </c>
-      <c r="C6" s="75" t="s">
-        <v>194</v>
       </c>
       <c r="D6" s="72">
         <v>40</v>
       </c>
       <c r="E6" s="71" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F6" s="71"/>
     </row>
@@ -20233,7 +20673,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="72" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C7" s="72">
         <v>9</v>
@@ -20242,10 +20682,10 @@
         <v>4</v>
       </c>
       <c r="E7" s="77" t="s">
+        <v>196</v>
+      </c>
+      <c r="F7" s="71" t="s">
         <v>197</v>
-      </c>
-      <c r="F7" s="71" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -20253,7 +20693,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="77" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C8" s="72">
         <v>9</v>
@@ -20263,7 +20703,7 @@
       </c>
       <c r="E8" s="72"/>
       <c r="F8" s="71" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -20271,19 +20711,19 @@
         <v>8</v>
       </c>
       <c r="B9" s="71" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C9" s="75" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D9" s="72">
         <v>15</v>
       </c>
       <c r="E9" s="71" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F9" s="71" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -20291,7 +20731,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="71" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C10" s="72">
         <v>9</v>
@@ -20301,7 +20741,7 @@
       </c>
       <c r="E10" s="72"/>
       <c r="F10" s="71" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -20309,19 +20749,19 @@
         <v>10</v>
       </c>
       <c r="B11" s="71" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C11" s="75" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D11" s="72">
         <v>15</v>
       </c>
       <c r="E11" s="71" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F11" s="71" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -20329,7 +20769,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="71" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C12" s="72">
         <v>9</v>
@@ -20339,7 +20779,7 @@
       </c>
       <c r="E12" s="72"/>
       <c r="F12" s="71" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -20347,7 +20787,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="77" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C13" s="72">
         <v>9</v>
@@ -20357,7 +20797,7 @@
       </c>
       <c r="E13" s="72"/>
       <c r="F13" s="71" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -20365,29 +20805,29 @@
         <v>13</v>
       </c>
       <c r="B14" s="71" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C14" s="75" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D14" s="72">
         <v>17</v>
       </c>
       <c r="E14" s="71" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F14" s="71"/>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="71" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B17" s="72"/>
       <c r="C17" s="71" t="s">
+        <v>182</v>
+      </c>
+      <c r="D17" s="71" t="s">
         <v>183</v>
-      </c>
-      <c r="D17" s="71" t="s">
-        <v>184</v>
       </c>
       <c r="E17" s="72"/>
       <c r="F17" s="72"/>
@@ -20397,7 +20837,7 @@
         <v>1</v>
       </c>
       <c r="B18" s="71" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C18" s="74">
         <v>9</v>
@@ -20406,7 +20846,7 @@
         <v>1</v>
       </c>
       <c r="E18" s="72" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F18" s="72"/>
     </row>
@@ -20415,7 +20855,7 @@
         <v>2</v>
       </c>
       <c r="B19" s="71" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C19" s="72">
         <v>9</v>
@@ -20425,7 +20865,7 @@
       </c>
       <c r="E19" s="72"/>
       <c r="F19" s="71" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -20433,19 +20873,19 @@
         <v>3</v>
       </c>
       <c r="B20" s="71" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C20" s="75" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D20" s="72">
         <v>15</v>
       </c>
       <c r="E20" s="71" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F20" s="71" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -20453,7 +20893,7 @@
         <v>4</v>
       </c>
       <c r="B21" s="71" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C21" s="72">
         <v>9</v>
@@ -20463,7 +20903,7 @@
       </c>
       <c r="E21" s="72"/>
       <c r="F21" s="71" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -20471,19 +20911,19 @@
         <v>5</v>
       </c>
       <c r="B22" s="71" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C22" s="75" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D22" s="72">
         <v>15</v>
       </c>
       <c r="E22" s="71" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F22" s="71" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -20491,16 +20931,16 @@
         <v>6</v>
       </c>
       <c r="B23" s="71" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C23" s="75" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D23" s="72">
         <v>4</v>
       </c>
       <c r="E23" s="71" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F23" s="71"/>
     </row>
@@ -20509,7 +20949,7 @@
         <v>7</v>
       </c>
       <c r="B24" s="71" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C24" s="72">
         <v>9</v>
@@ -20518,10 +20958,10 @@
         <v>1</v>
       </c>
       <c r="E24" s="71" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F24" s="71" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -20529,7 +20969,7 @@
         <v>8</v>
       </c>
       <c r="B25" s="71" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C25" s="72">
         <v>9</v>
@@ -20538,10 +20978,10 @@
         <v>7</v>
       </c>
       <c r="E25" s="71" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F25" s="71" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -20549,19 +20989,19 @@
         <v>9</v>
       </c>
       <c r="B26" s="71" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C26" s="75" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D26" s="72">
         <v>30</v>
       </c>
       <c r="E26" s="71" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F26" s="71" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -20569,7 +21009,7 @@
         <v>10</v>
       </c>
       <c r="B27" s="71" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C27" s="72">
         <v>9</v>
@@ -20578,10 +21018,10 @@
         <v>10</v>
       </c>
       <c r="E27" s="71" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F27" s="71" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -20589,7 +21029,7 @@
         <v>11</v>
       </c>
       <c r="B28" s="71" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C28" s="72">
         <v>9</v>
@@ -20598,7 +21038,7 @@
         <v>1</v>
       </c>
       <c r="E28" s="71" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F28" s="71"/>
     </row>
@@ -20607,19 +21047,19 @@
         <v>12</v>
       </c>
       <c r="B29" s="71" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C29" s="75" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D29" s="76">
         <v>20</v>
       </c>
       <c r="E29" s="71" t="s">
+        <v>251</v>
+      </c>
+      <c r="F29" s="71" t="s">
         <v>252</v>
-      </c>
-      <c r="F29" s="71" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -20627,7 +21067,7 @@
         <v>13</v>
       </c>
       <c r="B30" s="71" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C30" s="72">
         <v>9</v>
@@ -20636,7 +21076,7 @@
         <v>1</v>
       </c>
       <c r="E30" s="71" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F30" s="71"/>
     </row>
@@ -20645,29 +21085,29 @@
         <v>14</v>
       </c>
       <c r="B31" s="71" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C31" s="75" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D31" s="72">
         <v>8</v>
       </c>
       <c r="E31" s="71" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F31" s="71"/>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="72" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B34" s="72"/>
       <c r="C34" s="71" t="s">
+        <v>182</v>
+      </c>
+      <c r="D34" s="71" t="s">
         <v>183</v>
-      </c>
-      <c r="D34" s="71" t="s">
-        <v>184</v>
       </c>
       <c r="E34" s="72"/>
       <c r="F34" s="72"/>
@@ -20677,7 +21117,7 @@
         <v>1</v>
       </c>
       <c r="B35" s="71" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C35" s="74">
         <v>9</v>
@@ -20686,7 +21126,7 @@
         <v>1</v>
       </c>
       <c r="E35" s="72" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F35" s="72"/>
     </row>
@@ -20695,7 +21135,7 @@
         <v>2</v>
       </c>
       <c r="B36" s="72" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C36" s="74">
         <v>9</v>
@@ -20704,7 +21144,7 @@
         <v>6</v>
       </c>
       <c r="E36" s="71" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F36" s="71"/>
     </row>
@@ -20713,7 +21153,7 @@
         <v>3</v>
       </c>
       <c r="B37" s="71" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C37" s="74">
         <v>9</v>
@@ -20722,7 +21162,7 @@
         <v>12</v>
       </c>
       <c r="E37" s="71" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F37" s="71"/>
     </row>
@@ -20731,7 +21171,7 @@
         <v>4</v>
       </c>
       <c r="B38" s="71" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C38" s="74">
         <v>9</v>
@@ -20740,7 +21180,7 @@
         <v>6</v>
       </c>
       <c r="E38" s="71" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F38" s="71"/>
     </row>
@@ -20749,7 +21189,7 @@
         <v>5</v>
       </c>
       <c r="B39" s="71" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C39" s="74">
         <v>9</v>
@@ -20758,7 +21198,7 @@
         <v>12</v>
       </c>
       <c r="E39" s="71" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F39" s="71"/>
     </row>
@@ -20767,7 +21207,7 @@
         <v>6</v>
       </c>
       <c r="B40" s="71" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C40" s="74">
         <v>9</v>
@@ -20776,7 +21216,7 @@
         <v>6</v>
       </c>
       <c r="E40" s="71" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F40" s="71"/>
     </row>
@@ -20785,7 +21225,7 @@
         <v>7</v>
       </c>
       <c r="B41" s="71" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C41" s="74">
         <v>9</v>
@@ -20794,7 +21234,7 @@
         <v>12</v>
       </c>
       <c r="E41" s="71" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F41" s="71"/>
     </row>
@@ -20803,29 +21243,29 @@
         <v>8</v>
       </c>
       <c r="B42" s="71" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C42" s="75" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D42" s="72">
         <v>65</v>
       </c>
       <c r="E42" s="71" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F42" s="71"/>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="71" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B45" s="72"/>
       <c r="C45" s="71" t="s">
+        <v>182</v>
+      </c>
+      <c r="D45" s="71" t="s">
         <v>183</v>
-      </c>
-      <c r="D45" s="71" t="s">
-        <v>184</v>
       </c>
       <c r="E45" s="72"/>
       <c r="F45" s="72"/>
@@ -20835,7 +21275,7 @@
         <v>1</v>
       </c>
       <c r="B46" s="71" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C46" s="74">
         <v>9</v>
@@ -20844,7 +21284,7 @@
         <v>1</v>
       </c>
       <c r="E46" s="72" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F46" s="72"/>
     </row>
@@ -20853,16 +21293,16 @@
         <v>2</v>
       </c>
       <c r="B47" s="71" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C47" s="75" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D47" s="74">
         <v>119</v>
       </c>
       <c r="E47" s="71" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F47" s="71"/>
     </row>
@@ -20876,6 +21316,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A787FDD9-CEBD-4A9C-80FE-0E245A10CDA7}">
+  <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:S35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -21036,7 +21477,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97420AAF-D3E0-435B-8240-AAA34C2F822D}">
-  <sheetPr>
+  <sheetPr codeName="Sheet7">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1"/>
@@ -21059,7 +21500,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9252281D-548E-4462-B5BF-37DF1747F4C2}">
-  <sheetPr>
+  <sheetPr codeName="Sheet8">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="F44:F48"/>
@@ -21108,7 +21549,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8ED2544B-8D98-45F6-AB64-2F366EC5A64E}">
-  <sheetPr>
+  <sheetPr codeName="Sheet9">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1"/>
